--- a/Entregas/Relatório de Acompanhamento Mensal de TCC - V05_2ºsemestre.xlsx
+++ b/Entregas/Relatório de Acompanhamento Mensal de TCC - V05_2ºsemestre.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Dropbox\Documentos\FSARENA\TCC\SrMartis\Entregas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\082150205\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F611AAB-78B8-491C-92A5-99EF2E7327AC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="818" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="818"/>
   </bookViews>
   <sheets>
     <sheet name="2º Sem - Agosto" sheetId="5" r:id="rId1"/>
@@ -60,7 +59,7 @@
     <definedName name="Texto9" localSheetId="2">'2º Sem - Outubro'!$B$31</definedName>
     <definedName name="Texto9" localSheetId="1">'2º Sem - Setembro'!$B$30</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -222,9 +221,6 @@
     <t>Eduardo Savino Gomes</t>
   </si>
   <si>
-    <t>Redução de disperdicio por excesso de produção.</t>
-  </si>
-  <si>
     <t>Levantamento Bibliográfico sobre Inteligência Arificia e Machine Learning</t>
   </si>
   <si>
@@ -245,11 +241,14 @@
   <si>
     <t>Os alunos compareceram a reunião e realizaram as atividades combinadas</t>
   </si>
+  <si>
+    <t>Otimização de processos e gestão de refeitórios com Machine Learning</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1049,38 +1048,68 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1088,25 +1117,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1117,6 +1128,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1139,6 +1153,24 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1146,6 +1178,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1163,23 +1198,32 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1219,51 +1263,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1786,13 +1785,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>121920</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1853,13 +1852,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>160020</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1924,9 +1923,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1991,9 +1990,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2052,15 +2051,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>45720</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>29</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>22860</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2119,15 +2118,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>45720</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2188,13 +2187,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>25</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2259,7 +2258,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -2322,13 +2321,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>25</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2393,7 +2392,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>39</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -2460,7 +2459,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -2523,13 +2522,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>39</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>41</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2594,9 +2593,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>42</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2657,13 +2656,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>49</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>51</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2728,7 +2727,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>52</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -2791,13 +2790,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>51</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>53</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2862,9 +2861,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>54</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2925,13 +2924,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>57</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2996,7 +2995,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>58</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -3059,13 +3058,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>57</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>59</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3130,9 +3129,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>60</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3267,13 +3266,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>43</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>45</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3338,7 +3337,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>46</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -3401,13 +3400,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>45</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>47</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3472,9 +3471,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>48</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3614,13 +3613,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>121920</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3681,13 +3680,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>160020</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3752,9 +3751,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3819,9 +3818,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3880,15 +3879,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>45720</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>29</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>22860</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3947,15 +3946,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>45720</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4016,13 +4015,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>25</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4087,7 +4086,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -4150,13 +4149,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>25</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4221,7 +4220,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>39</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -4288,7 +4287,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -4351,13 +4350,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>39</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>41</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4422,9 +4421,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>42</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4485,13 +4484,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>49</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>51</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4556,7 +4555,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>52</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -4619,13 +4618,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>51</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>53</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4690,9 +4689,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>54</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4753,13 +4752,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>57</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4824,7 +4823,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>58</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -4887,13 +4886,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>57</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>59</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4958,9 +4957,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>60</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5095,13 +5094,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>43</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>45</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5166,7 +5165,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>46</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -5229,13 +5228,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>45</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>47</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5300,9 +5299,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>48</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5442,13 +5441,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>121920</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5509,13 +5508,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>160020</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5580,9 +5579,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5647,9 +5646,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5708,15 +5707,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>45720</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>22860</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5775,15 +5774,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>45720</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5844,13 +5843,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5915,7 +5914,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -5978,13 +5977,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6049,7 +6048,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -6116,7 +6115,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>41</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -6179,13 +6178,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>40</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>42</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6250,9 +6249,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>43</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6313,13 +6312,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>50</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>52</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6384,7 +6383,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>53</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -6447,13 +6446,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>52</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>54</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6518,9 +6517,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6581,13 +6580,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>56</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>58</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6652,7 +6651,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>59</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -6715,13 +6714,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>58</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>60</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6786,9 +6785,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>61</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6923,13 +6922,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>44</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>46</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6994,9 +6993,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>47</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7057,13 +7056,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>46</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>48</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7128,9 +7127,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>49</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7270,13 +7269,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>121920</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7337,13 +7336,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>160020</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7408,9 +7407,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7475,9 +7474,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7536,15 +7535,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>45720</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>22860</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7603,15 +7602,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>45720</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7672,13 +7671,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7743,7 +7742,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -7806,13 +7805,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7877,9 +7876,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>39</xdr:row>
-          <xdr:rowOff>137160</xdr:rowOff>
+          <xdr:rowOff>133350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7944,7 +7943,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>41</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -8007,13 +8006,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>40</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>42</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8078,9 +8077,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>43</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8141,13 +8140,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>50</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>51</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8212,7 +8211,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>53</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -8275,13 +8274,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>52</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>54</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8346,9 +8345,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8409,11 +8408,11 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>56</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>57</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
@@ -8480,7 +8479,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>59</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -8543,13 +8542,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>58</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>60</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8614,9 +8613,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>61</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8751,13 +8750,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>44</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>45</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8822,7 +8821,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>47</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -8885,13 +8884,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>46</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>48</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8956,9 +8955,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>49</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9277,43 +9276,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B5:J84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="4.44140625" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" customWidth="1"/>
-    <col min="8" max="8" width="3.5546875" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="46" t="s">
+    <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-    </row>
-    <row r="6" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
+    </row>
+    <row r="6" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -9323,327 +9322,327 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="19"/>
-      <c r="D7" s="47" t="str">
+      <c r="D7" s="68" t="str">
         <f>Plan1!B5</f>
         <v>Agosto</v>
       </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C8" s="98" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="98"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="98"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-    </row>
-    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="98"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="98"/>
+    </row>
+    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
       <c r="G12" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="50">
+      <c r="H12" s="99">
         <v>82150171</v>
       </c>
-      <c r="I12" s="50"/>
-    </row>
-    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I12" s="99"/>
+    </row>
+    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
       <c r="G13" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="50">
+      <c r="H13" s="99">
         <v>82150205</v>
       </c>
-      <c r="I13" s="50"/>
-    </row>
-    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I13" s="99"/>
+    </row>
+    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
       <c r="G14" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="50">
+      <c r="H14" s="99">
         <v>82150320</v>
       </c>
-      <c r="I14" s="50"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I14" s="99"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
       <c r="E15" s="28"/>
       <c r="F15" s="28"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="51" t="s">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-    </row>
-    <row r="17" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="41" t="s">
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+    </row>
+    <row r="17" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="43" t="s">
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="44"/>
-      <c r="G18" s="42" t="s">
+      <c r="F18" s="80"/>
+      <c r="G18" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="42"/>
-      <c r="I18" s="45"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="81"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
       <c r="E19" s="14"/>
       <c r="F19" s="15"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="56"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="52"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="64"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="62"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
       <c r="E20" s="8"/>
       <c r="F20" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="56"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="52"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="64"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="62"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="56"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="52"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="64"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="62"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="56"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="54"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="64"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="91"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="92"/>
       <c r="E23" s="10"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="57"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="58" t="s">
+      <c r="G23" s="92"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="93"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="95"/>
       <c r="E24" s="12"/>
       <c r="F24" s="13"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="60"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="52"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
+      <c r="G24" s="95"/>
+      <c r="H24" s="95"/>
+      <c r="I24" s="96"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="62"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
       <c r="E25" s="8"/>
       <c r="F25" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="56"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="52"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="64"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="62"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="56"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="52"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="64"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="62"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="56"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="54"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="64"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="91"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="92"/>
       <c r="E28" s="10"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="57"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="93"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
       <c r="E29" s="8"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="56"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="52"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="64"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="62"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="56"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="52"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="64"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="62"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="56"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="52"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="64"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="62"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
       <c r="E32" s="8"/>
       <c r="F32" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="56"/>
-    </row>
-    <row r="33" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="61"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="64"/>
+    </row>
+    <row r="33" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="65"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="66"/>
       <c r="E33" s="17"/>
       <c r="F33" s="18"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="63"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="67"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -9653,19 +9652,19 @@
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="51" t="s">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="51"/>
-    </row>
-    <row r="36" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="76"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="76"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="76"/>
+    </row>
+    <row r="36" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
@@ -9675,470 +9674,470 @@
       <c r="H36" s="16"/>
       <c r="I36" s="16"/>
     </row>
-    <row r="37" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="41" t="s">
+    <row r="37" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="43" t="s">
+      <c r="C37" s="78"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="F37" s="44"/>
-      <c r="G37" s="42" t="s">
+      <c r="F37" s="80"/>
+      <c r="G37" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="H37" s="42"/>
-      <c r="I37" s="45"/>
-    </row>
-    <row r="38" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="71" t="s">
+      <c r="H37" s="78"/>
+      <c r="I37" s="81"/>
+    </row>
+    <row r="38" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="72"/>
-      <c r="D38" s="72"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="83"/>
       <c r="E38" s="14"/>
       <c r="F38" s="15"/>
-      <c r="G38" s="72"/>
-      <c r="H38" s="72"/>
-      <c r="I38" s="74"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B39" s="73"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
+      <c r="G38" s="83"/>
+      <c r="H38" s="83"/>
+      <c r="I38" s="86"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="84"/>
+      <c r="C39" s="85"/>
+      <c r="D39" s="85"/>
       <c r="E39" s="8"/>
       <c r="F39" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G39" s="49"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="75"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="73"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
+      <c r="G39" s="85"/>
+      <c r="H39" s="85"/>
+      <c r="I39" s="87"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="84"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="85"/>
       <c r="E40" s="8"/>
       <c r="F40" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="75"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="73"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
+      <c r="G40" s="85"/>
+      <c r="H40" s="85"/>
+      <c r="I40" s="87"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="84"/>
+      <c r="C41" s="85"/>
+      <c r="D41" s="85"/>
       <c r="E41" s="8"/>
       <c r="F41" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G41" s="49"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="75"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="73"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
+      <c r="G41" s="85"/>
+      <c r="H41" s="85"/>
+      <c r="I41" s="87"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="84"/>
+      <c r="C42" s="85"/>
+      <c r="D42" s="85"/>
       <c r="E42" s="8"/>
       <c r="F42" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="75"/>
-    </row>
-    <row r="43" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="73"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
+      <c r="G42" s="85"/>
+      <c r="H42" s="85"/>
+      <c r="I42" s="87"/>
+    </row>
+    <row r="43" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="84"/>
+      <c r="C43" s="85"/>
+      <c r="D43" s="85"/>
       <c r="E43" s="10"/>
       <c r="F43" s="11"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="75"/>
-    </row>
-    <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="73" t="s">
+      <c r="G43" s="85"/>
+      <c r="H43" s="85"/>
+      <c r="I43" s="87"/>
+    </row>
+    <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
+      <c r="C44" s="85"/>
+      <c r="D44" s="85"/>
       <c r="E44" s="6"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="75"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B45" s="73"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
+      <c r="G44" s="85"/>
+      <c r="H44" s="85"/>
+      <c r="I44" s="87"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="84"/>
+      <c r="C45" s="85"/>
+      <c r="D45" s="85"/>
       <c r="E45" s="8"/>
       <c r="F45" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G45" s="49"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="75"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="73"/>
-      <c r="C46" s="49"/>
-      <c r="D46" s="49"/>
+      <c r="G45" s="85"/>
+      <c r="H45" s="85"/>
+      <c r="I45" s="87"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="84"/>
+      <c r="C46" s="85"/>
+      <c r="D46" s="85"/>
       <c r="E46" s="8"/>
       <c r="F46" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G46" s="49"/>
-      <c r="H46" s="49"/>
-      <c r="I46" s="75"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="73"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="49"/>
+      <c r="G46" s="85"/>
+      <c r="H46" s="85"/>
+      <c r="I46" s="87"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="84"/>
+      <c r="C47" s="85"/>
+      <c r="D47" s="85"/>
       <c r="E47" s="8"/>
       <c r="F47" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G47" s="49"/>
-      <c r="H47" s="49"/>
-      <c r="I47" s="75"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="73"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="49"/>
+      <c r="G47" s="85"/>
+      <c r="H47" s="85"/>
+      <c r="I47" s="87"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="84"/>
+      <c r="C48" s="85"/>
+      <c r="D48" s="85"/>
       <c r="E48" s="8"/>
       <c r="F48" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G48" s="49"/>
-      <c r="H48" s="49"/>
-      <c r="I48" s="75"/>
-    </row>
-    <row r="49" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="73"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="49"/>
+      <c r="G48" s="85"/>
+      <c r="H48" s="85"/>
+      <c r="I48" s="87"/>
+    </row>
+    <row r="49" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="84"/>
+      <c r="C49" s="85"/>
+      <c r="D49" s="85"/>
       <c r="E49" s="10"/>
       <c r="F49" s="11"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="49"/>
-      <c r="I49" s="75"/>
-    </row>
-    <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="73" t="s">
+      <c r="G49" s="85"/>
+      <c r="H49" s="85"/>
+      <c r="I49" s="87"/>
+    </row>
+    <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="C50" s="49"/>
-      <c r="D50" s="49"/>
+      <c r="C50" s="85"/>
+      <c r="D50" s="85"/>
       <c r="E50" s="6"/>
       <c r="F50" s="7"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="75"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B51" s="73"/>
-      <c r="C51" s="49"/>
-      <c r="D51" s="49"/>
+      <c r="G50" s="85"/>
+      <c r="H50" s="85"/>
+      <c r="I50" s="87"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="84"/>
+      <c r="C51" s="85"/>
+      <c r="D51" s="85"/>
       <c r="E51" s="8"/>
       <c r="F51" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G51" s="49"/>
-      <c r="H51" s="49"/>
-      <c r="I51" s="75"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="73"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="49"/>
+      <c r="G51" s="85"/>
+      <c r="H51" s="85"/>
+      <c r="I51" s="87"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="84"/>
+      <c r="C52" s="85"/>
+      <c r="D52" s="85"/>
       <c r="E52" s="8"/>
       <c r="F52" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G52" s="49"/>
-      <c r="H52" s="49"/>
-      <c r="I52" s="75"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B53" s="73"/>
-      <c r="C53" s="49"/>
-      <c r="D53" s="49"/>
+      <c r="G52" s="85"/>
+      <c r="H52" s="85"/>
+      <c r="I52" s="87"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="84"/>
+      <c r="C53" s="85"/>
+      <c r="D53" s="85"/>
       <c r="E53" s="8"/>
       <c r="F53" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G53" s="49"/>
-      <c r="H53" s="49"/>
-      <c r="I53" s="75"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="73"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="49"/>
+      <c r="G53" s="85"/>
+      <c r="H53" s="85"/>
+      <c r="I53" s="87"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="84"/>
+      <c r="C54" s="85"/>
+      <c r="D54" s="85"/>
       <c r="E54" s="8"/>
       <c r="F54" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G54" s="49"/>
-      <c r="H54" s="49"/>
-      <c r="I54" s="75"/>
-    </row>
-    <row r="55" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="73"/>
-      <c r="C55" s="49"/>
-      <c r="D55" s="49"/>
+      <c r="G54" s="85"/>
+      <c r="H54" s="85"/>
+      <c r="I54" s="87"/>
+    </row>
+    <row r="55" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="84"/>
+      <c r="C55" s="85"/>
+      <c r="D55" s="85"/>
       <c r="E55" s="10"/>
       <c r="F55" s="11"/>
-      <c r="G55" s="49"/>
-      <c r="H55" s="49"/>
-      <c r="I55" s="75"/>
-    </row>
-    <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="73"/>
-      <c r="C56" s="49"/>
-      <c r="D56" s="49"/>
+      <c r="G55" s="85"/>
+      <c r="H55" s="85"/>
+      <c r="I55" s="87"/>
+    </row>
+    <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="84"/>
+      <c r="C56" s="85"/>
+      <c r="D56" s="85"/>
       <c r="E56" s="6"/>
       <c r="F56" s="7"/>
-      <c r="G56" s="49"/>
-      <c r="H56" s="49"/>
-      <c r="I56" s="75"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B57" s="73"/>
-      <c r="C57" s="49"/>
-      <c r="D57" s="49"/>
+      <c r="G56" s="85"/>
+      <c r="H56" s="85"/>
+      <c r="I56" s="87"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="84"/>
+      <c r="C57" s="85"/>
+      <c r="D57" s="85"/>
       <c r="E57" s="8"/>
       <c r="F57" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G57" s="49"/>
-      <c r="H57" s="49"/>
-      <c r="I57" s="75"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B58" s="73"/>
-      <c r="C58" s="49"/>
-      <c r="D58" s="49"/>
+      <c r="G57" s="85"/>
+      <c r="H57" s="85"/>
+      <c r="I57" s="87"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="84"/>
+      <c r="C58" s="85"/>
+      <c r="D58" s="85"/>
       <c r="E58" s="8"/>
       <c r="F58" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G58" s="49"/>
-      <c r="H58" s="49"/>
-      <c r="I58" s="75"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B59" s="73"/>
-      <c r="C59" s="49"/>
-      <c r="D59" s="49"/>
+      <c r="G58" s="85"/>
+      <c r="H58" s="85"/>
+      <c r="I58" s="87"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="84"/>
+      <c r="C59" s="85"/>
+      <c r="D59" s="85"/>
       <c r="E59" s="8"/>
       <c r="F59" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G59" s="49"/>
-      <c r="H59" s="49"/>
-      <c r="I59" s="75"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="73"/>
-      <c r="C60" s="49"/>
-      <c r="D60" s="49"/>
+      <c r="G59" s="85"/>
+      <c r="H59" s="85"/>
+      <c r="I59" s="87"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="84"/>
+      <c r="C60" s="85"/>
+      <c r="D60" s="85"/>
       <c r="E60" s="8"/>
       <c r="F60" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G60" s="49"/>
-      <c r="H60" s="49"/>
-      <c r="I60" s="75"/>
-    </row>
-    <row r="61" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="76"/>
-      <c r="C61" s="77"/>
-      <c r="D61" s="77"/>
+      <c r="G60" s="85"/>
+      <c r="H60" s="85"/>
+      <c r="I60" s="87"/>
+    </row>
+    <row r="61" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="88"/>
+      <c r="C61" s="89"/>
+      <c r="D61" s="89"/>
       <c r="E61" s="17"/>
       <c r="F61" s="18"/>
-      <c r="G61" s="77"/>
-      <c r="H61" s="77"/>
-      <c r="I61" s="78"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B63" s="51" t="s">
+      <c r="G61" s="89"/>
+      <c r="H61" s="89"/>
+      <c r="I61" s="90"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="51"/>
-      <c r="D63" s="51"/>
-      <c r="E63" s="51"/>
-      <c r="F63" s="51"/>
-      <c r="G63" s="51"/>
-      <c r="H63" s="51"/>
-      <c r="I63" s="51"/>
-    </row>
-    <row r="64" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B65" s="64" t="s">
+      <c r="C63" s="76"/>
+      <c r="D63" s="76"/>
+      <c r="E63" s="76"/>
+      <c r="F63" s="76"/>
+      <c r="G63" s="76"/>
+      <c r="H63" s="76"/>
+      <c r="I63" s="76"/>
+    </row>
+    <row r="64" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B65" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C65" s="65"/>
-      <c r="D65" s="65"/>
-      <c r="E65" s="65"/>
-      <c r="F65" s="65"/>
-      <c r="G65" s="68" t="s">
+      <c r="C65" s="70"/>
+      <c r="D65" s="70"/>
+      <c r="E65" s="70"/>
+      <c r="F65" s="70"/>
+      <c r="G65" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="H65" s="68"/>
-      <c r="I65" s="69"/>
-    </row>
-    <row r="66" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="66"/>
-      <c r="C66" s="67"/>
-      <c r="D66" s="67"/>
-      <c r="E66" s="67"/>
-      <c r="F66" s="67"/>
-      <c r="G66" s="70" t="s">
+      <c r="H65" s="73"/>
+      <c r="I65" s="74"/>
+    </row>
+    <row r="66" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="71"/>
+      <c r="C66" s="72"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="72"/>
+      <c r="F66" s="72"/>
+      <c r="G66" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="H66" s="70"/>
+      <c r="H66" s="75"/>
       <c r="I66" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="104" t="s">
-        <v>52</v>
-      </c>
-      <c r="C67" s="105"/>
-      <c r="D67" s="105"/>
-      <c r="E67" s="105"/>
-      <c r="F67" s="106"/>
-      <c r="G67" s="101" t="s">
+    <row r="67" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C67" s="50"/>
+      <c r="D67" s="50"/>
+      <c r="E67" s="50"/>
+      <c r="F67" s="51"/>
+      <c r="G67" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="H67" s="98"/>
+      <c r="H67" s="41"/>
       <c r="I67" s="37" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="107" t="s">
-        <v>49</v>
-      </c>
-      <c r="C68" s="108"/>
-      <c r="D68" s="108"/>
-      <c r="E68" s="108"/>
-      <c r="F68" s="109"/>
-      <c r="G68" s="102" t="s">
+    <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="C68" s="53"/>
+      <c r="D68" s="53"/>
+      <c r="E68" s="53"/>
+      <c r="F68" s="54"/>
+      <c r="G68" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="H68" s="99"/>
+      <c r="H68" s="42"/>
       <c r="I68" s="38" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="107" t="s">
-        <v>50</v>
-      </c>
-      <c r="C69" s="108"/>
-      <c r="D69" s="108"/>
-      <c r="E69" s="108"/>
-      <c r="F69" s="109"/>
-      <c r="G69" s="102" t="s">
+    <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C69" s="53"/>
+      <c r="D69" s="53"/>
+      <c r="E69" s="53"/>
+      <c r="F69" s="54"/>
+      <c r="G69" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="H69" s="99"/>
+      <c r="H69" s="42"/>
       <c r="I69" s="38" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="70" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="110" t="s">
-        <v>51</v>
-      </c>
-      <c r="C70" s="111"/>
-      <c r="D70" s="111"/>
-      <c r="E70" s="111"/>
-      <c r="F70" s="112"/>
-      <c r="G70" s="103" t="s">
+    <row r="70" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C70" s="56"/>
+      <c r="D70" s="56"/>
+      <c r="E70" s="56"/>
+      <c r="F70" s="57"/>
+      <c r="G70" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="H70" s="100"/>
+      <c r="H70" s="43"/>
       <c r="I70" s="39" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B72" s="81" t="s">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B72" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="C72" s="81"/>
-      <c r="D72" s="81"/>
-      <c r="E72" s="81"/>
-      <c r="F72" s="81"/>
-      <c r="G72" s="81"/>
-      <c r="H72" s="81"/>
-      <c r="I72" s="81"/>
-    </row>
-    <row r="73" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B74" s="82" t="s">
-        <v>55</v>
-      </c>
-      <c r="C74" s="83"/>
-      <c r="D74" s="83"/>
-      <c r="E74" s="83"/>
-      <c r="F74" s="83"/>
-      <c r="G74" s="83"/>
-      <c r="H74" s="83"/>
-      <c r="I74" s="84"/>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B75" s="52"/>
-      <c r="C75" s="53"/>
-      <c r="D75" s="53"/>
-      <c r="E75" s="53"/>
-      <c r="F75" s="53"/>
-      <c r="G75" s="53"/>
-      <c r="H75" s="53"/>
-      <c r="I75" s="56"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B76" s="52"/>
-      <c r="C76" s="53"/>
-      <c r="D76" s="53"/>
-      <c r="E76" s="53"/>
-      <c r="F76" s="53"/>
-      <c r="G76" s="53"/>
-      <c r="H76" s="53"/>
-      <c r="I76" s="56"/>
-    </row>
-    <row r="77" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="61"/>
-      <c r="C77" s="62"/>
-      <c r="D77" s="62"/>
-      <c r="E77" s="62"/>
-      <c r="F77" s="62"/>
-      <c r="G77" s="62"/>
-      <c r="H77" s="62"/>
-      <c r="I77" s="63"/>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G79" s="47" t="s">
+      <c r="C72" s="58"/>
+      <c r="D72" s="58"/>
+      <c r="E72" s="58"/>
+      <c r="F72" s="58"/>
+      <c r="G72" s="58"/>
+      <c r="H72" s="58"/>
+      <c r="I72" s="58"/>
+    </row>
+    <row r="73" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B74" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C74" s="60"/>
+      <c r="D74" s="60"/>
+      <c r="E74" s="60"/>
+      <c r="F74" s="60"/>
+      <c r="G74" s="60"/>
+      <c r="H74" s="60"/>
+      <c r="I74" s="61"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B75" s="62"/>
+      <c r="C75" s="63"/>
+      <c r="D75" s="63"/>
+      <c r="E75" s="63"/>
+      <c r="F75" s="63"/>
+      <c r="G75" s="63"/>
+      <c r="H75" s="63"/>
+      <c r="I75" s="64"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="62"/>
+      <c r="C76" s="63"/>
+      <c r="D76" s="63"/>
+      <c r="E76" s="63"/>
+      <c r="F76" s="63"/>
+      <c r="G76" s="63"/>
+      <c r="H76" s="63"/>
+      <c r="I76" s="64"/>
+    </row>
+    <row r="77" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="65"/>
+      <c r="C77" s="66"/>
+      <c r="D77" s="66"/>
+      <c r="E77" s="66"/>
+      <c r="F77" s="66"/>
+      <c r="G77" s="66"/>
+      <c r="H77" s="66"/>
+      <c r="I77" s="67"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G79" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="H79" s="47"/>
+      <c r="H79" s="68"/>
       <c r="I79" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
@@ -10147,21 +10146,21 @@
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B82" s="79" t="str">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B82" s="47" t="str">
         <f>IF(D10="","Assinatura do(a) Orientador(a)",D10)</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="C82" s="79"/>
-      <c r="D82" s="79"/>
-      <c r="F82" s="80" t="s">
+      <c r="C82" s="47"/>
+      <c r="D82" s="47"/>
+      <c r="F82" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="G82" s="80"/>
-      <c r="H82" s="80"/>
-      <c r="I82" s="80"/>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G82" s="48"/>
+      <c r="H82" s="48"/>
+      <c r="I82" s="48"/>
+    </row>
+    <row r="84" spans="2:10" ht="15.75" x14ac:dyDescent="0.3">
       <c r="J84" s="23" t="s">
         <v>30</v>
       </c>
@@ -10171,15 +10170,27 @@
     <protectedRange sqref="C8:I9 D10:I10 B19:D33 G19:I33 B67:I70 B74:I77 B38:D61 G38:I61" name="Intervalo1"/>
   </protectedRanges>
   <mergeCells count="46">
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="F82:I82"/>
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="B72:I72"/>
-    <mergeCell ref="B74:I77"/>
-    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B19:D23"/>
+    <mergeCell ref="G19:I23"/>
+    <mergeCell ref="B24:D28"/>
+    <mergeCell ref="G24:I28"/>
+    <mergeCell ref="B29:D33"/>
+    <mergeCell ref="G29:I33"/>
     <mergeCell ref="B65:F66"/>
     <mergeCell ref="G65:I65"/>
     <mergeCell ref="G66:H66"/>
@@ -10196,27 +10207,15 @@
     <mergeCell ref="B63:I63"/>
     <mergeCell ref="B44:D49"/>
     <mergeCell ref="G44:I49"/>
-    <mergeCell ref="B19:D23"/>
-    <mergeCell ref="G19:I23"/>
-    <mergeCell ref="B24:D28"/>
-    <mergeCell ref="G24:I28"/>
-    <mergeCell ref="B29:D33"/>
-    <mergeCell ref="G29:I33"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="F82:I82"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="B72:I72"/>
+    <mergeCell ref="B74:I77"/>
+    <mergeCell ref="G79:H79"/>
   </mergeCells>
   <conditionalFormatting sqref="B82:D82">
     <cfRule type="expression" priority="2">
@@ -10247,13 +10246,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>121920</xdr:rowOff>
+                    <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10269,13 +10268,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>160020</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10295,9 +10294,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10317,9 +10316,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>30</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10333,15 +10332,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>45720</xdr:colOff>
+                    <xdr:colOff>47625</xdr:colOff>
                     <xdr:row>29</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>22860</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10355,15 +10354,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>45720</xdr:colOff>
+                    <xdr:colOff>47625</xdr:colOff>
                     <xdr:row>30</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>32</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10379,13 +10378,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>23</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>25</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10405,7 +10404,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>26</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -10423,13 +10422,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>25</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>27</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10449,7 +10448,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>39</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -10471,7 +10470,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>40</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -10489,13 +10488,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>39</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>41</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10515,9 +10514,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>42</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10533,13 +10532,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>49</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>51</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10559,7 +10558,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>52</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -10577,13 +10576,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>51</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>53</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10603,9 +10602,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>54</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10621,13 +10620,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>55</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>57</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10647,7 +10646,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>58</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -10665,13 +10664,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>57</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>59</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10691,9 +10690,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>60</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10709,13 +10708,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>43</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>45</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10735,7 +10734,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>46</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -10753,13 +10752,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>45</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>47</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10779,9 +10778,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>48</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10795,43 +10794,43 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B5:J99"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A67" zoomScale="130" zoomScaleNormal="70" zoomScaleSheetLayoutView="130" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A44" sqref="A44:XFD49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="4.44140625" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" customWidth="1"/>
-    <col min="8" max="8" width="3.5546875" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="46" t="s">
+    <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-    </row>
-    <row r="6" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
+    </row>
+    <row r="6" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -10841,315 +10840,315 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="19"/>
-      <c r="D7" s="47" t="str">
+      <c r="D7" s="68" t="str">
         <f>Plan1!B6</f>
         <v>Setembro</v>
       </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="48" t="str">
+      <c r="C8" s="98" t="str">
         <f>'2º Sem - Agosto'!C8:I8</f>
-        <v>Redução de disperdicio por excesso de produção.</v>
-      </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+        <v>Otimização de processos e gestão de refeitórios com Machine Learning</v>
+      </c>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="98"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="48" t="str">
+      <c r="C9" s="98" t="str">
         <f>'2º Sem - Agosto'!C9:I9</f>
         <v>Engenharia da Computação</v>
       </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="98"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="48" t="str">
+      <c r="D10" s="98" t="str">
         <f>'2º Sem - Agosto'!D10:I10</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-    </row>
-    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="98"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="98"/>
+    </row>
+    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="59" t="str">
+      <c r="C12" s="95" t="str">
         <f>'2º Sem - Agosto'!C12:F12</f>
         <v>Igor Martins Ferreira</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="85"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="100"/>
       <c r="G12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="86"/>
-      <c r="I12" s="87"/>
-    </row>
-    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="101"/>
+      <c r="I12" s="102"/>
+    </row>
+    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="53" t="str">
+      <c r="C13" s="63" t="str">
         <f>'2º Sem - Agosto'!C13:F13</f>
         <v>Lucas Silva Sousa</v>
       </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="88"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="103"/>
       <c r="G13" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="89"/>
-      <c r="I13" s="90"/>
-    </row>
-    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="104"/>
+      <c r="I13" s="105"/>
+    </row>
+    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="55" t="str">
+      <c r="C14" s="92" t="str">
         <f>'2º Sem - Agosto'!C14:F14</f>
         <v>Renan Dias de Oliveira</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="91"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="106"/>
       <c r="G14" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="92"/>
-      <c r="I14" s="93"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="51" t="s">
+      <c r="H14" s="107"/>
+      <c r="I14" s="108"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-    </row>
-    <row r="17" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="41" t="s">
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+    </row>
+    <row r="17" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="43" t="s">
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="44"/>
-      <c r="G18" s="42" t="s">
+      <c r="F18" s="80"/>
+      <c r="G18" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="42"/>
-      <c r="I18" s="45"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="52"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="81"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="62"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
       <c r="E19" s="14"/>
       <c r="F19" s="15"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="56"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="52"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="64"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="62"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
       <c r="E20" s="8"/>
       <c r="F20" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="56"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="52"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="64"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="62"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="56"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="52"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="64"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="62"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="56"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="54"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="64"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="91"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="92"/>
       <c r="E23" s="10"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="57"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="58"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="93"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="94"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="95"/>
       <c r="E24" s="12"/>
       <c r="F24" s="13"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="60"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="52"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
+      <c r="G24" s="95"/>
+      <c r="H24" s="95"/>
+      <c r="I24" s="96"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="62"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
       <c r="E25" s="8"/>
       <c r="F25" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="56"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="52"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="64"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="62"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="56"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="52"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="64"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="62"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="56"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="54"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="64"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="91"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="92"/>
       <c r="E28" s="10"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="57"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="52"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="93"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="62"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
       <c r="E29" s="8"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="56"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="52"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="64"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="62"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="56"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="52"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="64"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="62"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="56"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="52"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="64"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="62"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
       <c r="E32" s="8"/>
       <c r="F32" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="56"/>
-    </row>
-    <row r="33" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="61"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="64"/>
+    </row>
+    <row r="33" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="65"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="66"/>
       <c r="E33" s="17"/>
       <c r="F33" s="18"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="63"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="67"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -11159,19 +11158,19 @@
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="51" t="s">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="51"/>
-    </row>
-    <row r="36" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="76"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="76"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="76"/>
+    </row>
+    <row r="36" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
@@ -11181,438 +11180,438 @@
       <c r="H36" s="16"/>
       <c r="I36" s="16"/>
     </row>
-    <row r="37" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="41" t="s">
+    <row r="37" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="43" t="s">
+      <c r="C37" s="78"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="F37" s="44"/>
-      <c r="G37" s="42" t="s">
+      <c r="F37" s="80"/>
+      <c r="G37" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="H37" s="42"/>
-      <c r="I37" s="45"/>
-    </row>
-    <row r="38" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="71"/>
-      <c r="C38" s="72"/>
-      <c r="D38" s="72"/>
+      <c r="H37" s="78"/>
+      <c r="I37" s="81"/>
+    </row>
+    <row r="38" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="82"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="83"/>
       <c r="E38" s="14"/>
       <c r="F38" s="15"/>
-      <c r="G38" s="72"/>
-      <c r="H38" s="72"/>
-      <c r="I38" s="74"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B39" s="73"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
+      <c r="G38" s="83"/>
+      <c r="H38" s="83"/>
+      <c r="I38" s="86"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="84"/>
+      <c r="C39" s="85"/>
+      <c r="D39" s="85"/>
       <c r="E39" s="8"/>
       <c r="F39" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G39" s="49"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="75"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="73"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
+      <c r="G39" s="85"/>
+      <c r="H39" s="85"/>
+      <c r="I39" s="87"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="84"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="85"/>
       <c r="E40" s="8"/>
       <c r="F40" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="75"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="73"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
+      <c r="G40" s="85"/>
+      <c r="H40" s="85"/>
+      <c r="I40" s="87"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="84"/>
+      <c r="C41" s="85"/>
+      <c r="D41" s="85"/>
       <c r="E41" s="8"/>
       <c r="F41" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G41" s="49"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="75"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="73"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
+      <c r="G41" s="85"/>
+      <c r="H41" s="85"/>
+      <c r="I41" s="87"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="84"/>
+      <c r="C42" s="85"/>
+      <c r="D42" s="85"/>
       <c r="E42" s="8"/>
       <c r="F42" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="75"/>
-    </row>
-    <row r="43" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="73"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
+      <c r="G42" s="85"/>
+      <c r="H42" s="85"/>
+      <c r="I42" s="87"/>
+    </row>
+    <row r="43" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="84"/>
+      <c r="C43" s="85"/>
+      <c r="D43" s="85"/>
       <c r="E43" s="10"/>
       <c r="F43" s="11"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="75"/>
-    </row>
-    <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="73"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
+      <c r="G43" s="85"/>
+      <c r="H43" s="85"/>
+      <c r="I43" s="87"/>
+    </row>
+    <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="84"/>
+      <c r="C44" s="85"/>
+      <c r="D44" s="85"/>
       <c r="E44" s="6"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="75"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B45" s="73"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
+      <c r="G44" s="85"/>
+      <c r="H44" s="85"/>
+      <c r="I44" s="87"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="84"/>
+      <c r="C45" s="85"/>
+      <c r="D45" s="85"/>
       <c r="E45" s="8"/>
       <c r="F45" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G45" s="49"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="75"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="73"/>
-      <c r="C46" s="49"/>
-      <c r="D46" s="49"/>
+      <c r="G45" s="85"/>
+      <c r="H45" s="85"/>
+      <c r="I45" s="87"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="84"/>
+      <c r="C46" s="85"/>
+      <c r="D46" s="85"/>
       <c r="E46" s="8"/>
       <c r="F46" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G46" s="49"/>
-      <c r="H46" s="49"/>
-      <c r="I46" s="75"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="73"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="49"/>
+      <c r="G46" s="85"/>
+      <c r="H46" s="85"/>
+      <c r="I46" s="87"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="84"/>
+      <c r="C47" s="85"/>
+      <c r="D47" s="85"/>
       <c r="E47" s="8"/>
       <c r="F47" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G47" s="49"/>
-      <c r="H47" s="49"/>
-      <c r="I47" s="75"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="73"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="49"/>
+      <c r="G47" s="85"/>
+      <c r="H47" s="85"/>
+      <c r="I47" s="87"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="84"/>
+      <c r="C48" s="85"/>
+      <c r="D48" s="85"/>
       <c r="E48" s="8"/>
       <c r="F48" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G48" s="49"/>
-      <c r="H48" s="49"/>
-      <c r="I48" s="75"/>
-    </row>
-    <row r="49" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="73"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="49"/>
+      <c r="G48" s="85"/>
+      <c r="H48" s="85"/>
+      <c r="I48" s="87"/>
+    </row>
+    <row r="49" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="84"/>
+      <c r="C49" s="85"/>
+      <c r="D49" s="85"/>
       <c r="E49" s="10"/>
       <c r="F49" s="11"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="49"/>
-      <c r="I49" s="75"/>
-    </row>
-    <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="73"/>
-      <c r="C50" s="49"/>
-      <c r="D50" s="49"/>
+      <c r="G49" s="85"/>
+      <c r="H49" s="85"/>
+      <c r="I49" s="87"/>
+    </row>
+    <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="84"/>
+      <c r="C50" s="85"/>
+      <c r="D50" s="85"/>
       <c r="E50" s="6"/>
       <c r="F50" s="7"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="75"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B51" s="73"/>
-      <c r="C51" s="49"/>
-      <c r="D51" s="49"/>
+      <c r="G50" s="85"/>
+      <c r="H50" s="85"/>
+      <c r="I50" s="87"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="84"/>
+      <c r="C51" s="85"/>
+      <c r="D51" s="85"/>
       <c r="E51" s="8"/>
       <c r="F51" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G51" s="49"/>
-      <c r="H51" s="49"/>
-      <c r="I51" s="75"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="73"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="49"/>
+      <c r="G51" s="85"/>
+      <c r="H51" s="85"/>
+      <c r="I51" s="87"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="84"/>
+      <c r="C52" s="85"/>
+      <c r="D52" s="85"/>
       <c r="E52" s="8"/>
       <c r="F52" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G52" s="49"/>
-      <c r="H52" s="49"/>
-      <c r="I52" s="75"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B53" s="73"/>
-      <c r="C53" s="49"/>
-      <c r="D53" s="49"/>
+      <c r="G52" s="85"/>
+      <c r="H52" s="85"/>
+      <c r="I52" s="87"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="84"/>
+      <c r="C53" s="85"/>
+      <c r="D53" s="85"/>
       <c r="E53" s="8"/>
       <c r="F53" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G53" s="49"/>
-      <c r="H53" s="49"/>
-      <c r="I53" s="75"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="73"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="49"/>
+      <c r="G53" s="85"/>
+      <c r="H53" s="85"/>
+      <c r="I53" s="87"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="84"/>
+      <c r="C54" s="85"/>
+      <c r="D54" s="85"/>
       <c r="E54" s="8"/>
       <c r="F54" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G54" s="49"/>
-      <c r="H54" s="49"/>
-      <c r="I54" s="75"/>
-    </row>
-    <row r="55" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="73"/>
-      <c r="C55" s="49"/>
-      <c r="D55" s="49"/>
+      <c r="G54" s="85"/>
+      <c r="H54" s="85"/>
+      <c r="I54" s="87"/>
+    </row>
+    <row r="55" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="84"/>
+      <c r="C55" s="85"/>
+      <c r="D55" s="85"/>
       <c r="E55" s="10"/>
       <c r="F55" s="11"/>
-      <c r="G55" s="49"/>
-      <c r="H55" s="49"/>
-      <c r="I55" s="75"/>
-    </row>
-    <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="73"/>
-      <c r="C56" s="49"/>
-      <c r="D56" s="49"/>
+      <c r="G55" s="85"/>
+      <c r="H55" s="85"/>
+      <c r="I55" s="87"/>
+    </row>
+    <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="84"/>
+      <c r="C56" s="85"/>
+      <c r="D56" s="85"/>
       <c r="E56" s="6"/>
       <c r="F56" s="7"/>
-      <c r="G56" s="49"/>
-      <c r="H56" s="49"/>
-      <c r="I56" s="75"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B57" s="73"/>
-      <c r="C57" s="49"/>
-      <c r="D57" s="49"/>
+      <c r="G56" s="85"/>
+      <c r="H56" s="85"/>
+      <c r="I56" s="87"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="84"/>
+      <c r="C57" s="85"/>
+      <c r="D57" s="85"/>
       <c r="E57" s="8"/>
       <c r="F57" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G57" s="49"/>
-      <c r="H57" s="49"/>
-      <c r="I57" s="75"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B58" s="73"/>
-      <c r="C58" s="49"/>
-      <c r="D58" s="49"/>
+      <c r="G57" s="85"/>
+      <c r="H57" s="85"/>
+      <c r="I57" s="87"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="84"/>
+      <c r="C58" s="85"/>
+      <c r="D58" s="85"/>
       <c r="E58" s="8"/>
       <c r="F58" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G58" s="49"/>
-      <c r="H58" s="49"/>
-      <c r="I58" s="75"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B59" s="73"/>
-      <c r="C59" s="49"/>
-      <c r="D59" s="49"/>
+      <c r="G58" s="85"/>
+      <c r="H58" s="85"/>
+      <c r="I58" s="87"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="84"/>
+      <c r="C59" s="85"/>
+      <c r="D59" s="85"/>
       <c r="E59" s="8"/>
       <c r="F59" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G59" s="49"/>
-      <c r="H59" s="49"/>
-      <c r="I59" s="75"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="73"/>
-      <c r="C60" s="49"/>
-      <c r="D60" s="49"/>
+      <c r="G59" s="85"/>
+      <c r="H59" s="85"/>
+      <c r="I59" s="87"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="84"/>
+      <c r="C60" s="85"/>
+      <c r="D60" s="85"/>
       <c r="E60" s="8"/>
       <c r="F60" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G60" s="49"/>
-      <c r="H60" s="49"/>
-      <c r="I60" s="75"/>
-    </row>
-    <row r="61" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="76"/>
-      <c r="C61" s="77"/>
-      <c r="D61" s="77"/>
+      <c r="G60" s="85"/>
+      <c r="H60" s="85"/>
+      <c r="I60" s="87"/>
+    </row>
+    <row r="61" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="88"/>
+      <c r="C61" s="89"/>
+      <c r="D61" s="89"/>
       <c r="E61" s="17"/>
       <c r="F61" s="18"/>
-      <c r="G61" s="77"/>
-      <c r="H61" s="77"/>
-      <c r="I61" s="78"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B63" s="51" t="s">
+      <c r="G61" s="89"/>
+      <c r="H61" s="89"/>
+      <c r="I61" s="90"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="51"/>
-      <c r="D63" s="51"/>
-      <c r="E63" s="51"/>
-      <c r="F63" s="51"/>
-      <c r="G63" s="51"/>
-      <c r="H63" s="51"/>
-      <c r="I63" s="51"/>
-    </row>
-    <row r="64" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B65" s="64" t="s">
+      <c r="C63" s="76"/>
+      <c r="D63" s="76"/>
+      <c r="E63" s="76"/>
+      <c r="F63" s="76"/>
+      <c r="G63" s="76"/>
+      <c r="H63" s="76"/>
+      <c r="I63" s="76"/>
+    </row>
+    <row r="64" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B65" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C65" s="65"/>
-      <c r="D65" s="65"/>
-      <c r="E65" s="65"/>
-      <c r="F65" s="65"/>
-      <c r="G65" s="68" t="s">
+      <c r="C65" s="70"/>
+      <c r="D65" s="70"/>
+      <c r="E65" s="70"/>
+      <c r="F65" s="70"/>
+      <c r="G65" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="H65" s="68"/>
-      <c r="I65" s="69"/>
-    </row>
-    <row r="66" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="66"/>
-      <c r="C66" s="67"/>
-      <c r="D66" s="67"/>
-      <c r="E66" s="67"/>
-      <c r="F66" s="67"/>
-      <c r="G66" s="70" t="s">
+      <c r="H65" s="73"/>
+      <c r="I65" s="74"/>
+    </row>
+    <row r="66" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="71"/>
+      <c r="C66" s="72"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="72"/>
+      <c r="F66" s="72"/>
+      <c r="G66" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="H66" s="70"/>
+      <c r="H66" s="75"/>
       <c r="I66" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="71"/>
-      <c r="C67" s="72"/>
-      <c r="D67" s="72"/>
-      <c r="E67" s="72"/>
-      <c r="F67" s="72"/>
-      <c r="G67" s="72"/>
-      <c r="H67" s="72"/>
+    <row r="67" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="82"/>
+      <c r="C67" s="83"/>
+      <c r="D67" s="83"/>
+      <c r="E67" s="83"/>
+      <c r="F67" s="83"/>
+      <c r="G67" s="83"/>
+      <c r="H67" s="83"/>
       <c r="I67" s="25"/>
     </row>
-    <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="73"/>
-      <c r="C68" s="49"/>
-      <c r="D68" s="49"/>
-      <c r="E68" s="49"/>
-      <c r="F68" s="49"/>
-      <c r="G68" s="49"/>
-      <c r="H68" s="49"/>
+    <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="84"/>
+      <c r="C68" s="85"/>
+      <c r="D68" s="85"/>
+      <c r="E68" s="85"/>
+      <c r="F68" s="85"/>
+      <c r="G68" s="85"/>
+      <c r="H68" s="85"/>
       <c r="I68" s="26"/>
     </row>
-    <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="73"/>
-      <c r="C69" s="49"/>
-      <c r="D69" s="49"/>
-      <c r="E69" s="49"/>
-      <c r="F69" s="49"/>
-      <c r="G69" s="49"/>
-      <c r="H69" s="49"/>
+    <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="84"/>
+      <c r="C69" s="85"/>
+      <c r="D69" s="85"/>
+      <c r="E69" s="85"/>
+      <c r="F69" s="85"/>
+      <c r="G69" s="85"/>
+      <c r="H69" s="85"/>
       <c r="I69" s="26"/>
     </row>
-    <row r="70" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="76"/>
-      <c r="C70" s="77"/>
-      <c r="D70" s="77"/>
-      <c r="E70" s="77"/>
-      <c r="F70" s="77"/>
-      <c r="G70" s="77"/>
-      <c r="H70" s="77"/>
+    <row r="70" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="88"/>
+      <c r="C70" s="89"/>
+      <c r="D70" s="89"/>
+      <c r="E70" s="89"/>
+      <c r="F70" s="89"/>
+      <c r="G70" s="89"/>
+      <c r="H70" s="89"/>
       <c r="I70" s="27"/>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B72" s="81" t="s">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B72" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="C72" s="81"/>
-      <c r="D72" s="81"/>
-      <c r="E72" s="81"/>
-      <c r="F72" s="81"/>
-      <c r="G72" s="81"/>
-      <c r="H72" s="81"/>
-      <c r="I72" s="81"/>
-    </row>
-    <row r="73" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B74" s="82"/>
-      <c r="C74" s="83"/>
-      <c r="D74" s="83"/>
-      <c r="E74" s="83"/>
-      <c r="F74" s="83"/>
-      <c r="G74" s="83"/>
-      <c r="H74" s="83"/>
-      <c r="I74" s="84"/>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B75" s="52"/>
-      <c r="C75" s="53"/>
-      <c r="D75" s="53"/>
-      <c r="E75" s="53"/>
-      <c r="F75" s="53"/>
-      <c r="G75" s="53"/>
-      <c r="H75" s="53"/>
-      <c r="I75" s="56"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B76" s="52"/>
-      <c r="C76" s="53"/>
-      <c r="D76" s="53"/>
-      <c r="E76" s="53"/>
-      <c r="F76" s="53"/>
-      <c r="G76" s="53"/>
-      <c r="H76" s="53"/>
-      <c r="I76" s="56"/>
-    </row>
-    <row r="77" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="61"/>
-      <c r="C77" s="62"/>
-      <c r="D77" s="62"/>
-      <c r="E77" s="62"/>
-      <c r="F77" s="62"/>
-      <c r="G77" s="62"/>
-      <c r="H77" s="62"/>
-      <c r="I77" s="63"/>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G79" s="47" t="s">
+      <c r="C72" s="58"/>
+      <c r="D72" s="58"/>
+      <c r="E72" s="58"/>
+      <c r="F72" s="58"/>
+      <c r="G72" s="58"/>
+      <c r="H72" s="58"/>
+      <c r="I72" s="58"/>
+    </row>
+    <row r="73" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B74" s="59"/>
+      <c r="C74" s="60"/>
+      <c r="D74" s="60"/>
+      <c r="E74" s="60"/>
+      <c r="F74" s="60"/>
+      <c r="G74" s="60"/>
+      <c r="H74" s="60"/>
+      <c r="I74" s="61"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B75" s="62"/>
+      <c r="C75" s="63"/>
+      <c r="D75" s="63"/>
+      <c r="E75" s="63"/>
+      <c r="F75" s="63"/>
+      <c r="G75" s="63"/>
+      <c r="H75" s="63"/>
+      <c r="I75" s="64"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="62"/>
+      <c r="C76" s="63"/>
+      <c r="D76" s="63"/>
+      <c r="E76" s="63"/>
+      <c r="F76" s="63"/>
+      <c r="G76" s="63"/>
+      <c r="H76" s="63"/>
+      <c r="I76" s="64"/>
+    </row>
+    <row r="77" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="65"/>
+      <c r="C77" s="66"/>
+      <c r="D77" s="66"/>
+      <c r="E77" s="66"/>
+      <c r="F77" s="66"/>
+      <c r="G77" s="66"/>
+      <c r="H77" s="66"/>
+      <c r="I77" s="67"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G79" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="H79" s="47"/>
+      <c r="H79" s="68"/>
       <c r="I79" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
@@ -11621,68 +11620,68 @@
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B82" s="79" t="str">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B82" s="47" t="str">
         <f>IF(D10=0,"Assinatura do(a) Orientador(a)",D10)</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="C82" s="79"/>
-      <c r="D82" s="79"/>
-      <c r="F82" s="80" t="s">
+      <c r="C82" s="47"/>
+      <c r="D82" s="47"/>
+      <c r="F82" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="G82" s="80"/>
-      <c r="H82" s="80"/>
-      <c r="I82" s="80"/>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G82" s="48"/>
+      <c r="H82" s="48"/>
+      <c r="I82" s="48"/>
+    </row>
+    <row r="84" spans="2:10" ht="15.75" x14ac:dyDescent="0.3">
       <c r="J84" s="23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C96" s="4"/>
-      <c r="D96" s="80"/>
-      <c r="E96" s="80"/>
-      <c r="F96" s="80"/>
+      <c r="D96" s="48"/>
+      <c r="E96" s="48"/>
+      <c r="F96" s="48"/>
       <c r="G96" s="4"/>
     </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
     </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
     </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
@@ -11694,19 +11693,28 @@
     <protectedRange sqref="B19:D33 G19:I33 B67:I70 B74 B38:D61 G38:I61" name="Intervalo1"/>
   </protectedRanges>
   <mergeCells count="51">
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="F82:I82"/>
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="B72:I72"/>
-    <mergeCell ref="B74:I77"/>
-    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B19:D23"/>
+    <mergeCell ref="G19:I23"/>
+    <mergeCell ref="B24:D28"/>
+    <mergeCell ref="G24:I28"/>
+    <mergeCell ref="B29:D33"/>
+    <mergeCell ref="G29:I33"/>
     <mergeCell ref="B65:F66"/>
     <mergeCell ref="G65:I65"/>
     <mergeCell ref="G66:H66"/>
@@ -11723,28 +11731,19 @@
     <mergeCell ref="B63:I63"/>
     <mergeCell ref="B44:D49"/>
     <mergeCell ref="G44:I49"/>
-    <mergeCell ref="B19:D23"/>
-    <mergeCell ref="G19:I23"/>
-    <mergeCell ref="B24:D28"/>
-    <mergeCell ref="G24:I28"/>
-    <mergeCell ref="B29:D33"/>
-    <mergeCell ref="G29:I33"/>
-    <mergeCell ref="D96:F96"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="F82:I82"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="B72:I72"/>
+    <mergeCell ref="B74:I77"/>
+    <mergeCell ref="G79:H79"/>
   </mergeCells>
   <conditionalFormatting sqref="B7:I15">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
@@ -11780,13 +11779,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>121920</xdr:rowOff>
+                    <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11802,13 +11801,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>160020</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11828,9 +11827,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11850,9 +11849,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>30</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11866,15 +11865,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>45720</xdr:colOff>
+                    <xdr:colOff>47625</xdr:colOff>
                     <xdr:row>29</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>22860</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11888,15 +11887,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>45720</xdr:colOff>
+                    <xdr:colOff>47625</xdr:colOff>
                     <xdr:row>30</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>32</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11912,13 +11911,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>23</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>25</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11938,7 +11937,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>26</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -11956,13 +11955,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>25</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>27</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11982,7 +11981,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>39</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -12004,7 +12003,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>40</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -12022,13 +12021,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>39</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>41</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12048,9 +12047,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>42</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12066,13 +12065,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>49</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>51</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12092,7 +12091,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>52</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -12110,13 +12109,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>51</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>53</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12136,9 +12135,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>54</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12154,13 +12153,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>55</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>57</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12180,7 +12179,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>58</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -12198,13 +12197,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>57</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>59</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12224,9 +12223,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>60</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12242,13 +12241,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>43</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>45</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12268,7 +12267,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>46</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -12286,13 +12285,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>45</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>47</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12312,9 +12311,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>48</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12328,43 +12327,43 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B5:J85"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A64" zoomScale="145" zoomScaleNormal="70" zoomScaleSheetLayoutView="145" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A59" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="4.44140625" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" customWidth="1"/>
-    <col min="8" max="8" width="3.5546875" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="46" t="s">
+    <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-    </row>
-    <row r="6" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
+    </row>
+    <row r="6" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -12374,7 +12373,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>38</v>
       </c>
@@ -12386,317 +12385,317 @@
       <c r="H7" s="36"/>
       <c r="I7" s="36"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="94" t="str">
+      <c r="C8" s="109" t="str">
         <f>'2º Sem - Setembro'!C8:I8</f>
-        <v>Redução de disperdicio por excesso de produção.</v>
-      </c>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+        <v>Otimização de processos e gestão de refeitórios com Machine Learning</v>
+      </c>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="94" t="str">
+      <c r="C9" s="109" t="str">
         <f>'2º Sem - Setembro'!C9:I9</f>
         <v>Engenharia da Computação</v>
       </c>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D9" s="109"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="109"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="94" t="str">
+      <c r="D10" s="109" t="str">
         <f>'2º Sem - Setembro'!D10:I10</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="94"/>
-    </row>
-    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+    </row>
+    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="59" t="str">
+      <c r="C12" s="95" t="str">
         <f>'2º Sem - Setembro'!C12:F12</f>
         <v>Igor Martins Ferreira</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
       <c r="G12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="86"/>
-      <c r="I12" s="87"/>
-    </row>
-    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="101"/>
+      <c r="I12" s="102"/>
+    </row>
+    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="53" t="str">
+      <c r="C13" s="63" t="str">
         <f>'2º Sem - Setembro'!C13:F13</f>
         <v>Lucas Silva Sousa</v>
       </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
       <c r="G13" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="89"/>
-      <c r="I13" s="90"/>
-    </row>
-    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="104"/>
+      <c r="I13" s="105"/>
+    </row>
+    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="53" t="str">
+      <c r="C14" s="63" t="str">
         <f>'2º Sem - Setembro'!C13:F13</f>
         <v>Lucas Silva Sousa</v>
       </c>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
       <c r="G14" s="21" t="s">
         <v>6</v>
       </c>
       <c r="H14" s="29"/>
       <c r="I14" s="30"/>
     </row>
-    <row r="15" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="55" t="str">
+      <c r="C15" s="92" t="str">
         <f>'2º Sem - Setembro'!C14:F14</f>
         <v>Renan Dias de Oliveira</v>
       </c>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
       <c r="G15" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="92"/>
-      <c r="I15" s="93"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="51" t="s">
+      <c r="H15" s="107"/>
+      <c r="I15" s="108"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-    </row>
-    <row r="18" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="41" t="s">
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+    </row>
+    <row r="18" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="43" t="s">
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="44"/>
-      <c r="G19" s="42" t="s">
+      <c r="F19" s="80"/>
+      <c r="G19" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="42"/>
-      <c r="I19" s="45"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="52"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="81"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="62"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
       <c r="E20" s="14"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="56"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="52"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="64"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="62"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="56"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="52"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="64"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="62"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="56"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="52"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="64"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="62"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
       <c r="E23" s="8"/>
       <c r="F23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="56"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="54"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="64"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="91"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="57"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="58"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="93"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="94"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="95"/>
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="60"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="52"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
+      <c r="G25" s="95"/>
+      <c r="H25" s="95"/>
+      <c r="I25" s="96"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="62"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="56"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="52"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="64"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="62"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="56"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="52"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="64"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="62"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
       <c r="E28" s="8"/>
       <c r="F28" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="56"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="54"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="64"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="91"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="92"/>
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="57"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="52"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
+      <c r="G29" s="92"/>
+      <c r="H29" s="92"/>
+      <c r="I29" s="93"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="62"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="56"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="52"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="64"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="62"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="56"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="52"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="64"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="62"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
       <c r="E32" s="8"/>
       <c r="F32" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="56"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="52"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="64"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="62"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
       <c r="E33" s="8"/>
       <c r="F33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="56"/>
-    </row>
-    <row r="34" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="61"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="64"/>
+    </row>
+    <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="65"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="66"/>
       <c r="E34" s="17"/>
       <c r="F34" s="18"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="63"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G34" s="66"/>
+      <c r="H34" s="66"/>
+      <c r="I34" s="67"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -12706,19 +12705,19 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="51" t="s">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51"/>
-    </row>
-    <row r="37" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="76"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="76"/>
+    </row>
+    <row r="37" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
@@ -12728,438 +12727,438 @@
       <c r="H37" s="16"/>
       <c r="I37" s="16"/>
     </row>
-    <row r="38" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="41" t="s">
+    <row r="38" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="43" t="s">
+      <c r="C38" s="78"/>
+      <c r="D38" s="78"/>
+      <c r="E38" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="44"/>
-      <c r="G38" s="42" t="s">
+      <c r="F38" s="80"/>
+      <c r="G38" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="42"/>
-      <c r="I38" s="45"/>
-    </row>
-    <row r="39" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="71"/>
-      <c r="C39" s="72"/>
-      <c r="D39" s="72"/>
+      <c r="H38" s="78"/>
+      <c r="I38" s="81"/>
+    </row>
+    <row r="39" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="82"/>
+      <c r="C39" s="83"/>
+      <c r="D39" s="83"/>
       <c r="E39" s="14"/>
       <c r="F39" s="15"/>
-      <c r="G39" s="72"/>
-      <c r="H39" s="72"/>
-      <c r="I39" s="74"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="73"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
+      <c r="G39" s="83"/>
+      <c r="H39" s="83"/>
+      <c r="I39" s="86"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="84"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="85"/>
       <c r="E40" s="8"/>
       <c r="F40" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="75"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="73"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
+      <c r="G40" s="85"/>
+      <c r="H40" s="85"/>
+      <c r="I40" s="87"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="84"/>
+      <c r="C41" s="85"/>
+      <c r="D41" s="85"/>
       <c r="E41" s="8"/>
       <c r="F41" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="49"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="75"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="73"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
+      <c r="G41" s="85"/>
+      <c r="H41" s="85"/>
+      <c r="I41" s="87"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="84"/>
+      <c r="C42" s="85"/>
+      <c r="D42" s="85"/>
       <c r="E42" s="8"/>
       <c r="F42" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="75"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="73"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
+      <c r="G42" s="85"/>
+      <c r="H42" s="85"/>
+      <c r="I42" s="87"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="84"/>
+      <c r="C43" s="85"/>
+      <c r="D43" s="85"/>
       <c r="E43" s="8"/>
       <c r="F43" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="75"/>
-    </row>
-    <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="73"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
+      <c r="G43" s="85"/>
+      <c r="H43" s="85"/>
+      <c r="I43" s="87"/>
+    </row>
+    <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="84"/>
+      <c r="C44" s="85"/>
+      <c r="D44" s="85"/>
       <c r="E44" s="10"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="75"/>
-    </row>
-    <row r="45" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="73"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
+      <c r="G44" s="85"/>
+      <c r="H44" s="85"/>
+      <c r="I44" s="87"/>
+    </row>
+    <row r="45" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="84"/>
+      <c r="C45" s="85"/>
+      <c r="D45" s="85"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="75"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="73"/>
-      <c r="C46" s="49"/>
-      <c r="D46" s="49"/>
+      <c r="G45" s="85"/>
+      <c r="H45" s="85"/>
+      <c r="I45" s="87"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="84"/>
+      <c r="C46" s="85"/>
+      <c r="D46" s="85"/>
       <c r="E46" s="8"/>
       <c r="F46" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="49"/>
-      <c r="H46" s="49"/>
-      <c r="I46" s="75"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="73"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="49"/>
+      <c r="G46" s="85"/>
+      <c r="H46" s="85"/>
+      <c r="I46" s="87"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="84"/>
+      <c r="C47" s="85"/>
+      <c r="D47" s="85"/>
       <c r="E47" s="8"/>
       <c r="F47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="49"/>
-      <c r="H47" s="49"/>
-      <c r="I47" s="75"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="73"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="49"/>
+      <c r="G47" s="85"/>
+      <c r="H47" s="85"/>
+      <c r="I47" s="87"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="84"/>
+      <c r="C48" s="85"/>
+      <c r="D48" s="85"/>
       <c r="E48" s="8"/>
       <c r="F48" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G48" s="49"/>
-      <c r="H48" s="49"/>
-      <c r="I48" s="75"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="73"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="49"/>
+      <c r="G48" s="85"/>
+      <c r="H48" s="85"/>
+      <c r="I48" s="87"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="84"/>
+      <c r="C49" s="85"/>
+      <c r="D49" s="85"/>
       <c r="E49" s="8"/>
       <c r="F49" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G49" s="49"/>
-      <c r="H49" s="49"/>
-      <c r="I49" s="75"/>
-    </row>
-    <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="73"/>
-      <c r="C50" s="49"/>
-      <c r="D50" s="49"/>
+      <c r="G49" s="85"/>
+      <c r="H49" s="85"/>
+      <c r="I49" s="87"/>
+    </row>
+    <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="84"/>
+      <c r="C50" s="85"/>
+      <c r="D50" s="85"/>
       <c r="E50" s="10"/>
       <c r="F50" s="11"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="75"/>
-    </row>
-    <row r="51" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="73"/>
-      <c r="C51" s="49"/>
-      <c r="D51" s="49"/>
+      <c r="G50" s="85"/>
+      <c r="H50" s="85"/>
+      <c r="I50" s="87"/>
+    </row>
+    <row r="51" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="84"/>
+      <c r="C51" s="85"/>
+      <c r="D51" s="85"/>
       <c r="E51" s="6"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="49"/>
-      <c r="H51" s="49"/>
-      <c r="I51" s="75"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="73"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="49"/>
+      <c r="G51" s="85"/>
+      <c r="H51" s="85"/>
+      <c r="I51" s="87"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="84"/>
+      <c r="C52" s="85"/>
+      <c r="D52" s="85"/>
       <c r="E52" s="8"/>
       <c r="F52" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G52" s="49"/>
-      <c r="H52" s="49"/>
-      <c r="I52" s="75"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B53" s="73"/>
-      <c r="C53" s="49"/>
-      <c r="D53" s="49"/>
+      <c r="G52" s="85"/>
+      <c r="H52" s="85"/>
+      <c r="I52" s="87"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="84"/>
+      <c r="C53" s="85"/>
+      <c r="D53" s="85"/>
       <c r="E53" s="8"/>
       <c r="F53" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="49"/>
-      <c r="H53" s="49"/>
-      <c r="I53" s="75"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="73"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="49"/>
+      <c r="G53" s="85"/>
+      <c r="H53" s="85"/>
+      <c r="I53" s="87"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="84"/>
+      <c r="C54" s="85"/>
+      <c r="D54" s="85"/>
       <c r="E54" s="8"/>
       <c r="F54" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G54" s="49"/>
-      <c r="H54" s="49"/>
-      <c r="I54" s="75"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B55" s="73"/>
-      <c r="C55" s="49"/>
-      <c r="D55" s="49"/>
+      <c r="G54" s="85"/>
+      <c r="H54" s="85"/>
+      <c r="I54" s="87"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="84"/>
+      <c r="C55" s="85"/>
+      <c r="D55" s="85"/>
       <c r="E55" s="8"/>
       <c r="F55" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G55" s="49"/>
-      <c r="H55" s="49"/>
-      <c r="I55" s="75"/>
-    </row>
-    <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="73"/>
-      <c r="C56" s="49"/>
-      <c r="D56" s="49"/>
+      <c r="G55" s="85"/>
+      <c r="H55" s="85"/>
+      <c r="I55" s="87"/>
+    </row>
+    <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="84"/>
+      <c r="C56" s="85"/>
+      <c r="D56" s="85"/>
       <c r="E56" s="10"/>
       <c r="F56" s="11"/>
-      <c r="G56" s="49"/>
-      <c r="H56" s="49"/>
-      <c r="I56" s="75"/>
-    </row>
-    <row r="57" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="73"/>
-      <c r="C57" s="49"/>
-      <c r="D57" s="49"/>
+      <c r="G56" s="85"/>
+      <c r="H56" s="85"/>
+      <c r="I56" s="87"/>
+    </row>
+    <row r="57" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="84"/>
+      <c r="C57" s="85"/>
+      <c r="D57" s="85"/>
       <c r="E57" s="6"/>
       <c r="F57" s="7"/>
-      <c r="G57" s="49"/>
-      <c r="H57" s="49"/>
-      <c r="I57" s="75"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B58" s="73"/>
-      <c r="C58" s="49"/>
-      <c r="D58" s="49"/>
+      <c r="G57" s="85"/>
+      <c r="H57" s="85"/>
+      <c r="I57" s="87"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="84"/>
+      <c r="C58" s="85"/>
+      <c r="D58" s="85"/>
       <c r="E58" s="8"/>
       <c r="F58" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="49"/>
-      <c r="H58" s="49"/>
-      <c r="I58" s="75"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B59" s="73"/>
-      <c r="C59" s="49"/>
-      <c r="D59" s="49"/>
+      <c r="G58" s="85"/>
+      <c r="H58" s="85"/>
+      <c r="I58" s="87"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="84"/>
+      <c r="C59" s="85"/>
+      <c r="D59" s="85"/>
       <c r="E59" s="8"/>
       <c r="F59" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G59" s="49"/>
-      <c r="H59" s="49"/>
-      <c r="I59" s="75"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="73"/>
-      <c r="C60" s="49"/>
-      <c r="D60" s="49"/>
+      <c r="G59" s="85"/>
+      <c r="H59" s="85"/>
+      <c r="I59" s="87"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="84"/>
+      <c r="C60" s="85"/>
+      <c r="D60" s="85"/>
       <c r="E60" s="8"/>
       <c r="F60" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G60" s="49"/>
-      <c r="H60" s="49"/>
-      <c r="I60" s="75"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="73"/>
-      <c r="C61" s="49"/>
-      <c r="D61" s="49"/>
+      <c r="G60" s="85"/>
+      <c r="H60" s="85"/>
+      <c r="I60" s="87"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="84"/>
+      <c r="C61" s="85"/>
+      <c r="D61" s="85"/>
       <c r="E61" s="8"/>
       <c r="F61" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G61" s="49"/>
-      <c r="H61" s="49"/>
-      <c r="I61" s="75"/>
-    </row>
-    <row r="62" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="76"/>
-      <c r="C62" s="77"/>
-      <c r="D62" s="77"/>
+      <c r="G61" s="85"/>
+      <c r="H61" s="85"/>
+      <c r="I61" s="87"/>
+    </row>
+    <row r="62" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="88"/>
+      <c r="C62" s="89"/>
+      <c r="D62" s="89"/>
       <c r="E62" s="17"/>
       <c r="F62" s="18"/>
-      <c r="G62" s="77"/>
-      <c r="H62" s="77"/>
-      <c r="I62" s="78"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B64" s="51" t="s">
+      <c r="G62" s="89"/>
+      <c r="H62" s="89"/>
+      <c r="I62" s="90"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="51"/>
-      <c r="D64" s="51"/>
-      <c r="E64" s="51"/>
-      <c r="F64" s="51"/>
-      <c r="G64" s="51"/>
-      <c r="H64" s="51"/>
-      <c r="I64" s="51"/>
-    </row>
-    <row r="65" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="64" t="s">
+      <c r="C64" s="76"/>
+      <c r="D64" s="76"/>
+      <c r="E64" s="76"/>
+      <c r="F64" s="76"/>
+      <c r="G64" s="76"/>
+      <c r="H64" s="76"/>
+      <c r="I64" s="76"/>
+    </row>
+    <row r="65" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="65"/>
-      <c r="D66" s="65"/>
-      <c r="E66" s="65"/>
-      <c r="F66" s="65"/>
-      <c r="G66" s="68" t="s">
+      <c r="C66" s="70"/>
+      <c r="D66" s="70"/>
+      <c r="E66" s="70"/>
+      <c r="F66" s="70"/>
+      <c r="G66" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="H66" s="68"/>
-      <c r="I66" s="69"/>
-    </row>
-    <row r="67" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="66"/>
-      <c r="C67" s="67"/>
-      <c r="D67" s="67"/>
-      <c r="E67" s="67"/>
-      <c r="F67" s="67"/>
-      <c r="G67" s="70" t="s">
+      <c r="H66" s="73"/>
+      <c r="I66" s="74"/>
+    </row>
+    <row r="67" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="71"/>
+      <c r="C67" s="72"/>
+      <c r="D67" s="72"/>
+      <c r="E67" s="72"/>
+      <c r="F67" s="72"/>
+      <c r="G67" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="H67" s="70"/>
+      <c r="H67" s="75"/>
       <c r="I67" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="71"/>
-      <c r="C68" s="72"/>
-      <c r="D68" s="72"/>
-      <c r="E68" s="72"/>
-      <c r="F68" s="72"/>
-      <c r="G68" s="72"/>
-      <c r="H68" s="72"/>
+    <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="82"/>
+      <c r="C68" s="83"/>
+      <c r="D68" s="83"/>
+      <c r="E68" s="83"/>
+      <c r="F68" s="83"/>
+      <c r="G68" s="83"/>
+      <c r="H68" s="83"/>
       <c r="I68" s="25"/>
     </row>
-    <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="73"/>
-      <c r="C69" s="49"/>
-      <c r="D69" s="49"/>
-      <c r="E69" s="49"/>
-      <c r="F69" s="49"/>
-      <c r="G69" s="49"/>
-      <c r="H69" s="49"/>
+    <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="84"/>
+      <c r="C69" s="85"/>
+      <c r="D69" s="85"/>
+      <c r="E69" s="85"/>
+      <c r="F69" s="85"/>
+      <c r="G69" s="85"/>
+      <c r="H69" s="85"/>
       <c r="I69" s="26"/>
     </row>
-    <row r="70" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="73"/>
-      <c r="C70" s="49"/>
-      <c r="D70" s="49"/>
-      <c r="E70" s="49"/>
-      <c r="F70" s="49"/>
-      <c r="G70" s="49"/>
-      <c r="H70" s="49"/>
+    <row r="70" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="84"/>
+      <c r="C70" s="85"/>
+      <c r="D70" s="85"/>
+      <c r="E70" s="85"/>
+      <c r="F70" s="85"/>
+      <c r="G70" s="85"/>
+      <c r="H70" s="85"/>
       <c r="I70" s="26"/>
     </row>
-    <row r="71" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="76"/>
-      <c r="C71" s="77"/>
-      <c r="D71" s="77"/>
-      <c r="E71" s="77"/>
-      <c r="F71" s="77"/>
-      <c r="G71" s="77"/>
-      <c r="H71" s="77"/>
+    <row r="71" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="88"/>
+      <c r="C71" s="89"/>
+      <c r="D71" s="89"/>
+      <c r="E71" s="89"/>
+      <c r="F71" s="89"/>
+      <c r="G71" s="89"/>
+      <c r="H71" s="89"/>
       <c r="I71" s="27"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B73" s="81" t="s">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B73" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="81"/>
-      <c r="D73" s="81"/>
-      <c r="E73" s="81"/>
-      <c r="F73" s="81"/>
-      <c r="G73" s="81"/>
-      <c r="H73" s="81"/>
-      <c r="I73" s="81"/>
-    </row>
-    <row r="74" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B75" s="82"/>
-      <c r="C75" s="83"/>
-      <c r="D75" s="83"/>
-      <c r="E75" s="83"/>
-      <c r="F75" s="83"/>
-      <c r="G75" s="83"/>
-      <c r="H75" s="83"/>
-      <c r="I75" s="84"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B76" s="52"/>
-      <c r="C76" s="53"/>
-      <c r="D76" s="53"/>
-      <c r="E76" s="53"/>
-      <c r="F76" s="53"/>
-      <c r="G76" s="53"/>
-      <c r="H76" s="53"/>
-      <c r="I76" s="56"/>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B77" s="52"/>
-      <c r="C77" s="53"/>
-      <c r="D77" s="53"/>
-      <c r="E77" s="53"/>
-      <c r="F77" s="53"/>
-      <c r="G77" s="53"/>
-      <c r="H77" s="53"/>
-      <c r="I77" s="56"/>
-    </row>
-    <row r="78" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="61"/>
-      <c r="C78" s="62"/>
-      <c r="D78" s="62"/>
-      <c r="E78" s="62"/>
-      <c r="F78" s="62"/>
-      <c r="G78" s="62"/>
-      <c r="H78" s="62"/>
-      <c r="I78" s="63"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G80" s="47" t="s">
+      <c r="C73" s="58"/>
+      <c r="D73" s="58"/>
+      <c r="E73" s="58"/>
+      <c r="F73" s="58"/>
+      <c r="G73" s="58"/>
+      <c r="H73" s="58"/>
+      <c r="I73" s="58"/>
+    </row>
+    <row r="74" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B75" s="59"/>
+      <c r="C75" s="60"/>
+      <c r="D75" s="60"/>
+      <c r="E75" s="60"/>
+      <c r="F75" s="60"/>
+      <c r="G75" s="60"/>
+      <c r="H75" s="60"/>
+      <c r="I75" s="61"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="62"/>
+      <c r="C76" s="63"/>
+      <c r="D76" s="63"/>
+      <c r="E76" s="63"/>
+      <c r="F76" s="63"/>
+      <c r="G76" s="63"/>
+      <c r="H76" s="63"/>
+      <c r="I76" s="64"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B77" s="62"/>
+      <c r="C77" s="63"/>
+      <c r="D77" s="63"/>
+      <c r="E77" s="63"/>
+      <c r="F77" s="63"/>
+      <c r="G77" s="63"/>
+      <c r="H77" s="63"/>
+      <c r="I77" s="64"/>
+    </row>
+    <row r="78" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="65"/>
+      <c r="C78" s="66"/>
+      <c r="D78" s="66"/>
+      <c r="E78" s="66"/>
+      <c r="F78" s="66"/>
+      <c r="G78" s="66"/>
+      <c r="H78" s="66"/>
+      <c r="I78" s="67"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G80" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="H80" s="47"/>
+      <c r="H80" s="68"/>
       <c r="I80" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
@@ -13168,21 +13167,21 @@
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B83" s="79" t="str">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="47" t="str">
         <f>IF(D10=0,"Assinatura do(a) Orientador(a)",D10)</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="C83" s="79"/>
-      <c r="D83" s="79"/>
-      <c r="F83" s="80" t="s">
+      <c r="C83" s="47"/>
+      <c r="D83" s="47"/>
+      <c r="F83" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="G83" s="80"/>
-      <c r="H83" s="80"/>
-      <c r="I83" s="80"/>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G83" s="48"/>
+      <c r="H83" s="48"/>
+      <c r="I83" s="48"/>
+    </row>
+    <row r="85" spans="2:10" ht="15.75" x14ac:dyDescent="0.3">
       <c r="J85" s="23" t="s">
         <v>37</v>
       </c>
@@ -13192,19 +13191,27 @@
     <protectedRange sqref="B20:D34 G20:I34 B68:I71 B75 B39:D62 G39:I62" name="Intervalo1"/>
   </protectedRanges>
   <mergeCells count="50">
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="F83:I83"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="B73:I73"/>
-    <mergeCell ref="B75:I78"/>
-    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="B20:D24"/>
+    <mergeCell ref="G20:I24"/>
+    <mergeCell ref="B25:D29"/>
+    <mergeCell ref="G25:I29"/>
+    <mergeCell ref="B30:D34"/>
+    <mergeCell ref="G30:I34"/>
     <mergeCell ref="B66:F67"/>
     <mergeCell ref="G66:I66"/>
     <mergeCell ref="G67:H67"/>
@@ -13221,27 +13228,19 @@
     <mergeCell ref="B64:I64"/>
     <mergeCell ref="B45:D50"/>
     <mergeCell ref="G45:I50"/>
-    <mergeCell ref="B20:D24"/>
-    <mergeCell ref="G20:I24"/>
-    <mergeCell ref="B25:D29"/>
-    <mergeCell ref="G25:I29"/>
-    <mergeCell ref="B30:D34"/>
-    <mergeCell ref="G30:I34"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="B73:I73"/>
+    <mergeCell ref="B75:I78"/>
+    <mergeCell ref="G80:H80"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:I16 B7:C7">
     <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
@@ -13272,13 +13271,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>121920</xdr:rowOff>
+                    <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13294,13 +13293,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>160020</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13320,9 +13319,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>23</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13342,9 +13341,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13358,15 +13357,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>45720</xdr:colOff>
+                    <xdr:colOff>47625</xdr:colOff>
                     <xdr:row>30</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>22860</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>32</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13380,15 +13379,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>45720</xdr:colOff>
+                    <xdr:colOff>47625</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>33</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13404,13 +13403,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>24</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13430,7 +13429,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -13448,13 +13447,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>28</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13474,7 +13473,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>40</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -13496,7 +13495,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>41</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -13514,13 +13513,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>40</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>42</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13540,9 +13539,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>43</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13558,13 +13557,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>50</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>52</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13584,7 +13583,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>53</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -13602,13 +13601,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>52</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>54</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13628,9 +13627,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>55</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13646,13 +13645,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>56</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>58</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13672,7 +13671,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>59</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -13690,13 +13689,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>58</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>60</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13716,9 +13715,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>61</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13734,13 +13733,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>44</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>46</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13760,9 +13759,9 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>47</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13778,13 +13777,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>46</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>48</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13804,9 +13803,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>49</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13820,43 +13819,43 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B5:J85"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B12" sqref="B12:I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="4.44140625" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" customWidth="1"/>
-    <col min="8" max="8" width="3.5546875" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="46" t="s">
+    <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-    </row>
-    <row r="6" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
+    </row>
+    <row r="6" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="32"/>
       <c r="C6" s="32"/>
       <c r="D6" s="32"/>
@@ -13866,334 +13865,334 @@
       <c r="H6" s="32"/>
       <c r="I6" s="32"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="47" t="s">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="94" t="str">
+      <c r="C8" s="109" t="str">
         <f>'2º Sem - Setembro'!C8:I8</f>
-        <v>Redução de disperdicio por excesso de produção.</v>
-      </c>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+        <v>Otimização de processos e gestão de refeitórios com Machine Learning</v>
+      </c>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="94" t="str">
+      <c r="C9" s="109" t="str">
         <f>'2º Sem - Setembro'!C9:I9</f>
         <v>Engenharia da Computação</v>
       </c>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D9" s="109"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="109"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="94" t="str">
+      <c r="D10" s="109" t="str">
         <f>'2º Sem - Setembro'!D10:I10</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="94"/>
-    </row>
-    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+    </row>
+    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
       <c r="G12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="86">
+      <c r="H12" s="101">
         <v>82150171</v>
       </c>
-      <c r="I12" s="87"/>
-    </row>
-    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I12" s="102"/>
+    </row>
+    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
       <c r="G13" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="89">
+      <c r="H13" s="104">
         <v>82150205</v>
       </c>
-      <c r="I13" s="90"/>
-    </row>
-    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I13" s="105"/>
+    </row>
+    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
       <c r="G14" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="89">
+      <c r="H14" s="104">
         <v>82150320</v>
       </c>
-      <c r="I14" s="90"/>
-    </row>
-    <row r="15" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I14" s="105"/>
+    </row>
+    <row r="15" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="55" t="str">
+      <c r="C15" s="92" t="str">
         <f>'2º Sem - Setembro'!C14:F14</f>
         <v>Renan Dias de Oliveira</v>
       </c>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
       <c r="G15" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="92"/>
-      <c r="I15" s="93"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="51" t="s">
+      <c r="H15" s="107"/>
+      <c r="I15" s="108"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-    </row>
-    <row r="18" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="41" t="s">
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+    </row>
+    <row r="18" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="43" t="s">
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="44"/>
-      <c r="G19" s="42" t="s">
+      <c r="F19" s="80"/>
+      <c r="G19" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="42"/>
-      <c r="I19" s="45"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="52"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="81"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="62"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
       <c r="E20" s="14"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="56"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="52"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="64"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="62"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="56"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="52"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="64"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="62"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="56"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="52"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="64"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="62"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
       <c r="E23" s="8"/>
       <c r="F23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="56"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="54"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="64"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="91"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="57"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="58"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="93"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="94"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="95"/>
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="60"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="52"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
+      <c r="G25" s="95"/>
+      <c r="H25" s="95"/>
+      <c r="I25" s="96"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="62"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="56"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="52"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="64"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="62"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="56"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="52"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="64"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="62"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
       <c r="E28" s="8"/>
       <c r="F28" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="56"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="54"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="64"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="91"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="92"/>
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="57"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="52" t="s">
+      <c r="G29" s="92"/>
+      <c r="H29" s="92"/>
+      <c r="I29" s="93"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="56"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="52"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="64"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="62"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="56"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="52"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="64"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="62"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
       <c r="E32" s="8"/>
       <c r="F32" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="56"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="52"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="64"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="62"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
       <c r="E33" s="8"/>
       <c r="F33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="56"/>
-    </row>
-    <row r="34" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="61"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="64"/>
+    </row>
+    <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="65"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="66"/>
       <c r="E34" s="17"/>
       <c r="F34" s="18"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="63"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G34" s="66"/>
+      <c r="H34" s="66"/>
+      <c r="I34" s="67"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -14203,19 +14202,19 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="51" t="s">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51"/>
-    </row>
-    <row r="37" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="76"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="76"/>
+    </row>
+    <row r="37" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="31"/>
       <c r="C37" s="31"/>
       <c r="D37" s="31"/>
@@ -14225,444 +14224,444 @@
       <c r="H37" s="31"/>
       <c r="I37" s="31"/>
     </row>
-    <row r="38" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="41" t="s">
+    <row r="38" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="43" t="s">
+      <c r="C38" s="78"/>
+      <c r="D38" s="78"/>
+      <c r="E38" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="44"/>
-      <c r="G38" s="42" t="s">
+      <c r="F38" s="80"/>
+      <c r="G38" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="42"/>
-      <c r="I38" s="45"/>
-    </row>
-    <row r="39" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="71" t="s">
+      <c r="H38" s="78"/>
+      <c r="I38" s="81"/>
+    </row>
+    <row r="39" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="72"/>
-      <c r="D39" s="72"/>
+      <c r="C39" s="83"/>
+      <c r="D39" s="83"/>
       <c r="E39" s="14"/>
       <c r="F39" s="15"/>
-      <c r="G39" s="72"/>
-      <c r="H39" s="72"/>
-      <c r="I39" s="74"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="73"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
+      <c r="G39" s="83"/>
+      <c r="H39" s="83"/>
+      <c r="I39" s="86"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="84"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="85"/>
       <c r="E40" s="8"/>
       <c r="F40" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="75"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="73"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
+      <c r="G40" s="85"/>
+      <c r="H40" s="85"/>
+      <c r="I40" s="87"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="84"/>
+      <c r="C41" s="85"/>
+      <c r="D41" s="85"/>
       <c r="E41" s="8"/>
       <c r="F41" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="49"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="75"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="73"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
+      <c r="G41" s="85"/>
+      <c r="H41" s="85"/>
+      <c r="I41" s="87"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="84"/>
+      <c r="C42" s="85"/>
+      <c r="D42" s="85"/>
       <c r="E42" s="8"/>
       <c r="F42" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="75"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="73"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
+      <c r="G42" s="85"/>
+      <c r="H42" s="85"/>
+      <c r="I42" s="87"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="84"/>
+      <c r="C43" s="85"/>
+      <c r="D43" s="85"/>
       <c r="E43" s="8"/>
       <c r="F43" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="75"/>
-    </row>
-    <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="73"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
+      <c r="G43" s="85"/>
+      <c r="H43" s="85"/>
+      <c r="I43" s="87"/>
+    </row>
+    <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="84"/>
+      <c r="C44" s="85"/>
+      <c r="D44" s="85"/>
       <c r="E44" s="10"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="75"/>
-    </row>
-    <row r="45" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="58" t="s">
+      <c r="G44" s="85"/>
+      <c r="H44" s="85"/>
+      <c r="I44" s="87"/>
+    </row>
+    <row r="45" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="59"/>
-      <c r="D45" s="85"/>
+      <c r="C45" s="95"/>
+      <c r="D45" s="100"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="95"/>
-      <c r="H45" s="59"/>
-      <c r="I45" s="60"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="52"/>
-      <c r="C46" s="53"/>
-      <c r="D46" s="88"/>
+      <c r="G45" s="110"/>
+      <c r="H45" s="95"/>
+      <c r="I45" s="96"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="62"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="103"/>
       <c r="E46" s="8"/>
       <c r="F46" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="96"/>
-      <c r="H46" s="53"/>
-      <c r="I46" s="56"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="52"/>
-      <c r="C47" s="53"/>
-      <c r="D47" s="88"/>
+      <c r="G46" s="111"/>
+      <c r="H46" s="63"/>
+      <c r="I46" s="64"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="62"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="103"/>
       <c r="E47" s="8"/>
       <c r="F47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="96"/>
-      <c r="H47" s="53"/>
-      <c r="I47" s="56"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="52"/>
-      <c r="C48" s="53"/>
-      <c r="D48" s="88"/>
+      <c r="G47" s="111"/>
+      <c r="H47" s="63"/>
+      <c r="I47" s="64"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="62"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="103"/>
       <c r="E48" s="8"/>
       <c r="F48" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G48" s="96"/>
-      <c r="H48" s="53"/>
-      <c r="I48" s="56"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="52"/>
-      <c r="C49" s="53"/>
-      <c r="D49" s="88"/>
+      <c r="G48" s="111"/>
+      <c r="H48" s="63"/>
+      <c r="I48" s="64"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="62"/>
+      <c r="C49" s="63"/>
+      <c r="D49" s="103"/>
       <c r="E49" s="8"/>
       <c r="F49" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G49" s="96"/>
-      <c r="H49" s="53"/>
-      <c r="I49" s="56"/>
-    </row>
-    <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="54"/>
-      <c r="C50" s="55"/>
-      <c r="D50" s="91"/>
+      <c r="G49" s="111"/>
+      <c r="H49" s="63"/>
+      <c r="I49" s="64"/>
+    </row>
+    <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="91"/>
+      <c r="C50" s="92"/>
+      <c r="D50" s="106"/>
       <c r="E50" s="10"/>
       <c r="F50" s="11"/>
-      <c r="G50" s="97"/>
-      <c r="H50" s="55"/>
-      <c r="I50" s="57"/>
-    </row>
-    <row r="51" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="58" t="s">
+      <c r="G50" s="112"/>
+      <c r="H50" s="92"/>
+      <c r="I50" s="93"/>
+    </row>
+    <row r="51" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="59"/>
-      <c r="D51" s="85"/>
+      <c r="C51" s="95"/>
+      <c r="D51" s="100"/>
       <c r="E51" s="6"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="95"/>
-      <c r="H51" s="59"/>
-      <c r="I51" s="60"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="52"/>
-      <c r="C52" s="53"/>
-      <c r="D52" s="88"/>
+      <c r="G51" s="110"/>
+      <c r="H51" s="95"/>
+      <c r="I51" s="96"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="62"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="103"/>
       <c r="E52" s="8"/>
       <c r="F52" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G52" s="96"/>
-      <c r="H52" s="53"/>
-      <c r="I52" s="56"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B53" s="52"/>
-      <c r="C53" s="53"/>
-      <c r="D53" s="88"/>
+      <c r="G52" s="111"/>
+      <c r="H52" s="63"/>
+      <c r="I52" s="64"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="62"/>
+      <c r="C53" s="63"/>
+      <c r="D53" s="103"/>
       <c r="E53" s="8"/>
       <c r="F53" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="96"/>
-      <c r="H53" s="53"/>
-      <c r="I53" s="56"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="52"/>
-      <c r="C54" s="53"/>
-      <c r="D54" s="88"/>
+      <c r="G53" s="111"/>
+      <c r="H53" s="63"/>
+      <c r="I53" s="64"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="62"/>
+      <c r="C54" s="63"/>
+      <c r="D54" s="103"/>
       <c r="E54" s="8"/>
       <c r="F54" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G54" s="96"/>
-      <c r="H54" s="53"/>
-      <c r="I54" s="56"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B55" s="52"/>
-      <c r="C55" s="53"/>
-      <c r="D55" s="88"/>
+      <c r="G54" s="111"/>
+      <c r="H54" s="63"/>
+      <c r="I54" s="64"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="62"/>
+      <c r="C55" s="63"/>
+      <c r="D55" s="103"/>
       <c r="E55" s="8"/>
       <c r="F55" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G55" s="96"/>
-      <c r="H55" s="53"/>
-      <c r="I55" s="56"/>
-    </row>
-    <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="54"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="91"/>
+      <c r="G55" s="111"/>
+      <c r="H55" s="63"/>
+      <c r="I55" s="64"/>
+    </row>
+    <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="91"/>
+      <c r="C56" s="92"/>
+      <c r="D56" s="106"/>
       <c r="E56" s="10"/>
       <c r="F56" s="11"/>
-      <c r="G56" s="97"/>
-      <c r="H56" s="55"/>
-      <c r="I56" s="57"/>
-    </row>
-    <row r="57" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="73"/>
-      <c r="C57" s="49"/>
-      <c r="D57" s="49"/>
+      <c r="G56" s="112"/>
+      <c r="H56" s="92"/>
+      <c r="I56" s="93"/>
+    </row>
+    <row r="57" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="84"/>
+      <c r="C57" s="85"/>
+      <c r="D57" s="85"/>
       <c r="E57" s="6"/>
       <c r="F57" s="7"/>
-      <c r="G57" s="49"/>
-      <c r="H57" s="49"/>
-      <c r="I57" s="75"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B58" s="73"/>
-      <c r="C58" s="49"/>
-      <c r="D58" s="49"/>
+      <c r="G57" s="85"/>
+      <c r="H57" s="85"/>
+      <c r="I57" s="87"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="84"/>
+      <c r="C58" s="85"/>
+      <c r="D58" s="85"/>
       <c r="E58" s="8"/>
       <c r="F58" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="49"/>
-      <c r="H58" s="49"/>
-      <c r="I58" s="75"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B59" s="73"/>
-      <c r="C59" s="49"/>
-      <c r="D59" s="49"/>
+      <c r="G58" s="85"/>
+      <c r="H58" s="85"/>
+      <c r="I58" s="87"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="84"/>
+      <c r="C59" s="85"/>
+      <c r="D59" s="85"/>
       <c r="E59" s="8"/>
       <c r="F59" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G59" s="49"/>
-      <c r="H59" s="49"/>
-      <c r="I59" s="75"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="73"/>
-      <c r="C60" s="49"/>
-      <c r="D60" s="49"/>
+      <c r="G59" s="85"/>
+      <c r="H59" s="85"/>
+      <c r="I59" s="87"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="84"/>
+      <c r="C60" s="85"/>
+      <c r="D60" s="85"/>
       <c r="E60" s="8"/>
       <c r="F60" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G60" s="49"/>
-      <c r="H60" s="49"/>
-      <c r="I60" s="75"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="73"/>
-      <c r="C61" s="49"/>
-      <c r="D61" s="49"/>
+      <c r="G60" s="85"/>
+      <c r="H60" s="85"/>
+      <c r="I60" s="87"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="84"/>
+      <c r="C61" s="85"/>
+      <c r="D61" s="85"/>
       <c r="E61" s="8"/>
       <c r="F61" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G61" s="49"/>
-      <c r="H61" s="49"/>
-      <c r="I61" s="75"/>
-    </row>
-    <row r="62" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="76"/>
-      <c r="C62" s="77"/>
-      <c r="D62" s="77"/>
+      <c r="G61" s="85"/>
+      <c r="H61" s="85"/>
+      <c r="I61" s="87"/>
+    </row>
+    <row r="62" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="88"/>
+      <c r="C62" s="89"/>
+      <c r="D62" s="89"/>
       <c r="E62" s="17"/>
       <c r="F62" s="18"/>
-      <c r="G62" s="77"/>
-      <c r="H62" s="77"/>
-      <c r="I62" s="78"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B64" s="51" t="s">
+      <c r="G62" s="89"/>
+      <c r="H62" s="89"/>
+      <c r="I62" s="90"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="51"/>
-      <c r="D64" s="51"/>
-      <c r="E64" s="51"/>
-      <c r="F64" s="51"/>
-      <c r="G64" s="51"/>
-      <c r="H64" s="51"/>
-      <c r="I64" s="51"/>
-    </row>
-    <row r="65" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="64" t="s">
+      <c r="C64" s="76"/>
+      <c r="D64" s="76"/>
+      <c r="E64" s="76"/>
+      <c r="F64" s="76"/>
+      <c r="G64" s="76"/>
+      <c r="H64" s="76"/>
+      <c r="I64" s="76"/>
+    </row>
+    <row r="65" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="65"/>
-      <c r="D66" s="65"/>
-      <c r="E66" s="65"/>
-      <c r="F66" s="65"/>
-      <c r="G66" s="68" t="s">
+      <c r="C66" s="70"/>
+      <c r="D66" s="70"/>
+      <c r="E66" s="70"/>
+      <c r="F66" s="70"/>
+      <c r="G66" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="H66" s="68"/>
-      <c r="I66" s="69"/>
-    </row>
-    <row r="67" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="66"/>
-      <c r="C67" s="67"/>
-      <c r="D67" s="67"/>
-      <c r="E67" s="67"/>
-      <c r="F67" s="67"/>
-      <c r="G67" s="70" t="s">
+      <c r="H66" s="73"/>
+      <c r="I66" s="74"/>
+    </row>
+    <row r="67" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="71"/>
+      <c r="C67" s="72"/>
+      <c r="D67" s="72"/>
+      <c r="E67" s="72"/>
+      <c r="F67" s="72"/>
+      <c r="G67" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="H67" s="70"/>
+      <c r="H67" s="75"/>
       <c r="I67" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="71"/>
-      <c r="C68" s="72"/>
-      <c r="D68" s="72"/>
-      <c r="E68" s="72"/>
-      <c r="F68" s="72"/>
-      <c r="G68" s="72"/>
-      <c r="H68" s="72"/>
+    <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="82"/>
+      <c r="C68" s="83"/>
+      <c r="D68" s="83"/>
+      <c r="E68" s="83"/>
+      <c r="F68" s="83"/>
+      <c r="G68" s="83"/>
+      <c r="H68" s="83"/>
       <c r="I68" s="33"/>
     </row>
-    <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="73"/>
-      <c r="C69" s="49"/>
-      <c r="D69" s="49"/>
-      <c r="E69" s="49"/>
-      <c r="F69" s="49"/>
-      <c r="G69" s="49"/>
-      <c r="H69" s="49"/>
+    <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="84"/>
+      <c r="C69" s="85"/>
+      <c r="D69" s="85"/>
+      <c r="E69" s="85"/>
+      <c r="F69" s="85"/>
+      <c r="G69" s="85"/>
+      <c r="H69" s="85"/>
       <c r="I69" s="34"/>
     </row>
-    <row r="70" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="73"/>
-      <c r="C70" s="49"/>
-      <c r="D70" s="49"/>
-      <c r="E70" s="49"/>
-      <c r="F70" s="49"/>
-      <c r="G70" s="49"/>
-      <c r="H70" s="49"/>
+    <row r="70" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="84"/>
+      <c r="C70" s="85"/>
+      <c r="D70" s="85"/>
+      <c r="E70" s="85"/>
+      <c r="F70" s="85"/>
+      <c r="G70" s="85"/>
+      <c r="H70" s="85"/>
       <c r="I70" s="34"/>
     </row>
-    <row r="71" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="76"/>
-      <c r="C71" s="77"/>
-      <c r="D71" s="77"/>
-      <c r="E71" s="77"/>
-      <c r="F71" s="77"/>
-      <c r="G71" s="77"/>
-      <c r="H71" s="77"/>
+    <row r="71" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="88"/>
+      <c r="C71" s="89"/>
+      <c r="D71" s="89"/>
+      <c r="E71" s="89"/>
+      <c r="F71" s="89"/>
+      <c r="G71" s="89"/>
+      <c r="H71" s="89"/>
       <c r="I71" s="35"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B73" s="81" t="s">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B73" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="81"/>
-      <c r="D73" s="81"/>
-      <c r="E73" s="81"/>
-      <c r="F73" s="81"/>
-      <c r="G73" s="81"/>
-      <c r="H73" s="81"/>
-      <c r="I73" s="81"/>
-    </row>
-    <row r="74" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B75" s="82"/>
-      <c r="C75" s="83"/>
-      <c r="D75" s="83"/>
-      <c r="E75" s="83"/>
-      <c r="F75" s="83"/>
-      <c r="G75" s="83"/>
-      <c r="H75" s="83"/>
-      <c r="I75" s="84"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B76" s="52"/>
-      <c r="C76" s="53"/>
-      <c r="D76" s="53"/>
-      <c r="E76" s="53"/>
-      <c r="F76" s="53"/>
-      <c r="G76" s="53"/>
-      <c r="H76" s="53"/>
-      <c r="I76" s="56"/>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B77" s="52"/>
-      <c r="C77" s="53"/>
-      <c r="D77" s="53"/>
-      <c r="E77" s="53"/>
-      <c r="F77" s="53"/>
-      <c r="G77" s="53"/>
-      <c r="H77" s="53"/>
-      <c r="I77" s="56"/>
-    </row>
-    <row r="78" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="61"/>
-      <c r="C78" s="62"/>
-      <c r="D78" s="62"/>
-      <c r="E78" s="62"/>
-      <c r="F78" s="62"/>
-      <c r="G78" s="62"/>
-      <c r="H78" s="62"/>
-      <c r="I78" s="63"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G80" s="47" t="s">
+      <c r="C73" s="58"/>
+      <c r="D73" s="58"/>
+      <c r="E73" s="58"/>
+      <c r="F73" s="58"/>
+      <c r="G73" s="58"/>
+      <c r="H73" s="58"/>
+      <c r="I73" s="58"/>
+    </row>
+    <row r="74" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B75" s="59"/>
+      <c r="C75" s="60"/>
+      <c r="D75" s="60"/>
+      <c r="E75" s="60"/>
+      <c r="F75" s="60"/>
+      <c r="G75" s="60"/>
+      <c r="H75" s="60"/>
+      <c r="I75" s="61"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="62"/>
+      <c r="C76" s="63"/>
+      <c r="D76" s="63"/>
+      <c r="E76" s="63"/>
+      <c r="F76" s="63"/>
+      <c r="G76" s="63"/>
+      <c r="H76" s="63"/>
+      <c r="I76" s="64"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B77" s="62"/>
+      <c r="C77" s="63"/>
+      <c r="D77" s="63"/>
+      <c r="E77" s="63"/>
+      <c r="F77" s="63"/>
+      <c r="G77" s="63"/>
+      <c r="H77" s="63"/>
+      <c r="I77" s="64"/>
+    </row>
+    <row r="78" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="65"/>
+      <c r="C78" s="66"/>
+      <c r="D78" s="66"/>
+      <c r="E78" s="66"/>
+      <c r="F78" s="66"/>
+      <c r="G78" s="66"/>
+      <c r="H78" s="66"/>
+      <c r="I78" s="67"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G80" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="H80" s="47"/>
+      <c r="H80" s="68"/>
       <c r="I80" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
@@ -14671,21 +14670,21 @@
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B83" s="79" t="str">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="47" t="str">
         <f>IF(D10=0,"Assinatura do(a) Orientador(a)",D10)</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="C83" s="79"/>
-      <c r="D83" s="79"/>
-      <c r="F83" s="80" t="s">
+      <c r="C83" s="47"/>
+      <c r="D83" s="47"/>
+      <c r="F83" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="G83" s="80"/>
-      <c r="H83" s="80"/>
-      <c r="I83" s="80"/>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G83" s="48"/>
+      <c r="H83" s="48"/>
+      <c r="I83" s="48"/>
+    </row>
+    <row r="85" spans="2:10" ht="15.75" x14ac:dyDescent="0.3">
       <c r="J85" s="23" t="s">
         <v>37</v>
       </c>
@@ -14695,6 +14694,44 @@
     <protectedRange sqref="B20:D34 G20:I34 B68:I71 B75 B39:D62 G39:I62" name="Intervalo1"/>
   </protectedRanges>
   <mergeCells count="52">
+    <mergeCell ref="B73:I73"/>
+    <mergeCell ref="B75:I78"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="B39:D44"/>
+    <mergeCell ref="G39:I44"/>
+    <mergeCell ref="B51:D56"/>
+    <mergeCell ref="G51:I56"/>
+    <mergeCell ref="B57:D62"/>
+    <mergeCell ref="G57:I62"/>
+    <mergeCell ref="B45:D50"/>
+    <mergeCell ref="G45:I50"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="B64:I64"/>
+    <mergeCell ref="B66:F67"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B20:D24"/>
+    <mergeCell ref="G20:I24"/>
+    <mergeCell ref="B25:D29"/>
+    <mergeCell ref="G25:I29"/>
+    <mergeCell ref="B30:D34"/>
+    <mergeCell ref="G30:I34"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F38"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="B5:I5"/>
     <mergeCell ref="C8:I8"/>
@@ -14709,44 +14746,6 @@
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="B7:I7"/>
     <mergeCell ref="H14:I14"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B20:D24"/>
-    <mergeCell ref="G20:I24"/>
-    <mergeCell ref="B25:D29"/>
-    <mergeCell ref="G25:I29"/>
-    <mergeCell ref="B30:D34"/>
-    <mergeCell ref="G30:I34"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="B64:I64"/>
-    <mergeCell ref="B66:F67"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="B39:D44"/>
-    <mergeCell ref="G39:I44"/>
-    <mergeCell ref="B51:D56"/>
-    <mergeCell ref="G51:I56"/>
-    <mergeCell ref="B57:D62"/>
-    <mergeCell ref="G57:I62"/>
-    <mergeCell ref="B45:D50"/>
-    <mergeCell ref="G45:I50"/>
-    <mergeCell ref="B73:I73"/>
-    <mergeCell ref="B75:I78"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="F83:I83"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:I13 B7 B15:I16 B14:H14">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
@@ -14774,13 +14773,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>121920</xdr:rowOff>
+                    <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14796,13 +14795,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>160020</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14822,9 +14821,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>23</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14844,9 +14843,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14860,15 +14859,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>45720</xdr:colOff>
+                    <xdr:colOff>47625</xdr:colOff>
                     <xdr:row>30</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>22860</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>32</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14882,15 +14881,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>45720</xdr:colOff>
+                    <xdr:colOff>47625</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>33</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14906,13 +14905,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>24</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14932,7 +14931,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -14950,13 +14949,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>28</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14976,9 +14975,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>39</xdr:row>
-                    <xdr:rowOff>137160</xdr:rowOff>
+                    <xdr:rowOff>133350</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14998,7 +14997,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>41</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -15016,13 +15015,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>40</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>42</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15042,9 +15041,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>43</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15060,13 +15059,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>50</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>51</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15086,7 +15085,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>53</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -15104,13 +15103,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>52</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>54</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15130,9 +15129,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>55</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15148,11 +15147,11 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>56</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>57</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </to>
@@ -15174,7 +15173,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>59</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -15192,13 +15191,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>58</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>60</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15218,9 +15217,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>61</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15236,13 +15235,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>44</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>45</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15262,7 +15261,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>47</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -15280,13 +15279,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>46</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>48</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15306,9 +15305,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>49</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15322,41 +15321,41 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>35</v>
       </c>
@@ -15367,29 +15366,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Procedimento_x0020_Relacionado xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47"/>
-    <Processo xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47">55</Processo>
-    <C_x00f3_digo xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47">FSA - FTT18</C_x00f3_digo>
-    <Revis_x00e3_o xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47">4</Revis_x00e3_o>
-    <Diretoria_x0020_Respons_x00e1_vel xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47">2</Diretoria_x0020_Respons_x00e1_vel>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100951F864CA035244EB7F6E6B9CAD39DD8" ma:contentTypeVersion="28" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="4d3f40bcd57f6f3788c6a2039c87841b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="ce03834f-a579-4ecb-b47e-e136bae11e47" xmlns:ns3="948e1b9c-bee8-44de-8cc6-706e5b780eae" xmlns:ns4="feadaf30-646e-4180-8499-c12b20b15a5f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f3c3814524ee6e7ba98c66e9da7e66bc" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -15646,34 +15622,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCF4BCC7-3A0E-4F11-8315-9CA8DFA05F4F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="ce03834f-a579-4ecb-b47e-e136bae11e47"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="feadaf30-646e-4180-8499-c12b20b15a5f"/>
-    <ds:schemaRef ds:uri="948e1b9c-bee8-44de-8cc6-706e5b780eae"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAF40381-23F2-4A89-8986-B9057472B1AD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Procedimento_x0020_Relacionado xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47"/>
+    <Processo xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47">55</Processo>
+    <C_x00f3_digo xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47">FSA - FTT18</C_x00f3_digo>
+    <Revis_x00e3_o xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47">4</Revis_x00e3_o>
+    <Diretoria_x0020_Respons_x00e1_vel xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47">2</Diretoria_x0020_Respons_x00e1_vel>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DEC6A78-1548-46C1-A293-FB862F1C8C0C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15692,4 +15664,31 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAF40381-23F2-4A89-8986-B9057472B1AD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCF4BCC7-3A0E-4F11-8315-9CA8DFA05F4F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="ce03834f-a579-4ecb-b47e-e136bae11e47"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="feadaf30-646e-4180-8499-c12b20b15a5f"/>
+    <ds:schemaRef ds:uri="948e1b9c-bee8-44de-8cc6-706e5b780eae"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Entregas/Relatório de Acompanhamento Mensal de TCC - V05_2ºsemestre.xlsx
+++ b/Entregas/Relatório de Acompanhamento Mensal de TCC - V05_2ºsemestre.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\082150205\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Dropbox\Documentos\FSARENA\TCC\SrMartis\Entregas\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABF3D34-9B49-4FAC-8068-4CAB98931994}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="818"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="818" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2º Sem - Agosto" sheetId="5" r:id="rId1"/>
@@ -59,7 +60,7 @@
     <definedName name="Texto9" localSheetId="2">'2º Sem - Outubro'!$B$31</definedName>
     <definedName name="Texto9" localSheetId="1">'2º Sem - Setembro'!$B$30</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -224,12 +225,6 @@
     <t>Levantamento Bibliográfico sobre Inteligência Arificia e Machine Learning</t>
   </si>
   <si>
-    <t>Formalização da Definição da Linha de Pesquisa</t>
-  </si>
-  <si>
-    <t>Formalização da Problematização do Trabalho</t>
-  </si>
-  <si>
     <t>Levantamento Bibliográfico sobre Metodologia de Otimização de Processos em Refeitórios</t>
   </si>
   <si>
@@ -244,11 +239,17 @@
   <si>
     <t>Otimização de processos e gestão de refeitórios com Machine Learning</t>
   </si>
+  <si>
+    <t>Formalização dos Itens 2, 3, 4, 5 e 6 relativos aos itens que devem ser entregues</t>
+  </si>
+  <si>
+    <t>Definição dos Objetivo Geral e Objetivos Específicos (Item 7  dos entregáveis)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -327,7 +328,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="52">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -825,30 +826,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -952,7 +929,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1048,68 +1025,56 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1117,7 +1082,25 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1128,9 +1111,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1153,24 +1133,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1178,9 +1140,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1198,32 +1157,41 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1785,13 +1753,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>121920</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1852,13 +1820,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1923,9 +1891,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1990,9 +1958,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2051,15 +2019,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>29</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>22860</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2118,15 +2086,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2187,13 +2155,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>25</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2258,7 +2226,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -2321,13 +2289,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>25</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2392,7 +2360,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>39</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -2459,7 +2427,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -2522,13 +2490,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>39</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>41</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2593,9 +2561,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>42</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2656,13 +2624,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>49</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>51</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2727,7 +2695,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>52</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -2790,13 +2758,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>51</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>53</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2861,9 +2829,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>54</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2924,13 +2892,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>57</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2995,7 +2963,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>58</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -3058,13 +3026,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>57</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>59</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3129,9 +3097,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>60</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3266,13 +3234,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>43</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>45</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3337,7 +3305,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>46</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -3400,13 +3368,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>45</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>47</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3471,9 +3439,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>48</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3613,13 +3581,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>121920</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3680,13 +3648,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3751,9 +3719,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3818,9 +3786,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3879,15 +3847,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>29</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>22860</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3946,15 +3914,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4015,13 +3983,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>25</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4086,7 +4054,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -4149,13 +4117,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>25</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4220,7 +4188,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>39</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -4287,7 +4255,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -4350,13 +4318,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>39</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>41</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4421,9 +4389,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>42</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4484,13 +4452,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>49</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>51</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4555,7 +4523,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>52</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -4618,13 +4586,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>51</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>53</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4689,9 +4657,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>54</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4752,13 +4720,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>57</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4823,7 +4791,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>58</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -4886,13 +4854,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>57</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>59</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4957,9 +4925,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>60</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5094,13 +5062,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>43</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>45</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5165,7 +5133,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>46</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -5228,13 +5196,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>45</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>47</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5299,9 +5267,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>48</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5441,13 +5409,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>121920</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5508,13 +5476,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5579,9 +5547,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5646,9 +5614,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5707,15 +5675,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>22860</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5774,15 +5742,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5843,13 +5811,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5914,7 +5882,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -5977,13 +5945,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6048,7 +6016,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -6115,7 +6083,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>41</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -6178,13 +6146,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>40</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>42</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6249,9 +6217,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>43</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6312,13 +6280,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>50</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>52</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6383,7 +6351,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>53</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -6446,13 +6414,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>52</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>54</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6517,9 +6485,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6580,13 +6548,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>56</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>58</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6651,7 +6619,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>59</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -6714,13 +6682,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>58</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>60</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6785,9 +6753,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>61</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6922,13 +6890,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>44</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>46</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6993,9 +6961,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>47</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7056,13 +7024,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>46</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>48</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7127,9 +7095,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>49</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7269,13 +7237,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>121920</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7336,13 +7304,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7407,9 +7375,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7474,9 +7442,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7535,15 +7503,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>22860</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7602,15 +7570,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7671,13 +7639,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7742,7 +7710,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -7805,13 +7773,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7876,9 +7844,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>39</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7943,7 +7911,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>41</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -8006,13 +7974,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>40</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>42</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8077,9 +8045,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>43</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8140,13 +8108,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>50</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>51</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8211,7 +8179,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>53</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -8274,13 +8242,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>52</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>54</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8345,9 +8313,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8408,11 +8376,11 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>56</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>57</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
@@ -8479,7 +8447,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>59</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -8542,13 +8510,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>58</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>60</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8613,9 +8581,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>61</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8750,13 +8718,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>44</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>45</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8821,7 +8789,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>47</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -8884,13 +8852,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>46</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>48</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8955,9 +8923,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>49</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9276,43 +9244,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B5:J84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:I8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69:F70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="4.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
-    <col min="8" max="8" width="3.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="4.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" customWidth="1"/>
+    <col min="8" max="8" width="3.5546875" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="97" t="s">
+    <row r="5" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
-    </row>
-    <row r="6" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+    </row>
+    <row r="6" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -9322,327 +9290,327 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="19"/>
-      <c r="D7" s="68" t="str">
+      <c r="D7" s="53" t="str">
         <f>Plan1!B5</f>
         <v>Agosto</v>
       </c>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="98" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="98" t="s">
+      <c r="C9" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="98"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="98"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="98" t="s">
+      <c r="D10" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="98"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="98"/>
-    </row>
-    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+    </row>
+    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="85" t="s">
+      <c r="C12" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
       <c r="G12" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="99">
+      <c r="H12" s="56">
         <v>82150171</v>
       </c>
-      <c r="I12" s="99"/>
-    </row>
-    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="56"/>
+    </row>
+    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="85" t="s">
+      <c r="C13" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
       <c r="G13" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="99">
+      <c r="H13" s="56">
         <v>82150205</v>
       </c>
-      <c r="I13" s="99"/>
-    </row>
-    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I13" s="56"/>
+    </row>
+    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="85" t="s">
+      <c r="C14" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="85"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
       <c r="G14" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="99">
+      <c r="H14" s="56">
         <v>82150320</v>
       </c>
-      <c r="I14" s="99"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I14" s="56"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
       <c r="E15" s="28"/>
       <c r="F15" s="28"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="76" t="s">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-    </row>
-    <row r="17" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="77" t="s">
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+    </row>
+    <row r="17" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="79" t="s">
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="80"/>
-      <c r="G18" s="78" t="s">
+      <c r="F18" s="50"/>
+      <c r="G18" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="78"/>
-      <c r="I18" s="81"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="62" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="51"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
       <c r="E19" s="14"/>
       <c r="F19" s="15"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="64"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="62"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="62"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="58"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
       <c r="E20" s="8"/>
       <c r="F20" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="64"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="62"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="62"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="58"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="64"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="62"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="62"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="58"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="64"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="91"/>
-      <c r="C23" s="92"/>
-      <c r="D23" s="92"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="62"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="60"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
       <c r="E23" s="10"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="92"/>
-      <c r="H23" s="92"/>
-      <c r="I23" s="93"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="94" t="s">
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="63"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="95"/>
-      <c r="D24" s="95"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
       <c r="E24" s="12"/>
       <c r="F24" s="13"/>
-      <c r="G24" s="95"/>
-      <c r="H24" s="95"/>
-      <c r="I24" s="96"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="62"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="66"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="58"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
       <c r="E25" s="8"/>
       <c r="F25" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="64"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="62"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="62"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="58"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="64"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="62"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="62"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="58"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="64"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="91"/>
-      <c r="C28" s="92"/>
-      <c r="D28" s="92"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="62"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="60"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
       <c r="E28" s="10"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="92"/>
-      <c r="H28" s="92"/>
-      <c r="I28" s="93"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="62" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="63"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
       <c r="E29" s="8"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="64"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="62"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="62"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="58"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G30" s="63"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="64"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="62"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="62"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="58"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="64"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="62"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="62"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="58"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
       <c r="E32" s="8"/>
       <c r="F32" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="64"/>
-    </row>
-    <row r="33" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="65"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="66"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="62"/>
+    </row>
+    <row r="33" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="67"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
       <c r="E33" s="17"/>
       <c r="F33" s="18"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="66"/>
-      <c r="I33" s="67"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G33" s="68"/>
+      <c r="H33" s="68"/>
+      <c r="I33" s="69"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -9652,19 +9620,19 @@
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="76" t="s">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="76"/>
-      <c r="D35" s="76"/>
-      <c r="E35" s="76"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="76"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="76"/>
-    </row>
-    <row r="36" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
+    </row>
+    <row r="36" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
@@ -9674,349 +9642,349 @@
       <c r="H36" s="16"/>
       <c r="I36" s="16"/>
     </row>
-    <row r="37" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="77" t="s">
+    <row r="37" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="78"/>
-      <c r="D37" s="78"/>
-      <c r="E37" s="79" t="s">
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="F37" s="80"/>
-      <c r="G37" s="78" t="s">
+      <c r="F37" s="50"/>
+      <c r="G37" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="H37" s="78"/>
-      <c r="I37" s="81"/>
-    </row>
-    <row r="38" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="82" t="s">
+      <c r="H37" s="48"/>
+      <c r="I37" s="51"/>
+    </row>
+    <row r="38" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="83"/>
-      <c r="D38" s="83"/>
+      <c r="C38" s="78"/>
+      <c r="D38" s="78"/>
       <c r="E38" s="14"/>
       <c r="F38" s="15"/>
-      <c r="G38" s="83"/>
-      <c r="H38" s="83"/>
-      <c r="I38" s="86"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="84"/>
-      <c r="C39" s="85"/>
-      <c r="D39" s="85"/>
+      <c r="G38" s="78"/>
+      <c r="H38" s="78"/>
+      <c r="I38" s="80"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B39" s="79"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
       <c r="E39" s="8"/>
       <c r="F39" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G39" s="85"/>
-      <c r="H39" s="85"/>
-      <c r="I39" s="87"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="84"/>
-      <c r="C40" s="85"/>
-      <c r="D40" s="85"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="81"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B40" s="79"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="55"/>
       <c r="E40" s="8"/>
       <c r="F40" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G40" s="85"/>
-      <c r="H40" s="85"/>
-      <c r="I40" s="87"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="84"/>
-      <c r="C41" s="85"/>
-      <c r="D41" s="85"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="81"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="79"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="55"/>
       <c r="E41" s="8"/>
       <c r="F41" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G41" s="85"/>
-      <c r="H41" s="85"/>
-      <c r="I41" s="87"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="84"/>
-      <c r="C42" s="85"/>
-      <c r="D42" s="85"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="55"/>
+      <c r="I41" s="81"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="79"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="55"/>
       <c r="E42" s="8"/>
       <c r="F42" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G42" s="85"/>
-      <c r="H42" s="85"/>
-      <c r="I42" s="87"/>
-    </row>
-    <row r="43" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="84"/>
-      <c r="C43" s="85"/>
-      <c r="D43" s="85"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="81"/>
+    </row>
+    <row r="43" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="79"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="55"/>
       <c r="E43" s="10"/>
       <c r="F43" s="11"/>
-      <c r="G43" s="85"/>
-      <c r="H43" s="85"/>
-      <c r="I43" s="87"/>
-    </row>
-    <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="84" t="s">
+      <c r="G43" s="55"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="81"/>
+    </row>
+    <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="85"/>
-      <c r="D44" s="85"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="55"/>
       <c r="E44" s="6"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="85"/>
-      <c r="H44" s="85"/>
-      <c r="I44" s="87"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="84"/>
-      <c r="C45" s="85"/>
-      <c r="D45" s="85"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="81"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B45" s="79"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="55"/>
       <c r="E45" s="8"/>
       <c r="F45" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G45" s="85"/>
-      <c r="H45" s="85"/>
-      <c r="I45" s="87"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="84"/>
-      <c r="C46" s="85"/>
-      <c r="D46" s="85"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="81"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B46" s="79"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="55"/>
       <c r="E46" s="8"/>
       <c r="F46" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G46" s="85"/>
-      <c r="H46" s="85"/>
-      <c r="I46" s="87"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="84"/>
-      <c r="C47" s="85"/>
-      <c r="D47" s="85"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="81"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B47" s="79"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="55"/>
       <c r="E47" s="8"/>
       <c r="F47" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G47" s="85"/>
-      <c r="H47" s="85"/>
-      <c r="I47" s="87"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="84"/>
-      <c r="C48" s="85"/>
-      <c r="D48" s="85"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="81"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B48" s="79"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="55"/>
       <c r="E48" s="8"/>
       <c r="F48" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G48" s="85"/>
-      <c r="H48" s="85"/>
-      <c r="I48" s="87"/>
-    </row>
-    <row r="49" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="84"/>
-      <c r="C49" s="85"/>
-      <c r="D49" s="85"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="81"/>
+    </row>
+    <row r="49" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="79"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="55"/>
       <c r="E49" s="10"/>
       <c r="F49" s="11"/>
-      <c r="G49" s="85"/>
-      <c r="H49" s="85"/>
-      <c r="I49" s="87"/>
-    </row>
-    <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="84" t="s">
+      <c r="G49" s="55"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="81"/>
+    </row>
+    <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="C50" s="85"/>
-      <c r="D50" s="85"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="55"/>
       <c r="E50" s="6"/>
       <c r="F50" s="7"/>
-      <c r="G50" s="85"/>
-      <c r="H50" s="85"/>
-      <c r="I50" s="87"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="84"/>
-      <c r="C51" s="85"/>
-      <c r="D51" s="85"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="55"/>
+      <c r="I50" s="81"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B51" s="79"/>
+      <c r="C51" s="55"/>
+      <c r="D51" s="55"/>
       <c r="E51" s="8"/>
       <c r="F51" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G51" s="85"/>
-      <c r="H51" s="85"/>
-      <c r="I51" s="87"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="84"/>
-      <c r="C52" s="85"/>
-      <c r="D52" s="85"/>
+      <c r="G51" s="55"/>
+      <c r="H51" s="55"/>
+      <c r="I51" s="81"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B52" s="79"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="55"/>
       <c r="E52" s="8"/>
       <c r="F52" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G52" s="85"/>
-      <c r="H52" s="85"/>
-      <c r="I52" s="87"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="84"/>
-      <c r="C53" s="85"/>
-      <c r="D53" s="85"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="55"/>
+      <c r="I52" s="81"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B53" s="79"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="55"/>
       <c r="E53" s="8"/>
       <c r="F53" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G53" s="85"/>
-      <c r="H53" s="85"/>
-      <c r="I53" s="87"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="84"/>
-      <c r="C54" s="85"/>
-      <c r="D54" s="85"/>
+      <c r="G53" s="55"/>
+      <c r="H53" s="55"/>
+      <c r="I53" s="81"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B54" s="79"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="55"/>
       <c r="E54" s="8"/>
       <c r="F54" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G54" s="85"/>
-      <c r="H54" s="85"/>
-      <c r="I54" s="87"/>
-    </row>
-    <row r="55" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="84"/>
-      <c r="C55" s="85"/>
-      <c r="D55" s="85"/>
+      <c r="G54" s="55"/>
+      <c r="H54" s="55"/>
+      <c r="I54" s="81"/>
+    </row>
+    <row r="55" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="79"/>
+      <c r="C55" s="55"/>
+      <c r="D55" s="55"/>
       <c r="E55" s="10"/>
       <c r="F55" s="11"/>
-      <c r="G55" s="85"/>
-      <c r="H55" s="85"/>
-      <c r="I55" s="87"/>
-    </row>
-    <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="84"/>
-      <c r="C56" s="85"/>
-      <c r="D56" s="85"/>
+      <c r="G55" s="55"/>
+      <c r="H55" s="55"/>
+      <c r="I55" s="81"/>
+    </row>
+    <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="79"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="55"/>
       <c r="E56" s="6"/>
       <c r="F56" s="7"/>
-      <c r="G56" s="85"/>
-      <c r="H56" s="85"/>
-      <c r="I56" s="87"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="84"/>
-      <c r="C57" s="85"/>
-      <c r="D57" s="85"/>
+      <c r="G56" s="55"/>
+      <c r="H56" s="55"/>
+      <c r="I56" s="81"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B57" s="79"/>
+      <c r="C57" s="55"/>
+      <c r="D57" s="55"/>
       <c r="E57" s="8"/>
       <c r="F57" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G57" s="85"/>
-      <c r="H57" s="85"/>
-      <c r="I57" s="87"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="84"/>
-      <c r="C58" s="85"/>
-      <c r="D58" s="85"/>
+      <c r="G57" s="55"/>
+      <c r="H57" s="55"/>
+      <c r="I57" s="81"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B58" s="79"/>
+      <c r="C58" s="55"/>
+      <c r="D58" s="55"/>
       <c r="E58" s="8"/>
       <c r="F58" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G58" s="85"/>
-      <c r="H58" s="85"/>
-      <c r="I58" s="87"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="84"/>
-      <c r="C59" s="85"/>
-      <c r="D59" s="85"/>
+      <c r="G58" s="55"/>
+      <c r="H58" s="55"/>
+      <c r="I58" s="81"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B59" s="79"/>
+      <c r="C59" s="55"/>
+      <c r="D59" s="55"/>
       <c r="E59" s="8"/>
       <c r="F59" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G59" s="85"/>
-      <c r="H59" s="85"/>
-      <c r="I59" s="87"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="84"/>
-      <c r="C60" s="85"/>
-      <c r="D60" s="85"/>
+      <c r="G59" s="55"/>
+      <c r="H59" s="55"/>
+      <c r="I59" s="81"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B60" s="79"/>
+      <c r="C60" s="55"/>
+      <c r="D60" s="55"/>
       <c r="E60" s="8"/>
       <c r="F60" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G60" s="85"/>
-      <c r="H60" s="85"/>
-      <c r="I60" s="87"/>
-    </row>
-    <row r="61" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="88"/>
-      <c r="C61" s="89"/>
-      <c r="D61" s="89"/>
+      <c r="G60" s="55"/>
+      <c r="H60" s="55"/>
+      <c r="I60" s="81"/>
+    </row>
+    <row r="61" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="82"/>
+      <c r="C61" s="83"/>
+      <c r="D61" s="83"/>
       <c r="E61" s="17"/>
       <c r="F61" s="18"/>
-      <c r="G61" s="89"/>
-      <c r="H61" s="89"/>
-      <c r="I61" s="90"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="76" t="s">
+      <c r="G61" s="83"/>
+      <c r="H61" s="83"/>
+      <c r="I61" s="84"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B63" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="76"/>
-      <c r="D63" s="76"/>
-      <c r="E63" s="76"/>
-      <c r="F63" s="76"/>
-      <c r="G63" s="76"/>
-      <c r="H63" s="76"/>
-      <c r="I63" s="76"/>
-    </row>
-    <row r="64" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B65" s="69" t="s">
+      <c r="C63" s="57"/>
+      <c r="D63" s="57"/>
+      <c r="E63" s="57"/>
+      <c r="F63" s="57"/>
+      <c r="G63" s="57"/>
+      <c r="H63" s="57"/>
+      <c r="I63" s="57"/>
+    </row>
+    <row r="64" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B65" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="C65" s="70"/>
-      <c r="D65" s="70"/>
-      <c r="E65" s="70"/>
-      <c r="F65" s="70"/>
-      <c r="G65" s="73" t="s">
+      <c r="C65" s="71"/>
+      <c r="D65" s="71"/>
+      <c r="E65" s="71"/>
+      <c r="F65" s="71"/>
+      <c r="G65" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="H65" s="73"/>
-      <c r="I65" s="74"/>
-    </row>
-    <row r="66" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="71"/>
-      <c r="C66" s="72"/>
-      <c r="D66" s="72"/>
-      <c r="E66" s="72"/>
-      <c r="F66" s="72"/>
-      <c r="G66" s="75" t="s">
+      <c r="H65" s="74"/>
+      <c r="I65" s="75"/>
+    </row>
+    <row r="66" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="72"/>
+      <c r="C66" s="73"/>
+      <c r="D66" s="73"/>
+      <c r="E66" s="73"/>
+      <c r="F66" s="73"/>
+      <c r="G66" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="H66" s="75"/>
+      <c r="H66" s="76"/>
       <c r="I66" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="C67" s="50"/>
-      <c r="D67" s="50"/>
-      <c r="E67" s="50"/>
-      <c r="F67" s="51"/>
+    <row r="67" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="87" t="s">
+        <v>49</v>
+      </c>
+      <c r="C67" s="88"/>
+      <c r="D67" s="88"/>
+      <c r="E67" s="88"/>
+      <c r="F67" s="89"/>
       <c r="G67" s="44" t="s">
         <v>34</v>
       </c>
@@ -10025,14 +9993,14 @@
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="52" t="s">
+    <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="C68" s="53"/>
-      <c r="D68" s="53"/>
-      <c r="E68" s="53"/>
-      <c r="F68" s="54"/>
+      <c r="C68" s="91"/>
+      <c r="D68" s="91"/>
+      <c r="E68" s="91"/>
+      <c r="F68" s="92"/>
       <c r="G68" s="45" t="s">
         <v>34</v>
       </c>
@@ -10041,14 +10009,14 @@
         <v>34</v>
       </c>
     </row>
-    <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C69" s="53"/>
-      <c r="D69" s="53"/>
-      <c r="E69" s="53"/>
-      <c r="F69" s="54"/>
+    <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="C69" s="55"/>
+      <c r="D69" s="55"/>
+      <c r="E69" s="55"/>
+      <c r="F69" s="55"/>
       <c r="G69" s="45" t="s">
         <v>34</v>
       </c>
@@ -10057,14 +10025,14 @@
         <v>34</v>
       </c>
     </row>
-    <row r="70" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B70" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="C70" s="56"/>
-      <c r="D70" s="56"/>
-      <c r="E70" s="56"/>
-      <c r="F70" s="57"/>
+        <v>55</v>
+      </c>
+      <c r="C70" s="55"/>
+      <c r="D70" s="55"/>
+      <c r="E70" s="55"/>
+      <c r="F70" s="55"/>
       <c r="G70" s="46" t="s">
         <v>34</v>
       </c>
@@ -10073,71 +10041,71 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="58" t="s">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B72" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C72" s="58"/>
-      <c r="D72" s="58"/>
-      <c r="E72" s="58"/>
-      <c r="F72" s="58"/>
-      <c r="G72" s="58"/>
-      <c r="H72" s="58"/>
-      <c r="I72" s="58"/>
-    </row>
-    <row r="73" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B74" s="59" t="s">
-        <v>54</v>
-      </c>
-      <c r="C74" s="60"/>
-      <c r="D74" s="60"/>
-      <c r="E74" s="60"/>
-      <c r="F74" s="60"/>
-      <c r="G74" s="60"/>
-      <c r="H74" s="60"/>
-      <c r="I74" s="61"/>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="62"/>
-      <c r="C75" s="63"/>
-      <c r="D75" s="63"/>
-      <c r="E75" s="63"/>
-      <c r="F75" s="63"/>
-      <c r="G75" s="63"/>
-      <c r="H75" s="63"/>
-      <c r="I75" s="64"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="62"/>
-      <c r="C76" s="63"/>
-      <c r="D76" s="63"/>
-      <c r="E76" s="63"/>
-      <c r="F76" s="63"/>
-      <c r="G76" s="63"/>
-      <c r="H76" s="63"/>
-      <c r="I76" s="64"/>
-    </row>
-    <row r="77" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="65"/>
-      <c r="C77" s="66"/>
-      <c r="D77" s="66"/>
-      <c r="E77" s="66"/>
-      <c r="F77" s="66"/>
-      <c r="G77" s="66"/>
-      <c r="H77" s="66"/>
-      <c r="I77" s="67"/>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G79" s="68" t="s">
+      <c r="C72" s="93"/>
+      <c r="D72" s="93"/>
+      <c r="E72" s="93"/>
+      <c r="F72" s="93"/>
+      <c r="G72" s="93"/>
+      <c r="H72" s="93"/>
+      <c r="I72" s="93"/>
+    </row>
+    <row r="73" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B74" s="94" t="s">
+        <v>52</v>
+      </c>
+      <c r="C74" s="95"/>
+      <c r="D74" s="95"/>
+      <c r="E74" s="95"/>
+      <c r="F74" s="95"/>
+      <c r="G74" s="95"/>
+      <c r="H74" s="95"/>
+      <c r="I74" s="96"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B75" s="58"/>
+      <c r="C75" s="59"/>
+      <c r="D75" s="59"/>
+      <c r="E75" s="59"/>
+      <c r="F75" s="59"/>
+      <c r="G75" s="59"/>
+      <c r="H75" s="59"/>
+      <c r="I75" s="62"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B76" s="58"/>
+      <c r="C76" s="59"/>
+      <c r="D76" s="59"/>
+      <c r="E76" s="59"/>
+      <c r="F76" s="59"/>
+      <c r="G76" s="59"/>
+      <c r="H76" s="59"/>
+      <c r="I76" s="62"/>
+    </row>
+    <row r="77" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="67"/>
+      <c r="C77" s="68"/>
+      <c r="D77" s="68"/>
+      <c r="E77" s="68"/>
+      <c r="F77" s="68"/>
+      <c r="G77" s="68"/>
+      <c r="H77" s="68"/>
+      <c r="I77" s="69"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G79" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="H79" s="68"/>
+      <c r="H79" s="53"/>
       <c r="I79" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
@@ -10146,51 +10114,40 @@
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B82" s="47" t="str">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B82" s="85" t="str">
         <f>IF(D10="","Assinatura do(a) Orientador(a)",D10)</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="C82" s="47"/>
-      <c r="D82" s="47"/>
-      <c r="F82" s="48" t="s">
+      <c r="C82" s="85"/>
+      <c r="D82" s="85"/>
+      <c r="F82" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="G82" s="48"/>
-      <c r="H82" s="48"/>
-      <c r="I82" s="48"/>
-    </row>
-    <row r="84" spans="2:10" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="G82" s="86"/>
+      <c r="H82" s="86"/>
+      <c r="I82" s="86"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J84" s="23" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="C8:I9 D10:I10 B19:D33 G19:I33 B67:I70 B74:I77 B38:D61 G38:I61" name="Intervalo1"/>
+    <protectedRange sqref="C8:I9 D10:I10 B19:D33 G19:I33 B67:I68 B74:I77 B38:D61 G38:I61 G69:I70" name="Intervalo1"/>
+    <protectedRange sqref="B69:F70" name="Intervalo1_1"/>
   </protectedRanges>
   <mergeCells count="46">
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B19:D23"/>
-    <mergeCell ref="G19:I23"/>
-    <mergeCell ref="B24:D28"/>
-    <mergeCell ref="G24:I28"/>
-    <mergeCell ref="B29:D33"/>
-    <mergeCell ref="G29:I33"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="F82:I82"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="B72:I72"/>
+    <mergeCell ref="B74:I77"/>
+    <mergeCell ref="G79:H79"/>
     <mergeCell ref="B65:F66"/>
     <mergeCell ref="G65:I65"/>
     <mergeCell ref="G66:H66"/>
@@ -10207,15 +10164,27 @@
     <mergeCell ref="B63:I63"/>
     <mergeCell ref="B44:D49"/>
     <mergeCell ref="G44:I49"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="F82:I82"/>
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="B72:I72"/>
-    <mergeCell ref="B74:I77"/>
-    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="B19:D23"/>
+    <mergeCell ref="G19:I23"/>
+    <mergeCell ref="B24:D28"/>
+    <mergeCell ref="G24:I28"/>
+    <mergeCell ref="B29:D33"/>
+    <mergeCell ref="G29:I33"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="B16:I16"/>
   </mergeCells>
   <conditionalFormatting sqref="B82:D82">
     <cfRule type="expression" priority="2">
@@ -10246,13 +10215,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
+                    <xdr:rowOff>121920</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10268,13 +10237,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10294,9 +10263,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10316,9 +10285,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>30</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10332,15 +10301,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>29</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>22860</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10354,15 +10323,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>30</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>32</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10378,13 +10347,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>23</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>25</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10404,7 +10373,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>26</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -10422,13 +10391,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>25</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>27</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10448,7 +10417,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>39</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -10470,7 +10439,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>40</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -10488,13 +10457,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>39</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>41</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10514,9 +10483,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>42</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10532,13 +10501,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>49</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>51</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10558,7 +10527,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>52</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -10576,13 +10545,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>51</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>53</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10602,9 +10571,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>54</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10620,13 +10589,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>55</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>57</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10646,7 +10615,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>58</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -10664,13 +10633,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>57</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>59</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10690,9 +10659,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>60</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10708,13 +10677,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>43</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>45</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10734,7 +10703,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>46</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -10752,13 +10721,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>45</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>47</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10778,9 +10747,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>48</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10794,7 +10763,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
@@ -10804,33 +10773,33 @@
       <selection activeCell="A44" sqref="A44:XFD49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="4.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
-    <col min="8" max="8" width="3.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="4.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" customWidth="1"/>
+    <col min="8" max="8" width="3.5546875" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="97" t="s">
+    <row r="5" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
-    </row>
-    <row r="6" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+    </row>
+    <row r="6" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -10840,315 +10809,315 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="19"/>
-      <c r="D7" s="68" t="str">
+      <c r="D7" s="53" t="str">
         <f>Plan1!B6</f>
         <v>Setembro</v>
       </c>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="98" t="str">
+      <c r="C8" s="54" t="str">
         <f>'2º Sem - Agosto'!C8:I8</f>
         <v>Otimização de processos e gestão de refeitórios com Machine Learning</v>
       </c>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="98" t="str">
+      <c r="C9" s="54" t="str">
         <f>'2º Sem - Agosto'!C9:I9</f>
         <v>Engenharia da Computação</v>
       </c>
-      <c r="D9" s="98"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="98"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="98" t="str">
+      <c r="D10" s="54" t="str">
         <f>'2º Sem - Agosto'!D10:I10</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="E10" s="98"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="98"/>
-    </row>
-    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+    </row>
+    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="95" t="str">
+      <c r="C12" s="65" t="str">
         <f>'2º Sem - Agosto'!C12:F12</f>
         <v>Igor Martins Ferreira</v>
       </c>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="100"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="97"/>
       <c r="G12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="101"/>
-      <c r="I12" s="102"/>
-    </row>
-    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="98"/>
+      <c r="I12" s="99"/>
+    </row>
+    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="63" t="str">
+      <c r="C13" s="59" t="str">
         <f>'2º Sem - Agosto'!C13:F13</f>
         <v>Lucas Silva Sousa</v>
       </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="103"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="100"/>
       <c r="G13" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="104"/>
-      <c r="I13" s="105"/>
-    </row>
-    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="101"/>
+      <c r="I13" s="102"/>
+    </row>
+    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="92" t="str">
+      <c r="C14" s="61" t="str">
         <f>'2º Sem - Agosto'!C14:F14</f>
         <v>Renan Dias de Oliveira</v>
       </c>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="106"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="103"/>
       <c r="G14" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="107"/>
-      <c r="I14" s="108"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="76" t="s">
+      <c r="H14" s="104"/>
+      <c r="I14" s="105"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-    </row>
-    <row r="17" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="77" t="s">
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+    </row>
+    <row r="17" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="79" t="s">
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="80"/>
-      <c r="G18" s="78" t="s">
+      <c r="F18" s="50"/>
+      <c r="G18" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="78"/>
-      <c r="I18" s="81"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="62"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="51"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="58"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
       <c r="E19" s="14"/>
       <c r="F19" s="15"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="64"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="62"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="62"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="58"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
       <c r="E20" s="8"/>
       <c r="F20" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="64"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="62"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="62"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="58"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="64"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="62"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="62"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="58"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="64"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="91"/>
-      <c r="C23" s="92"/>
-      <c r="D23" s="92"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="62"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="60"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
       <c r="E23" s="10"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="92"/>
-      <c r="H23" s="92"/>
-      <c r="I23" s="93"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="94"/>
-      <c r="C24" s="95"/>
-      <c r="D24" s="95"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="63"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="64"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
       <c r="E24" s="12"/>
       <c r="F24" s="13"/>
-      <c r="G24" s="95"/>
-      <c r="H24" s="95"/>
-      <c r="I24" s="96"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="62"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="66"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="58"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
       <c r="E25" s="8"/>
       <c r="F25" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="64"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="62"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="62"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="58"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="64"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="62"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="62"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="58"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="64"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="91"/>
-      <c r="C28" s="92"/>
-      <c r="D28" s="92"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="62"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="60"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
       <c r="E28" s="10"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="92"/>
-      <c r="H28" s="92"/>
-      <c r="I28" s="93"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="62"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="63"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="58"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
       <c r="E29" s="8"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="64"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="62"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="62"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="58"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G30" s="63"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="64"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="62"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="62"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="58"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="64"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="62"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="62"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="58"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
       <c r="E32" s="8"/>
       <c r="F32" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="64"/>
-    </row>
-    <row r="33" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="65"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="66"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="62"/>
+    </row>
+    <row r="33" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="67"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
       <c r="E33" s="17"/>
       <c r="F33" s="18"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="66"/>
-      <c r="I33" s="67"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G33" s="68"/>
+      <c r="H33" s="68"/>
+      <c r="I33" s="69"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -11158,19 +11127,19 @@
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="76" t="s">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="76"/>
-      <c r="D35" s="76"/>
-      <c r="E35" s="76"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="76"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="76"/>
-    </row>
-    <row r="36" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
+    </row>
+    <row r="36" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
@@ -11180,438 +11149,438 @@
       <c r="H36" s="16"/>
       <c r="I36" s="16"/>
     </row>
-    <row r="37" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="77" t="s">
+    <row r="37" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="78"/>
-      <c r="D37" s="78"/>
-      <c r="E37" s="79" t="s">
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="F37" s="80"/>
-      <c r="G37" s="78" t="s">
+      <c r="F37" s="50"/>
+      <c r="G37" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="H37" s="78"/>
-      <c r="I37" s="81"/>
-    </row>
-    <row r="38" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="82"/>
-      <c r="C38" s="83"/>
-      <c r="D38" s="83"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="51"/>
+    </row>
+    <row r="38" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="77"/>
+      <c r="C38" s="78"/>
+      <c r="D38" s="78"/>
       <c r="E38" s="14"/>
       <c r="F38" s="15"/>
-      <c r="G38" s="83"/>
-      <c r="H38" s="83"/>
-      <c r="I38" s="86"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="84"/>
-      <c r="C39" s="85"/>
-      <c r="D39" s="85"/>
+      <c r="G38" s="78"/>
+      <c r="H38" s="78"/>
+      <c r="I38" s="80"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B39" s="79"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
       <c r="E39" s="8"/>
       <c r="F39" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G39" s="85"/>
-      <c r="H39" s="85"/>
-      <c r="I39" s="87"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="84"/>
-      <c r="C40" s="85"/>
-      <c r="D40" s="85"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="81"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B40" s="79"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="55"/>
       <c r="E40" s="8"/>
       <c r="F40" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G40" s="85"/>
-      <c r="H40" s="85"/>
-      <c r="I40" s="87"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="84"/>
-      <c r="C41" s="85"/>
-      <c r="D41" s="85"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="81"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="79"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="55"/>
       <c r="E41" s="8"/>
       <c r="F41" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G41" s="85"/>
-      <c r="H41" s="85"/>
-      <c r="I41" s="87"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="84"/>
-      <c r="C42" s="85"/>
-      <c r="D42" s="85"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="55"/>
+      <c r="I41" s="81"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="79"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="55"/>
       <c r="E42" s="8"/>
       <c r="F42" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G42" s="85"/>
-      <c r="H42" s="85"/>
-      <c r="I42" s="87"/>
-    </row>
-    <row r="43" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="84"/>
-      <c r="C43" s="85"/>
-      <c r="D43" s="85"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="81"/>
+    </row>
+    <row r="43" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="79"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="55"/>
       <c r="E43" s="10"/>
       <c r="F43" s="11"/>
-      <c r="G43" s="85"/>
-      <c r="H43" s="85"/>
-      <c r="I43" s="87"/>
-    </row>
-    <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="84"/>
-      <c r="C44" s="85"/>
-      <c r="D44" s="85"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="81"/>
+    </row>
+    <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="79"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="55"/>
       <c r="E44" s="6"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="85"/>
-      <c r="H44" s="85"/>
-      <c r="I44" s="87"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="84"/>
-      <c r="C45" s="85"/>
-      <c r="D45" s="85"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="81"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B45" s="79"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="55"/>
       <c r="E45" s="8"/>
       <c r="F45" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G45" s="85"/>
-      <c r="H45" s="85"/>
-      <c r="I45" s="87"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="84"/>
-      <c r="C46" s="85"/>
-      <c r="D46" s="85"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="81"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B46" s="79"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="55"/>
       <c r="E46" s="8"/>
       <c r="F46" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G46" s="85"/>
-      <c r="H46" s="85"/>
-      <c r="I46" s="87"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="84"/>
-      <c r="C47" s="85"/>
-      <c r="D47" s="85"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="81"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B47" s="79"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="55"/>
       <c r="E47" s="8"/>
       <c r="F47" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G47" s="85"/>
-      <c r="H47" s="85"/>
-      <c r="I47" s="87"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="84"/>
-      <c r="C48" s="85"/>
-      <c r="D48" s="85"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="81"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B48" s="79"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="55"/>
       <c r="E48" s="8"/>
       <c r="F48" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G48" s="85"/>
-      <c r="H48" s="85"/>
-      <c r="I48" s="87"/>
-    </row>
-    <row r="49" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="84"/>
-      <c r="C49" s="85"/>
-      <c r="D49" s="85"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="81"/>
+    </row>
+    <row r="49" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="79"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="55"/>
       <c r="E49" s="10"/>
       <c r="F49" s="11"/>
-      <c r="G49" s="85"/>
-      <c r="H49" s="85"/>
-      <c r="I49" s="87"/>
-    </row>
-    <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="84"/>
-      <c r="C50" s="85"/>
-      <c r="D50" s="85"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="81"/>
+    </row>
+    <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="79"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="55"/>
       <c r="E50" s="6"/>
       <c r="F50" s="7"/>
-      <c r="G50" s="85"/>
-      <c r="H50" s="85"/>
-      <c r="I50" s="87"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="84"/>
-      <c r="C51" s="85"/>
-      <c r="D51" s="85"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="55"/>
+      <c r="I50" s="81"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B51" s="79"/>
+      <c r="C51" s="55"/>
+      <c r="D51" s="55"/>
       <c r="E51" s="8"/>
       <c r="F51" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G51" s="85"/>
-      <c r="H51" s="85"/>
-      <c r="I51" s="87"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="84"/>
-      <c r="C52" s="85"/>
-      <c r="D52" s="85"/>
+      <c r="G51" s="55"/>
+      <c r="H51" s="55"/>
+      <c r="I51" s="81"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B52" s="79"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="55"/>
       <c r="E52" s="8"/>
       <c r="F52" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G52" s="85"/>
-      <c r="H52" s="85"/>
-      <c r="I52" s="87"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="84"/>
-      <c r="C53" s="85"/>
-      <c r="D53" s="85"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="55"/>
+      <c r="I52" s="81"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B53" s="79"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="55"/>
       <c r="E53" s="8"/>
       <c r="F53" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G53" s="85"/>
-      <c r="H53" s="85"/>
-      <c r="I53" s="87"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="84"/>
-      <c r="C54" s="85"/>
-      <c r="D54" s="85"/>
+      <c r="G53" s="55"/>
+      <c r="H53" s="55"/>
+      <c r="I53" s="81"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B54" s="79"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="55"/>
       <c r="E54" s="8"/>
       <c r="F54" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G54" s="85"/>
-      <c r="H54" s="85"/>
-      <c r="I54" s="87"/>
-    </row>
-    <row r="55" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="84"/>
-      <c r="C55" s="85"/>
-      <c r="D55" s="85"/>
+      <c r="G54" s="55"/>
+      <c r="H54" s="55"/>
+      <c r="I54" s="81"/>
+    </row>
+    <row r="55" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="79"/>
+      <c r="C55" s="55"/>
+      <c r="D55" s="55"/>
       <c r="E55" s="10"/>
       <c r="F55" s="11"/>
-      <c r="G55" s="85"/>
-      <c r="H55" s="85"/>
-      <c r="I55" s="87"/>
-    </row>
-    <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="84"/>
-      <c r="C56" s="85"/>
-      <c r="D56" s="85"/>
+      <c r="G55" s="55"/>
+      <c r="H55" s="55"/>
+      <c r="I55" s="81"/>
+    </row>
+    <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="79"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="55"/>
       <c r="E56" s="6"/>
       <c r="F56" s="7"/>
-      <c r="G56" s="85"/>
-      <c r="H56" s="85"/>
-      <c r="I56" s="87"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="84"/>
-      <c r="C57" s="85"/>
-      <c r="D57" s="85"/>
+      <c r="G56" s="55"/>
+      <c r="H56" s="55"/>
+      <c r="I56" s="81"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B57" s="79"/>
+      <c r="C57" s="55"/>
+      <c r="D57" s="55"/>
       <c r="E57" s="8"/>
       <c r="F57" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G57" s="85"/>
-      <c r="H57" s="85"/>
-      <c r="I57" s="87"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="84"/>
-      <c r="C58" s="85"/>
-      <c r="D58" s="85"/>
+      <c r="G57" s="55"/>
+      <c r="H57" s="55"/>
+      <c r="I57" s="81"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B58" s="79"/>
+      <c r="C58" s="55"/>
+      <c r="D58" s="55"/>
       <c r="E58" s="8"/>
       <c r="F58" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G58" s="85"/>
-      <c r="H58" s="85"/>
-      <c r="I58" s="87"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="84"/>
-      <c r="C59" s="85"/>
-      <c r="D59" s="85"/>
+      <c r="G58" s="55"/>
+      <c r="H58" s="55"/>
+      <c r="I58" s="81"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B59" s="79"/>
+      <c r="C59" s="55"/>
+      <c r="D59" s="55"/>
       <c r="E59" s="8"/>
       <c r="F59" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G59" s="85"/>
-      <c r="H59" s="85"/>
-      <c r="I59" s="87"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="84"/>
-      <c r="C60" s="85"/>
-      <c r="D60" s="85"/>
+      <c r="G59" s="55"/>
+      <c r="H59" s="55"/>
+      <c r="I59" s="81"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B60" s="79"/>
+      <c r="C60" s="55"/>
+      <c r="D60" s="55"/>
       <c r="E60" s="8"/>
       <c r="F60" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G60" s="85"/>
-      <c r="H60" s="85"/>
-      <c r="I60" s="87"/>
-    </row>
-    <row r="61" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="88"/>
-      <c r="C61" s="89"/>
-      <c r="D61" s="89"/>
+      <c r="G60" s="55"/>
+      <c r="H60" s="55"/>
+      <c r="I60" s="81"/>
+    </row>
+    <row r="61" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="82"/>
+      <c r="C61" s="83"/>
+      <c r="D61" s="83"/>
       <c r="E61" s="17"/>
       <c r="F61" s="18"/>
-      <c r="G61" s="89"/>
-      <c r="H61" s="89"/>
-      <c r="I61" s="90"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="76" t="s">
+      <c r="G61" s="83"/>
+      <c r="H61" s="83"/>
+      <c r="I61" s="84"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B63" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="76"/>
-      <c r="D63" s="76"/>
-      <c r="E63" s="76"/>
-      <c r="F63" s="76"/>
-      <c r="G63" s="76"/>
-      <c r="H63" s="76"/>
-      <c r="I63" s="76"/>
-    </row>
-    <row r="64" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B65" s="69" t="s">
+      <c r="C63" s="57"/>
+      <c r="D63" s="57"/>
+      <c r="E63" s="57"/>
+      <c r="F63" s="57"/>
+      <c r="G63" s="57"/>
+      <c r="H63" s="57"/>
+      <c r="I63" s="57"/>
+    </row>
+    <row r="64" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B65" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="C65" s="70"/>
-      <c r="D65" s="70"/>
-      <c r="E65" s="70"/>
-      <c r="F65" s="70"/>
-      <c r="G65" s="73" t="s">
+      <c r="C65" s="71"/>
+      <c r="D65" s="71"/>
+      <c r="E65" s="71"/>
+      <c r="F65" s="71"/>
+      <c r="G65" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="H65" s="73"/>
-      <c r="I65" s="74"/>
-    </row>
-    <row r="66" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="71"/>
-      <c r="C66" s="72"/>
-      <c r="D66" s="72"/>
-      <c r="E66" s="72"/>
-      <c r="F66" s="72"/>
-      <c r="G66" s="75" t="s">
+      <c r="H65" s="74"/>
+      <c r="I65" s="75"/>
+    </row>
+    <row r="66" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="72"/>
+      <c r="C66" s="73"/>
+      <c r="D66" s="73"/>
+      <c r="E66" s="73"/>
+      <c r="F66" s="73"/>
+      <c r="G66" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="H66" s="75"/>
+      <c r="H66" s="76"/>
       <c r="I66" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="82"/>
-      <c r="C67" s="83"/>
-      <c r="D67" s="83"/>
-      <c r="E67" s="83"/>
-      <c r="F67" s="83"/>
-      <c r="G67" s="83"/>
-      <c r="H67" s="83"/>
+    <row r="67" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="77"/>
+      <c r="C67" s="78"/>
+      <c r="D67" s="78"/>
+      <c r="E67" s="78"/>
+      <c r="F67" s="78"/>
+      <c r="G67" s="78"/>
+      <c r="H67" s="78"/>
       <c r="I67" s="25"/>
     </row>
-    <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="84"/>
-      <c r="C68" s="85"/>
-      <c r="D68" s="85"/>
-      <c r="E68" s="85"/>
-      <c r="F68" s="85"/>
-      <c r="G68" s="85"/>
-      <c r="H68" s="85"/>
+    <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="79"/>
+      <c r="C68" s="55"/>
+      <c r="D68" s="55"/>
+      <c r="E68" s="55"/>
+      <c r="F68" s="55"/>
+      <c r="G68" s="55"/>
+      <c r="H68" s="55"/>
       <c r="I68" s="26"/>
     </row>
-    <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="84"/>
-      <c r="C69" s="85"/>
-      <c r="D69" s="85"/>
-      <c r="E69" s="85"/>
-      <c r="F69" s="85"/>
-      <c r="G69" s="85"/>
-      <c r="H69" s="85"/>
+    <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="79"/>
+      <c r="C69" s="55"/>
+      <c r="D69" s="55"/>
+      <c r="E69" s="55"/>
+      <c r="F69" s="55"/>
+      <c r="G69" s="55"/>
+      <c r="H69" s="55"/>
       <c r="I69" s="26"/>
     </row>
-    <row r="70" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="88"/>
-      <c r="C70" s="89"/>
-      <c r="D70" s="89"/>
-      <c r="E70" s="89"/>
-      <c r="F70" s="89"/>
-      <c r="G70" s="89"/>
-      <c r="H70" s="89"/>
+    <row r="70" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="82"/>
+      <c r="C70" s="83"/>
+      <c r="D70" s="83"/>
+      <c r="E70" s="83"/>
+      <c r="F70" s="83"/>
+      <c r="G70" s="83"/>
+      <c r="H70" s="83"/>
       <c r="I70" s="27"/>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="58" t="s">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B72" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C72" s="58"/>
-      <c r="D72" s="58"/>
-      <c r="E72" s="58"/>
-      <c r="F72" s="58"/>
-      <c r="G72" s="58"/>
-      <c r="H72" s="58"/>
-      <c r="I72" s="58"/>
-    </row>
-    <row r="73" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B74" s="59"/>
-      <c r="C74" s="60"/>
-      <c r="D74" s="60"/>
-      <c r="E74" s="60"/>
-      <c r="F74" s="60"/>
-      <c r="G74" s="60"/>
-      <c r="H74" s="60"/>
-      <c r="I74" s="61"/>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="62"/>
-      <c r="C75" s="63"/>
-      <c r="D75" s="63"/>
-      <c r="E75" s="63"/>
-      <c r="F75" s="63"/>
-      <c r="G75" s="63"/>
-      <c r="H75" s="63"/>
-      <c r="I75" s="64"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="62"/>
-      <c r="C76" s="63"/>
-      <c r="D76" s="63"/>
-      <c r="E76" s="63"/>
-      <c r="F76" s="63"/>
-      <c r="G76" s="63"/>
-      <c r="H76" s="63"/>
-      <c r="I76" s="64"/>
-    </row>
-    <row r="77" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="65"/>
-      <c r="C77" s="66"/>
-      <c r="D77" s="66"/>
-      <c r="E77" s="66"/>
-      <c r="F77" s="66"/>
-      <c r="G77" s="66"/>
-      <c r="H77" s="66"/>
-      <c r="I77" s="67"/>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G79" s="68" t="s">
+      <c r="C72" s="93"/>
+      <c r="D72" s="93"/>
+      <c r="E72" s="93"/>
+      <c r="F72" s="93"/>
+      <c r="G72" s="93"/>
+      <c r="H72" s="93"/>
+      <c r="I72" s="93"/>
+    </row>
+    <row r="73" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B74" s="94"/>
+      <c r="C74" s="95"/>
+      <c r="D74" s="95"/>
+      <c r="E74" s="95"/>
+      <c r="F74" s="95"/>
+      <c r="G74" s="95"/>
+      <c r="H74" s="95"/>
+      <c r="I74" s="96"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B75" s="58"/>
+      <c r="C75" s="59"/>
+      <c r="D75" s="59"/>
+      <c r="E75" s="59"/>
+      <c r="F75" s="59"/>
+      <c r="G75" s="59"/>
+      <c r="H75" s="59"/>
+      <c r="I75" s="62"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B76" s="58"/>
+      <c r="C76" s="59"/>
+      <c r="D76" s="59"/>
+      <c r="E76" s="59"/>
+      <c r="F76" s="59"/>
+      <c r="G76" s="59"/>
+      <c r="H76" s="59"/>
+      <c r="I76" s="62"/>
+    </row>
+    <row r="77" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="67"/>
+      <c r="C77" s="68"/>
+      <c r="D77" s="68"/>
+      <c r="E77" s="68"/>
+      <c r="F77" s="68"/>
+      <c r="G77" s="68"/>
+      <c r="H77" s="68"/>
+      <c r="I77" s="69"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G79" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="H79" s="68"/>
+      <c r="H79" s="53"/>
       <c r="I79" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
@@ -11620,68 +11589,68 @@
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B82" s="47" t="str">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B82" s="85" t="str">
         <f>IF(D10=0,"Assinatura do(a) Orientador(a)",D10)</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="C82" s="47"/>
-      <c r="D82" s="47"/>
-      <c r="F82" s="48" t="s">
+      <c r="C82" s="85"/>
+      <c r="D82" s="85"/>
+      <c r="F82" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="G82" s="48"/>
-      <c r="H82" s="48"/>
-      <c r="I82" s="48"/>
-    </row>
-    <row r="84" spans="2:10" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="G82" s="86"/>
+      <c r="H82" s="86"/>
+      <c r="I82" s="86"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J84" s="23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C96" s="4"/>
-      <c r="D96" s="48"/>
-      <c r="E96" s="48"/>
-      <c r="F96" s="48"/>
+      <c r="D96" s="86"/>
+      <c r="E96" s="86"/>
+      <c r="F96" s="86"/>
       <c r="G96" s="4"/>
     </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
     </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
     </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
@@ -11693,6 +11662,41 @@
     <protectedRange sqref="B19:D33 G19:I33 B67:I70 B74 B38:D61 G38:I61" name="Intervalo1"/>
   </protectedRanges>
   <mergeCells count="51">
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="F82:I82"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="B72:I72"/>
+    <mergeCell ref="B74:I77"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="B65:F66"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="B38:D43"/>
+    <mergeCell ref="G38:I43"/>
+    <mergeCell ref="B50:D55"/>
+    <mergeCell ref="G50:I55"/>
+    <mergeCell ref="B56:D61"/>
+    <mergeCell ref="G56:I61"/>
+    <mergeCell ref="B63:I63"/>
+    <mergeCell ref="B44:D49"/>
+    <mergeCell ref="G44:I49"/>
+    <mergeCell ref="B19:D23"/>
+    <mergeCell ref="G19:I23"/>
+    <mergeCell ref="B24:D28"/>
+    <mergeCell ref="G24:I28"/>
+    <mergeCell ref="B29:D33"/>
+    <mergeCell ref="G29:I33"/>
     <mergeCell ref="D96:F96"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="E18:F18"/>
@@ -11709,41 +11713,6 @@
     <mergeCell ref="C14:F14"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B19:D23"/>
-    <mergeCell ref="G19:I23"/>
-    <mergeCell ref="B24:D28"/>
-    <mergeCell ref="G24:I28"/>
-    <mergeCell ref="B29:D33"/>
-    <mergeCell ref="G29:I33"/>
-    <mergeCell ref="B65:F66"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="B38:D43"/>
-    <mergeCell ref="G38:I43"/>
-    <mergeCell ref="B50:D55"/>
-    <mergeCell ref="G50:I55"/>
-    <mergeCell ref="B56:D61"/>
-    <mergeCell ref="G56:I61"/>
-    <mergeCell ref="B63:I63"/>
-    <mergeCell ref="B44:D49"/>
-    <mergeCell ref="G44:I49"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="F82:I82"/>
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="B72:I72"/>
-    <mergeCell ref="B74:I77"/>
-    <mergeCell ref="G79:H79"/>
   </mergeCells>
   <conditionalFormatting sqref="B7:I15">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
@@ -11779,13 +11748,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
+                    <xdr:rowOff>121920</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11801,13 +11770,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11827,9 +11796,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11849,9 +11818,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>30</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11865,15 +11834,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>29</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>22860</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11887,15 +11856,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>30</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>32</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11911,13 +11880,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>23</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>25</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11937,7 +11906,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>26</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -11955,13 +11924,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>25</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>27</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11981,7 +11950,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>39</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -12003,7 +11972,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>40</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -12021,13 +11990,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>39</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>41</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12047,9 +12016,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>42</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12065,13 +12034,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>49</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>51</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12091,7 +12060,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>52</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -12109,13 +12078,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>51</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>53</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12135,9 +12104,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>54</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12153,13 +12122,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>55</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>57</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12179,7 +12148,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>58</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -12197,13 +12166,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>57</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>59</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12223,9 +12192,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>60</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12241,13 +12210,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>43</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>45</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12267,7 +12236,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>46</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -12285,13 +12254,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>45</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>47</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12311,9 +12280,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>48</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12327,7 +12296,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
@@ -12337,33 +12306,33 @@
       <selection activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="4.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
-    <col min="8" max="8" width="3.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="4.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" customWidth="1"/>
+    <col min="8" max="8" width="3.5546875" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="97" t="s">
+    <row r="5" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
-    </row>
-    <row r="6" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+    </row>
+    <row r="6" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -12373,7 +12342,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>38</v>
       </c>
@@ -12385,317 +12354,317 @@
       <c r="H7" s="36"/>
       <c r="I7" s="36"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="109" t="str">
+      <c r="C8" s="106" t="str">
         <f>'2º Sem - Setembro'!C8:I8</f>
         <v>Otimização de processos e gestão de refeitórios com Machine Learning</v>
       </c>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="109"/>
-      <c r="I8" s="109"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="109" t="str">
+      <c r="C9" s="106" t="str">
         <f>'2º Sem - Setembro'!C9:I9</f>
         <v>Engenharia da Computação</v>
       </c>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="109"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="109" t="str">
+      <c r="D10" s="106" t="str">
         <f>'2º Sem - Setembro'!D10:I10</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-    </row>
-    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="106"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="106"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="106"/>
+    </row>
+    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="95" t="str">
+      <c r="C12" s="65" t="str">
         <f>'2º Sem - Setembro'!C12:F12</f>
         <v>Igor Martins Ferreira</v>
       </c>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
       <c r="G12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="101"/>
-      <c r="I12" s="102"/>
-    </row>
-    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="98"/>
+      <c r="I12" s="99"/>
+    </row>
+    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="63" t="str">
+      <c r="C13" s="59" t="str">
         <f>'2º Sem - Setembro'!C13:F13</f>
         <v>Lucas Silva Sousa</v>
       </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
       <c r="G13" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="104"/>
-      <c r="I13" s="105"/>
-    </row>
-    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="101"/>
+      <c r="I13" s="102"/>
+    </row>
+    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="63" t="str">
+      <c r="C14" s="59" t="str">
         <f>'2º Sem - Setembro'!C13:F13</f>
         <v>Lucas Silva Sousa</v>
       </c>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
       <c r="G14" s="21" t="s">
         <v>6</v>
       </c>
       <c r="H14" s="29"/>
       <c r="I14" s="30"/>
     </row>
-    <row r="15" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="92" t="str">
+      <c r="C15" s="61" t="str">
         <f>'2º Sem - Setembro'!C14:F14</f>
         <v>Renan Dias de Oliveira</v>
       </c>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
       <c r="G15" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="107"/>
-      <c r="I15" s="108"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="76" t="s">
+      <c r="H15" s="104"/>
+      <c r="I15" s="105"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76"/>
-    </row>
-    <row r="18" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="77" t="s">
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+    </row>
+    <row r="18" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="79" t="s">
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="80"/>
-      <c r="G19" s="78" t="s">
+      <c r="F19" s="50"/>
+      <c r="G19" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="78"/>
-      <c r="I19" s="81"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="62"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="51"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="58"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
       <c r="E20" s="14"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="64"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="62"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="62"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="58"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="64"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="62"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="62"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="58"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="64"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="62"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="62"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="58"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
       <c r="E23" s="8"/>
       <c r="F23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="64"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="91"/>
-      <c r="C24" s="92"/>
-      <c r="D24" s="92"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="62"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="60"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="92"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="93"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="94"/>
-      <c r="C25" s="95"/>
-      <c r="D25" s="95"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="63"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="64"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="95"/>
-      <c r="H25" s="95"/>
-      <c r="I25" s="96"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="62"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="66"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="58"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="64"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="62"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="62"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="58"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="64"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="62"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="63"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="62"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="58"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
       <c r="E28" s="8"/>
       <c r="F28" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="64"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="91"/>
-      <c r="C29" s="92"/>
-      <c r="D29" s="92"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="62"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="60"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="92"/>
-      <c r="H29" s="92"/>
-      <c r="I29" s="93"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="62"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="63"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="58"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="64"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="62"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="62"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="58"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="64"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="62"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="62"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="58"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
       <c r="E32" s="8"/>
       <c r="F32" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="64"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="62"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="62"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="58"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
       <c r="E33" s="8"/>
       <c r="F33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="63"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="64"/>
-    </row>
-    <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="65"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="66"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="62"/>
+    </row>
+    <row r="34" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="67"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="68"/>
       <c r="E34" s="17"/>
       <c r="F34" s="18"/>
-      <c r="G34" s="66"/>
-      <c r="H34" s="66"/>
-      <c r="I34" s="67"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G34" s="68"/>
+      <c r="H34" s="68"/>
+      <c r="I34" s="69"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -12705,19 +12674,19 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="76" t="s">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="76"/>
-      <c r="D36" s="76"/>
-      <c r="E36" s="76"/>
-      <c r="F36" s="76"/>
-      <c r="G36" s="76"/>
-      <c r="H36" s="76"/>
-      <c r="I36" s="76"/>
-    </row>
-    <row r="37" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+    </row>
+    <row r="37" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
@@ -12727,438 +12696,438 @@
       <c r="H37" s="16"/>
       <c r="I37" s="16"/>
     </row>
-    <row r="38" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="77" t="s">
+    <row r="38" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="78"/>
-      <c r="D38" s="78"/>
-      <c r="E38" s="79" t="s">
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="80"/>
-      <c r="G38" s="78" t="s">
+      <c r="F38" s="50"/>
+      <c r="G38" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="78"/>
-      <c r="I38" s="81"/>
-    </row>
-    <row r="39" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="82"/>
-      <c r="C39" s="83"/>
-      <c r="D39" s="83"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="51"/>
+    </row>
+    <row r="39" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="77"/>
+      <c r="C39" s="78"/>
+      <c r="D39" s="78"/>
       <c r="E39" s="14"/>
       <c r="F39" s="15"/>
-      <c r="G39" s="83"/>
-      <c r="H39" s="83"/>
-      <c r="I39" s="86"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="84"/>
-      <c r="C40" s="85"/>
-      <c r="D40" s="85"/>
+      <c r="G39" s="78"/>
+      <c r="H39" s="78"/>
+      <c r="I39" s="80"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B40" s="79"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="55"/>
       <c r="E40" s="8"/>
       <c r="F40" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="85"/>
-      <c r="H40" s="85"/>
-      <c r="I40" s="87"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="84"/>
-      <c r="C41" s="85"/>
-      <c r="D41" s="85"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="81"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="79"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="55"/>
       <c r="E41" s="8"/>
       <c r="F41" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="85"/>
-      <c r="H41" s="85"/>
-      <c r="I41" s="87"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="84"/>
-      <c r="C42" s="85"/>
-      <c r="D42" s="85"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="55"/>
+      <c r="I41" s="81"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="79"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="55"/>
       <c r="E42" s="8"/>
       <c r="F42" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="85"/>
-      <c r="H42" s="85"/>
-      <c r="I42" s="87"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="84"/>
-      <c r="C43" s="85"/>
-      <c r="D43" s="85"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="81"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="79"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="55"/>
       <c r="E43" s="8"/>
       <c r="F43" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G43" s="85"/>
-      <c r="H43" s="85"/>
-      <c r="I43" s="87"/>
-    </row>
-    <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="84"/>
-      <c r="C44" s="85"/>
-      <c r="D44" s="85"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="81"/>
+    </row>
+    <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="79"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="55"/>
       <c r="E44" s="10"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="85"/>
-      <c r="H44" s="85"/>
-      <c r="I44" s="87"/>
-    </row>
-    <row r="45" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="84"/>
-      <c r="C45" s="85"/>
-      <c r="D45" s="85"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="81"/>
+    </row>
+    <row r="45" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="79"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="55"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="85"/>
-      <c r="H45" s="85"/>
-      <c r="I45" s="87"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="84"/>
-      <c r="C46" s="85"/>
-      <c r="D46" s="85"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="81"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B46" s="79"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="55"/>
       <c r="E46" s="8"/>
       <c r="F46" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="85"/>
-      <c r="H46" s="85"/>
-      <c r="I46" s="87"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="84"/>
-      <c r="C47" s="85"/>
-      <c r="D47" s="85"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="81"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B47" s="79"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="55"/>
       <c r="E47" s="8"/>
       <c r="F47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="85"/>
-      <c r="H47" s="85"/>
-      <c r="I47" s="87"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="84"/>
-      <c r="C48" s="85"/>
-      <c r="D48" s="85"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="81"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B48" s="79"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="55"/>
       <c r="E48" s="8"/>
       <c r="F48" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G48" s="85"/>
-      <c r="H48" s="85"/>
-      <c r="I48" s="87"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="84"/>
-      <c r="C49" s="85"/>
-      <c r="D49" s="85"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="81"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B49" s="79"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="55"/>
       <c r="E49" s="8"/>
       <c r="F49" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G49" s="85"/>
-      <c r="H49" s="85"/>
-      <c r="I49" s="87"/>
-    </row>
-    <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="84"/>
-      <c r="C50" s="85"/>
-      <c r="D50" s="85"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="81"/>
+    </row>
+    <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="79"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="55"/>
       <c r="E50" s="10"/>
       <c r="F50" s="11"/>
-      <c r="G50" s="85"/>
-      <c r="H50" s="85"/>
-      <c r="I50" s="87"/>
-    </row>
-    <row r="51" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="84"/>
-      <c r="C51" s="85"/>
-      <c r="D51" s="85"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="55"/>
+      <c r="I50" s="81"/>
+    </row>
+    <row r="51" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="79"/>
+      <c r="C51" s="55"/>
+      <c r="D51" s="55"/>
       <c r="E51" s="6"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="85"/>
-      <c r="H51" s="85"/>
-      <c r="I51" s="87"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="84"/>
-      <c r="C52" s="85"/>
-      <c r="D52" s="85"/>
+      <c r="G51" s="55"/>
+      <c r="H51" s="55"/>
+      <c r="I51" s="81"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B52" s="79"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="55"/>
       <c r="E52" s="8"/>
       <c r="F52" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G52" s="85"/>
-      <c r="H52" s="85"/>
-      <c r="I52" s="87"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="84"/>
-      <c r="C53" s="85"/>
-      <c r="D53" s="85"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="55"/>
+      <c r="I52" s="81"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B53" s="79"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="55"/>
       <c r="E53" s="8"/>
       <c r="F53" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="85"/>
-      <c r="H53" s="85"/>
-      <c r="I53" s="87"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="84"/>
-      <c r="C54" s="85"/>
-      <c r="D54" s="85"/>
+      <c r="G53" s="55"/>
+      <c r="H53" s="55"/>
+      <c r="I53" s="81"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B54" s="79"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="55"/>
       <c r="E54" s="8"/>
       <c r="F54" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G54" s="85"/>
-      <c r="H54" s="85"/>
-      <c r="I54" s="87"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="84"/>
-      <c r="C55" s="85"/>
-      <c r="D55" s="85"/>
+      <c r="G54" s="55"/>
+      <c r="H54" s="55"/>
+      <c r="I54" s="81"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B55" s="79"/>
+      <c r="C55" s="55"/>
+      <c r="D55" s="55"/>
       <c r="E55" s="8"/>
       <c r="F55" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G55" s="85"/>
-      <c r="H55" s="85"/>
-      <c r="I55" s="87"/>
-    </row>
-    <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="84"/>
-      <c r="C56" s="85"/>
-      <c r="D56" s="85"/>
+      <c r="G55" s="55"/>
+      <c r="H55" s="55"/>
+      <c r="I55" s="81"/>
+    </row>
+    <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="79"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="55"/>
       <c r="E56" s="10"/>
       <c r="F56" s="11"/>
-      <c r="G56" s="85"/>
-      <c r="H56" s="85"/>
-      <c r="I56" s="87"/>
-    </row>
-    <row r="57" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="84"/>
-      <c r="C57" s="85"/>
-      <c r="D57" s="85"/>
+      <c r="G56" s="55"/>
+      <c r="H56" s="55"/>
+      <c r="I56" s="81"/>
+    </row>
+    <row r="57" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="79"/>
+      <c r="C57" s="55"/>
+      <c r="D57" s="55"/>
       <c r="E57" s="6"/>
       <c r="F57" s="7"/>
-      <c r="G57" s="85"/>
-      <c r="H57" s="85"/>
-      <c r="I57" s="87"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="84"/>
-      <c r="C58" s="85"/>
-      <c r="D58" s="85"/>
+      <c r="G57" s="55"/>
+      <c r="H57" s="55"/>
+      <c r="I57" s="81"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B58" s="79"/>
+      <c r="C58" s="55"/>
+      <c r="D58" s="55"/>
       <c r="E58" s="8"/>
       <c r="F58" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="85"/>
-      <c r="H58" s="85"/>
-      <c r="I58" s="87"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="84"/>
-      <c r="C59" s="85"/>
-      <c r="D59" s="85"/>
+      <c r="G58" s="55"/>
+      <c r="H58" s="55"/>
+      <c r="I58" s="81"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B59" s="79"/>
+      <c r="C59" s="55"/>
+      <c r="D59" s="55"/>
       <c r="E59" s="8"/>
       <c r="F59" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G59" s="85"/>
-      <c r="H59" s="85"/>
-      <c r="I59" s="87"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="84"/>
-      <c r="C60" s="85"/>
-      <c r="D60" s="85"/>
+      <c r="G59" s="55"/>
+      <c r="H59" s="55"/>
+      <c r="I59" s="81"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B60" s="79"/>
+      <c r="C60" s="55"/>
+      <c r="D60" s="55"/>
       <c r="E60" s="8"/>
       <c r="F60" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G60" s="85"/>
-      <c r="H60" s="85"/>
-      <c r="I60" s="87"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="84"/>
-      <c r="C61" s="85"/>
-      <c r="D61" s="85"/>
+      <c r="G60" s="55"/>
+      <c r="H60" s="55"/>
+      <c r="I60" s="81"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B61" s="79"/>
+      <c r="C61" s="55"/>
+      <c r="D61" s="55"/>
       <c r="E61" s="8"/>
       <c r="F61" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G61" s="85"/>
-      <c r="H61" s="85"/>
-      <c r="I61" s="87"/>
-    </row>
-    <row r="62" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="88"/>
-      <c r="C62" s="89"/>
-      <c r="D62" s="89"/>
+      <c r="G61" s="55"/>
+      <c r="H61" s="55"/>
+      <c r="I61" s="81"/>
+    </row>
+    <row r="62" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="82"/>
+      <c r="C62" s="83"/>
+      <c r="D62" s="83"/>
       <c r="E62" s="17"/>
       <c r="F62" s="18"/>
-      <c r="G62" s="89"/>
-      <c r="H62" s="89"/>
-      <c r="I62" s="90"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="76" t="s">
+      <c r="G62" s="83"/>
+      <c r="H62" s="83"/>
+      <c r="I62" s="84"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B64" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="76"/>
-      <c r="D64" s="76"/>
-      <c r="E64" s="76"/>
-      <c r="F64" s="76"/>
-      <c r="G64" s="76"/>
-      <c r="H64" s="76"/>
-      <c r="I64" s="76"/>
-    </row>
-    <row r="65" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B66" s="69" t="s">
+      <c r="C64" s="57"/>
+      <c r="D64" s="57"/>
+      <c r="E64" s="57"/>
+      <c r="F64" s="57"/>
+      <c r="G64" s="57"/>
+      <c r="H64" s="57"/>
+      <c r="I64" s="57"/>
+    </row>
+    <row r="65" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B66" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="70"/>
-      <c r="D66" s="70"/>
-      <c r="E66" s="70"/>
-      <c r="F66" s="70"/>
-      <c r="G66" s="73" t="s">
+      <c r="C66" s="71"/>
+      <c r="D66" s="71"/>
+      <c r="E66" s="71"/>
+      <c r="F66" s="71"/>
+      <c r="G66" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="H66" s="73"/>
-      <c r="I66" s="74"/>
-    </row>
-    <row r="67" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="71"/>
-      <c r="C67" s="72"/>
-      <c r="D67" s="72"/>
-      <c r="E67" s="72"/>
-      <c r="F67" s="72"/>
-      <c r="G67" s="75" t="s">
+      <c r="H66" s="74"/>
+      <c r="I66" s="75"/>
+    </row>
+    <row r="67" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="72"/>
+      <c r="C67" s="73"/>
+      <c r="D67" s="73"/>
+      <c r="E67" s="73"/>
+      <c r="F67" s="73"/>
+      <c r="G67" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="H67" s="75"/>
+      <c r="H67" s="76"/>
       <c r="I67" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="82"/>
-      <c r="C68" s="83"/>
-      <c r="D68" s="83"/>
-      <c r="E68" s="83"/>
-      <c r="F68" s="83"/>
-      <c r="G68" s="83"/>
-      <c r="H68" s="83"/>
+    <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="77"/>
+      <c r="C68" s="78"/>
+      <c r="D68" s="78"/>
+      <c r="E68" s="78"/>
+      <c r="F68" s="78"/>
+      <c r="G68" s="78"/>
+      <c r="H68" s="78"/>
       <c r="I68" s="25"/>
     </row>
-    <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="84"/>
-      <c r="C69" s="85"/>
-      <c r="D69" s="85"/>
-      <c r="E69" s="85"/>
-      <c r="F69" s="85"/>
-      <c r="G69" s="85"/>
-      <c r="H69" s="85"/>
+    <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="79"/>
+      <c r="C69" s="55"/>
+      <c r="D69" s="55"/>
+      <c r="E69" s="55"/>
+      <c r="F69" s="55"/>
+      <c r="G69" s="55"/>
+      <c r="H69" s="55"/>
       <c r="I69" s="26"/>
     </row>
-    <row r="70" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="84"/>
-      <c r="C70" s="85"/>
-      <c r="D70" s="85"/>
-      <c r="E70" s="85"/>
-      <c r="F70" s="85"/>
-      <c r="G70" s="85"/>
-      <c r="H70" s="85"/>
+    <row r="70" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="79"/>
+      <c r="C70" s="55"/>
+      <c r="D70" s="55"/>
+      <c r="E70" s="55"/>
+      <c r="F70" s="55"/>
+      <c r="G70" s="55"/>
+      <c r="H70" s="55"/>
       <c r="I70" s="26"/>
     </row>
-    <row r="71" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="88"/>
-      <c r="C71" s="89"/>
-      <c r="D71" s="89"/>
-      <c r="E71" s="89"/>
-      <c r="F71" s="89"/>
-      <c r="G71" s="89"/>
-      <c r="H71" s="89"/>
+    <row r="71" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="82"/>
+      <c r="C71" s="83"/>
+      <c r="D71" s="83"/>
+      <c r="E71" s="83"/>
+      <c r="F71" s="83"/>
+      <c r="G71" s="83"/>
+      <c r="H71" s="83"/>
       <c r="I71" s="27"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="58" t="s">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B73" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="58"/>
-      <c r="D73" s="58"/>
-      <c r="E73" s="58"/>
-      <c r="F73" s="58"/>
-      <c r="G73" s="58"/>
-      <c r="H73" s="58"/>
-      <c r="I73" s="58"/>
-    </row>
-    <row r="74" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="59"/>
-      <c r="C75" s="60"/>
-      <c r="D75" s="60"/>
-      <c r="E75" s="60"/>
-      <c r="F75" s="60"/>
-      <c r="G75" s="60"/>
-      <c r="H75" s="60"/>
-      <c r="I75" s="61"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="62"/>
-      <c r="C76" s="63"/>
-      <c r="D76" s="63"/>
-      <c r="E76" s="63"/>
-      <c r="F76" s="63"/>
-      <c r="G76" s="63"/>
-      <c r="H76" s="63"/>
-      <c r="I76" s="64"/>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B77" s="62"/>
-      <c r="C77" s="63"/>
-      <c r="D77" s="63"/>
-      <c r="E77" s="63"/>
-      <c r="F77" s="63"/>
-      <c r="G77" s="63"/>
-      <c r="H77" s="63"/>
-      <c r="I77" s="64"/>
-    </row>
-    <row r="78" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="65"/>
-      <c r="C78" s="66"/>
-      <c r="D78" s="66"/>
-      <c r="E78" s="66"/>
-      <c r="F78" s="66"/>
-      <c r="G78" s="66"/>
-      <c r="H78" s="66"/>
-      <c r="I78" s="67"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G80" s="68" t="s">
+      <c r="C73" s="93"/>
+      <c r="D73" s="93"/>
+      <c r="E73" s="93"/>
+      <c r="F73" s="93"/>
+      <c r="G73" s="93"/>
+      <c r="H73" s="93"/>
+      <c r="I73" s="93"/>
+    </row>
+    <row r="74" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B75" s="94"/>
+      <c r="C75" s="95"/>
+      <c r="D75" s="95"/>
+      <c r="E75" s="95"/>
+      <c r="F75" s="95"/>
+      <c r="G75" s="95"/>
+      <c r="H75" s="95"/>
+      <c r="I75" s="96"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B76" s="58"/>
+      <c r="C76" s="59"/>
+      <c r="D76" s="59"/>
+      <c r="E76" s="59"/>
+      <c r="F76" s="59"/>
+      <c r="G76" s="59"/>
+      <c r="H76" s="59"/>
+      <c r="I76" s="62"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B77" s="58"/>
+      <c r="C77" s="59"/>
+      <c r="D77" s="59"/>
+      <c r="E77" s="59"/>
+      <c r="F77" s="59"/>
+      <c r="G77" s="59"/>
+      <c r="H77" s="59"/>
+      <c r="I77" s="62"/>
+    </row>
+    <row r="78" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="67"/>
+      <c r="C78" s="68"/>
+      <c r="D78" s="68"/>
+      <c r="E78" s="68"/>
+      <c r="F78" s="68"/>
+      <c r="G78" s="68"/>
+      <c r="H78" s="68"/>
+      <c r="I78" s="69"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G80" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="H80" s="68"/>
+      <c r="H80" s="53"/>
       <c r="I80" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
@@ -13167,21 +13136,21 @@
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B83" s="47" t="str">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B83" s="85" t="str">
         <f>IF(D10=0,"Assinatura do(a) Orientador(a)",D10)</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="C83" s="47"/>
-      <c r="D83" s="47"/>
-      <c r="F83" s="48" t="s">
+      <c r="C83" s="85"/>
+      <c r="D83" s="85"/>
+      <c r="F83" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="G83" s="48"/>
-      <c r="H83" s="48"/>
-      <c r="I83" s="48"/>
-    </row>
-    <row r="85" spans="2:10" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="G83" s="86"/>
+      <c r="H83" s="86"/>
+      <c r="I83" s="86"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J85" s="23" t="s">
         <v>37</v>
       </c>
@@ -13191,27 +13160,19 @@
     <protectedRange sqref="B20:D34 G20:I34 B68:I71 B75 B39:D62 G39:I62" name="Intervalo1"/>
   </protectedRanges>
   <mergeCells count="50">
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="B20:D24"/>
-    <mergeCell ref="G20:I24"/>
-    <mergeCell ref="B25:D29"/>
-    <mergeCell ref="G25:I29"/>
-    <mergeCell ref="B30:D34"/>
-    <mergeCell ref="G30:I34"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="B73:I73"/>
+    <mergeCell ref="B75:I78"/>
+    <mergeCell ref="G80:H80"/>
     <mergeCell ref="B66:F67"/>
     <mergeCell ref="G66:I66"/>
     <mergeCell ref="G67:H67"/>
@@ -13228,19 +13189,27 @@
     <mergeCell ref="B64:I64"/>
     <mergeCell ref="B45:D50"/>
     <mergeCell ref="G45:I50"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="F83:I83"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="B73:I73"/>
-    <mergeCell ref="B75:I78"/>
-    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="B20:D24"/>
+    <mergeCell ref="G20:I24"/>
+    <mergeCell ref="B25:D29"/>
+    <mergeCell ref="G25:I29"/>
+    <mergeCell ref="B30:D34"/>
+    <mergeCell ref="G30:I34"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="C14:F14"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:I16 B7:C7">
     <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
@@ -13271,13 +13240,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
+                    <xdr:rowOff>121920</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13293,13 +13262,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13319,9 +13288,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>23</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13341,9 +13310,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13357,15 +13326,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>30</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>22860</xdr:colOff>
                     <xdr:row>32</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13379,15 +13348,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>33</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13403,13 +13372,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>24</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13429,7 +13398,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -13447,13 +13416,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>28</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13473,7 +13442,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>40</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -13495,7 +13464,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>41</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -13513,13 +13482,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>40</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>42</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13539,9 +13508,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>43</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13557,13 +13526,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>50</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>52</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13583,7 +13552,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>53</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -13601,13 +13570,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>52</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>54</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13627,9 +13596,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>55</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13645,13 +13614,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>56</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>58</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13671,7 +13640,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>59</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -13689,13 +13658,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>58</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>60</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13715,9 +13684,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>61</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13733,13 +13702,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>44</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>46</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13759,9 +13728,9 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>47</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13777,13 +13746,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>46</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>48</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13803,9 +13772,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>49</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13819,7 +13788,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
@@ -13829,33 +13798,33 @@
       <selection activeCell="B12" sqref="B12:I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="4.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
-    <col min="8" max="8" width="3.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="4.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" customWidth="1"/>
+    <col min="8" max="8" width="3.5546875" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="97" t="s">
+    <row r="5" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
-    </row>
-    <row r="6" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+    </row>
+    <row r="6" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="32"/>
       <c r="C6" s="32"/>
       <c r="D6" s="32"/>
@@ -13865,334 +13834,334 @@
       <c r="H6" s="32"/>
       <c r="I6" s="32"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="68" t="s">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="109" t="str">
+      <c r="C8" s="106" t="str">
         <f>'2º Sem - Setembro'!C8:I8</f>
         <v>Otimização de processos e gestão de refeitórios com Machine Learning</v>
       </c>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="109"/>
-      <c r="I8" s="109"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="109" t="str">
+      <c r="C9" s="106" t="str">
         <f>'2º Sem - Setembro'!C9:I9</f>
         <v>Engenharia da Computação</v>
       </c>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="109"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="109" t="str">
+      <c r="D10" s="106" t="str">
         <f>'2º Sem - Setembro'!D10:I10</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-    </row>
-    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="106"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="106"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="106"/>
+    </row>
+    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="95" t="s">
+      <c r="C12" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
       <c r="G12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="101">
+      <c r="H12" s="98">
         <v>82150171</v>
       </c>
-      <c r="I12" s="102"/>
-    </row>
-    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="99"/>
+    </row>
+    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
       <c r="G13" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="104">
+      <c r="H13" s="101">
         <v>82150205</v>
       </c>
-      <c r="I13" s="105"/>
-    </row>
-    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I13" s="102"/>
+    </row>
+    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="63" t="s">
+      <c r="C14" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
       <c r="G14" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="104">
+      <c r="H14" s="101">
         <v>82150320</v>
       </c>
-      <c r="I14" s="105"/>
-    </row>
-    <row r="15" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I14" s="102"/>
+    </row>
+    <row r="15" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="92" t="str">
+      <c r="C15" s="61" t="str">
         <f>'2º Sem - Setembro'!C14:F14</f>
         <v>Renan Dias de Oliveira</v>
       </c>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
       <c r="G15" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="107"/>
-      <c r="I15" s="108"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="76" t="s">
+      <c r="H15" s="104"/>
+      <c r="I15" s="105"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76"/>
-    </row>
-    <row r="18" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="77" t="s">
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+    </row>
+    <row r="18" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="79" t="s">
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="80"/>
-      <c r="G19" s="78" t="s">
+      <c r="F19" s="50"/>
+      <c r="G19" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="78"/>
-      <c r="I19" s="81"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="62"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="51"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="58"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
       <c r="E20" s="14"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="64"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="62"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="62"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="58"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="64"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="62"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="62"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="58"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="64"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="62"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="62"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="58"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
       <c r="E23" s="8"/>
       <c r="F23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="64"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="91"/>
-      <c r="C24" s="92"/>
-      <c r="D24" s="92"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="62"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="60"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="92"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="93"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="94"/>
-      <c r="C25" s="95"/>
-      <c r="D25" s="95"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="63"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="64"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="95"/>
-      <c r="H25" s="95"/>
-      <c r="I25" s="96"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="62"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="66"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="58"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="64"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="62"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="62"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="58"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="64"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="62"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="63"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="62"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="58"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
       <c r="E28" s="8"/>
       <c r="F28" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="64"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="91"/>
-      <c r="C29" s="92"/>
-      <c r="D29" s="92"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="62"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="60"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="92"/>
-      <c r="H29" s="92"/>
-      <c r="I29" s="93"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="62" t="s">
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="63"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="64"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="62"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="62"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="58"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="64"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="62"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="62"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="58"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
       <c r="E32" s="8"/>
       <c r="F32" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="64"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="62"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="62"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="58"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
       <c r="E33" s="8"/>
       <c r="F33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="63"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="64"/>
-    </row>
-    <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="65"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="66"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="62"/>
+    </row>
+    <row r="34" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="67"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="68"/>
       <c r="E34" s="17"/>
       <c r="F34" s="18"/>
-      <c r="G34" s="66"/>
-      <c r="H34" s="66"/>
-      <c r="I34" s="67"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G34" s="68"/>
+      <c r="H34" s="68"/>
+      <c r="I34" s="69"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -14202,19 +14171,19 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="76" t="s">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="76"/>
-      <c r="D36" s="76"/>
-      <c r="E36" s="76"/>
-      <c r="F36" s="76"/>
-      <c r="G36" s="76"/>
-      <c r="H36" s="76"/>
-      <c r="I36" s="76"/>
-    </row>
-    <row r="37" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+    </row>
+    <row r="37" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="31"/>
       <c r="C37" s="31"/>
       <c r="D37" s="31"/>
@@ -14224,444 +14193,444 @@
       <c r="H37" s="31"/>
       <c r="I37" s="31"/>
     </row>
-    <row r="38" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="77" t="s">
+    <row r="38" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="78"/>
-      <c r="D38" s="78"/>
-      <c r="E38" s="79" t="s">
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="80"/>
-      <c r="G38" s="78" t="s">
+      <c r="F38" s="50"/>
+      <c r="G38" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="78"/>
-      <c r="I38" s="81"/>
-    </row>
-    <row r="39" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="82" t="s">
+      <c r="H38" s="48"/>
+      <c r="I38" s="51"/>
+    </row>
+    <row r="39" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="83"/>
-      <c r="D39" s="83"/>
+      <c r="C39" s="78"/>
+      <c r="D39" s="78"/>
       <c r="E39" s="14"/>
       <c r="F39" s="15"/>
-      <c r="G39" s="83"/>
-      <c r="H39" s="83"/>
-      <c r="I39" s="86"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="84"/>
-      <c r="C40" s="85"/>
-      <c r="D40" s="85"/>
+      <c r="G39" s="78"/>
+      <c r="H39" s="78"/>
+      <c r="I39" s="80"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B40" s="79"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="55"/>
       <c r="E40" s="8"/>
       <c r="F40" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="85"/>
-      <c r="H40" s="85"/>
-      <c r="I40" s="87"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="84"/>
-      <c r="C41" s="85"/>
-      <c r="D41" s="85"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="81"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="79"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="55"/>
       <c r="E41" s="8"/>
       <c r="F41" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="85"/>
-      <c r="H41" s="85"/>
-      <c r="I41" s="87"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="84"/>
-      <c r="C42" s="85"/>
-      <c r="D42" s="85"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="55"/>
+      <c r="I41" s="81"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="79"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="55"/>
       <c r="E42" s="8"/>
       <c r="F42" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="85"/>
-      <c r="H42" s="85"/>
-      <c r="I42" s="87"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="84"/>
-      <c r="C43" s="85"/>
-      <c r="D43" s="85"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="81"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="79"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="55"/>
       <c r="E43" s="8"/>
       <c r="F43" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G43" s="85"/>
-      <c r="H43" s="85"/>
-      <c r="I43" s="87"/>
-    </row>
-    <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="84"/>
-      <c r="C44" s="85"/>
-      <c r="D44" s="85"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="81"/>
+    </row>
+    <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="79"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="55"/>
       <c r="E44" s="10"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="85"/>
-      <c r="H44" s="85"/>
-      <c r="I44" s="87"/>
-    </row>
-    <row r="45" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="94" t="s">
+      <c r="G44" s="55"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="81"/>
+    </row>
+    <row r="45" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="95"/>
-      <c r="D45" s="100"/>
+      <c r="C45" s="65"/>
+      <c r="D45" s="97"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="110"/>
-      <c r="H45" s="95"/>
-      <c r="I45" s="96"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="62"/>
-      <c r="C46" s="63"/>
-      <c r="D46" s="103"/>
+      <c r="G45" s="107"/>
+      <c r="H45" s="65"/>
+      <c r="I45" s="66"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B46" s="58"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="100"/>
       <c r="E46" s="8"/>
       <c r="F46" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="111"/>
-      <c r="H46" s="63"/>
-      <c r="I46" s="64"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="62"/>
-      <c r="C47" s="63"/>
-      <c r="D47" s="103"/>
+      <c r="G46" s="108"/>
+      <c r="H46" s="59"/>
+      <c r="I46" s="62"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B47" s="58"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="100"/>
       <c r="E47" s="8"/>
       <c r="F47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="111"/>
-      <c r="H47" s="63"/>
-      <c r="I47" s="64"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="62"/>
-      <c r="C48" s="63"/>
-      <c r="D48" s="103"/>
+      <c r="G47" s="108"/>
+      <c r="H47" s="59"/>
+      <c r="I47" s="62"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B48" s="58"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="100"/>
       <c r="E48" s="8"/>
       <c r="F48" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G48" s="111"/>
-      <c r="H48" s="63"/>
-      <c r="I48" s="64"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="62"/>
-      <c r="C49" s="63"/>
-      <c r="D49" s="103"/>
+      <c r="G48" s="108"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="62"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B49" s="58"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="100"/>
       <c r="E49" s="8"/>
       <c r="F49" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G49" s="111"/>
-      <c r="H49" s="63"/>
-      <c r="I49" s="64"/>
-    </row>
-    <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="91"/>
-      <c r="C50" s="92"/>
-      <c r="D50" s="106"/>
+      <c r="G49" s="108"/>
+      <c r="H49" s="59"/>
+      <c r="I49" s="62"/>
+    </row>
+    <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="60"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="103"/>
       <c r="E50" s="10"/>
       <c r="F50" s="11"/>
-      <c r="G50" s="112"/>
-      <c r="H50" s="92"/>
-      <c r="I50" s="93"/>
-    </row>
-    <row r="51" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="94" t="s">
+      <c r="G50" s="109"/>
+      <c r="H50" s="61"/>
+      <c r="I50" s="63"/>
+    </row>
+    <row r="51" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="95"/>
-      <c r="D51" s="100"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="97"/>
       <c r="E51" s="6"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="110"/>
-      <c r="H51" s="95"/>
-      <c r="I51" s="96"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="62"/>
-      <c r="C52" s="63"/>
-      <c r="D52" s="103"/>
+      <c r="G51" s="107"/>
+      <c r="H51" s="65"/>
+      <c r="I51" s="66"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B52" s="58"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="100"/>
       <c r="E52" s="8"/>
       <c r="F52" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G52" s="111"/>
-      <c r="H52" s="63"/>
-      <c r="I52" s="64"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="62"/>
-      <c r="C53" s="63"/>
-      <c r="D53" s="103"/>
+      <c r="G52" s="108"/>
+      <c r="H52" s="59"/>
+      <c r="I52" s="62"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B53" s="58"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="100"/>
       <c r="E53" s="8"/>
       <c r="F53" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="111"/>
-      <c r="H53" s="63"/>
-      <c r="I53" s="64"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="62"/>
-      <c r="C54" s="63"/>
-      <c r="D54" s="103"/>
+      <c r="G53" s="108"/>
+      <c r="H53" s="59"/>
+      <c r="I53" s="62"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B54" s="58"/>
+      <c r="C54" s="59"/>
+      <c r="D54" s="100"/>
       <c r="E54" s="8"/>
       <c r="F54" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G54" s="111"/>
-      <c r="H54" s="63"/>
-      <c r="I54" s="64"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="62"/>
-      <c r="C55" s="63"/>
-      <c r="D55" s="103"/>
+      <c r="G54" s="108"/>
+      <c r="H54" s="59"/>
+      <c r="I54" s="62"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B55" s="58"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="100"/>
       <c r="E55" s="8"/>
       <c r="F55" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G55" s="111"/>
-      <c r="H55" s="63"/>
-      <c r="I55" s="64"/>
-    </row>
-    <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="91"/>
-      <c r="C56" s="92"/>
-      <c r="D56" s="106"/>
+      <c r="G55" s="108"/>
+      <c r="H55" s="59"/>
+      <c r="I55" s="62"/>
+    </row>
+    <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="60"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="103"/>
       <c r="E56" s="10"/>
       <c r="F56" s="11"/>
-      <c r="G56" s="112"/>
-      <c r="H56" s="92"/>
-      <c r="I56" s="93"/>
-    </row>
-    <row r="57" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="84"/>
-      <c r="C57" s="85"/>
-      <c r="D57" s="85"/>
+      <c r="G56" s="109"/>
+      <c r="H56" s="61"/>
+      <c r="I56" s="63"/>
+    </row>
+    <row r="57" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="79"/>
+      <c r="C57" s="55"/>
+      <c r="D57" s="55"/>
       <c r="E57" s="6"/>
       <c r="F57" s="7"/>
-      <c r="G57" s="85"/>
-      <c r="H57" s="85"/>
-      <c r="I57" s="87"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="84"/>
-      <c r="C58" s="85"/>
-      <c r="D58" s="85"/>
+      <c r="G57" s="55"/>
+      <c r="H57" s="55"/>
+      <c r="I57" s="81"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B58" s="79"/>
+      <c r="C58" s="55"/>
+      <c r="D58" s="55"/>
       <c r="E58" s="8"/>
       <c r="F58" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="85"/>
-      <c r="H58" s="85"/>
-      <c r="I58" s="87"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="84"/>
-      <c r="C59" s="85"/>
-      <c r="D59" s="85"/>
+      <c r="G58" s="55"/>
+      <c r="H58" s="55"/>
+      <c r="I58" s="81"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B59" s="79"/>
+      <c r="C59" s="55"/>
+      <c r="D59" s="55"/>
       <c r="E59" s="8"/>
       <c r="F59" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G59" s="85"/>
-      <c r="H59" s="85"/>
-      <c r="I59" s="87"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="84"/>
-      <c r="C60" s="85"/>
-      <c r="D60" s="85"/>
+      <c r="G59" s="55"/>
+      <c r="H59" s="55"/>
+      <c r="I59" s="81"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B60" s="79"/>
+      <c r="C60" s="55"/>
+      <c r="D60" s="55"/>
       <c r="E60" s="8"/>
       <c r="F60" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G60" s="85"/>
-      <c r="H60" s="85"/>
-      <c r="I60" s="87"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="84"/>
-      <c r="C61" s="85"/>
-      <c r="D61" s="85"/>
+      <c r="G60" s="55"/>
+      <c r="H60" s="55"/>
+      <c r="I60" s="81"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B61" s="79"/>
+      <c r="C61" s="55"/>
+      <c r="D61" s="55"/>
       <c r="E61" s="8"/>
       <c r="F61" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G61" s="85"/>
-      <c r="H61" s="85"/>
-      <c r="I61" s="87"/>
-    </row>
-    <row r="62" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="88"/>
-      <c r="C62" s="89"/>
-      <c r="D62" s="89"/>
+      <c r="G61" s="55"/>
+      <c r="H61" s="55"/>
+      <c r="I61" s="81"/>
+    </row>
+    <row r="62" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="82"/>
+      <c r="C62" s="83"/>
+      <c r="D62" s="83"/>
       <c r="E62" s="17"/>
       <c r="F62" s="18"/>
-      <c r="G62" s="89"/>
-      <c r="H62" s="89"/>
-      <c r="I62" s="90"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="76" t="s">
+      <c r="G62" s="83"/>
+      <c r="H62" s="83"/>
+      <c r="I62" s="84"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B64" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="76"/>
-      <c r="D64" s="76"/>
-      <c r="E64" s="76"/>
-      <c r="F64" s="76"/>
-      <c r="G64" s="76"/>
-      <c r="H64" s="76"/>
-      <c r="I64" s="76"/>
-    </row>
-    <row r="65" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B66" s="69" t="s">
+      <c r="C64" s="57"/>
+      <c r="D64" s="57"/>
+      <c r="E64" s="57"/>
+      <c r="F64" s="57"/>
+      <c r="G64" s="57"/>
+      <c r="H64" s="57"/>
+      <c r="I64" s="57"/>
+    </row>
+    <row r="65" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B66" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="70"/>
-      <c r="D66" s="70"/>
-      <c r="E66" s="70"/>
-      <c r="F66" s="70"/>
-      <c r="G66" s="73" t="s">
+      <c r="C66" s="71"/>
+      <c r="D66" s="71"/>
+      <c r="E66" s="71"/>
+      <c r="F66" s="71"/>
+      <c r="G66" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="H66" s="73"/>
-      <c r="I66" s="74"/>
-    </row>
-    <row r="67" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="71"/>
-      <c r="C67" s="72"/>
-      <c r="D67" s="72"/>
-      <c r="E67" s="72"/>
-      <c r="F67" s="72"/>
-      <c r="G67" s="75" t="s">
+      <c r="H66" s="74"/>
+      <c r="I66" s="75"/>
+    </row>
+    <row r="67" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="72"/>
+      <c r="C67" s="73"/>
+      <c r="D67" s="73"/>
+      <c r="E67" s="73"/>
+      <c r="F67" s="73"/>
+      <c r="G67" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="H67" s="75"/>
+      <c r="H67" s="76"/>
       <c r="I67" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="82"/>
-      <c r="C68" s="83"/>
-      <c r="D68" s="83"/>
-      <c r="E68" s="83"/>
-      <c r="F68" s="83"/>
-      <c r="G68" s="83"/>
-      <c r="H68" s="83"/>
+    <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="77"/>
+      <c r="C68" s="78"/>
+      <c r="D68" s="78"/>
+      <c r="E68" s="78"/>
+      <c r="F68" s="78"/>
+      <c r="G68" s="78"/>
+      <c r="H68" s="78"/>
       <c r="I68" s="33"/>
     </row>
-    <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="84"/>
-      <c r="C69" s="85"/>
-      <c r="D69" s="85"/>
-      <c r="E69" s="85"/>
-      <c r="F69" s="85"/>
-      <c r="G69" s="85"/>
-      <c r="H69" s="85"/>
+    <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="79"/>
+      <c r="C69" s="55"/>
+      <c r="D69" s="55"/>
+      <c r="E69" s="55"/>
+      <c r="F69" s="55"/>
+      <c r="G69" s="55"/>
+      <c r="H69" s="55"/>
       <c r="I69" s="34"/>
     </row>
-    <row r="70" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="84"/>
-      <c r="C70" s="85"/>
-      <c r="D70" s="85"/>
-      <c r="E70" s="85"/>
-      <c r="F70" s="85"/>
-      <c r="G70" s="85"/>
-      <c r="H70" s="85"/>
+    <row r="70" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="79"/>
+      <c r="C70" s="55"/>
+      <c r="D70" s="55"/>
+      <c r="E70" s="55"/>
+      <c r="F70" s="55"/>
+      <c r="G70" s="55"/>
+      <c r="H70" s="55"/>
       <c r="I70" s="34"/>
     </row>
-    <row r="71" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="88"/>
-      <c r="C71" s="89"/>
-      <c r="D71" s="89"/>
-      <c r="E71" s="89"/>
-      <c r="F71" s="89"/>
-      <c r="G71" s="89"/>
-      <c r="H71" s="89"/>
+    <row r="71" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="82"/>
+      <c r="C71" s="83"/>
+      <c r="D71" s="83"/>
+      <c r="E71" s="83"/>
+      <c r="F71" s="83"/>
+      <c r="G71" s="83"/>
+      <c r="H71" s="83"/>
       <c r="I71" s="35"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="58" t="s">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B73" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="58"/>
-      <c r="D73" s="58"/>
-      <c r="E73" s="58"/>
-      <c r="F73" s="58"/>
-      <c r="G73" s="58"/>
-      <c r="H73" s="58"/>
-      <c r="I73" s="58"/>
-    </row>
-    <row r="74" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="59"/>
-      <c r="C75" s="60"/>
-      <c r="D75" s="60"/>
-      <c r="E75" s="60"/>
-      <c r="F75" s="60"/>
-      <c r="G75" s="60"/>
-      <c r="H75" s="60"/>
-      <c r="I75" s="61"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="62"/>
-      <c r="C76" s="63"/>
-      <c r="D76" s="63"/>
-      <c r="E76" s="63"/>
-      <c r="F76" s="63"/>
-      <c r="G76" s="63"/>
-      <c r="H76" s="63"/>
-      <c r="I76" s="64"/>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B77" s="62"/>
-      <c r="C77" s="63"/>
-      <c r="D77" s="63"/>
-      <c r="E77" s="63"/>
-      <c r="F77" s="63"/>
-      <c r="G77" s="63"/>
-      <c r="H77" s="63"/>
-      <c r="I77" s="64"/>
-    </row>
-    <row r="78" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="65"/>
-      <c r="C78" s="66"/>
-      <c r="D78" s="66"/>
-      <c r="E78" s="66"/>
-      <c r="F78" s="66"/>
-      <c r="G78" s="66"/>
-      <c r="H78" s="66"/>
-      <c r="I78" s="67"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G80" s="68" t="s">
+      <c r="C73" s="93"/>
+      <c r="D73" s="93"/>
+      <c r="E73" s="93"/>
+      <c r="F73" s="93"/>
+      <c r="G73" s="93"/>
+      <c r="H73" s="93"/>
+      <c r="I73" s="93"/>
+    </row>
+    <row r="74" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B75" s="94"/>
+      <c r="C75" s="95"/>
+      <c r="D75" s="95"/>
+      <c r="E75" s="95"/>
+      <c r="F75" s="95"/>
+      <c r="G75" s="95"/>
+      <c r="H75" s="95"/>
+      <c r="I75" s="96"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B76" s="58"/>
+      <c r="C76" s="59"/>
+      <c r="D76" s="59"/>
+      <c r="E76" s="59"/>
+      <c r="F76" s="59"/>
+      <c r="G76" s="59"/>
+      <c r="H76" s="59"/>
+      <c r="I76" s="62"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B77" s="58"/>
+      <c r="C77" s="59"/>
+      <c r="D77" s="59"/>
+      <c r="E77" s="59"/>
+      <c r="F77" s="59"/>
+      <c r="G77" s="59"/>
+      <c r="H77" s="59"/>
+      <c r="I77" s="62"/>
+    </row>
+    <row r="78" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="67"/>
+      <c r="C78" s="68"/>
+      <c r="D78" s="68"/>
+      <c r="E78" s="68"/>
+      <c r="F78" s="68"/>
+      <c r="G78" s="68"/>
+      <c r="H78" s="68"/>
+      <c r="I78" s="69"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G80" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="H80" s="68"/>
+      <c r="H80" s="53"/>
       <c r="I80" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
@@ -14670,21 +14639,21 @@
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B83" s="47" t="str">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B83" s="85" t="str">
         <f>IF(D10=0,"Assinatura do(a) Orientador(a)",D10)</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="C83" s="47"/>
-      <c r="D83" s="47"/>
-      <c r="F83" s="48" t="s">
+      <c r="C83" s="85"/>
+      <c r="D83" s="85"/>
+      <c r="F83" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="G83" s="48"/>
-      <c r="H83" s="48"/>
-      <c r="I83" s="48"/>
-    </row>
-    <row r="85" spans="2:10" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="G83" s="86"/>
+      <c r="H83" s="86"/>
+      <c r="I83" s="86"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J85" s="23" t="s">
         <v>37</v>
       </c>
@@ -14694,44 +14663,6 @@
     <protectedRange sqref="B20:D34 G20:I34 B68:I71 B75 B39:D62 G39:I62" name="Intervalo1"/>
   </protectedRanges>
   <mergeCells count="52">
-    <mergeCell ref="B73:I73"/>
-    <mergeCell ref="B75:I78"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="F83:I83"/>
-    <mergeCell ref="B39:D44"/>
-    <mergeCell ref="G39:I44"/>
-    <mergeCell ref="B51:D56"/>
-    <mergeCell ref="G51:I56"/>
-    <mergeCell ref="B57:D62"/>
-    <mergeCell ref="G57:I62"/>
-    <mergeCell ref="B45:D50"/>
-    <mergeCell ref="G45:I50"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="B64:I64"/>
-    <mergeCell ref="B66:F67"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B20:D24"/>
-    <mergeCell ref="G20:I24"/>
-    <mergeCell ref="B25:D29"/>
-    <mergeCell ref="G25:I29"/>
-    <mergeCell ref="B30:D34"/>
-    <mergeCell ref="G30:I34"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F38"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="B5:I5"/>
     <mergeCell ref="C8:I8"/>
@@ -14746,6 +14677,44 @@
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="B7:I7"/>
     <mergeCell ref="H14:I14"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B20:D24"/>
+    <mergeCell ref="G20:I24"/>
+    <mergeCell ref="B25:D29"/>
+    <mergeCell ref="G25:I29"/>
+    <mergeCell ref="B30:D34"/>
+    <mergeCell ref="G30:I34"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="B64:I64"/>
+    <mergeCell ref="B66:F67"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="B39:D44"/>
+    <mergeCell ref="G39:I44"/>
+    <mergeCell ref="B51:D56"/>
+    <mergeCell ref="G51:I56"/>
+    <mergeCell ref="B57:D62"/>
+    <mergeCell ref="G57:I62"/>
+    <mergeCell ref="B45:D50"/>
+    <mergeCell ref="G45:I50"/>
+    <mergeCell ref="B73:I73"/>
+    <mergeCell ref="B75:I78"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="F83:I83"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:I13 B7 B15:I16 B14:H14">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
@@ -14773,13 +14742,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
+                    <xdr:rowOff>121920</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14795,13 +14764,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14821,9 +14790,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>23</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14843,9 +14812,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14859,15 +14828,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>30</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>22860</xdr:colOff>
                     <xdr:row>32</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14881,15 +14850,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>33</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14905,13 +14874,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>24</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14931,7 +14900,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -14949,13 +14918,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>28</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14975,9 +14944,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>39</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14997,7 +14966,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>41</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -15015,13 +14984,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>40</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>42</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15041,9 +15010,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>43</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15059,13 +15028,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>50</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>51</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15085,7 +15054,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>53</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -15103,13 +15072,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>52</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>54</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15129,9 +15098,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>55</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15147,11 +15116,11 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>56</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>57</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </to>
@@ -15173,7 +15142,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>59</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -15191,13 +15160,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>58</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>60</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15217,9 +15186,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>61</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15235,13 +15204,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>44</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>45</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15261,7 +15230,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>47</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -15279,13 +15248,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>46</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>48</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15305,9 +15274,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>49</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15321,41 +15290,41 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>35</v>
       </c>
@@ -15366,6 +15335,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100951F864CA035244EB7F6E6B9CAD39DD8" ma:contentTypeVersion="28" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="4d3f40bcd57f6f3788c6a2039c87841b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="ce03834f-a579-4ecb-b47e-e136bae11e47" xmlns:ns3="948e1b9c-bee8-44de-8cc6-706e5b780eae" xmlns:ns4="feadaf30-646e-4180-8499-c12b20b15a5f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f3c3814524ee6e7ba98c66e9da7e66bc" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -15622,15 +15600,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -15646,6 +15615,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAF40381-23F2-4A89-8986-B9057472B1AD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DEC6A78-1548-46C1-A293-FB862F1C8C0C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15662,14 +15639,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAF40381-23F2-4A89-8986-B9057472B1AD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Entregas/Relatório de Acompanhamento Mensal de TCC - V05_2ºsemestre.xlsx
+++ b/Entregas/Relatório de Acompanhamento Mensal de TCC - V05_2ºsemestre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Dropbox\Documentos\FSARENA\TCC\SrMartis\Entregas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABF3D34-9B49-4FAC-8068-4CAB98931994}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810205ED-F668-489C-9D1B-F8E69B0302E7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="818" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -234,9 +234,6 @@
     <t>Criação de repositório GitHub.</t>
   </si>
   <si>
-    <t>Os alunos compareceram a reunião e realizaram as atividades combinadas</t>
-  </si>
-  <si>
     <t>Otimização de processos e gestão de refeitórios com Machine Learning</t>
   </si>
   <si>
@@ -245,12 +242,35 @@
   <si>
     <t>Definição dos Objetivo Geral e Objetivos Específicos (Item 7  dos entregáveis)</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">COMENTÁRIO DO ORIENTADOR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:Esse mês o acompanhamento foi mais geral , sem aitvidade individuais para melhor avaliação dos alunos. Já em setembro as atividades e responsabilidades serão desginadas individualmente e a avaliação será individualizada. Dentro do cronograma de setembro os alunos deverão levantar tecnicas de mensuração  de desperdícios, abordagens para minimizar o desperdício em refeitórios ou metigar os seus efeitos</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,6 +321,14 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1043,38 +1071,44 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1082,25 +1116,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1111,6 +1127,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1131,6 +1150,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1157,41 +1194,32 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1295,11 +1323,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9250,8 +9278,8 @@
   </sheetPr>
   <dimension ref="B5:J84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69:F70"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
+      <selection activeCell="K76" sqref="K76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9264,21 +9292,21 @@
     <col min="6" max="6" width="12.44140625" customWidth="1"/>
     <col min="7" max="7" width="10.88671875" customWidth="1"/>
     <col min="8" max="8" width="3.5546875" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" customWidth="1"/>
+    <col min="9" max="9" width="21" customWidth="1"/>
     <col min="10" max="10" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
     </row>
     <row r="6" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
@@ -9295,57 +9323,57 @@
         <v>1</v>
       </c>
       <c r="C7" s="19"/>
-      <c r="D7" s="53" t="str">
+      <c r="D7" s="66" t="str">
         <f>Plan1!B5</f>
         <v>Agosto</v>
       </c>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
+      <c r="C8" s="95" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="95"/>
     </row>
     <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="40" t="s">
@@ -9360,10 +9388,10 @@
       <c r="G12" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="56">
+      <c r="H12" s="96">
         <v>82150171</v>
       </c>
-      <c r="I12" s="56"/>
+      <c r="I12" s="96"/>
     </row>
     <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="40" t="s">
@@ -9378,10 +9406,10 @@
       <c r="G13" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="56">
+      <c r="H13" s="96">
         <v>82150205</v>
       </c>
-      <c r="I13" s="56"/>
+      <c r="I13" s="96"/>
     </row>
     <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="40" t="s">
@@ -9396,10 +9424,10 @@
       <c r="G14" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="56">
+      <c r="H14" s="96">
         <v>82150320</v>
       </c>
-      <c r="I14" s="56"/>
+      <c r="I14" s="96"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C15" s="28"/>
@@ -9408,207 +9436,207 @@
       <c r="F15" s="28"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="57" t="s">
+      <c r="B16" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
     </row>
     <row r="17" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="18" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="49" t="s">
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="50"/>
-      <c r="G18" s="48" t="s">
+      <c r="F18" s="78"/>
+      <c r="G18" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="48"/>
-      <c r="I18" s="51"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="79"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
       <c r="E19" s="14"/>
       <c r="F19" s="15"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
       <c r="I19" s="62"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="58"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
       <c r="E20" s="8"/>
       <c r="F20" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
       <c r="I20" s="62"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="58"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
       <c r="I21" s="62"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="58"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
       <c r="I22" s="62"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="60"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="89"/>
       <c r="E23" s="10"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="63"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="89"/>
+      <c r="I23" s="90"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="64" t="s">
+      <c r="B24" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
       <c r="E24" s="12"/>
       <c r="F24" s="13"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="66"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="93"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="58"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
       <c r="E25" s="8"/>
       <c r="F25" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
       <c r="I25" s="62"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="58"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
       <c r="I26" s="62"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="58"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
       <c r="I27" s="62"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="60"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="89"/>
       <c r="E28" s="10"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="63"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="89"/>
+      <c r="I28" s="90"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="58" t="s">
+      <c r="B29" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
       <c r="E29" s="8"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
       <c r="I29" s="62"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="58"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
       <c r="I30" s="62"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="58"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
       <c r="I31" s="62"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="58"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
       <c r="E32" s="8"/>
       <c r="F32" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
       <c r="I32" s="62"/>
     </row>
     <row r="33" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="67"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="68"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="64"/>
       <c r="E33" s="17"/>
       <c r="F33" s="18"/>
-      <c r="G33" s="68"/>
-      <c r="H33" s="68"/>
-      <c r="I33" s="69"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="65"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="3"/>
@@ -9621,16 +9649,16 @@
       <c r="I34" s="3"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="57" t="s">
+      <c r="B35" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
+      <c r="C35" s="74"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="74"/>
+      <c r="F35" s="74"/>
+      <c r="G35" s="74"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="74"/>
     </row>
     <row r="36" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="16"/>
@@ -9643,35 +9671,35 @@
       <c r="I36" s="16"/>
     </row>
     <row r="37" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="47" t="s">
+      <c r="B37" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="49" t="s">
+      <c r="C37" s="76"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="F37" s="50"/>
-      <c r="G37" s="48" t="s">
+      <c r="F37" s="78"/>
+      <c r="G37" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="H37" s="48"/>
-      <c r="I37" s="51"/>
+      <c r="H37" s="76"/>
+      <c r="I37" s="79"/>
     </row>
     <row r="38" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="77" t="s">
+      <c r="B38" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="78"/>
-      <c r="D38" s="78"/>
+      <c r="C38" s="81"/>
+      <c r="D38" s="81"/>
       <c r="E38" s="14"/>
       <c r="F38" s="15"/>
-      <c r="G38" s="78"/>
-      <c r="H38" s="78"/>
-      <c r="I38" s="80"/>
+      <c r="G38" s="81"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="83"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B39" s="79"/>
+      <c r="B39" s="82"/>
       <c r="C39" s="55"/>
       <c r="D39" s="55"/>
       <c r="E39" s="8"/>
@@ -9680,10 +9708,10 @@
       </c>
       <c r="G39" s="55"/>
       <c r="H39" s="55"/>
-      <c r="I39" s="81"/>
+      <c r="I39" s="84"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="79"/>
+      <c r="B40" s="82"/>
       <c r="C40" s="55"/>
       <c r="D40" s="55"/>
       <c r="E40" s="8"/>
@@ -9692,10 +9720,10 @@
       </c>
       <c r="G40" s="55"/>
       <c r="H40" s="55"/>
-      <c r="I40" s="81"/>
+      <c r="I40" s="84"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="79"/>
+      <c r="B41" s="82"/>
       <c r="C41" s="55"/>
       <c r="D41" s="55"/>
       <c r="E41" s="8"/>
@@ -9704,10 +9732,10 @@
       </c>
       <c r="G41" s="55"/>
       <c r="H41" s="55"/>
-      <c r="I41" s="81"/>
+      <c r="I41" s="84"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="79"/>
+      <c r="B42" s="82"/>
       <c r="C42" s="55"/>
       <c r="D42" s="55"/>
       <c r="E42" s="8"/>
@@ -9716,20 +9744,20 @@
       </c>
       <c r="G42" s="55"/>
       <c r="H42" s="55"/>
-      <c r="I42" s="81"/>
+      <c r="I42" s="84"/>
     </row>
     <row r="43" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="79"/>
+      <c r="B43" s="82"/>
       <c r="C43" s="55"/>
       <c r="D43" s="55"/>
       <c r="E43" s="10"/>
       <c r="F43" s="11"/>
       <c r="G43" s="55"/>
       <c r="H43" s="55"/>
-      <c r="I43" s="81"/>
+      <c r="I43" s="84"/>
     </row>
     <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="79" t="s">
+      <c r="B44" s="82" t="s">
         <v>41</v>
       </c>
       <c r="C44" s="55"/>
@@ -9738,10 +9766,10 @@
       <c r="F44" s="7"/>
       <c r="G44" s="55"/>
       <c r="H44" s="55"/>
-      <c r="I44" s="81"/>
+      <c r="I44" s="84"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B45" s="79"/>
+      <c r="B45" s="82"/>
       <c r="C45" s="55"/>
       <c r="D45" s="55"/>
       <c r="E45" s="8"/>
@@ -9750,10 +9778,10 @@
       </c>
       <c r="G45" s="55"/>
       <c r="H45" s="55"/>
-      <c r="I45" s="81"/>
+      <c r="I45" s="84"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="79"/>
+      <c r="B46" s="82"/>
       <c r="C46" s="55"/>
       <c r="D46" s="55"/>
       <c r="E46" s="8"/>
@@ -9762,10 +9790,10 @@
       </c>
       <c r="G46" s="55"/>
       <c r="H46" s="55"/>
-      <c r="I46" s="81"/>
+      <c r="I46" s="84"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="79"/>
+      <c r="B47" s="82"/>
       <c r="C47" s="55"/>
       <c r="D47" s="55"/>
       <c r="E47" s="8"/>
@@ -9774,10 +9802,10 @@
       </c>
       <c r="G47" s="55"/>
       <c r="H47" s="55"/>
-      <c r="I47" s="81"/>
+      <c r="I47" s="84"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="79"/>
+      <c r="B48" s="82"/>
       <c r="C48" s="55"/>
       <c r="D48" s="55"/>
       <c r="E48" s="8"/>
@@ -9786,20 +9814,20 @@
       </c>
       <c r="G48" s="55"/>
       <c r="H48" s="55"/>
-      <c r="I48" s="81"/>
+      <c r="I48" s="84"/>
     </row>
     <row r="49" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="79"/>
+      <c r="B49" s="82"/>
       <c r="C49" s="55"/>
       <c r="D49" s="55"/>
       <c r="E49" s="10"/>
       <c r="F49" s="11"/>
       <c r="G49" s="55"/>
       <c r="H49" s="55"/>
-      <c r="I49" s="81"/>
+      <c r="I49" s="84"/>
     </row>
     <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="79" t="s">
+      <c r="B50" s="82" t="s">
         <v>45</v>
       </c>
       <c r="C50" s="55"/>
@@ -9808,10 +9836,10 @@
       <c r="F50" s="7"/>
       <c r="G50" s="55"/>
       <c r="H50" s="55"/>
-      <c r="I50" s="81"/>
+      <c r="I50" s="84"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B51" s="79"/>
+      <c r="B51" s="82"/>
       <c r="C51" s="55"/>
       <c r="D51" s="55"/>
       <c r="E51" s="8"/>
@@ -9820,10 +9848,10 @@
       </c>
       <c r="G51" s="55"/>
       <c r="H51" s="55"/>
-      <c r="I51" s="81"/>
+      <c r="I51" s="84"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="79"/>
+      <c r="B52" s="82"/>
       <c r="C52" s="55"/>
       <c r="D52" s="55"/>
       <c r="E52" s="8"/>
@@ -9832,10 +9860,10 @@
       </c>
       <c r="G52" s="55"/>
       <c r="H52" s="55"/>
-      <c r="I52" s="81"/>
+      <c r="I52" s="84"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B53" s="79"/>
+      <c r="B53" s="82"/>
       <c r="C53" s="55"/>
       <c r="D53" s="55"/>
       <c r="E53" s="8"/>
@@ -9844,10 +9872,10 @@
       </c>
       <c r="G53" s="55"/>
       <c r="H53" s="55"/>
-      <c r="I53" s="81"/>
+      <c r="I53" s="84"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="79"/>
+      <c r="B54" s="82"/>
       <c r="C54" s="55"/>
       <c r="D54" s="55"/>
       <c r="E54" s="8"/>
@@ -9856,30 +9884,30 @@
       </c>
       <c r="G54" s="55"/>
       <c r="H54" s="55"/>
-      <c r="I54" s="81"/>
+      <c r="I54" s="84"/>
     </row>
     <row r="55" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="79"/>
+      <c r="B55" s="82"/>
       <c r="C55" s="55"/>
       <c r="D55" s="55"/>
       <c r="E55" s="10"/>
       <c r="F55" s="11"/>
       <c r="G55" s="55"/>
       <c r="H55" s="55"/>
-      <c r="I55" s="81"/>
+      <c r="I55" s="84"/>
     </row>
     <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="79"/>
+      <c r="B56" s="82"/>
       <c r="C56" s="55"/>
       <c r="D56" s="55"/>
       <c r="E56" s="6"/>
       <c r="F56" s="7"/>
       <c r="G56" s="55"/>
       <c r="H56" s="55"/>
-      <c r="I56" s="81"/>
+      <c r="I56" s="84"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B57" s="79"/>
+      <c r="B57" s="82"/>
       <c r="C57" s="55"/>
       <c r="D57" s="55"/>
       <c r="E57" s="8"/>
@@ -9888,10 +9916,10 @@
       </c>
       <c r="G57" s="55"/>
       <c r="H57" s="55"/>
-      <c r="I57" s="81"/>
+      <c r="I57" s="84"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B58" s="79"/>
+      <c r="B58" s="82"/>
       <c r="C58" s="55"/>
       <c r="D58" s="55"/>
       <c r="E58" s="8"/>
@@ -9900,10 +9928,10 @@
       </c>
       <c r="G58" s="55"/>
       <c r="H58" s="55"/>
-      <c r="I58" s="81"/>
+      <c r="I58" s="84"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B59" s="79"/>
+      <c r="B59" s="82"/>
       <c r="C59" s="55"/>
       <c r="D59" s="55"/>
       <c r="E59" s="8"/>
@@ -9912,10 +9940,10 @@
       </c>
       <c r="G59" s="55"/>
       <c r="H59" s="55"/>
-      <c r="I59" s="81"/>
+      <c r="I59" s="84"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="79"/>
+      <c r="B60" s="82"/>
       <c r="C60" s="55"/>
       <c r="D60" s="55"/>
       <c r="E60" s="8"/>
@@ -9924,67 +9952,67 @@
       </c>
       <c r="G60" s="55"/>
       <c r="H60" s="55"/>
-      <c r="I60" s="81"/>
+      <c r="I60" s="84"/>
     </row>
     <row r="61" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="82"/>
-      <c r="C61" s="83"/>
-      <c r="D61" s="83"/>
+      <c r="B61" s="85"/>
+      <c r="C61" s="86"/>
+      <c r="D61" s="86"/>
       <c r="E61" s="17"/>
       <c r="F61" s="18"/>
-      <c r="G61" s="83"/>
-      <c r="H61" s="83"/>
-      <c r="I61" s="84"/>
+      <c r="G61" s="86"/>
+      <c r="H61" s="86"/>
+      <c r="I61" s="87"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B63" s="57" t="s">
+      <c r="B63" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="57"/>
-      <c r="D63" s="57"/>
-      <c r="E63" s="57"/>
-      <c r="F63" s="57"/>
-      <c r="G63" s="57"/>
-      <c r="H63" s="57"/>
-      <c r="I63" s="57"/>
+      <c r="C63" s="74"/>
+      <c r="D63" s="74"/>
+      <c r="E63" s="74"/>
+      <c r="F63" s="74"/>
+      <c r="G63" s="74"/>
+      <c r="H63" s="74"/>
+      <c r="I63" s="74"/>
     </row>
     <row r="64" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="65" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B65" s="70" t="s">
+      <c r="B65" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="C65" s="71"/>
-      <c r="D65" s="71"/>
-      <c r="E65" s="71"/>
-      <c r="F65" s="71"/>
-      <c r="G65" s="74" t="s">
+      <c r="C65" s="68"/>
+      <c r="D65" s="68"/>
+      <c r="E65" s="68"/>
+      <c r="F65" s="68"/>
+      <c r="G65" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="H65" s="74"/>
-      <c r="I65" s="75"/>
+      <c r="H65" s="71"/>
+      <c r="I65" s="72"/>
     </row>
     <row r="66" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="72"/>
-      <c r="C66" s="73"/>
-      <c r="D66" s="73"/>
-      <c r="E66" s="73"/>
-      <c r="F66" s="73"/>
-      <c r="G66" s="76" t="s">
+      <c r="B66" s="69"/>
+      <c r="C66" s="70"/>
+      <c r="D66" s="70"/>
+      <c r="E66" s="70"/>
+      <c r="F66" s="70"/>
+      <c r="G66" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="H66" s="76"/>
+      <c r="H66" s="73"/>
       <c r="I66" s="24" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="67" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="87" t="s">
+      <c r="B67" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C67" s="88"/>
-      <c r="D67" s="88"/>
-      <c r="E67" s="88"/>
-      <c r="F67" s="89"/>
+      <c r="C67" s="50"/>
+      <c r="D67" s="50"/>
+      <c r="E67" s="50"/>
+      <c r="F67" s="51"/>
       <c r="G67" s="44" t="s">
         <v>34</v>
       </c>
@@ -9994,13 +10022,13 @@
       </c>
     </row>
     <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="90" t="s">
+      <c r="B68" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="C68" s="91"/>
-      <c r="D68" s="91"/>
-      <c r="E68" s="91"/>
-      <c r="F68" s="92"/>
+      <c r="C68" s="53"/>
+      <c r="D68" s="53"/>
+      <c r="E68" s="53"/>
+      <c r="F68" s="54"/>
       <c r="G68" s="45" t="s">
         <v>34</v>
       </c>
@@ -10011,7 +10039,7 @@
     </row>
     <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C69" s="55"/>
       <c r="D69" s="55"/>
@@ -10027,7 +10055,7 @@
     </row>
     <row r="70" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B70" s="55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C70" s="55"/>
       <c r="D70" s="55"/>
@@ -10041,66 +10069,67 @@
         <v>34</v>
       </c>
     </row>
+    <row r="71" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="72" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B72" s="93" t="s">
+      <c r="B72" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="C72" s="93"/>
-      <c r="D72" s="93"/>
-      <c r="E72" s="93"/>
-      <c r="F72" s="93"/>
-      <c r="G72" s="93"/>
-      <c r="H72" s="93"/>
-      <c r="I72" s="93"/>
+      <c r="C72" s="56"/>
+      <c r="D72" s="56"/>
+      <c r="E72" s="56"/>
+      <c r="F72" s="56"/>
+      <c r="G72" s="56"/>
+      <c r="H72" s="56"/>
+      <c r="I72" s="56"/>
     </row>
     <row r="73" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B74" s="94" t="s">
-        <v>52</v>
-      </c>
-      <c r="C74" s="95"/>
-      <c r="D74" s="95"/>
-      <c r="E74" s="95"/>
-      <c r="F74" s="95"/>
-      <c r="G74" s="95"/>
-      <c r="H74" s="95"/>
-      <c r="I74" s="96"/>
+    <row r="74" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="C74" s="58"/>
+      <c r="D74" s="58"/>
+      <c r="E74" s="58"/>
+      <c r="F74" s="58"/>
+      <c r="G74" s="58"/>
+      <c r="H74" s="58"/>
+      <c r="I74" s="59"/>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B75" s="58"/>
-      <c r="C75" s="59"/>
-      <c r="D75" s="59"/>
-      <c r="E75" s="59"/>
-      <c r="F75" s="59"/>
-      <c r="G75" s="59"/>
-      <c r="H75" s="59"/>
+      <c r="B75" s="60"/>
+      <c r="C75" s="61"/>
+      <c r="D75" s="61"/>
+      <c r="E75" s="61"/>
+      <c r="F75" s="61"/>
+      <c r="G75" s="61"/>
+      <c r="H75" s="61"/>
       <c r="I75" s="62"/>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B76" s="58"/>
-      <c r="C76" s="59"/>
-      <c r="D76" s="59"/>
-      <c r="E76" s="59"/>
-      <c r="F76" s="59"/>
-      <c r="G76" s="59"/>
-      <c r="H76" s="59"/>
+      <c r="B76" s="60"/>
+      <c r="C76" s="61"/>
+      <c r="D76" s="61"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="61"/>
+      <c r="G76" s="61"/>
+      <c r="H76" s="61"/>
       <c r="I76" s="62"/>
     </row>
-    <row r="77" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="67"/>
-      <c r="C77" s="68"/>
-      <c r="D77" s="68"/>
-      <c r="E77" s="68"/>
-      <c r="F77" s="68"/>
-      <c r="G77" s="68"/>
-      <c r="H77" s="68"/>
-      <c r="I77" s="69"/>
+    <row r="77" spans="2:9" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="63"/>
+      <c r="C77" s="64"/>
+      <c r="D77" s="64"/>
+      <c r="E77" s="64"/>
+      <c r="F77" s="64"/>
+      <c r="G77" s="64"/>
+      <c r="H77" s="64"/>
+      <c r="I77" s="65"/>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G79" s="53" t="s">
+      <c r="G79" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="H79" s="53"/>
+      <c r="H79" s="66"/>
       <c r="I79" s="5" t="s">
         <v>29</v>
       </c>
@@ -10115,18 +10144,18 @@
       <c r="I81" s="5"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B82" s="85" t="str">
+      <c r="B82" s="47" t="str">
         <f>IF(D10="","Assinatura do(a) Orientador(a)",D10)</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="C82" s="85"/>
-      <c r="D82" s="85"/>
-      <c r="F82" s="86" t="s">
+      <c r="C82" s="47"/>
+      <c r="D82" s="47"/>
+      <c r="F82" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="G82" s="86"/>
-      <c r="H82" s="86"/>
-      <c r="I82" s="86"/>
+      <c r="G82" s="48"/>
+      <c r="H82" s="48"/>
+      <c r="I82" s="48"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J84" s="23" t="s">
@@ -10135,19 +10164,32 @@
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="C8:I9 D10:I10 B19:D33 G19:I33 B67:I68 B74:I77 B38:D61 G38:I61 G69:I70" name="Intervalo1"/>
+    <protectedRange sqref="C8:I9 D10:I10 B19:D33 G19:I33 B67:I68 B38:D61 G38:I61 G69:I70" name="Intervalo1"/>
     <protectedRange sqref="B69:F70" name="Intervalo1_1"/>
+    <protectedRange sqref="B74:I77" name="Intervalo1_2"/>
   </protectedRanges>
   <mergeCells count="46">
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="F82:I82"/>
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="B72:I72"/>
-    <mergeCell ref="B74:I77"/>
-    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B19:D23"/>
+    <mergeCell ref="G19:I23"/>
+    <mergeCell ref="B24:D28"/>
+    <mergeCell ref="G24:I28"/>
+    <mergeCell ref="B29:D33"/>
+    <mergeCell ref="G29:I33"/>
     <mergeCell ref="B65:F66"/>
     <mergeCell ref="G65:I65"/>
     <mergeCell ref="G66:H66"/>
@@ -10164,27 +10206,15 @@
     <mergeCell ref="B63:I63"/>
     <mergeCell ref="B44:D49"/>
     <mergeCell ref="G44:I49"/>
-    <mergeCell ref="B19:D23"/>
-    <mergeCell ref="G19:I23"/>
-    <mergeCell ref="B24:D28"/>
-    <mergeCell ref="G24:I28"/>
-    <mergeCell ref="B29:D33"/>
-    <mergeCell ref="G29:I33"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="F82:I82"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="B72:I72"/>
+    <mergeCell ref="B74:I77"/>
+    <mergeCell ref="G79:H79"/>
   </mergeCells>
   <conditionalFormatting sqref="B82:D82">
     <cfRule type="expression" priority="2">
@@ -10788,16 +10818,16 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
     </row>
     <row r="6" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
@@ -10814,71 +10844,71 @@
         <v>1</v>
       </c>
       <c r="C7" s="19"/>
-      <c r="D7" s="53" t="str">
+      <c r="D7" s="66" t="str">
         <f>Plan1!B6</f>
         <v>Setembro</v>
       </c>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="54" t="str">
+      <c r="C8" s="95" t="str">
         <f>'2º Sem - Agosto'!C8:I8</f>
         <v>Otimização de processos e gestão de refeitórios com Machine Learning</v>
       </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="54" t="str">
+      <c r="C9" s="95" t="str">
         <f>'2º Sem - Agosto'!C9:I9</f>
         <v>Engenharia da Computação</v>
       </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="54" t="str">
+      <c r="D10" s="95" t="str">
         <f>'2º Sem - Agosto'!D10:I10</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="95"/>
     </row>
     <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="65" t="str">
+      <c r="C12" s="92" t="str">
         <f>'2º Sem - Agosto'!C12:F12</f>
         <v>Igor Martins Ferreira</v>
       </c>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
       <c r="F12" s="97"/>
       <c r="G12" s="20" t="s">
         <v>6</v>
@@ -10890,12 +10920,12 @@
       <c r="B13" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="59" t="str">
+      <c r="C13" s="61" t="str">
         <f>'2º Sem - Agosto'!C13:F13</f>
         <v>Lucas Silva Sousa</v>
       </c>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
       <c r="F13" s="100"/>
       <c r="G13" s="21" t="s">
         <v>6</v>
@@ -10907,12 +10937,12 @@
       <c r="B14" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="61" t="str">
+      <c r="C14" s="89" t="str">
         <f>'2º Sem - Agosto'!C14:F14</f>
         <v>Renan Dias de Oliveira</v>
       </c>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
       <c r="F14" s="103"/>
       <c r="G14" s="22" t="s">
         <v>6</v>
@@ -10921,201 +10951,201 @@
       <c r="I14" s="105"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="57" t="s">
+      <c r="B16" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
     </row>
     <row r="17" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="18" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="49" t="s">
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="50"/>
-      <c r="G18" s="48" t="s">
+      <c r="F18" s="78"/>
+      <c r="G18" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="48"/>
-      <c r="I18" s="51"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="79"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="58"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
       <c r="E19" s="14"/>
       <c r="F19" s="15"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
       <c r="I19" s="62"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="58"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
       <c r="E20" s="8"/>
       <c r="F20" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
       <c r="I20" s="62"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="58"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
       <c r="I21" s="62"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="58"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
       <c r="I22" s="62"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="60"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="89"/>
       <c r="E23" s="10"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="63"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="89"/>
+      <c r="I23" s="90"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="64"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
+      <c r="B24" s="91"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
       <c r="E24" s="12"/>
       <c r="F24" s="13"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="66"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="93"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="58"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
       <c r="E25" s="8"/>
       <c r="F25" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
       <c r="I25" s="62"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="58"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
       <c r="I26" s="62"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="58"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
       <c r="I27" s="62"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="60"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="89"/>
       <c r="E28" s="10"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="63"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="89"/>
+      <c r="I28" s="90"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="58"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
       <c r="E29" s="8"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
       <c r="I29" s="62"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="58"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
       <c r="I30" s="62"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="58"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
       <c r="I31" s="62"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="58"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
       <c r="E32" s="8"/>
       <c r="F32" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
       <c r="I32" s="62"/>
     </row>
     <row r="33" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="67"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="68"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="64"/>
       <c r="E33" s="17"/>
       <c r="F33" s="18"/>
-      <c r="G33" s="68"/>
-      <c r="H33" s="68"/>
-      <c r="I33" s="69"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="65"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="3"/>
@@ -11128,16 +11158,16 @@
       <c r="I34" s="3"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="57" t="s">
+      <c r="B35" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
+      <c r="C35" s="74"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="74"/>
+      <c r="F35" s="74"/>
+      <c r="G35" s="74"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="74"/>
     </row>
     <row r="36" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="16"/>
@@ -11150,33 +11180,33 @@
       <c r="I36" s="16"/>
     </row>
     <row r="37" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="47" t="s">
+      <c r="B37" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="49" t="s">
+      <c r="C37" s="76"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="F37" s="50"/>
-      <c r="G37" s="48" t="s">
+      <c r="F37" s="78"/>
+      <c r="G37" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="H37" s="48"/>
-      <c r="I37" s="51"/>
+      <c r="H37" s="76"/>
+      <c r="I37" s="79"/>
     </row>
     <row r="38" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="77"/>
-      <c r="C38" s="78"/>
-      <c r="D38" s="78"/>
+      <c r="B38" s="80"/>
+      <c r="C38" s="81"/>
+      <c r="D38" s="81"/>
       <c r="E38" s="14"/>
       <c r="F38" s="15"/>
-      <c r="G38" s="78"/>
-      <c r="H38" s="78"/>
-      <c r="I38" s="80"/>
+      <c r="G38" s="81"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="83"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B39" s="79"/>
+      <c r="B39" s="82"/>
       <c r="C39" s="55"/>
       <c r="D39" s="55"/>
       <c r="E39" s="8"/>
@@ -11185,10 +11215,10 @@
       </c>
       <c r="G39" s="55"/>
       <c r="H39" s="55"/>
-      <c r="I39" s="81"/>
+      <c r="I39" s="84"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="79"/>
+      <c r="B40" s="82"/>
       <c r="C40" s="55"/>
       <c r="D40" s="55"/>
       <c r="E40" s="8"/>
@@ -11197,10 +11227,10 @@
       </c>
       <c r="G40" s="55"/>
       <c r="H40" s="55"/>
-      <c r="I40" s="81"/>
+      <c r="I40" s="84"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="79"/>
+      <c r="B41" s="82"/>
       <c r="C41" s="55"/>
       <c r="D41" s="55"/>
       <c r="E41" s="8"/>
@@ -11209,10 +11239,10 @@
       </c>
       <c r="G41" s="55"/>
       <c r="H41" s="55"/>
-      <c r="I41" s="81"/>
+      <c r="I41" s="84"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="79"/>
+      <c r="B42" s="82"/>
       <c r="C42" s="55"/>
       <c r="D42" s="55"/>
       <c r="E42" s="8"/>
@@ -11221,30 +11251,30 @@
       </c>
       <c r="G42" s="55"/>
       <c r="H42" s="55"/>
-      <c r="I42" s="81"/>
+      <c r="I42" s="84"/>
     </row>
     <row r="43" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="79"/>
+      <c r="B43" s="82"/>
       <c r="C43" s="55"/>
       <c r="D43" s="55"/>
       <c r="E43" s="10"/>
       <c r="F43" s="11"/>
       <c r="G43" s="55"/>
       <c r="H43" s="55"/>
-      <c r="I43" s="81"/>
+      <c r="I43" s="84"/>
     </row>
     <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="79"/>
+      <c r="B44" s="82"/>
       <c r="C44" s="55"/>
       <c r="D44" s="55"/>
       <c r="E44" s="6"/>
       <c r="F44" s="7"/>
       <c r="G44" s="55"/>
       <c r="H44" s="55"/>
-      <c r="I44" s="81"/>
+      <c r="I44" s="84"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B45" s="79"/>
+      <c r="B45" s="82"/>
       <c r="C45" s="55"/>
       <c r="D45" s="55"/>
       <c r="E45" s="8"/>
@@ -11253,10 +11283,10 @@
       </c>
       <c r="G45" s="55"/>
       <c r="H45" s="55"/>
-      <c r="I45" s="81"/>
+      <c r="I45" s="84"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="79"/>
+      <c r="B46" s="82"/>
       <c r="C46" s="55"/>
       <c r="D46" s="55"/>
       <c r="E46" s="8"/>
@@ -11265,10 +11295,10 @@
       </c>
       <c r="G46" s="55"/>
       <c r="H46" s="55"/>
-      <c r="I46" s="81"/>
+      <c r="I46" s="84"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="79"/>
+      <c r="B47" s="82"/>
       <c r="C47" s="55"/>
       <c r="D47" s="55"/>
       <c r="E47" s="8"/>
@@ -11277,10 +11307,10 @@
       </c>
       <c r="G47" s="55"/>
       <c r="H47" s="55"/>
-      <c r="I47" s="81"/>
+      <c r="I47" s="84"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="79"/>
+      <c r="B48" s="82"/>
       <c r="C48" s="55"/>
       <c r="D48" s="55"/>
       <c r="E48" s="8"/>
@@ -11289,30 +11319,30 @@
       </c>
       <c r="G48" s="55"/>
       <c r="H48" s="55"/>
-      <c r="I48" s="81"/>
+      <c r="I48" s="84"/>
     </row>
     <row r="49" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="79"/>
+      <c r="B49" s="82"/>
       <c r="C49" s="55"/>
       <c r="D49" s="55"/>
       <c r="E49" s="10"/>
       <c r="F49" s="11"/>
       <c r="G49" s="55"/>
       <c r="H49" s="55"/>
-      <c r="I49" s="81"/>
+      <c r="I49" s="84"/>
     </row>
     <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="79"/>
+      <c r="B50" s="82"/>
       <c r="C50" s="55"/>
       <c r="D50" s="55"/>
       <c r="E50" s="6"/>
       <c r="F50" s="7"/>
       <c r="G50" s="55"/>
       <c r="H50" s="55"/>
-      <c r="I50" s="81"/>
+      <c r="I50" s="84"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B51" s="79"/>
+      <c r="B51" s="82"/>
       <c r="C51" s="55"/>
       <c r="D51" s="55"/>
       <c r="E51" s="8"/>
@@ -11321,10 +11351,10 @@
       </c>
       <c r="G51" s="55"/>
       <c r="H51" s="55"/>
-      <c r="I51" s="81"/>
+      <c r="I51" s="84"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="79"/>
+      <c r="B52" s="82"/>
       <c r="C52" s="55"/>
       <c r="D52" s="55"/>
       <c r="E52" s="8"/>
@@ -11333,10 +11363,10 @@
       </c>
       <c r="G52" s="55"/>
       <c r="H52" s="55"/>
-      <c r="I52" s="81"/>
+      <c r="I52" s="84"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B53" s="79"/>
+      <c r="B53" s="82"/>
       <c r="C53" s="55"/>
       <c r="D53" s="55"/>
       <c r="E53" s="8"/>
@@ -11345,10 +11375,10 @@
       </c>
       <c r="G53" s="55"/>
       <c r="H53" s="55"/>
-      <c r="I53" s="81"/>
+      <c r="I53" s="84"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="79"/>
+      <c r="B54" s="82"/>
       <c r="C54" s="55"/>
       <c r="D54" s="55"/>
       <c r="E54" s="8"/>
@@ -11357,30 +11387,30 @@
       </c>
       <c r="G54" s="55"/>
       <c r="H54" s="55"/>
-      <c r="I54" s="81"/>
+      <c r="I54" s="84"/>
     </row>
     <row r="55" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="79"/>
+      <c r="B55" s="82"/>
       <c r="C55" s="55"/>
       <c r="D55" s="55"/>
       <c r="E55" s="10"/>
       <c r="F55" s="11"/>
       <c r="G55" s="55"/>
       <c r="H55" s="55"/>
-      <c r="I55" s="81"/>
+      <c r="I55" s="84"/>
     </row>
     <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="79"/>
+      <c r="B56" s="82"/>
       <c r="C56" s="55"/>
       <c r="D56" s="55"/>
       <c r="E56" s="6"/>
       <c r="F56" s="7"/>
       <c r="G56" s="55"/>
       <c r="H56" s="55"/>
-      <c r="I56" s="81"/>
+      <c r="I56" s="84"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B57" s="79"/>
+      <c r="B57" s="82"/>
       <c r="C57" s="55"/>
       <c r="D57" s="55"/>
       <c r="E57" s="8"/>
@@ -11389,10 +11419,10 @@
       </c>
       <c r="G57" s="55"/>
       <c r="H57" s="55"/>
-      <c r="I57" s="81"/>
+      <c r="I57" s="84"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B58" s="79"/>
+      <c r="B58" s="82"/>
       <c r="C58" s="55"/>
       <c r="D58" s="55"/>
       <c r="E58" s="8"/>
@@ -11401,10 +11431,10 @@
       </c>
       <c r="G58" s="55"/>
       <c r="H58" s="55"/>
-      <c r="I58" s="81"/>
+      <c r="I58" s="84"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B59" s="79"/>
+      <c r="B59" s="82"/>
       <c r="C59" s="55"/>
       <c r="D59" s="55"/>
       <c r="E59" s="8"/>
@@ -11413,10 +11443,10 @@
       </c>
       <c r="G59" s="55"/>
       <c r="H59" s="55"/>
-      <c r="I59" s="81"/>
+      <c r="I59" s="84"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="79"/>
+      <c r="B60" s="82"/>
       <c r="C60" s="55"/>
       <c r="D60" s="55"/>
       <c r="E60" s="8"/>
@@ -11425,71 +11455,71 @@
       </c>
       <c r="G60" s="55"/>
       <c r="H60" s="55"/>
-      <c r="I60" s="81"/>
+      <c r="I60" s="84"/>
     </row>
     <row r="61" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="82"/>
-      <c r="C61" s="83"/>
-      <c r="D61" s="83"/>
+      <c r="B61" s="85"/>
+      <c r="C61" s="86"/>
+      <c r="D61" s="86"/>
       <c r="E61" s="17"/>
       <c r="F61" s="18"/>
-      <c r="G61" s="83"/>
-      <c r="H61" s="83"/>
-      <c r="I61" s="84"/>
+      <c r="G61" s="86"/>
+      <c r="H61" s="86"/>
+      <c r="I61" s="87"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B63" s="57" t="s">
+      <c r="B63" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="57"/>
-      <c r="D63" s="57"/>
-      <c r="E63" s="57"/>
-      <c r="F63" s="57"/>
-      <c r="G63" s="57"/>
-      <c r="H63" s="57"/>
-      <c r="I63" s="57"/>
+      <c r="C63" s="74"/>
+      <c r="D63" s="74"/>
+      <c r="E63" s="74"/>
+      <c r="F63" s="74"/>
+      <c r="G63" s="74"/>
+      <c r="H63" s="74"/>
+      <c r="I63" s="74"/>
     </row>
     <row r="64" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="65" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B65" s="70" t="s">
+      <c r="B65" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="C65" s="71"/>
-      <c r="D65" s="71"/>
-      <c r="E65" s="71"/>
-      <c r="F65" s="71"/>
-      <c r="G65" s="74" t="s">
+      <c r="C65" s="68"/>
+      <c r="D65" s="68"/>
+      <c r="E65" s="68"/>
+      <c r="F65" s="68"/>
+      <c r="G65" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="H65" s="74"/>
-      <c r="I65" s="75"/>
+      <c r="H65" s="71"/>
+      <c r="I65" s="72"/>
     </row>
     <row r="66" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="72"/>
-      <c r="C66" s="73"/>
-      <c r="D66" s="73"/>
-      <c r="E66" s="73"/>
-      <c r="F66" s="73"/>
-      <c r="G66" s="76" t="s">
+      <c r="B66" s="69"/>
+      <c r="C66" s="70"/>
+      <c r="D66" s="70"/>
+      <c r="E66" s="70"/>
+      <c r="F66" s="70"/>
+      <c r="G66" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="H66" s="76"/>
+      <c r="H66" s="73"/>
       <c r="I66" s="24" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="67" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="77"/>
-      <c r="C67" s="78"/>
-      <c r="D67" s="78"/>
-      <c r="E67" s="78"/>
-      <c r="F67" s="78"/>
-      <c r="G67" s="78"/>
-      <c r="H67" s="78"/>
+      <c r="B67" s="80"/>
+      <c r="C67" s="81"/>
+      <c r="D67" s="81"/>
+      <c r="E67" s="81"/>
+      <c r="F67" s="81"/>
+      <c r="G67" s="81"/>
+      <c r="H67" s="81"/>
       <c r="I67" s="25"/>
     </row>
     <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="79"/>
+      <c r="B68" s="82"/>
       <c r="C68" s="55"/>
       <c r="D68" s="55"/>
       <c r="E68" s="55"/>
@@ -11499,7 +11529,7 @@
       <c r="I68" s="26"/>
     </row>
     <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="79"/>
+      <c r="B69" s="82"/>
       <c r="C69" s="55"/>
       <c r="D69" s="55"/>
       <c r="E69" s="55"/>
@@ -11509,73 +11539,73 @@
       <c r="I69" s="26"/>
     </row>
     <row r="70" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="82"/>
-      <c r="C70" s="83"/>
-      <c r="D70" s="83"/>
-      <c r="E70" s="83"/>
-      <c r="F70" s="83"/>
-      <c r="G70" s="83"/>
-      <c r="H70" s="83"/>
+      <c r="B70" s="85"/>
+      <c r="C70" s="86"/>
+      <c r="D70" s="86"/>
+      <c r="E70" s="86"/>
+      <c r="F70" s="86"/>
+      <c r="G70" s="86"/>
+      <c r="H70" s="86"/>
       <c r="I70" s="27"/>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B72" s="93" t="s">
+      <c r="B72" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="C72" s="93"/>
-      <c r="D72" s="93"/>
-      <c r="E72" s="93"/>
-      <c r="F72" s="93"/>
-      <c r="G72" s="93"/>
-      <c r="H72" s="93"/>
-      <c r="I72" s="93"/>
+      <c r="C72" s="56"/>
+      <c r="D72" s="56"/>
+      <c r="E72" s="56"/>
+      <c r="F72" s="56"/>
+      <c r="G72" s="56"/>
+      <c r="H72" s="56"/>
+      <c r="I72" s="56"/>
     </row>
     <row r="73" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="74" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B74" s="94"/>
-      <c r="C74" s="95"/>
-      <c r="D74" s="95"/>
-      <c r="E74" s="95"/>
-      <c r="F74" s="95"/>
-      <c r="G74" s="95"/>
-      <c r="H74" s="95"/>
-      <c r="I74" s="96"/>
+      <c r="B74" s="57"/>
+      <c r="C74" s="58"/>
+      <c r="D74" s="58"/>
+      <c r="E74" s="58"/>
+      <c r="F74" s="58"/>
+      <c r="G74" s="58"/>
+      <c r="H74" s="58"/>
+      <c r="I74" s="59"/>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B75" s="58"/>
-      <c r="C75" s="59"/>
-      <c r="D75" s="59"/>
-      <c r="E75" s="59"/>
-      <c r="F75" s="59"/>
-      <c r="G75" s="59"/>
-      <c r="H75" s="59"/>
+      <c r="B75" s="60"/>
+      <c r="C75" s="61"/>
+      <c r="D75" s="61"/>
+      <c r="E75" s="61"/>
+      <c r="F75" s="61"/>
+      <c r="G75" s="61"/>
+      <c r="H75" s="61"/>
       <c r="I75" s="62"/>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B76" s="58"/>
-      <c r="C76" s="59"/>
-      <c r="D76" s="59"/>
-      <c r="E76" s="59"/>
-      <c r="F76" s="59"/>
-      <c r="G76" s="59"/>
-      <c r="H76" s="59"/>
+      <c r="B76" s="60"/>
+      <c r="C76" s="61"/>
+      <c r="D76" s="61"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="61"/>
+      <c r="G76" s="61"/>
+      <c r="H76" s="61"/>
       <c r="I76" s="62"/>
     </row>
     <row r="77" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="67"/>
-      <c r="C77" s="68"/>
-      <c r="D77" s="68"/>
-      <c r="E77" s="68"/>
-      <c r="F77" s="68"/>
-      <c r="G77" s="68"/>
-      <c r="H77" s="68"/>
-      <c r="I77" s="69"/>
+      <c r="B77" s="63"/>
+      <c r="C77" s="64"/>
+      <c r="D77" s="64"/>
+      <c r="E77" s="64"/>
+      <c r="F77" s="64"/>
+      <c r="G77" s="64"/>
+      <c r="H77" s="64"/>
+      <c r="I77" s="65"/>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G79" s="53" t="s">
+      <c r="G79" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="H79" s="53"/>
+      <c r="H79" s="66"/>
       <c r="I79" s="5" t="s">
         <v>29</v>
       </c>
@@ -11590,18 +11620,18 @@
       <c r="I81" s="5"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B82" s="85" t="str">
+      <c r="B82" s="47" t="str">
         <f>IF(D10=0,"Assinatura do(a) Orientador(a)",D10)</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="C82" s="85"/>
-      <c r="D82" s="85"/>
-      <c r="F82" s="86" t="s">
+      <c r="C82" s="47"/>
+      <c r="D82" s="47"/>
+      <c r="F82" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="G82" s="86"/>
-      <c r="H82" s="86"/>
-      <c r="I82" s="86"/>
+      <c r="G82" s="48"/>
+      <c r="H82" s="48"/>
+      <c r="I82" s="48"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J84" s="23" t="s">
@@ -11631,9 +11661,9 @@
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C96" s="4"/>
-      <c r="D96" s="86"/>
-      <c r="E96" s="86"/>
-      <c r="F96" s="86"/>
+      <c r="D96" s="48"/>
+      <c r="E96" s="48"/>
+      <c r="F96" s="48"/>
       <c r="G96" s="4"/>
     </row>
     <row r="97" spans="3:7" x14ac:dyDescent="0.3">
@@ -11662,19 +11692,28 @@
     <protectedRange sqref="B19:D33 G19:I33 B67:I70 B74 B38:D61 G38:I61" name="Intervalo1"/>
   </protectedRanges>
   <mergeCells count="51">
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="F82:I82"/>
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="B72:I72"/>
-    <mergeCell ref="B74:I77"/>
-    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B19:D23"/>
+    <mergeCell ref="G19:I23"/>
+    <mergeCell ref="B24:D28"/>
+    <mergeCell ref="G24:I28"/>
+    <mergeCell ref="B29:D33"/>
+    <mergeCell ref="G29:I33"/>
     <mergeCell ref="B65:F66"/>
     <mergeCell ref="G65:I65"/>
     <mergeCell ref="G66:H66"/>
@@ -11691,28 +11730,19 @@
     <mergeCell ref="B63:I63"/>
     <mergeCell ref="B44:D49"/>
     <mergeCell ref="G44:I49"/>
-    <mergeCell ref="B19:D23"/>
-    <mergeCell ref="G19:I23"/>
-    <mergeCell ref="B24:D28"/>
-    <mergeCell ref="G24:I28"/>
-    <mergeCell ref="B29:D33"/>
-    <mergeCell ref="G29:I33"/>
-    <mergeCell ref="D96:F96"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="F82:I82"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="B72:I72"/>
+    <mergeCell ref="B74:I77"/>
+    <mergeCell ref="G79:H79"/>
   </mergeCells>
   <conditionalFormatting sqref="B7:I15">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
@@ -12321,16 +12351,16 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
     </row>
     <row r="6" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
@@ -12403,13 +12433,13 @@
       <c r="B12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="65" t="str">
+      <c r="C12" s="92" t="str">
         <f>'2º Sem - Setembro'!C12:F12</f>
         <v>Igor Martins Ferreira</v>
       </c>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
       <c r="G12" s="20" t="s">
         <v>6</v>
       </c>
@@ -12420,13 +12450,13 @@
       <c r="B13" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="59" t="str">
+      <c r="C13" s="61" t="str">
         <f>'2º Sem - Setembro'!C13:F13</f>
         <v>Lucas Silva Sousa</v>
       </c>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
       <c r="G13" s="21" t="s">
         <v>6</v>
       </c>
@@ -12437,13 +12467,13 @@
       <c r="B14" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="59" t="str">
+      <c r="C14" s="61" t="str">
         <f>'2º Sem - Setembro'!C13:F13</f>
         <v>Lucas Silva Sousa</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
       <c r="G14" s="21" t="s">
         <v>6</v>
       </c>
@@ -12454,13 +12484,13 @@
       <c r="B15" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="61" t="str">
+      <c r="C15" s="89" t="str">
         <f>'2º Sem - Setembro'!C14:F14</f>
         <v>Renan Dias de Oliveira</v>
       </c>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
       <c r="G15" s="22" t="s">
         <v>6</v>
       </c>
@@ -12468,201 +12498,201 @@
       <c r="I15" s="105"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="57" t="s">
+      <c r="B17" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
     </row>
     <row r="18" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="49" t="s">
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="50"/>
-      <c r="G19" s="48" t="s">
+      <c r="F19" s="78"/>
+      <c r="G19" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="48"/>
-      <c r="I19" s="51"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="79"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="58"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
       <c r="E20" s="14"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
       <c r="I20" s="62"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="58"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
       <c r="I21" s="62"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="58"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
       <c r="I22" s="62"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="58"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
       <c r="E23" s="8"/>
       <c r="F23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
       <c r="I23" s="62"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="60"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="89"/>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="63"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="90"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="64"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
+      <c r="B25" s="91"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="66"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="93"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="58"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
       <c r="I26" s="62"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="58"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
       <c r="I27" s="62"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="58"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
       <c r="E28" s="8"/>
       <c r="F28" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
       <c r="I28" s="62"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="60"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
+      <c r="B29" s="88"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="89"/>
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="63"/>
+      <c r="G29" s="89"/>
+      <c r="H29" s="89"/>
+      <c r="I29" s="90"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="58"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
       <c r="I30" s="62"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="58"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
       <c r="I31" s="62"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="58"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
       <c r="E32" s="8"/>
       <c r="F32" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
       <c r="I32" s="62"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="58"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
       <c r="E33" s="8"/>
       <c r="F33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
       <c r="I33" s="62"/>
     </row>
     <row r="34" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="67"/>
-      <c r="C34" s="68"/>
-      <c r="D34" s="68"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
       <c r="E34" s="17"/>
       <c r="F34" s="18"/>
-      <c r="G34" s="68"/>
-      <c r="H34" s="68"/>
-      <c r="I34" s="69"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="65"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="3"/>
@@ -12675,16 +12705,16 @@
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="57" t="s">
+      <c r="B36" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
+      <c r="C36" s="74"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="74"/>
+      <c r="G36" s="74"/>
+      <c r="H36" s="74"/>
+      <c r="I36" s="74"/>
     </row>
     <row r="37" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="16"/>
@@ -12697,33 +12727,33 @@
       <c r="I37" s="16"/>
     </row>
     <row r="38" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="47" t="s">
+      <c r="B38" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="48"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="49" t="s">
+      <c r="C38" s="76"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="50"/>
-      <c r="G38" s="48" t="s">
+      <c r="F38" s="78"/>
+      <c r="G38" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="48"/>
-      <c r="I38" s="51"/>
+      <c r="H38" s="76"/>
+      <c r="I38" s="79"/>
     </row>
     <row r="39" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="77"/>
-      <c r="C39" s="78"/>
-      <c r="D39" s="78"/>
+      <c r="B39" s="80"/>
+      <c r="C39" s="81"/>
+      <c r="D39" s="81"/>
       <c r="E39" s="14"/>
       <c r="F39" s="15"/>
-      <c r="G39" s="78"/>
-      <c r="H39" s="78"/>
-      <c r="I39" s="80"/>
+      <c r="G39" s="81"/>
+      <c r="H39" s="81"/>
+      <c r="I39" s="83"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="79"/>
+      <c r="B40" s="82"/>
       <c r="C40" s="55"/>
       <c r="D40" s="55"/>
       <c r="E40" s="8"/>
@@ -12732,10 +12762,10 @@
       </c>
       <c r="G40" s="55"/>
       <c r="H40" s="55"/>
-      <c r="I40" s="81"/>
+      <c r="I40" s="84"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="79"/>
+      <c r="B41" s="82"/>
       <c r="C41" s="55"/>
       <c r="D41" s="55"/>
       <c r="E41" s="8"/>
@@ -12744,10 +12774,10 @@
       </c>
       <c r="G41" s="55"/>
       <c r="H41" s="55"/>
-      <c r="I41" s="81"/>
+      <c r="I41" s="84"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="79"/>
+      <c r="B42" s="82"/>
       <c r="C42" s="55"/>
       <c r="D42" s="55"/>
       <c r="E42" s="8"/>
@@ -12756,10 +12786,10 @@
       </c>
       <c r="G42" s="55"/>
       <c r="H42" s="55"/>
-      <c r="I42" s="81"/>
+      <c r="I42" s="84"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="79"/>
+      <c r="B43" s="82"/>
       <c r="C43" s="55"/>
       <c r="D43" s="55"/>
       <c r="E43" s="8"/>
@@ -12768,30 +12798,30 @@
       </c>
       <c r="G43" s="55"/>
       <c r="H43" s="55"/>
-      <c r="I43" s="81"/>
+      <c r="I43" s="84"/>
     </row>
     <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="79"/>
+      <c r="B44" s="82"/>
       <c r="C44" s="55"/>
       <c r="D44" s="55"/>
       <c r="E44" s="10"/>
       <c r="F44" s="11"/>
       <c r="G44" s="55"/>
       <c r="H44" s="55"/>
-      <c r="I44" s="81"/>
+      <c r="I44" s="84"/>
     </row>
     <row r="45" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="79"/>
+      <c r="B45" s="82"/>
       <c r="C45" s="55"/>
       <c r="D45" s="55"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
       <c r="G45" s="55"/>
       <c r="H45" s="55"/>
-      <c r="I45" s="81"/>
+      <c r="I45" s="84"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="79"/>
+      <c r="B46" s="82"/>
       <c r="C46" s="55"/>
       <c r="D46" s="55"/>
       <c r="E46" s="8"/>
@@ -12800,10 +12830,10 @@
       </c>
       <c r="G46" s="55"/>
       <c r="H46" s="55"/>
-      <c r="I46" s="81"/>
+      <c r="I46" s="84"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="79"/>
+      <c r="B47" s="82"/>
       <c r="C47" s="55"/>
       <c r="D47" s="55"/>
       <c r="E47" s="8"/>
@@ -12812,10 +12842,10 @@
       </c>
       <c r="G47" s="55"/>
       <c r="H47" s="55"/>
-      <c r="I47" s="81"/>
+      <c r="I47" s="84"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="79"/>
+      <c r="B48" s="82"/>
       <c r="C48" s="55"/>
       <c r="D48" s="55"/>
       <c r="E48" s="8"/>
@@ -12824,10 +12854,10 @@
       </c>
       <c r="G48" s="55"/>
       <c r="H48" s="55"/>
-      <c r="I48" s="81"/>
+      <c r="I48" s="84"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="79"/>
+      <c r="B49" s="82"/>
       <c r="C49" s="55"/>
       <c r="D49" s="55"/>
       <c r="E49" s="8"/>
@@ -12836,30 +12866,30 @@
       </c>
       <c r="G49" s="55"/>
       <c r="H49" s="55"/>
-      <c r="I49" s="81"/>
+      <c r="I49" s="84"/>
     </row>
     <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="79"/>
+      <c r="B50" s="82"/>
       <c r="C50" s="55"/>
       <c r="D50" s="55"/>
       <c r="E50" s="10"/>
       <c r="F50" s="11"/>
       <c r="G50" s="55"/>
       <c r="H50" s="55"/>
-      <c r="I50" s="81"/>
+      <c r="I50" s="84"/>
     </row>
     <row r="51" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="79"/>
+      <c r="B51" s="82"/>
       <c r="C51" s="55"/>
       <c r="D51" s="55"/>
       <c r="E51" s="6"/>
       <c r="F51" s="7"/>
       <c r="G51" s="55"/>
       <c r="H51" s="55"/>
-      <c r="I51" s="81"/>
+      <c r="I51" s="84"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="79"/>
+      <c r="B52" s="82"/>
       <c r="C52" s="55"/>
       <c r="D52" s="55"/>
       <c r="E52" s="8"/>
@@ -12868,10 +12898,10 @@
       </c>
       <c r="G52" s="55"/>
       <c r="H52" s="55"/>
-      <c r="I52" s="81"/>
+      <c r="I52" s="84"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B53" s="79"/>
+      <c r="B53" s="82"/>
       <c r="C53" s="55"/>
       <c r="D53" s="55"/>
       <c r="E53" s="8"/>
@@ -12880,10 +12910,10 @@
       </c>
       <c r="G53" s="55"/>
       <c r="H53" s="55"/>
-      <c r="I53" s="81"/>
+      <c r="I53" s="84"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="79"/>
+      <c r="B54" s="82"/>
       <c r="C54" s="55"/>
       <c r="D54" s="55"/>
       <c r="E54" s="8"/>
@@ -12892,10 +12922,10 @@
       </c>
       <c r="G54" s="55"/>
       <c r="H54" s="55"/>
-      <c r="I54" s="81"/>
+      <c r="I54" s="84"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B55" s="79"/>
+      <c r="B55" s="82"/>
       <c r="C55" s="55"/>
       <c r="D55" s="55"/>
       <c r="E55" s="8"/>
@@ -12904,30 +12934,30 @@
       </c>
       <c r="G55" s="55"/>
       <c r="H55" s="55"/>
-      <c r="I55" s="81"/>
+      <c r="I55" s="84"/>
     </row>
     <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="79"/>
+      <c r="B56" s="82"/>
       <c r="C56" s="55"/>
       <c r="D56" s="55"/>
       <c r="E56" s="10"/>
       <c r="F56" s="11"/>
       <c r="G56" s="55"/>
       <c r="H56" s="55"/>
-      <c r="I56" s="81"/>
+      <c r="I56" s="84"/>
     </row>
     <row r="57" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="79"/>
+      <c r="B57" s="82"/>
       <c r="C57" s="55"/>
       <c r="D57" s="55"/>
       <c r="E57" s="6"/>
       <c r="F57" s="7"/>
       <c r="G57" s="55"/>
       <c r="H57" s="55"/>
-      <c r="I57" s="81"/>
+      <c r="I57" s="84"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B58" s="79"/>
+      <c r="B58" s="82"/>
       <c r="C58" s="55"/>
       <c r="D58" s="55"/>
       <c r="E58" s="8"/>
@@ -12936,10 +12966,10 @@
       </c>
       <c r="G58" s="55"/>
       <c r="H58" s="55"/>
-      <c r="I58" s="81"/>
+      <c r="I58" s="84"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B59" s="79"/>
+      <c r="B59" s="82"/>
       <c r="C59" s="55"/>
       <c r="D59" s="55"/>
       <c r="E59" s="8"/>
@@ -12948,10 +12978,10 @@
       </c>
       <c r="G59" s="55"/>
       <c r="H59" s="55"/>
-      <c r="I59" s="81"/>
+      <c r="I59" s="84"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="79"/>
+      <c r="B60" s="82"/>
       <c r="C60" s="55"/>
       <c r="D60" s="55"/>
       <c r="E60" s="8"/>
@@ -12960,10 +12990,10 @@
       </c>
       <c r="G60" s="55"/>
       <c r="H60" s="55"/>
-      <c r="I60" s="81"/>
+      <c r="I60" s="84"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="79"/>
+      <c r="B61" s="82"/>
       <c r="C61" s="55"/>
       <c r="D61" s="55"/>
       <c r="E61" s="8"/>
@@ -12972,71 +13002,71 @@
       </c>
       <c r="G61" s="55"/>
       <c r="H61" s="55"/>
-      <c r="I61" s="81"/>
+      <c r="I61" s="84"/>
     </row>
     <row r="62" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="82"/>
-      <c r="C62" s="83"/>
-      <c r="D62" s="83"/>
+      <c r="B62" s="85"/>
+      <c r="C62" s="86"/>
+      <c r="D62" s="86"/>
       <c r="E62" s="17"/>
       <c r="F62" s="18"/>
-      <c r="G62" s="83"/>
-      <c r="H62" s="83"/>
-      <c r="I62" s="84"/>
+      <c r="G62" s="86"/>
+      <c r="H62" s="86"/>
+      <c r="I62" s="87"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B64" s="57" t="s">
+      <c r="B64" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="57"/>
-      <c r="D64" s="57"/>
-      <c r="E64" s="57"/>
-      <c r="F64" s="57"/>
-      <c r="G64" s="57"/>
-      <c r="H64" s="57"/>
-      <c r="I64" s="57"/>
+      <c r="C64" s="74"/>
+      <c r="D64" s="74"/>
+      <c r="E64" s="74"/>
+      <c r="F64" s="74"/>
+      <c r="G64" s="74"/>
+      <c r="H64" s="74"/>
+      <c r="I64" s="74"/>
     </row>
     <row r="65" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="70" t="s">
+      <c r="B66" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="71"/>
-      <c r="D66" s="71"/>
-      <c r="E66" s="71"/>
-      <c r="F66" s="71"/>
-      <c r="G66" s="74" t="s">
+      <c r="C66" s="68"/>
+      <c r="D66" s="68"/>
+      <c r="E66" s="68"/>
+      <c r="F66" s="68"/>
+      <c r="G66" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="H66" s="74"/>
-      <c r="I66" s="75"/>
+      <c r="H66" s="71"/>
+      <c r="I66" s="72"/>
     </row>
     <row r="67" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="72"/>
-      <c r="C67" s="73"/>
-      <c r="D67" s="73"/>
-      <c r="E67" s="73"/>
-      <c r="F67" s="73"/>
-      <c r="G67" s="76" t="s">
+      <c r="B67" s="69"/>
+      <c r="C67" s="70"/>
+      <c r="D67" s="70"/>
+      <c r="E67" s="70"/>
+      <c r="F67" s="70"/>
+      <c r="G67" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="H67" s="76"/>
+      <c r="H67" s="73"/>
       <c r="I67" s="24" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="77"/>
-      <c r="C68" s="78"/>
-      <c r="D68" s="78"/>
-      <c r="E68" s="78"/>
-      <c r="F68" s="78"/>
-      <c r="G68" s="78"/>
-      <c r="H68" s="78"/>
+      <c r="B68" s="80"/>
+      <c r="C68" s="81"/>
+      <c r="D68" s="81"/>
+      <c r="E68" s="81"/>
+      <c r="F68" s="81"/>
+      <c r="G68" s="81"/>
+      <c r="H68" s="81"/>
       <c r="I68" s="25"/>
     </row>
     <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="79"/>
+      <c r="B69" s="82"/>
       <c r="C69" s="55"/>
       <c r="D69" s="55"/>
       <c r="E69" s="55"/>
@@ -13046,7 +13076,7 @@
       <c r="I69" s="26"/>
     </row>
     <row r="70" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="79"/>
+      <c r="B70" s="82"/>
       <c r="C70" s="55"/>
       <c r="D70" s="55"/>
       <c r="E70" s="55"/>
@@ -13056,73 +13086,73 @@
       <c r="I70" s="26"/>
     </row>
     <row r="71" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="82"/>
-      <c r="C71" s="83"/>
-      <c r="D71" s="83"/>
-      <c r="E71" s="83"/>
-      <c r="F71" s="83"/>
-      <c r="G71" s="83"/>
-      <c r="H71" s="83"/>
+      <c r="B71" s="85"/>
+      <c r="C71" s="86"/>
+      <c r="D71" s="86"/>
+      <c r="E71" s="86"/>
+      <c r="F71" s="86"/>
+      <c r="G71" s="86"/>
+      <c r="H71" s="86"/>
       <c r="I71" s="27"/>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B73" s="93" t="s">
+      <c r="B73" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="93"/>
-      <c r="D73" s="93"/>
-      <c r="E73" s="93"/>
-      <c r="F73" s="93"/>
-      <c r="G73" s="93"/>
-      <c r="H73" s="93"/>
-      <c r="I73" s="93"/>
+      <c r="C73" s="56"/>
+      <c r="D73" s="56"/>
+      <c r="E73" s="56"/>
+      <c r="F73" s="56"/>
+      <c r="G73" s="56"/>
+      <c r="H73" s="56"/>
+      <c r="I73" s="56"/>
     </row>
     <row r="74" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="75" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B75" s="94"/>
-      <c r="C75" s="95"/>
-      <c r="D75" s="95"/>
-      <c r="E75" s="95"/>
-      <c r="F75" s="95"/>
-      <c r="G75" s="95"/>
-      <c r="H75" s="95"/>
-      <c r="I75" s="96"/>
+      <c r="B75" s="57"/>
+      <c r="C75" s="58"/>
+      <c r="D75" s="58"/>
+      <c r="E75" s="58"/>
+      <c r="F75" s="58"/>
+      <c r="G75" s="58"/>
+      <c r="H75" s="58"/>
+      <c r="I75" s="59"/>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B76" s="58"/>
-      <c r="C76" s="59"/>
-      <c r="D76" s="59"/>
-      <c r="E76" s="59"/>
-      <c r="F76" s="59"/>
-      <c r="G76" s="59"/>
-      <c r="H76" s="59"/>
+      <c r="B76" s="60"/>
+      <c r="C76" s="61"/>
+      <c r="D76" s="61"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="61"/>
+      <c r="G76" s="61"/>
+      <c r="H76" s="61"/>
       <c r="I76" s="62"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B77" s="58"/>
-      <c r="C77" s="59"/>
-      <c r="D77" s="59"/>
-      <c r="E77" s="59"/>
-      <c r="F77" s="59"/>
-      <c r="G77" s="59"/>
-      <c r="H77" s="59"/>
+      <c r="B77" s="60"/>
+      <c r="C77" s="61"/>
+      <c r="D77" s="61"/>
+      <c r="E77" s="61"/>
+      <c r="F77" s="61"/>
+      <c r="G77" s="61"/>
+      <c r="H77" s="61"/>
       <c r="I77" s="62"/>
     </row>
     <row r="78" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="67"/>
-      <c r="C78" s="68"/>
-      <c r="D78" s="68"/>
-      <c r="E78" s="68"/>
-      <c r="F78" s="68"/>
-      <c r="G78" s="68"/>
-      <c r="H78" s="68"/>
-      <c r="I78" s="69"/>
+      <c r="B78" s="63"/>
+      <c r="C78" s="64"/>
+      <c r="D78" s="64"/>
+      <c r="E78" s="64"/>
+      <c r="F78" s="64"/>
+      <c r="G78" s="64"/>
+      <c r="H78" s="64"/>
+      <c r="I78" s="65"/>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G80" s="53" t="s">
+      <c r="G80" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="H80" s="53"/>
+      <c r="H80" s="66"/>
       <c r="I80" s="5" t="s">
         <v>29</v>
       </c>
@@ -13137,18 +13167,18 @@
       <c r="I82" s="5"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B83" s="85" t="str">
+      <c r="B83" s="47" t="str">
         <f>IF(D10=0,"Assinatura do(a) Orientador(a)",D10)</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="C83" s="85"/>
-      <c r="D83" s="85"/>
-      <c r="F83" s="86" t="s">
+      <c r="C83" s="47"/>
+      <c r="D83" s="47"/>
+      <c r="F83" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="G83" s="86"/>
-      <c r="H83" s="86"/>
-      <c r="I83" s="86"/>
+      <c r="G83" s="48"/>
+      <c r="H83" s="48"/>
+      <c r="I83" s="48"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J85" s="23" t="s">
@@ -13160,19 +13190,27 @@
     <protectedRange sqref="B20:D34 G20:I34 B68:I71 B75 B39:D62 G39:I62" name="Intervalo1"/>
   </protectedRanges>
   <mergeCells count="50">
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="F83:I83"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="B73:I73"/>
-    <mergeCell ref="B75:I78"/>
-    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="B20:D24"/>
+    <mergeCell ref="G20:I24"/>
+    <mergeCell ref="B25:D29"/>
+    <mergeCell ref="G25:I29"/>
+    <mergeCell ref="B30:D34"/>
+    <mergeCell ref="G30:I34"/>
     <mergeCell ref="B66:F67"/>
     <mergeCell ref="G66:I66"/>
     <mergeCell ref="G67:H67"/>
@@ -13189,27 +13227,19 @@
     <mergeCell ref="B64:I64"/>
     <mergeCell ref="B45:D50"/>
     <mergeCell ref="G45:I50"/>
-    <mergeCell ref="B20:D24"/>
-    <mergeCell ref="G20:I24"/>
-    <mergeCell ref="B25:D29"/>
-    <mergeCell ref="G25:I29"/>
-    <mergeCell ref="B30:D34"/>
-    <mergeCell ref="G30:I34"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="B73:I73"/>
+    <mergeCell ref="B75:I78"/>
+    <mergeCell ref="G80:H80"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:I16 B7:C7">
     <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
@@ -13813,16 +13843,16 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
     </row>
     <row r="6" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="32"/>
@@ -13835,16 +13865,16 @@
       <c r="I6" s="32"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
@@ -13895,12 +13925,12 @@
       <c r="B12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
       <c r="G12" s="20" t="s">
         <v>6</v>
       </c>
@@ -13913,12 +13943,12 @@
       <c r="B13" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
       <c r="G13" s="21" t="s">
         <v>6</v>
       </c>
@@ -13931,12 +13961,12 @@
       <c r="B14" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
       <c r="G14" s="21" t="s">
         <v>6</v>
       </c>
@@ -13949,13 +13979,13 @@
       <c r="B15" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="61" t="str">
+      <c r="C15" s="89" t="str">
         <f>'2º Sem - Setembro'!C14:F14</f>
         <v>Renan Dias de Oliveira</v>
       </c>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
       <c r="G15" s="22" t="s">
         <v>6</v>
       </c>
@@ -13963,203 +13993,203 @@
       <c r="I15" s="105"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="57" t="s">
+      <c r="B17" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
     </row>
     <row r="18" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="49" t="s">
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="50"/>
-      <c r="G19" s="48" t="s">
+      <c r="F19" s="78"/>
+      <c r="G19" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="48"/>
-      <c r="I19" s="51"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="79"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="58"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
       <c r="E20" s="14"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
       <c r="I20" s="62"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="58"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
       <c r="I21" s="62"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="58"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
       <c r="I22" s="62"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="58"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
       <c r="E23" s="8"/>
       <c r="F23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
       <c r="I23" s="62"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="60"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="89"/>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="63"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="90"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="64"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
+      <c r="B25" s="91"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="66"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="93"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="58"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
       <c r="I26" s="62"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="58"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
       <c r="I27" s="62"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="58"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
       <c r="E28" s="8"/>
       <c r="F28" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
       <c r="I28" s="62"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="60"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
+      <c r="B29" s="88"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="89"/>
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="63"/>
+      <c r="G29" s="89"/>
+      <c r="H29" s="89"/>
+      <c r="I29" s="90"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="58" t="s">
+      <c r="B30" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
       <c r="I30" s="62"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="58"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
       <c r="I31" s="62"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="58"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
       <c r="E32" s="8"/>
       <c r="F32" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
       <c r="I32" s="62"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="58"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
       <c r="E33" s="8"/>
       <c r="F33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
       <c r="I33" s="62"/>
     </row>
     <row r="34" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="67"/>
-      <c r="C34" s="68"/>
-      <c r="D34" s="68"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
       <c r="E34" s="17"/>
       <c r="F34" s="18"/>
-      <c r="G34" s="68"/>
-      <c r="H34" s="68"/>
-      <c r="I34" s="69"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="65"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="3"/>
@@ -14172,16 +14202,16 @@
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="57" t="s">
+      <c r="B36" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
+      <c r="C36" s="74"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="74"/>
+      <c r="G36" s="74"/>
+      <c r="H36" s="74"/>
+      <c r="I36" s="74"/>
     </row>
     <row r="37" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="31"/>
@@ -14194,35 +14224,35 @@
       <c r="I37" s="31"/>
     </row>
     <row r="38" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="47" t="s">
+      <c r="B38" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="48"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="49" t="s">
+      <c r="C38" s="76"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="50"/>
-      <c r="G38" s="48" t="s">
+      <c r="F38" s="78"/>
+      <c r="G38" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="48"/>
-      <c r="I38" s="51"/>
+      <c r="H38" s="76"/>
+      <c r="I38" s="79"/>
     </row>
     <row r="39" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="77" t="s">
+      <c r="B39" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="78"/>
-      <c r="D39" s="78"/>
+      <c r="C39" s="81"/>
+      <c r="D39" s="81"/>
       <c r="E39" s="14"/>
       <c r="F39" s="15"/>
-      <c r="G39" s="78"/>
-      <c r="H39" s="78"/>
-      <c r="I39" s="80"/>
+      <c r="G39" s="81"/>
+      <c r="H39" s="81"/>
+      <c r="I39" s="83"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="79"/>
+      <c r="B40" s="82"/>
       <c r="C40" s="55"/>
       <c r="D40" s="55"/>
       <c r="E40" s="8"/>
@@ -14231,10 +14261,10 @@
       </c>
       <c r="G40" s="55"/>
       <c r="H40" s="55"/>
-      <c r="I40" s="81"/>
+      <c r="I40" s="84"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="79"/>
+      <c r="B41" s="82"/>
       <c r="C41" s="55"/>
       <c r="D41" s="55"/>
       <c r="E41" s="8"/>
@@ -14243,10 +14273,10 @@
       </c>
       <c r="G41" s="55"/>
       <c r="H41" s="55"/>
-      <c r="I41" s="81"/>
+      <c r="I41" s="84"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="79"/>
+      <c r="B42" s="82"/>
       <c r="C42" s="55"/>
       <c r="D42" s="55"/>
       <c r="E42" s="8"/>
@@ -14255,10 +14285,10 @@
       </c>
       <c r="G42" s="55"/>
       <c r="H42" s="55"/>
-      <c r="I42" s="81"/>
+      <c r="I42" s="84"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="79"/>
+      <c r="B43" s="82"/>
       <c r="C43" s="55"/>
       <c r="D43" s="55"/>
       <c r="E43" s="8"/>
@@ -14267,170 +14297,170 @@
       </c>
       <c r="G43" s="55"/>
       <c r="H43" s="55"/>
-      <c r="I43" s="81"/>
+      <c r="I43" s="84"/>
     </row>
     <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="79"/>
+      <c r="B44" s="82"/>
       <c r="C44" s="55"/>
       <c r="D44" s="55"/>
       <c r="E44" s="10"/>
       <c r="F44" s="11"/>
       <c r="G44" s="55"/>
       <c r="H44" s="55"/>
-      <c r="I44" s="81"/>
+      <c r="I44" s="84"/>
     </row>
     <row r="45" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="64" t="s">
+      <c r="B45" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="65"/>
+      <c r="C45" s="92"/>
       <c r="D45" s="97"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
       <c r="G45" s="107"/>
-      <c r="H45" s="65"/>
-      <c r="I45" s="66"/>
+      <c r="H45" s="92"/>
+      <c r="I45" s="93"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="58"/>
-      <c r="C46" s="59"/>
+      <c r="B46" s="60"/>
+      <c r="C46" s="61"/>
       <c r="D46" s="100"/>
       <c r="E46" s="8"/>
       <c r="F46" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G46" s="108"/>
-      <c r="H46" s="59"/>
+      <c r="H46" s="61"/>
       <c r="I46" s="62"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="58"/>
-      <c r="C47" s="59"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="61"/>
       <c r="D47" s="100"/>
       <c r="E47" s="8"/>
       <c r="F47" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G47" s="108"/>
-      <c r="H47" s="59"/>
+      <c r="H47" s="61"/>
       <c r="I47" s="62"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="58"/>
-      <c r="C48" s="59"/>
+      <c r="B48" s="60"/>
+      <c r="C48" s="61"/>
       <c r="D48" s="100"/>
       <c r="E48" s="8"/>
       <c r="F48" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G48" s="108"/>
-      <c r="H48" s="59"/>
+      <c r="H48" s="61"/>
       <c r="I48" s="62"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="58"/>
-      <c r="C49" s="59"/>
+      <c r="B49" s="60"/>
+      <c r="C49" s="61"/>
       <c r="D49" s="100"/>
       <c r="E49" s="8"/>
       <c r="F49" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G49" s="108"/>
-      <c r="H49" s="59"/>
+      <c r="H49" s="61"/>
       <c r="I49" s="62"/>
     </row>
     <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="60"/>
-      <c r="C50" s="61"/>
+      <c r="B50" s="88"/>
+      <c r="C50" s="89"/>
       <c r="D50" s="103"/>
       <c r="E50" s="10"/>
       <c r="F50" s="11"/>
       <c r="G50" s="109"/>
-      <c r="H50" s="61"/>
-      <c r="I50" s="63"/>
+      <c r="H50" s="89"/>
+      <c r="I50" s="90"/>
     </row>
     <row r="51" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="64" t="s">
+      <c r="B51" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="65"/>
+      <c r="C51" s="92"/>
       <c r="D51" s="97"/>
       <c r="E51" s="6"/>
       <c r="F51" s="7"/>
       <c r="G51" s="107"/>
-      <c r="H51" s="65"/>
-      <c r="I51" s="66"/>
+      <c r="H51" s="92"/>
+      <c r="I51" s="93"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="58"/>
-      <c r="C52" s="59"/>
+      <c r="B52" s="60"/>
+      <c r="C52" s="61"/>
       <c r="D52" s="100"/>
       <c r="E52" s="8"/>
       <c r="F52" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G52" s="108"/>
-      <c r="H52" s="59"/>
+      <c r="H52" s="61"/>
       <c r="I52" s="62"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B53" s="58"/>
-      <c r="C53" s="59"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="61"/>
       <c r="D53" s="100"/>
       <c r="E53" s="8"/>
       <c r="F53" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G53" s="108"/>
-      <c r="H53" s="59"/>
+      <c r="H53" s="61"/>
       <c r="I53" s="62"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="58"/>
-      <c r="C54" s="59"/>
+      <c r="B54" s="60"/>
+      <c r="C54" s="61"/>
       <c r="D54" s="100"/>
       <c r="E54" s="8"/>
       <c r="F54" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G54" s="108"/>
-      <c r="H54" s="59"/>
+      <c r="H54" s="61"/>
       <c r="I54" s="62"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B55" s="58"/>
-      <c r="C55" s="59"/>
+      <c r="B55" s="60"/>
+      <c r="C55" s="61"/>
       <c r="D55" s="100"/>
       <c r="E55" s="8"/>
       <c r="F55" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G55" s="108"/>
-      <c r="H55" s="59"/>
+      <c r="H55" s="61"/>
       <c r="I55" s="62"/>
     </row>
     <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="60"/>
-      <c r="C56" s="61"/>
+      <c r="B56" s="88"/>
+      <c r="C56" s="89"/>
       <c r="D56" s="103"/>
       <c r="E56" s="10"/>
       <c r="F56" s="11"/>
       <c r="G56" s="109"/>
-      <c r="H56" s="61"/>
-      <c r="I56" s="63"/>
+      <c r="H56" s="89"/>
+      <c r="I56" s="90"/>
     </row>
     <row r="57" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="79"/>
+      <c r="B57" s="82"/>
       <c r="C57" s="55"/>
       <c r="D57" s="55"/>
       <c r="E57" s="6"/>
       <c r="F57" s="7"/>
       <c r="G57" s="55"/>
       <c r="H57" s="55"/>
-      <c r="I57" s="81"/>
+      <c r="I57" s="84"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B58" s="79"/>
+      <c r="B58" s="82"/>
       <c r="C58" s="55"/>
       <c r="D58" s="55"/>
       <c r="E58" s="8"/>
@@ -14439,10 +14469,10 @@
       </c>
       <c r="G58" s="55"/>
       <c r="H58" s="55"/>
-      <c r="I58" s="81"/>
+      <c r="I58" s="84"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B59" s="79"/>
+      <c r="B59" s="82"/>
       <c r="C59" s="55"/>
       <c r="D59" s="55"/>
       <c r="E59" s="8"/>
@@ -14451,10 +14481,10 @@
       </c>
       <c r="G59" s="55"/>
       <c r="H59" s="55"/>
-      <c r="I59" s="81"/>
+      <c r="I59" s="84"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="79"/>
+      <c r="B60" s="82"/>
       <c r="C60" s="55"/>
       <c r="D60" s="55"/>
       <c r="E60" s="8"/>
@@ -14463,10 +14493,10 @@
       </c>
       <c r="G60" s="55"/>
       <c r="H60" s="55"/>
-      <c r="I60" s="81"/>
+      <c r="I60" s="84"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="79"/>
+      <c r="B61" s="82"/>
       <c r="C61" s="55"/>
       <c r="D61" s="55"/>
       <c r="E61" s="8"/>
@@ -14475,71 +14505,71 @@
       </c>
       <c r="G61" s="55"/>
       <c r="H61" s="55"/>
-      <c r="I61" s="81"/>
+      <c r="I61" s="84"/>
     </row>
     <row r="62" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="82"/>
-      <c r="C62" s="83"/>
-      <c r="D62" s="83"/>
+      <c r="B62" s="85"/>
+      <c r="C62" s="86"/>
+      <c r="D62" s="86"/>
       <c r="E62" s="17"/>
       <c r="F62" s="18"/>
-      <c r="G62" s="83"/>
-      <c r="H62" s="83"/>
-      <c r="I62" s="84"/>
+      <c r="G62" s="86"/>
+      <c r="H62" s="86"/>
+      <c r="I62" s="87"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B64" s="57" t="s">
+      <c r="B64" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="57"/>
-      <c r="D64" s="57"/>
-      <c r="E64" s="57"/>
-      <c r="F64" s="57"/>
-      <c r="G64" s="57"/>
-      <c r="H64" s="57"/>
-      <c r="I64" s="57"/>
+      <c r="C64" s="74"/>
+      <c r="D64" s="74"/>
+      <c r="E64" s="74"/>
+      <c r="F64" s="74"/>
+      <c r="G64" s="74"/>
+      <c r="H64" s="74"/>
+      <c r="I64" s="74"/>
     </row>
     <row r="65" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="70" t="s">
+      <c r="B66" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="71"/>
-      <c r="D66" s="71"/>
-      <c r="E66" s="71"/>
-      <c r="F66" s="71"/>
-      <c r="G66" s="74" t="s">
+      <c r="C66" s="68"/>
+      <c r="D66" s="68"/>
+      <c r="E66" s="68"/>
+      <c r="F66" s="68"/>
+      <c r="G66" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="H66" s="74"/>
-      <c r="I66" s="75"/>
+      <c r="H66" s="71"/>
+      <c r="I66" s="72"/>
     </row>
     <row r="67" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="72"/>
-      <c r="C67" s="73"/>
-      <c r="D67" s="73"/>
-      <c r="E67" s="73"/>
-      <c r="F67" s="73"/>
-      <c r="G67" s="76" t="s">
+      <c r="B67" s="69"/>
+      <c r="C67" s="70"/>
+      <c r="D67" s="70"/>
+      <c r="E67" s="70"/>
+      <c r="F67" s="70"/>
+      <c r="G67" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="H67" s="76"/>
+      <c r="H67" s="73"/>
       <c r="I67" s="24" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="77"/>
-      <c r="C68" s="78"/>
-      <c r="D68" s="78"/>
-      <c r="E68" s="78"/>
-      <c r="F68" s="78"/>
-      <c r="G68" s="78"/>
-      <c r="H68" s="78"/>
+      <c r="B68" s="80"/>
+      <c r="C68" s="81"/>
+      <c r="D68" s="81"/>
+      <c r="E68" s="81"/>
+      <c r="F68" s="81"/>
+      <c r="G68" s="81"/>
+      <c r="H68" s="81"/>
       <c r="I68" s="33"/>
     </row>
     <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="79"/>
+      <c r="B69" s="82"/>
       <c r="C69" s="55"/>
       <c r="D69" s="55"/>
       <c r="E69" s="55"/>
@@ -14549,7 +14579,7 @@
       <c r="I69" s="34"/>
     </row>
     <row r="70" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="79"/>
+      <c r="B70" s="82"/>
       <c r="C70" s="55"/>
       <c r="D70" s="55"/>
       <c r="E70" s="55"/>
@@ -14559,73 +14589,73 @@
       <c r="I70" s="34"/>
     </row>
     <row r="71" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="82"/>
-      <c r="C71" s="83"/>
-      <c r="D71" s="83"/>
-      <c r="E71" s="83"/>
-      <c r="F71" s="83"/>
-      <c r="G71" s="83"/>
-      <c r="H71" s="83"/>
+      <c r="B71" s="85"/>
+      <c r="C71" s="86"/>
+      <c r="D71" s="86"/>
+      <c r="E71" s="86"/>
+      <c r="F71" s="86"/>
+      <c r="G71" s="86"/>
+      <c r="H71" s="86"/>
       <c r="I71" s="35"/>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B73" s="93" t="s">
+      <c r="B73" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="93"/>
-      <c r="D73" s="93"/>
-      <c r="E73" s="93"/>
-      <c r="F73" s="93"/>
-      <c r="G73" s="93"/>
-      <c r="H73" s="93"/>
-      <c r="I73" s="93"/>
+      <c r="C73" s="56"/>
+      <c r="D73" s="56"/>
+      <c r="E73" s="56"/>
+      <c r="F73" s="56"/>
+      <c r="G73" s="56"/>
+      <c r="H73" s="56"/>
+      <c r="I73" s="56"/>
     </row>
     <row r="74" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="75" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B75" s="94"/>
-      <c r="C75" s="95"/>
-      <c r="D75" s="95"/>
-      <c r="E75" s="95"/>
-      <c r="F75" s="95"/>
-      <c r="G75" s="95"/>
-      <c r="H75" s="95"/>
-      <c r="I75" s="96"/>
+      <c r="B75" s="57"/>
+      <c r="C75" s="58"/>
+      <c r="D75" s="58"/>
+      <c r="E75" s="58"/>
+      <c r="F75" s="58"/>
+      <c r="G75" s="58"/>
+      <c r="H75" s="58"/>
+      <c r="I75" s="59"/>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B76" s="58"/>
-      <c r="C76" s="59"/>
-      <c r="D76" s="59"/>
-      <c r="E76" s="59"/>
-      <c r="F76" s="59"/>
-      <c r="G76" s="59"/>
-      <c r="H76" s="59"/>
+      <c r="B76" s="60"/>
+      <c r="C76" s="61"/>
+      <c r="D76" s="61"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="61"/>
+      <c r="G76" s="61"/>
+      <c r="H76" s="61"/>
       <c r="I76" s="62"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B77" s="58"/>
-      <c r="C77" s="59"/>
-      <c r="D77" s="59"/>
-      <c r="E77" s="59"/>
-      <c r="F77" s="59"/>
-      <c r="G77" s="59"/>
-      <c r="H77" s="59"/>
+      <c r="B77" s="60"/>
+      <c r="C77" s="61"/>
+      <c r="D77" s="61"/>
+      <c r="E77" s="61"/>
+      <c r="F77" s="61"/>
+      <c r="G77" s="61"/>
+      <c r="H77" s="61"/>
       <c r="I77" s="62"/>
     </row>
     <row r="78" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="67"/>
-      <c r="C78" s="68"/>
-      <c r="D78" s="68"/>
-      <c r="E78" s="68"/>
-      <c r="F78" s="68"/>
-      <c r="G78" s="68"/>
-      <c r="H78" s="68"/>
-      <c r="I78" s="69"/>
+      <c r="B78" s="63"/>
+      <c r="C78" s="64"/>
+      <c r="D78" s="64"/>
+      <c r="E78" s="64"/>
+      <c r="F78" s="64"/>
+      <c r="G78" s="64"/>
+      <c r="H78" s="64"/>
+      <c r="I78" s="65"/>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G80" s="53" t="s">
+      <c r="G80" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="H80" s="53"/>
+      <c r="H80" s="66"/>
       <c r="I80" s="5" t="s">
         <v>29</v>
       </c>
@@ -14640,18 +14670,18 @@
       <c r="I82" s="5"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B83" s="85" t="str">
+      <c r="B83" s="47" t="str">
         <f>IF(D10=0,"Assinatura do(a) Orientador(a)",D10)</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="C83" s="85"/>
-      <c r="D83" s="85"/>
-      <c r="F83" s="86" t="s">
+      <c r="C83" s="47"/>
+      <c r="D83" s="47"/>
+      <c r="F83" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="G83" s="86"/>
-      <c r="H83" s="86"/>
-      <c r="I83" s="86"/>
+      <c r="G83" s="48"/>
+      <c r="H83" s="48"/>
+      <c r="I83" s="48"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J85" s="23" t="s">
@@ -14663,6 +14693,44 @@
     <protectedRange sqref="B20:D34 G20:I34 B68:I71 B75 B39:D62 G39:I62" name="Intervalo1"/>
   </protectedRanges>
   <mergeCells count="52">
+    <mergeCell ref="B73:I73"/>
+    <mergeCell ref="B75:I78"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="B39:D44"/>
+    <mergeCell ref="G39:I44"/>
+    <mergeCell ref="B51:D56"/>
+    <mergeCell ref="G51:I56"/>
+    <mergeCell ref="B57:D62"/>
+    <mergeCell ref="G57:I62"/>
+    <mergeCell ref="B45:D50"/>
+    <mergeCell ref="G45:I50"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="B64:I64"/>
+    <mergeCell ref="B66:F67"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B20:D24"/>
+    <mergeCell ref="G20:I24"/>
+    <mergeCell ref="B25:D29"/>
+    <mergeCell ref="G25:I29"/>
+    <mergeCell ref="B30:D34"/>
+    <mergeCell ref="G30:I34"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F38"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="B5:I5"/>
     <mergeCell ref="C8:I8"/>
@@ -14677,44 +14745,6 @@
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="B7:I7"/>
     <mergeCell ref="H14:I14"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B20:D24"/>
-    <mergeCell ref="G20:I24"/>
-    <mergeCell ref="B25:D29"/>
-    <mergeCell ref="G25:I29"/>
-    <mergeCell ref="B30:D34"/>
-    <mergeCell ref="G30:I34"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="B64:I64"/>
-    <mergeCell ref="B66:F67"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="B39:D44"/>
-    <mergeCell ref="G39:I44"/>
-    <mergeCell ref="B51:D56"/>
-    <mergeCell ref="G51:I56"/>
-    <mergeCell ref="B57:D62"/>
-    <mergeCell ref="G57:I62"/>
-    <mergeCell ref="B45:D50"/>
-    <mergeCell ref="G45:I50"/>
-    <mergeCell ref="B73:I73"/>
-    <mergeCell ref="B75:I78"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="F83:I83"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:I13 B7 B15:I16 B14:H14">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
@@ -15335,15 +15365,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100951F864CA035244EB7F6E6B9CAD39DD8" ma:contentTypeVersion="28" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="4d3f40bcd57f6f3788c6a2039c87841b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="ce03834f-a579-4ecb-b47e-e136bae11e47" xmlns:ns3="948e1b9c-bee8-44de-8cc6-706e5b780eae" xmlns:ns4="feadaf30-646e-4180-8499-c12b20b15a5f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f3c3814524ee6e7ba98c66e9da7e66bc" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -15600,6 +15621,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -15615,14 +15645,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAF40381-23F2-4A89-8986-B9057472B1AD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DEC6A78-1548-46C1-A293-FB862F1C8C0C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15639,6 +15661,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAF40381-23F2-4A89-8986-B9057472B1AD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Entregas/Relatório de Acompanhamento Mensal de TCC - V05_2ºsemestre.xlsx
+++ b/Entregas/Relatório de Acompanhamento Mensal de TCC - V05_2ºsemestre.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Dropbox\Documentos\FSARENA\TCC\SrMartis\Entregas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\005614\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810205ED-F668-489C-9D1B-F8E69B0302E7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="818" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="818" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2º Sem - Agosto" sheetId="5" r:id="rId1"/>
@@ -60,7 +59,7 @@
     <definedName name="Texto9" localSheetId="2">'2º Sem - Outubro'!$B$31</definedName>
     <definedName name="Texto9" localSheetId="1">'2º Sem - Setembro'!$B$30</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -76,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="60">
   <si>
     <t>RELATÓRIO DE ACOMPANHAMENTO MENSAL DO TCC</t>
   </si>
@@ -265,11 +264,23 @@
       <t>:Esse mês o acompanhamento foi mais geral , sem aitvidade individuais para melhor avaliação dos alunos. Já em setembro as atividades e responsabilidades serão desginadas individualmente e a avaliação será individualizada. Dentro do cronograma de setembro os alunos deverão levantar tecnicas de mensuração  de desperdícios, abordagens para minimizar o desperdício em refeitórios ou metigar os seus efeitos</t>
     </r>
   </si>
+  <si>
+    <t>A- Levantamento Bibliográfico sobre Metodologia de Otimização de Processos em Refeitórios B-Levantamento Bibliográfico sobre Inteligência Arificia e Machine Learning</t>
+  </si>
+  <si>
+    <t>Levantamento dos dados de Alunos e do Refeitorio da FTT para fazer teste de Hipótese</t>
+  </si>
+  <si>
+    <t>Estudar e Testar técnicas de Machine Learing</t>
+  </si>
+  <si>
+    <t>A equipe fez um bom trabalaho de pesquisa relativo ao Levatamento Bilbliográfico. Em função da Semana de N2 não entregou tudo conforme planejada, dessa forma algumas entregas ficaram para Outubro</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -957,7 +968,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1071,44 +1082,41 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1116,7 +1124,25 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1127,9 +1153,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1150,24 +1173,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1194,32 +1199,41 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1375,7 +1389,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1395,7 +1409,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp30.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp31.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1411,11 +1425,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp34.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp35.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp36.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1439,7 +1453,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp40.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp41.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1467,7 +1481,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp47.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp48.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1781,13 +1795,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>121920</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1848,13 +1862,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>160020</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1919,9 +1933,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1986,9 +2000,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2047,15 +2061,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>45720</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>29</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>22860</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2114,15 +2128,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>45720</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2183,13 +2197,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>25</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2254,7 +2268,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -2317,13 +2331,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>25</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2388,7 +2402,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>39</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -2455,7 +2469,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -2518,13 +2532,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>39</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>41</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2589,9 +2603,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>42</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2652,13 +2666,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>49</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>51</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2723,7 +2737,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>52</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -2786,13 +2800,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>51</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>53</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2857,9 +2871,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>54</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2920,13 +2934,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>57</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2991,7 +3005,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>58</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -3054,13 +3068,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>57</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>59</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3125,9 +3139,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>60</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3262,13 +3276,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>43</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>45</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3333,7 +3347,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>46</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -3396,13 +3410,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>45</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>47</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3467,9 +3481,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>48</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3609,13 +3623,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>121920</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3676,13 +3690,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>160020</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3747,9 +3761,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3814,9 +3828,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3875,15 +3889,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>45720</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>29</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>22860</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3942,15 +3956,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>45720</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4011,13 +4025,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>25</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4082,7 +4096,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -4145,13 +4159,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>25</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4216,7 +4230,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>39</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -4283,7 +4297,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -4346,13 +4360,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>39</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>41</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4417,9 +4431,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>42</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4480,13 +4494,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>49</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>51</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4551,7 +4565,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>52</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -4614,13 +4628,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>51</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>53</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4685,9 +4699,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>54</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4748,13 +4762,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>57</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4819,7 +4833,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>58</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -4882,13 +4896,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>57</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>59</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4953,9 +4967,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>60</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5090,13 +5104,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>43</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>45</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5161,7 +5175,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>46</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -5224,13 +5238,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>45</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>47</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5295,9 +5309,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>48</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5437,13 +5451,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>121920</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5504,13 +5518,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>160020</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5575,9 +5589,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5642,9 +5656,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5703,15 +5717,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>45720</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>22860</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5770,15 +5784,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>45720</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5839,13 +5853,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5910,7 +5924,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -5973,13 +5987,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6044,7 +6058,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -6111,7 +6125,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>41</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -6174,13 +6188,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>40</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>42</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6245,9 +6259,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>43</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6308,13 +6322,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>50</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>52</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6379,7 +6393,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>53</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -6442,13 +6456,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>52</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>54</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6513,9 +6527,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6576,13 +6590,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>56</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>58</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6647,7 +6661,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>59</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -6710,13 +6724,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>58</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>60</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6781,9 +6795,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>61</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6918,13 +6932,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>44</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>46</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6989,9 +7003,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>47</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7052,13 +7066,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>46</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>48</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7123,9 +7137,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>49</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7265,13 +7279,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>121920</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7332,13 +7346,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>160020</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7403,9 +7417,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7470,9 +7484,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7531,15 +7545,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>45720</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>22860</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7598,15 +7612,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>45720</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7667,13 +7681,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7738,7 +7752,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -7801,13 +7815,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7872,9 +7886,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>39</xdr:row>
-          <xdr:rowOff>137160</xdr:rowOff>
+          <xdr:rowOff>133350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7939,7 +7953,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>41</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -8002,13 +8016,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>40</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>42</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8073,9 +8087,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>43</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8136,13 +8150,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>50</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>51</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8207,7 +8221,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>53</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -8270,13 +8284,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>52</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>54</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8341,9 +8355,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8404,11 +8418,11 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>56</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>57</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
@@ -8475,7 +8489,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>59</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -8538,13 +8552,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>58</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>60</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8609,9 +8623,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>61</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8746,13 +8760,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>44</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>45</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8817,7 +8831,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>47</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -8880,13 +8894,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>46</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>48</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8951,9 +8965,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>49</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9272,43 +9286,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B5:J84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
-      <selection activeCell="K76" sqref="K76"/>
+    <sheetView showGridLines="0" topLeftCell="A31" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38:D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="4.44140625" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" customWidth="1"/>
-    <col min="8" max="8" width="3.5546875" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="94" t="s">
+    <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-    </row>
-    <row r="6" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+    </row>
+    <row r="6" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -9318,327 +9332,327 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="19"/>
-      <c r="D7" s="66" t="str">
+      <c r="D7" s="54" t="str">
         <f>Plan1!B5</f>
         <v>Agosto</v>
       </c>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="95" t="s">
+      <c r="C8" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="95" t="s">
+      <c r="C9" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="95"/>
-      <c r="I9" s="95"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="95" t="s">
+      <c r="D10" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
-    </row>
-    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+    </row>
+    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
       <c r="G12" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="96">
+      <c r="H12" s="57">
         <v>82150171</v>
       </c>
-      <c r="I12" s="96"/>
-    </row>
-    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I12" s="57"/>
+    </row>
+    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
       <c r="G13" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="96">
+      <c r="H13" s="57">
         <v>82150205</v>
       </c>
-      <c r="I13" s="96"/>
-    </row>
-    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I13" s="57"/>
+    </row>
+    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
       <c r="G14" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="96">
+      <c r="H14" s="57">
         <v>82150320</v>
       </c>
-      <c r="I14" s="96"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I14" s="57"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
       <c r="E15" s="28"/>
       <c r="F15" s="28"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="74" t="s">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="74"/>
-    </row>
-    <row r="17" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="75" t="s">
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+    </row>
+    <row r="17" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="77" t="s">
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="78"/>
-      <c r="G18" s="76" t="s">
+      <c r="F18" s="51"/>
+      <c r="G18" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="76"/>
-      <c r="I18" s="79"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="60" t="s">
+      <c r="H18" s="49"/>
+      <c r="I18" s="52"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
       <c r="E19" s="14"/>
       <c r="F19" s="15"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="62"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="60"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="63"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="59"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
       <c r="E20" s="8"/>
       <c r="F20" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="62"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="60"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="63"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="59"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="62"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="60"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="63"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="59"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="62"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="88"/>
-      <c r="C23" s="89"/>
-      <c r="D23" s="89"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="63"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="61"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
       <c r="E23" s="10"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="89"/>
-      <c r="I23" s="90"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="91" t="s">
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="64"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="92"/>
-      <c r="D24" s="92"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
       <c r="E24" s="12"/>
       <c r="F24" s="13"/>
-      <c r="G24" s="92"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="93"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="60"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="67"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="59"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
       <c r="E25" s="8"/>
       <c r="F25" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="62"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="60"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="63"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="59"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="62"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="60"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="63"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="59"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="62"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="88"/>
-      <c r="C28" s="89"/>
-      <c r="D28" s="89"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="63"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="61"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
       <c r="E28" s="10"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="90"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="60" t="s">
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="64"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
       <c r="E29" s="8"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="62"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="60"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="63"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="59"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="62"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="60"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="63"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="59"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="62"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="60"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="63"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="59"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
       <c r="E32" s="8"/>
       <c r="F32" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="62"/>
-    </row>
-    <row r="33" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="63"/>
-      <c r="C33" s="64"/>
-      <c r="D33" s="64"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="63"/>
+    </row>
+    <row r="33" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="68"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="69"/>
       <c r="E33" s="17"/>
       <c r="F33" s="18"/>
-      <c r="G33" s="64"/>
-      <c r="H33" s="64"/>
-      <c r="I33" s="65"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G33" s="69"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="70"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -9648,19 +9662,19 @@
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="74" t="s">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="74"/>
-      <c r="D35" s="74"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="74"/>
-      <c r="G35" s="74"/>
-      <c r="H35" s="74"/>
-      <c r="I35" s="74"/>
-    </row>
-    <row r="36" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="58"/>
+    </row>
+    <row r="36" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
@@ -9670,349 +9684,349 @@
       <c r="H36" s="16"/>
       <c r="I36" s="16"/>
     </row>
-    <row r="37" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="75" t="s">
+    <row r="37" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="76"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="77" t="s">
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="F37" s="78"/>
-      <c r="G37" s="76" t="s">
+      <c r="F37" s="51"/>
+      <c r="G37" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="H37" s="76"/>
-      <c r="I37" s="79"/>
-    </row>
-    <row r="38" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="80" t="s">
+      <c r="H37" s="49"/>
+      <c r="I37" s="52"/>
+    </row>
+    <row r="38" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="81"/>
-      <c r="D38" s="81"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="79"/>
       <c r="E38" s="14"/>
       <c r="F38" s="15"/>
-      <c r="G38" s="81"/>
-      <c r="H38" s="81"/>
-      <c r="I38" s="83"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B39" s="82"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="55"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="79"/>
+      <c r="I38" s="81"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="80"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
       <c r="E39" s="8"/>
       <c r="F39" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G39" s="55"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="84"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="82"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="55"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="82"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="80"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="56"/>
       <c r="E40" s="8"/>
       <c r="F40" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G40" s="55"/>
-      <c r="H40" s="55"/>
-      <c r="I40" s="84"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="82"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="55"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="56"/>
+      <c r="I40" s="82"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="80"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="56"/>
       <c r="E41" s="8"/>
       <c r="F41" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G41" s="55"/>
-      <c r="H41" s="55"/>
-      <c r="I41" s="84"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="82"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="55"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="56"/>
+      <c r="I41" s="82"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="80"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="56"/>
       <c r="E42" s="8"/>
       <c r="F42" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G42" s="55"/>
-      <c r="H42" s="55"/>
-      <c r="I42" s="84"/>
-    </row>
-    <row r="43" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="82"/>
-      <c r="C43" s="55"/>
-      <c r="D43" s="55"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="56"/>
+      <c r="I42" s="82"/>
+    </row>
+    <row r="43" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="80"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="56"/>
       <c r="E43" s="10"/>
       <c r="F43" s="11"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="55"/>
-      <c r="I43" s="84"/>
-    </row>
-    <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="82" t="s">
+      <c r="G43" s="56"/>
+      <c r="H43" s="56"/>
+      <c r="I43" s="82"/>
+    </row>
+    <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="55"/>
-      <c r="D44" s="55"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="56"/>
       <c r="E44" s="6"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="55"/>
-      <c r="H44" s="55"/>
-      <c r="I44" s="84"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B45" s="82"/>
-      <c r="C45" s="55"/>
-      <c r="D45" s="55"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="56"/>
+      <c r="I44" s="82"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="80"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="56"/>
       <c r="E45" s="8"/>
       <c r="F45" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G45" s="55"/>
-      <c r="H45" s="55"/>
-      <c r="I45" s="84"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="82"/>
-      <c r="C46" s="55"/>
-      <c r="D46" s="55"/>
+      <c r="G45" s="56"/>
+      <c r="H45" s="56"/>
+      <c r="I45" s="82"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="80"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="56"/>
       <c r="E46" s="8"/>
       <c r="F46" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G46" s="55"/>
-      <c r="H46" s="55"/>
-      <c r="I46" s="84"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="82"/>
-      <c r="C47" s="55"/>
-      <c r="D47" s="55"/>
+      <c r="G46" s="56"/>
+      <c r="H46" s="56"/>
+      <c r="I46" s="82"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="80"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="56"/>
       <c r="E47" s="8"/>
       <c r="F47" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G47" s="55"/>
-      <c r="H47" s="55"/>
-      <c r="I47" s="84"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="82"/>
-      <c r="C48" s="55"/>
-      <c r="D48" s="55"/>
+      <c r="G47" s="56"/>
+      <c r="H47" s="56"/>
+      <c r="I47" s="82"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="80"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="56"/>
       <c r="E48" s="8"/>
       <c r="F48" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G48" s="55"/>
-      <c r="H48" s="55"/>
-      <c r="I48" s="84"/>
-    </row>
-    <row r="49" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="82"/>
-      <c r="C49" s="55"/>
-      <c r="D49" s="55"/>
+      <c r="G48" s="56"/>
+      <c r="H48" s="56"/>
+      <c r="I48" s="82"/>
+    </row>
+    <row r="49" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="80"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="56"/>
       <c r="E49" s="10"/>
       <c r="F49" s="11"/>
-      <c r="G49" s="55"/>
-      <c r="H49" s="55"/>
-      <c r="I49" s="84"/>
-    </row>
-    <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="82" t="s">
+      <c r="G49" s="56"/>
+      <c r="H49" s="56"/>
+      <c r="I49" s="82"/>
+    </row>
+    <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="C50" s="55"/>
-      <c r="D50" s="55"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="56"/>
       <c r="E50" s="6"/>
       <c r="F50" s="7"/>
-      <c r="G50" s="55"/>
-      <c r="H50" s="55"/>
-      <c r="I50" s="84"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B51" s="82"/>
-      <c r="C51" s="55"/>
-      <c r="D51" s="55"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="56"/>
+      <c r="I50" s="82"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="80"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="56"/>
       <c r="E51" s="8"/>
       <c r="F51" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G51" s="55"/>
-      <c r="H51" s="55"/>
-      <c r="I51" s="84"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="82"/>
-      <c r="C52" s="55"/>
-      <c r="D52" s="55"/>
+      <c r="G51" s="56"/>
+      <c r="H51" s="56"/>
+      <c r="I51" s="82"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="80"/>
+      <c r="C52" s="56"/>
+      <c r="D52" s="56"/>
       <c r="E52" s="8"/>
       <c r="F52" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G52" s="55"/>
-      <c r="H52" s="55"/>
-      <c r="I52" s="84"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B53" s="82"/>
-      <c r="C53" s="55"/>
-      <c r="D53" s="55"/>
+      <c r="G52" s="56"/>
+      <c r="H52" s="56"/>
+      <c r="I52" s="82"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="80"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="56"/>
       <c r="E53" s="8"/>
       <c r="F53" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G53" s="55"/>
-      <c r="H53" s="55"/>
-      <c r="I53" s="84"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="82"/>
-      <c r="C54" s="55"/>
-      <c r="D54" s="55"/>
+      <c r="G53" s="56"/>
+      <c r="H53" s="56"/>
+      <c r="I53" s="82"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="80"/>
+      <c r="C54" s="56"/>
+      <c r="D54" s="56"/>
       <c r="E54" s="8"/>
       <c r="F54" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G54" s="55"/>
-      <c r="H54" s="55"/>
-      <c r="I54" s="84"/>
-    </row>
-    <row r="55" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="82"/>
-      <c r="C55" s="55"/>
-      <c r="D55" s="55"/>
+      <c r="G54" s="56"/>
+      <c r="H54" s="56"/>
+      <c r="I54" s="82"/>
+    </row>
+    <row r="55" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="80"/>
+      <c r="C55" s="56"/>
+      <c r="D55" s="56"/>
       <c r="E55" s="10"/>
       <c r="F55" s="11"/>
-      <c r="G55" s="55"/>
-      <c r="H55" s="55"/>
-      <c r="I55" s="84"/>
-    </row>
-    <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="82"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="55"/>
+      <c r="G55" s="56"/>
+      <c r="H55" s="56"/>
+      <c r="I55" s="82"/>
+    </row>
+    <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="80"/>
+      <c r="C56" s="56"/>
+      <c r="D56" s="56"/>
       <c r="E56" s="6"/>
       <c r="F56" s="7"/>
-      <c r="G56" s="55"/>
-      <c r="H56" s="55"/>
-      <c r="I56" s="84"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B57" s="82"/>
-      <c r="C57" s="55"/>
-      <c r="D57" s="55"/>
+      <c r="G56" s="56"/>
+      <c r="H56" s="56"/>
+      <c r="I56" s="82"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="80"/>
+      <c r="C57" s="56"/>
+      <c r="D57" s="56"/>
       <c r="E57" s="8"/>
       <c r="F57" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G57" s="55"/>
-      <c r="H57" s="55"/>
-      <c r="I57" s="84"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B58" s="82"/>
-      <c r="C58" s="55"/>
-      <c r="D58" s="55"/>
+      <c r="G57" s="56"/>
+      <c r="H57" s="56"/>
+      <c r="I57" s="82"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="80"/>
+      <c r="C58" s="56"/>
+      <c r="D58" s="56"/>
       <c r="E58" s="8"/>
       <c r="F58" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G58" s="55"/>
-      <c r="H58" s="55"/>
-      <c r="I58" s="84"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B59" s="82"/>
-      <c r="C59" s="55"/>
-      <c r="D59" s="55"/>
+      <c r="G58" s="56"/>
+      <c r="H58" s="56"/>
+      <c r="I58" s="82"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="80"/>
+      <c r="C59" s="56"/>
+      <c r="D59" s="56"/>
       <c r="E59" s="8"/>
       <c r="F59" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G59" s="55"/>
-      <c r="H59" s="55"/>
-      <c r="I59" s="84"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="82"/>
-      <c r="C60" s="55"/>
-      <c r="D60" s="55"/>
+      <c r="G59" s="56"/>
+      <c r="H59" s="56"/>
+      <c r="I59" s="82"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="80"/>
+      <c r="C60" s="56"/>
+      <c r="D60" s="56"/>
       <c r="E60" s="8"/>
       <c r="F60" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G60" s="55"/>
-      <c r="H60" s="55"/>
-      <c r="I60" s="84"/>
-    </row>
-    <row r="61" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="85"/>
-      <c r="C61" s="86"/>
-      <c r="D61" s="86"/>
+      <c r="G60" s="56"/>
+      <c r="H60" s="56"/>
+      <c r="I60" s="82"/>
+    </row>
+    <row r="61" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="83"/>
+      <c r="C61" s="84"/>
+      <c r="D61" s="84"/>
       <c r="E61" s="17"/>
       <c r="F61" s="18"/>
-      <c r="G61" s="86"/>
-      <c r="H61" s="86"/>
-      <c r="I61" s="87"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B63" s="74" t="s">
+      <c r="G61" s="84"/>
+      <c r="H61" s="84"/>
+      <c r="I61" s="85"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="74"/>
-      <c r="D63" s="74"/>
-      <c r="E63" s="74"/>
-      <c r="F63" s="74"/>
-      <c r="G63" s="74"/>
-      <c r="H63" s="74"/>
-      <c r="I63" s="74"/>
-    </row>
-    <row r="64" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B65" s="67" t="s">
+      <c r="C63" s="58"/>
+      <c r="D63" s="58"/>
+      <c r="E63" s="58"/>
+      <c r="F63" s="58"/>
+      <c r="G63" s="58"/>
+      <c r="H63" s="58"/>
+      <c r="I63" s="58"/>
+    </row>
+    <row r="64" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B65" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="C65" s="68"/>
-      <c r="D65" s="68"/>
-      <c r="E65" s="68"/>
-      <c r="F65" s="68"/>
-      <c r="G65" s="71" t="s">
+      <c r="C65" s="72"/>
+      <c r="D65" s="72"/>
+      <c r="E65" s="72"/>
+      <c r="F65" s="72"/>
+      <c r="G65" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="H65" s="71"/>
-      <c r="I65" s="72"/>
-    </row>
-    <row r="66" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="69"/>
-      <c r="C66" s="70"/>
-      <c r="D66" s="70"/>
-      <c r="E66" s="70"/>
-      <c r="F66" s="70"/>
-      <c r="G66" s="73" t="s">
+      <c r="H65" s="75"/>
+      <c r="I65" s="76"/>
+    </row>
+    <row r="66" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="73"/>
+      <c r="C66" s="74"/>
+      <c r="D66" s="74"/>
+      <c r="E66" s="74"/>
+      <c r="F66" s="74"/>
+      <c r="G66" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="H66" s="73"/>
+      <c r="H66" s="77"/>
       <c r="I66" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="49" t="s">
+    <row r="67" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="C67" s="50"/>
-      <c r="D67" s="50"/>
-      <c r="E67" s="50"/>
-      <c r="F67" s="51"/>
+      <c r="C67" s="89"/>
+      <c r="D67" s="89"/>
+      <c r="E67" s="89"/>
+      <c r="F67" s="90"/>
       <c r="G67" s="44" t="s">
         <v>34</v>
       </c>
@@ -10021,14 +10035,14 @@
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="52" t="s">
+    <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="C68" s="53"/>
-      <c r="D68" s="53"/>
-      <c r="E68" s="53"/>
-      <c r="F68" s="54"/>
+      <c r="C68" s="92"/>
+      <c r="D68" s="92"/>
+      <c r="E68" s="92"/>
+      <c r="F68" s="93"/>
       <c r="G68" s="45" t="s">
         <v>34</v>
       </c>
@@ -10037,14 +10051,14 @@
         <v>34</v>
       </c>
     </row>
-    <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="55" t="s">
+    <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="C69" s="55"/>
-      <c r="D69" s="55"/>
-      <c r="E69" s="55"/>
-      <c r="F69" s="55"/>
+      <c r="C69" s="56"/>
+      <c r="D69" s="56"/>
+      <c r="E69" s="56"/>
+      <c r="F69" s="56"/>
       <c r="G69" s="45" t="s">
         <v>34</v>
       </c>
@@ -10053,14 +10067,14 @@
         <v>34</v>
       </c>
     </row>
-    <row r="70" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="55" t="s">
+    <row r="70" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="C70" s="55"/>
-      <c r="D70" s="55"/>
-      <c r="E70" s="55"/>
-      <c r="F70" s="55"/>
+      <c r="C70" s="56"/>
+      <c r="D70" s="56"/>
+      <c r="E70" s="56"/>
+      <c r="F70" s="56"/>
       <c r="G70" s="46" t="s">
         <v>34</v>
       </c>
@@ -10069,72 +10083,72 @@
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B72" s="56" t="s">
+    <row r="71" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B72" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="C72" s="56"/>
-      <c r="D72" s="56"/>
-      <c r="E72" s="56"/>
-      <c r="F72" s="56"/>
-      <c r="G72" s="56"/>
-      <c r="H72" s="56"/>
-      <c r="I72" s="56"/>
-    </row>
-    <row r="73" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="74" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="57" t="s">
+      <c r="C72" s="94"/>
+      <c r="D72" s="94"/>
+      <c r="E72" s="94"/>
+      <c r="F72" s="94"/>
+      <c r="G72" s="94"/>
+      <c r="H72" s="94"/>
+      <c r="I72" s="94"/>
+    </row>
+    <row r="73" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="C74" s="58"/>
-      <c r="D74" s="58"/>
-      <c r="E74" s="58"/>
-      <c r="F74" s="58"/>
-      <c r="G74" s="58"/>
-      <c r="H74" s="58"/>
-      <c r="I74" s="59"/>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B75" s="60"/>
-      <c r="C75" s="61"/>
-      <c r="D75" s="61"/>
-      <c r="E75" s="61"/>
-      <c r="F75" s="61"/>
-      <c r="G75" s="61"/>
-      <c r="H75" s="61"/>
-      <c r="I75" s="62"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B76" s="60"/>
-      <c r="C76" s="61"/>
-      <c r="D76" s="61"/>
-      <c r="E76" s="61"/>
-      <c r="F76" s="61"/>
-      <c r="G76" s="61"/>
-      <c r="H76" s="61"/>
-      <c r="I76" s="62"/>
-    </row>
-    <row r="77" spans="2:9" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="63"/>
-      <c r="C77" s="64"/>
-      <c r="D77" s="64"/>
-      <c r="E77" s="64"/>
-      <c r="F77" s="64"/>
-      <c r="G77" s="64"/>
-      <c r="H77" s="64"/>
-      <c r="I77" s="65"/>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G79" s="66" t="s">
+      <c r="C74" s="96"/>
+      <c r="D74" s="96"/>
+      <c r="E74" s="96"/>
+      <c r="F74" s="96"/>
+      <c r="G74" s="96"/>
+      <c r="H74" s="96"/>
+      <c r="I74" s="97"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B75" s="59"/>
+      <c r="C75" s="60"/>
+      <c r="D75" s="60"/>
+      <c r="E75" s="60"/>
+      <c r="F75" s="60"/>
+      <c r="G75" s="60"/>
+      <c r="H75" s="60"/>
+      <c r="I75" s="63"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="59"/>
+      <c r="C76" s="60"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="60"/>
+      <c r="F76" s="60"/>
+      <c r="G76" s="60"/>
+      <c r="H76" s="60"/>
+      <c r="I76" s="63"/>
+    </row>
+    <row r="77" spans="2:9" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="68"/>
+      <c r="C77" s="69"/>
+      <c r="D77" s="69"/>
+      <c r="E77" s="69"/>
+      <c r="F77" s="69"/>
+      <c r="G77" s="69"/>
+      <c r="H77" s="69"/>
+      <c r="I77" s="70"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G79" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="H79" s="66"/>
+      <c r="H79" s="54"/>
       <c r="I79" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
@@ -10143,21 +10157,21 @@
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B82" s="47" t="str">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B82" s="86" t="str">
         <f>IF(D10="","Assinatura do(a) Orientador(a)",D10)</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="C82" s="47"/>
-      <c r="D82" s="47"/>
-      <c r="F82" s="48" t="s">
+      <c r="C82" s="86"/>
+      <c r="D82" s="86"/>
+      <c r="F82" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="G82" s="48"/>
-      <c r="H82" s="48"/>
-      <c r="I82" s="48"/>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G82" s="87"/>
+      <c r="H82" s="87"/>
+      <c r="I82" s="87"/>
+    </row>
+    <row r="84" spans="2:10" ht="15.75" x14ac:dyDescent="0.3">
       <c r="J84" s="23" t="s">
         <v>30</v>
       </c>
@@ -10169,27 +10183,15 @@
     <protectedRange sqref="B74:I77" name="Intervalo1_2"/>
   </protectedRanges>
   <mergeCells count="46">
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B19:D23"/>
-    <mergeCell ref="G19:I23"/>
-    <mergeCell ref="B24:D28"/>
-    <mergeCell ref="G24:I28"/>
-    <mergeCell ref="B29:D33"/>
-    <mergeCell ref="G29:I33"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="F82:I82"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="B72:I72"/>
+    <mergeCell ref="B74:I77"/>
+    <mergeCell ref="G79:H79"/>
     <mergeCell ref="B65:F66"/>
     <mergeCell ref="G65:I65"/>
     <mergeCell ref="G66:H66"/>
@@ -10206,15 +10208,27 @@
     <mergeCell ref="B63:I63"/>
     <mergeCell ref="B44:D49"/>
     <mergeCell ref="G44:I49"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="F82:I82"/>
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="B72:I72"/>
-    <mergeCell ref="B74:I77"/>
-    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="B19:D23"/>
+    <mergeCell ref="G19:I23"/>
+    <mergeCell ref="B24:D28"/>
+    <mergeCell ref="G24:I28"/>
+    <mergeCell ref="B29:D33"/>
+    <mergeCell ref="G29:I33"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="B16:I16"/>
   </mergeCells>
   <conditionalFormatting sqref="B82:D82">
     <cfRule type="expression" priority="2">
@@ -10245,13 +10259,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>121920</xdr:rowOff>
+                    <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10267,13 +10281,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>160020</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10293,9 +10307,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10315,9 +10329,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>30</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10331,15 +10345,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>45720</xdr:colOff>
+                    <xdr:colOff>47625</xdr:colOff>
                     <xdr:row>29</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>22860</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10353,15 +10367,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>45720</xdr:colOff>
+                    <xdr:colOff>47625</xdr:colOff>
                     <xdr:row>30</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>32</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10377,13 +10391,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>23</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>25</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10403,7 +10417,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>26</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -10421,13 +10435,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>25</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>27</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10447,7 +10461,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>39</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -10469,7 +10483,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>40</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -10487,13 +10501,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>39</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>41</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10513,9 +10527,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>42</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10531,13 +10545,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>49</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>51</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10557,7 +10571,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>52</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -10575,13 +10589,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>51</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>53</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10601,9 +10615,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>54</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10619,13 +10633,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>55</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>57</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10645,7 +10659,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>58</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -10663,13 +10677,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>57</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>59</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10689,9 +10703,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>60</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10707,13 +10721,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>43</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>45</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10733,7 +10747,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>46</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -10751,13 +10765,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>45</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>47</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10777,9 +10791,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>48</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10793,43 +10807,43 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B5:J99"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:XFD49"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A41" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="4.44140625" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" customWidth="1"/>
-    <col min="8" max="8" width="3.5546875" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="94" t="s">
+    <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-    </row>
-    <row r="6" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+    </row>
+    <row r="6" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -10839,315 +10853,321 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="19"/>
-      <c r="D7" s="66" t="str">
+      <c r="D7" s="54" t="str">
         <f>Plan1!B6</f>
         <v>Setembro</v>
       </c>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="95" t="str">
+      <c r="C8" s="55" t="str">
         <f>'2º Sem - Agosto'!C8:I8</f>
         <v>Otimização de processos e gestão de refeitórios com Machine Learning</v>
       </c>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="95" t="str">
+      <c r="C9" s="55" t="str">
         <f>'2º Sem - Agosto'!C9:I9</f>
         <v>Engenharia da Computação</v>
       </c>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="95"/>
-      <c r="I9" s="95"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="95" t="str">
+      <c r="D10" s="55" t="str">
         <f>'2º Sem - Agosto'!D10:I10</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
-    </row>
-    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+    </row>
+    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="92" t="str">
+      <c r="C12" s="66" t="str">
         <f>'2º Sem - Agosto'!C12:F12</f>
         <v>Igor Martins Ferreira</v>
       </c>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="97"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="98"/>
       <c r="G12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="98"/>
-      <c r="I12" s="99"/>
-    </row>
-    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="99"/>
+      <c r="I12" s="100"/>
+    </row>
+    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="61" t="str">
+      <c r="C13" s="60" t="str">
         <f>'2º Sem - Agosto'!C13:F13</f>
         <v>Lucas Silva Sousa</v>
       </c>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="100"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="101"/>
       <c r="G13" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="101"/>
-      <c r="I13" s="102"/>
-    </row>
-    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="102"/>
+      <c r="I13" s="103"/>
+    </row>
+    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="89" t="str">
+      <c r="C14" s="62" t="str">
         <f>'2º Sem - Agosto'!C14:F14</f>
         <v>Renan Dias de Oliveira</v>
       </c>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="103"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="104"/>
       <c r="G14" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="104"/>
-      <c r="I14" s="105"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="74" t="s">
+      <c r="H14" s="105"/>
+      <c r="I14" s="106"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="74"/>
-    </row>
-    <row r="17" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="75" t="s">
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+    </row>
+    <row r="17" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="77" t="s">
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="78"/>
-      <c r="G18" s="76" t="s">
+      <c r="F18" s="51"/>
+      <c r="G18" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="76"/>
-      <c r="I18" s="79"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="60"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="52"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
       <c r="E19" s="14"/>
       <c r="F19" s="15"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="62"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="60"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="63"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="59"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
       <c r="E20" s="8"/>
       <c r="F20" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="62"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="60"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="63"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="59"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="62"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="60"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="63"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="59"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="62"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="88"/>
-      <c r="C23" s="89"/>
-      <c r="D23" s="89"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="63"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="61"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
       <c r="E23" s="10"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="89"/>
-      <c r="I23" s="90"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="91"/>
-      <c r="C24" s="92"/>
-      <c r="D24" s="92"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="64"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
       <c r="E24" s="12"/>
       <c r="F24" s="13"/>
-      <c r="G24" s="92"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="93"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="60"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="67"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="59"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
       <c r="E25" s="8"/>
       <c r="F25" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="62"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="60"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="63"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="59"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="62"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="60"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="63"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="59"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="62"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="88"/>
-      <c r="C28" s="89"/>
-      <c r="D28" s="89"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="63"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="61"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
       <c r="E28" s="10"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="90"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="60"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="64"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
       <c r="E29" s="8"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="62"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="60"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="63"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="59"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="62"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="60"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="63"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="59"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="62"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="60"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="63"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="59"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
       <c r="E32" s="8"/>
       <c r="F32" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="62"/>
-    </row>
-    <row r="33" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="63"/>
-      <c r="C33" s="64"/>
-      <c r="D33" s="64"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="63"/>
+    </row>
+    <row r="33" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="68"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="69"/>
       <c r="E33" s="17"/>
       <c r="F33" s="18"/>
-      <c r="G33" s="64"/>
-      <c r="H33" s="64"/>
-      <c r="I33" s="65"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G33" s="69"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="70"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -11157,19 +11177,19 @@
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="74" t="s">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="74"/>
-      <c r="D35" s="74"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="74"/>
-      <c r="G35" s="74"/>
-      <c r="H35" s="74"/>
-      <c r="I35" s="74"/>
-    </row>
-    <row r="36" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="58"/>
+    </row>
+    <row r="36" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
@@ -11179,438 +11199,470 @@
       <c r="H36" s="16"/>
       <c r="I36" s="16"/>
     </row>
-    <row r="37" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="75" t="s">
+    <row r="37" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="76"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="77" t="s">
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="F37" s="78"/>
-      <c r="G37" s="76" t="s">
+      <c r="F37" s="51"/>
+      <c r="G37" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="H37" s="76"/>
-      <c r="I37" s="79"/>
-    </row>
-    <row r="38" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="80"/>
-      <c r="C38" s="81"/>
-      <c r="D38" s="81"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="52"/>
+    </row>
+    <row r="38" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="78" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="79"/>
+      <c r="D38" s="79"/>
       <c r="E38" s="14"/>
       <c r="F38" s="15"/>
-      <c r="G38" s="81"/>
-      <c r="H38" s="81"/>
-      <c r="I38" s="83"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B39" s="82"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="55"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="79"/>
+      <c r="I38" s="81"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="80"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
       <c r="E39" s="8"/>
       <c r="F39" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G39" s="55"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="84"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="82"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="55"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="82"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="80"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="56"/>
       <c r="E40" s="8"/>
       <c r="F40" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G40" s="55"/>
-      <c r="H40" s="55"/>
-      <c r="I40" s="84"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="82"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="55"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="56"/>
+      <c r="I40" s="82"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="80"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="56"/>
       <c r="E41" s="8"/>
       <c r="F41" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G41" s="55"/>
-      <c r="H41" s="55"/>
-      <c r="I41" s="84"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="82"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="55"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="56"/>
+      <c r="I41" s="82"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="80"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="56"/>
       <c r="E42" s="8"/>
       <c r="F42" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G42" s="55"/>
-      <c r="H42" s="55"/>
-      <c r="I42" s="84"/>
-    </row>
-    <row r="43" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="82"/>
-      <c r="C43" s="55"/>
-      <c r="D43" s="55"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="56"/>
+      <c r="I42" s="82"/>
+    </row>
+    <row r="43" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="80"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="56"/>
       <c r="E43" s="10"/>
       <c r="F43" s="11"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="55"/>
-      <c r="I43" s="84"/>
-    </row>
-    <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="82"/>
-      <c r="C44" s="55"/>
-      <c r="D44" s="55"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="56"/>
+      <c r="I43" s="82"/>
+    </row>
+    <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="80" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="56"/>
+      <c r="D44" s="56"/>
       <c r="E44" s="6"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="55"/>
-      <c r="H44" s="55"/>
-      <c r="I44" s="84"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B45" s="82"/>
-      <c r="C45" s="55"/>
-      <c r="D45" s="55"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="56"/>
+      <c r="I44" s="82"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="80"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="56"/>
       <c r="E45" s="8"/>
       <c r="F45" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G45" s="55"/>
-      <c r="H45" s="55"/>
-      <c r="I45" s="84"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="82"/>
-      <c r="C46" s="55"/>
-      <c r="D46" s="55"/>
+      <c r="G45" s="56"/>
+      <c r="H45" s="56"/>
+      <c r="I45" s="82"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="80"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="56"/>
       <c r="E46" s="8"/>
       <c r="F46" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G46" s="55"/>
-      <c r="H46" s="55"/>
-      <c r="I46" s="84"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="82"/>
-      <c r="C47" s="55"/>
-      <c r="D47" s="55"/>
+      <c r="G46" s="56"/>
+      <c r="H46" s="56"/>
+      <c r="I46" s="82"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="80"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="56"/>
       <c r="E47" s="8"/>
       <c r="F47" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G47" s="55"/>
-      <c r="H47" s="55"/>
-      <c r="I47" s="84"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="82"/>
-      <c r="C48" s="55"/>
-      <c r="D48" s="55"/>
+      <c r="G47" s="56"/>
+      <c r="H47" s="56"/>
+      <c r="I47" s="82"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="80"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="56"/>
       <c r="E48" s="8"/>
       <c r="F48" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G48" s="55"/>
-      <c r="H48" s="55"/>
-      <c r="I48" s="84"/>
-    </row>
-    <row r="49" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="82"/>
-      <c r="C49" s="55"/>
-      <c r="D49" s="55"/>
+      <c r="G48" s="56"/>
+      <c r="H48" s="56"/>
+      <c r="I48" s="82"/>
+    </row>
+    <row r="49" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="80"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="56"/>
       <c r="E49" s="10"/>
       <c r="F49" s="11"/>
-      <c r="G49" s="55"/>
-      <c r="H49" s="55"/>
-      <c r="I49" s="84"/>
-    </row>
-    <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="82"/>
-      <c r="C50" s="55"/>
-      <c r="D50" s="55"/>
+      <c r="G49" s="56"/>
+      <c r="H49" s="56"/>
+      <c r="I49" s="82"/>
+    </row>
+    <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="80" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" s="56"/>
+      <c r="D50" s="56"/>
       <c r="E50" s="6"/>
       <c r="F50" s="7"/>
-      <c r="G50" s="55"/>
-      <c r="H50" s="55"/>
-      <c r="I50" s="84"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B51" s="82"/>
-      <c r="C51" s="55"/>
-      <c r="D51" s="55"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="56"/>
+      <c r="I50" s="82"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="80"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="56"/>
       <c r="E51" s="8"/>
       <c r="F51" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G51" s="55"/>
-      <c r="H51" s="55"/>
-      <c r="I51" s="84"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="82"/>
-      <c r="C52" s="55"/>
-      <c r="D52" s="55"/>
+      <c r="G51" s="56"/>
+      <c r="H51" s="56"/>
+      <c r="I51" s="82"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="80"/>
+      <c r="C52" s="56"/>
+      <c r="D52" s="56"/>
       <c r="E52" s="8"/>
       <c r="F52" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G52" s="55"/>
-      <c r="H52" s="55"/>
-      <c r="I52" s="84"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B53" s="82"/>
-      <c r="C53" s="55"/>
-      <c r="D53" s="55"/>
+      <c r="G52" s="56"/>
+      <c r="H52" s="56"/>
+      <c r="I52" s="82"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="80"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="56"/>
       <c r="E53" s="8"/>
       <c r="F53" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G53" s="55"/>
-      <c r="H53" s="55"/>
-      <c r="I53" s="84"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="82"/>
-      <c r="C54" s="55"/>
-      <c r="D54" s="55"/>
+      <c r="G53" s="56"/>
+      <c r="H53" s="56"/>
+      <c r="I53" s="82"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="80"/>
+      <c r="C54" s="56"/>
+      <c r="D54" s="56"/>
       <c r="E54" s="8"/>
       <c r="F54" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G54" s="55"/>
-      <c r="H54" s="55"/>
-      <c r="I54" s="84"/>
-    </row>
-    <row r="55" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="82"/>
-      <c r="C55" s="55"/>
-      <c r="D55" s="55"/>
+      <c r="G54" s="56"/>
+      <c r="H54" s="56"/>
+      <c r="I54" s="82"/>
+    </row>
+    <row r="55" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="80"/>
+      <c r="C55" s="56"/>
+      <c r="D55" s="56"/>
       <c r="E55" s="10"/>
       <c r="F55" s="11"/>
-      <c r="G55" s="55"/>
-      <c r="H55" s="55"/>
-      <c r="I55" s="84"/>
-    </row>
-    <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="82"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="55"/>
+      <c r="G55" s="56"/>
+      <c r="H55" s="56"/>
+      <c r="I55" s="82"/>
+    </row>
+    <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="80"/>
+      <c r="C56" s="56"/>
+      <c r="D56" s="56"/>
       <c r="E56" s="6"/>
       <c r="F56" s="7"/>
-      <c r="G56" s="55"/>
-      <c r="H56" s="55"/>
-      <c r="I56" s="84"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B57" s="82"/>
-      <c r="C57" s="55"/>
-      <c r="D57" s="55"/>
+      <c r="G56" s="56"/>
+      <c r="H56" s="56"/>
+      <c r="I56" s="82"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="80"/>
+      <c r="C57" s="56"/>
+      <c r="D57" s="56"/>
       <c r="E57" s="8"/>
       <c r="F57" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G57" s="55"/>
-      <c r="H57" s="55"/>
-      <c r="I57" s="84"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B58" s="82"/>
-      <c r="C58" s="55"/>
-      <c r="D58" s="55"/>
+      <c r="G57" s="56"/>
+      <c r="H57" s="56"/>
+      <c r="I57" s="82"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="80"/>
+      <c r="C58" s="56"/>
+      <c r="D58" s="56"/>
       <c r="E58" s="8"/>
       <c r="F58" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G58" s="55"/>
-      <c r="H58" s="55"/>
-      <c r="I58" s="84"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B59" s="82"/>
-      <c r="C59" s="55"/>
-      <c r="D59" s="55"/>
+      <c r="G58" s="56"/>
+      <c r="H58" s="56"/>
+      <c r="I58" s="82"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="80"/>
+      <c r="C59" s="56"/>
+      <c r="D59" s="56"/>
       <c r="E59" s="8"/>
       <c r="F59" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G59" s="55"/>
-      <c r="H59" s="55"/>
-      <c r="I59" s="84"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="82"/>
-      <c r="C60" s="55"/>
-      <c r="D60" s="55"/>
+      <c r="G59" s="56"/>
+      <c r="H59" s="56"/>
+      <c r="I59" s="82"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="80"/>
+      <c r="C60" s="56"/>
+      <c r="D60" s="56"/>
       <c r="E60" s="8"/>
       <c r="F60" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G60" s="55"/>
-      <c r="H60" s="55"/>
-      <c r="I60" s="84"/>
-    </row>
-    <row r="61" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="85"/>
-      <c r="C61" s="86"/>
-      <c r="D61" s="86"/>
+      <c r="G60" s="56"/>
+      <c r="H60" s="56"/>
+      <c r="I60" s="82"/>
+    </row>
+    <row r="61" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="83"/>
+      <c r="C61" s="84"/>
+      <c r="D61" s="84"/>
       <c r="E61" s="17"/>
       <c r="F61" s="18"/>
-      <c r="G61" s="86"/>
-      <c r="H61" s="86"/>
-      <c r="I61" s="87"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B63" s="74" t="s">
+      <c r="G61" s="84"/>
+      <c r="H61" s="84"/>
+      <c r="I61" s="85"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="74"/>
-      <c r="D63" s="74"/>
-      <c r="E63" s="74"/>
-      <c r="F63" s="74"/>
-      <c r="G63" s="74"/>
-      <c r="H63" s="74"/>
-      <c r="I63" s="74"/>
-    </row>
-    <row r="64" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B65" s="67" t="s">
+      <c r="C63" s="58"/>
+      <c r="D63" s="58"/>
+      <c r="E63" s="58"/>
+      <c r="F63" s="58"/>
+      <c r="G63" s="58"/>
+      <c r="H63" s="58"/>
+      <c r="I63" s="58"/>
+    </row>
+    <row r="64" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B65" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="C65" s="68"/>
-      <c r="D65" s="68"/>
-      <c r="E65" s="68"/>
-      <c r="F65" s="68"/>
-      <c r="G65" s="71" t="s">
+      <c r="C65" s="72"/>
+      <c r="D65" s="72"/>
+      <c r="E65" s="72"/>
+      <c r="F65" s="72"/>
+      <c r="G65" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="H65" s="71"/>
-      <c r="I65" s="72"/>
-    </row>
-    <row r="66" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="69"/>
-      <c r="C66" s="70"/>
-      <c r="D66" s="70"/>
-      <c r="E66" s="70"/>
-      <c r="F66" s="70"/>
-      <c r="G66" s="73" t="s">
+      <c r="H65" s="75"/>
+      <c r="I65" s="76"/>
+    </row>
+    <row r="66" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="73"/>
+      <c r="C66" s="74"/>
+      <c r="D66" s="74"/>
+      <c r="E66" s="74"/>
+      <c r="F66" s="74"/>
+      <c r="G66" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="H66" s="73"/>
+      <c r="H66" s="77"/>
       <c r="I66" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="80"/>
-      <c r="C67" s="81"/>
-      <c r="D67" s="81"/>
-      <c r="E67" s="81"/>
-      <c r="F67" s="81"/>
-      <c r="G67" s="81"/>
-      <c r="H67" s="81"/>
-      <c r="I67" s="25"/>
-    </row>
-    <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="82"/>
-      <c r="C68" s="55"/>
-      <c r="D68" s="55"/>
-      <c r="E68" s="55"/>
-      <c r="F68" s="55"/>
-      <c r="G68" s="55"/>
-      <c r="H68" s="55"/>
-      <c r="I68" s="26"/>
-    </row>
-    <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="82"/>
-      <c r="C69" s="55"/>
-      <c r="D69" s="55"/>
-      <c r="E69" s="55"/>
-      <c r="F69" s="55"/>
-      <c r="G69" s="55"/>
-      <c r="H69" s="55"/>
-      <c r="I69" s="26"/>
-    </row>
-    <row r="70" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="85"/>
-      <c r="C70" s="86"/>
-      <c r="D70" s="86"/>
-      <c r="E70" s="86"/>
-      <c r="F70" s="86"/>
-      <c r="G70" s="86"/>
-      <c r="H70" s="86"/>
-      <c r="I70" s="27"/>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B72" s="56" t="s">
+    <row r="67" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="C67" s="79"/>
+      <c r="D67" s="79"/>
+      <c r="E67" s="79"/>
+      <c r="F67" s="79"/>
+      <c r="G67" s="79" t="s">
+        <v>34</v>
+      </c>
+      <c r="H67" s="79"/>
+      <c r="I67" s="25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="80" t="s">
+        <v>54</v>
+      </c>
+      <c r="C68" s="56"/>
+      <c r="D68" s="56"/>
+      <c r="E68" s="56"/>
+      <c r="F68" s="56"/>
+      <c r="G68" s="79" t="s">
+        <v>34</v>
+      </c>
+      <c r="H68" s="79"/>
+      <c r="I68" s="47" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="80" t="s">
+        <v>57</v>
+      </c>
+      <c r="C69" s="56"/>
+      <c r="D69" s="56"/>
+      <c r="E69" s="56"/>
+      <c r="F69" s="56"/>
+      <c r="G69" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="H69" s="56"/>
+      <c r="I69" s="47" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="83" t="s">
+        <v>58</v>
+      </c>
+      <c r="C70" s="84"/>
+      <c r="D70" s="84"/>
+      <c r="E70" s="84"/>
+      <c r="F70" s="84"/>
+      <c r="G70" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="H70" s="84"/>
+      <c r="I70" s="47" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B72" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="C72" s="56"/>
-      <c r="D72" s="56"/>
-      <c r="E72" s="56"/>
-      <c r="F72" s="56"/>
-      <c r="G72" s="56"/>
-      <c r="H72" s="56"/>
-      <c r="I72" s="56"/>
-    </row>
-    <row r="73" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B74" s="57"/>
-      <c r="C74" s="58"/>
-      <c r="D74" s="58"/>
-      <c r="E74" s="58"/>
-      <c r="F74" s="58"/>
-      <c r="G74" s="58"/>
-      <c r="H74" s="58"/>
-      <c r="I74" s="59"/>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B75" s="60"/>
-      <c r="C75" s="61"/>
-      <c r="D75" s="61"/>
-      <c r="E75" s="61"/>
-      <c r="F75" s="61"/>
-      <c r="G75" s="61"/>
-      <c r="H75" s="61"/>
-      <c r="I75" s="62"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B76" s="60"/>
-      <c r="C76" s="61"/>
-      <c r="D76" s="61"/>
-      <c r="E76" s="61"/>
-      <c r="F76" s="61"/>
-      <c r="G76" s="61"/>
-      <c r="H76" s="61"/>
-      <c r="I76" s="62"/>
-    </row>
-    <row r="77" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="63"/>
-      <c r="C77" s="64"/>
-      <c r="D77" s="64"/>
-      <c r="E77" s="64"/>
-      <c r="F77" s="64"/>
-      <c r="G77" s="64"/>
-      <c r="H77" s="64"/>
-      <c r="I77" s="65"/>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G79" s="66" t="s">
+      <c r="C72" s="94"/>
+      <c r="D72" s="94"/>
+      <c r="E72" s="94"/>
+      <c r="F72" s="94"/>
+      <c r="G72" s="94"/>
+      <c r="H72" s="94"/>
+      <c r="I72" s="94"/>
+    </row>
+    <row r="73" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B74" s="95" t="s">
+        <v>59</v>
+      </c>
+      <c r="C74" s="96"/>
+      <c r="D74" s="96"/>
+      <c r="E74" s="96"/>
+      <c r="F74" s="96"/>
+      <c r="G74" s="96"/>
+      <c r="H74" s="96"/>
+      <c r="I74" s="97"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B75" s="59"/>
+      <c r="C75" s="60"/>
+      <c r="D75" s="60"/>
+      <c r="E75" s="60"/>
+      <c r="F75" s="60"/>
+      <c r="G75" s="60"/>
+      <c r="H75" s="60"/>
+      <c r="I75" s="63"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="59"/>
+      <c r="C76" s="60"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="60"/>
+      <c r="F76" s="60"/>
+      <c r="G76" s="60"/>
+      <c r="H76" s="60"/>
+      <c r="I76" s="63"/>
+    </row>
+    <row r="77" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="68"/>
+      <c r="C77" s="69"/>
+      <c r="D77" s="69"/>
+      <c r="E77" s="69"/>
+      <c r="F77" s="69"/>
+      <c r="G77" s="69"/>
+      <c r="H77" s="69"/>
+      <c r="I77" s="70"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G79" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="H79" s="66"/>
+      <c r="H79" s="54"/>
       <c r="I79" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
@@ -11619,68 +11671,68 @@
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B82" s="47" t="str">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B82" s="86" t="str">
         <f>IF(D10=0,"Assinatura do(a) Orientador(a)",D10)</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="C82" s="47"/>
-      <c r="D82" s="47"/>
-      <c r="F82" s="48" t="s">
+      <c r="C82" s="86"/>
+      <c r="D82" s="86"/>
+      <c r="F82" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="G82" s="48"/>
-      <c r="H82" s="48"/>
-      <c r="I82" s="48"/>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G82" s="87"/>
+      <c r="H82" s="87"/>
+      <c r="I82" s="87"/>
+    </row>
+    <row r="84" spans="2:10" ht="15.75" x14ac:dyDescent="0.3">
       <c r="J84" s="23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C96" s="4"/>
-      <c r="D96" s="48"/>
-      <c r="E96" s="48"/>
-      <c r="F96" s="48"/>
+      <c r="D96" s="87"/>
+      <c r="E96" s="87"/>
+      <c r="F96" s="87"/>
       <c r="G96" s="4"/>
     </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
     </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
     </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
@@ -11689,9 +11741,45 @@
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="B19:D33 G19:I33 B67:I70 B74 B38:D61 G38:I61" name="Intervalo1"/>
+    <protectedRange sqref="B19:D33 G19:I33 B74 B56:D61 G38:I61 B67:I70" name="Intervalo1"/>
+    <protectedRange sqref="B38:D55" name="Intervalo1_1"/>
   </protectedRanges>
   <mergeCells count="51">
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="F82:I82"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="B72:I72"/>
+    <mergeCell ref="B74:I77"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="B65:F66"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="B38:D43"/>
+    <mergeCell ref="G38:I43"/>
+    <mergeCell ref="B50:D55"/>
+    <mergeCell ref="G50:I55"/>
+    <mergeCell ref="B56:D61"/>
+    <mergeCell ref="G56:I61"/>
+    <mergeCell ref="B63:I63"/>
+    <mergeCell ref="B44:D49"/>
+    <mergeCell ref="G44:I49"/>
+    <mergeCell ref="B19:D23"/>
+    <mergeCell ref="G19:I23"/>
+    <mergeCell ref="B24:D28"/>
+    <mergeCell ref="G24:I28"/>
+    <mergeCell ref="B29:D33"/>
+    <mergeCell ref="G29:I33"/>
     <mergeCell ref="D96:F96"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="E18:F18"/>
@@ -11708,41 +11796,6 @@
     <mergeCell ref="C14:F14"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B19:D23"/>
-    <mergeCell ref="G19:I23"/>
-    <mergeCell ref="B24:D28"/>
-    <mergeCell ref="G24:I28"/>
-    <mergeCell ref="B29:D33"/>
-    <mergeCell ref="G29:I33"/>
-    <mergeCell ref="B65:F66"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="B38:D43"/>
-    <mergeCell ref="G38:I43"/>
-    <mergeCell ref="B50:D55"/>
-    <mergeCell ref="G50:I55"/>
-    <mergeCell ref="B56:D61"/>
-    <mergeCell ref="G56:I61"/>
-    <mergeCell ref="B63:I63"/>
-    <mergeCell ref="B44:D49"/>
-    <mergeCell ref="G44:I49"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="F82:I82"/>
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="B72:I72"/>
-    <mergeCell ref="B74:I77"/>
-    <mergeCell ref="G79:H79"/>
   </mergeCells>
   <conditionalFormatting sqref="B7:I15">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
@@ -11778,13 +11831,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>121920</xdr:rowOff>
+                    <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11800,13 +11853,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>160020</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11826,9 +11879,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11848,9 +11901,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>30</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11864,15 +11917,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>45720</xdr:colOff>
+                    <xdr:colOff>47625</xdr:colOff>
                     <xdr:row>29</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>22860</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11886,15 +11939,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>45720</xdr:colOff>
+                    <xdr:colOff>47625</xdr:colOff>
                     <xdr:row>30</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>32</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11910,13 +11963,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>23</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>25</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11936,7 +11989,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>26</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -11954,13 +12007,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>25</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>27</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11980,7 +12033,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>39</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -12002,7 +12055,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>40</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -12020,13 +12073,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>39</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>41</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12046,9 +12099,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>42</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12064,13 +12117,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>49</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>51</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12090,7 +12143,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>52</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -12108,13 +12161,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>51</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>53</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12134,9 +12187,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>54</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12152,13 +12205,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>55</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>57</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12178,7 +12231,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>58</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -12196,13 +12249,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>57</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>59</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12222,9 +12275,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>60</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12240,13 +12293,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>43</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>45</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12266,7 +12319,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>46</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -12284,13 +12337,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>45</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>47</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12310,9 +12363,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>48</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12326,7 +12379,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
@@ -12336,33 +12389,33 @@
       <selection activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="4.44140625" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" customWidth="1"/>
-    <col min="8" max="8" width="3.5546875" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="94" t="s">
+    <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-    </row>
-    <row r="6" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+    </row>
+    <row r="6" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -12372,7 +12425,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>38</v>
       </c>
@@ -12384,317 +12437,317 @@
       <c r="H7" s="36"/>
       <c r="I7" s="36"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="106" t="str">
+      <c r="C8" s="107" t="str">
         <f>'2º Sem - Setembro'!C8:I8</f>
         <v>Otimização de processos e gestão de refeitórios com Machine Learning</v>
       </c>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="106" t="str">
+      <c r="C9" s="107" t="str">
         <f>'2º Sem - Setembro'!C9:I9</f>
         <v>Engenharia da Computação</v>
       </c>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="107"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="106" t="str">
+      <c r="D10" s="107" t="str">
         <f>'2º Sem - Setembro'!D10:I10</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-    </row>
-    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="107"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="107"/>
+    </row>
+    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="92" t="str">
+      <c r="C12" s="66" t="str">
         <f>'2º Sem - Setembro'!C12:F12</f>
         <v>Igor Martins Ferreira</v>
       </c>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
       <c r="G12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="98"/>
-      <c r="I12" s="99"/>
-    </row>
-    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="99"/>
+      <c r="I12" s="100"/>
+    </row>
+    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="61" t="str">
+      <c r="C13" s="60" t="str">
         <f>'2º Sem - Setembro'!C13:F13</f>
         <v>Lucas Silva Sousa</v>
       </c>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
       <c r="G13" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="101"/>
-      <c r="I13" s="102"/>
-    </row>
-    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="102"/>
+      <c r="I13" s="103"/>
+    </row>
+    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="61" t="str">
+      <c r="C14" s="60" t="str">
         <f>'2º Sem - Setembro'!C13:F13</f>
         <v>Lucas Silva Sousa</v>
       </c>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
       <c r="G14" s="21" t="s">
         <v>6</v>
       </c>
       <c r="H14" s="29"/>
       <c r="I14" s="30"/>
     </row>
-    <row r="15" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="89" t="str">
+      <c r="C15" s="62" t="str">
         <f>'2º Sem - Setembro'!C14:F14</f>
         <v>Renan Dias de Oliveira</v>
       </c>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
       <c r="G15" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="104"/>
-      <c r="I15" s="105"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="74" t="s">
+      <c r="H15" s="105"/>
+      <c r="I15" s="106"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74"/>
-    </row>
-    <row r="18" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="75" t="s">
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+    </row>
+    <row r="18" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="77" t="s">
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="78"/>
-      <c r="G19" s="76" t="s">
+      <c r="F19" s="51"/>
+      <c r="G19" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="76"/>
-      <c r="I19" s="79"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="60"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="52"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="59"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
       <c r="E20" s="14"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="62"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="60"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="63"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="59"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="62"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="60"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="63"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="59"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="62"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="60"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="63"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="59"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
       <c r="E23" s="8"/>
       <c r="F23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="62"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="88"/>
-      <c r="C24" s="89"/>
-      <c r="D24" s="89"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="63"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="61"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="90"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="91"/>
-      <c r="C25" s="92"/>
-      <c r="D25" s="92"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="64"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="65"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="92"/>
-      <c r="I25" s="93"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="60"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="67"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="59"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="62"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="60"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="63"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="59"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="62"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="60"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="63"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="59"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
       <c r="E28" s="8"/>
       <c r="F28" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="62"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="88"/>
-      <c r="C29" s="89"/>
-      <c r="D29" s="89"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="63"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="61"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="89"/>
-      <c r="H29" s="89"/>
-      <c r="I29" s="90"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="60"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="64"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="59"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="62"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="60"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="63"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="59"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="62"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="60"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="63"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="59"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
       <c r="E32" s="8"/>
       <c r="F32" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="62"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="60"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="63"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="59"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
       <c r="E33" s="8"/>
       <c r="F33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="62"/>
-    </row>
-    <row r="34" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="63"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="63"/>
+    </row>
+    <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="68"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="69"/>
       <c r="E34" s="17"/>
       <c r="F34" s="18"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="64"/>
-      <c r="I34" s="65"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G34" s="69"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="70"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -12704,19 +12757,19 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="74" t="s">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="74"/>
-      <c r="D36" s="74"/>
-      <c r="E36" s="74"/>
-      <c r="F36" s="74"/>
-      <c r="G36" s="74"/>
-      <c r="H36" s="74"/>
-      <c r="I36" s="74"/>
-    </row>
-    <row r="37" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="58"/>
+    </row>
+    <row r="37" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
@@ -12726,438 +12779,438 @@
       <c r="H37" s="16"/>
       <c r="I37" s="16"/>
     </row>
-    <row r="38" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="75" t="s">
+    <row r="38" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="76"/>
-      <c r="D38" s="76"/>
-      <c r="E38" s="77" t="s">
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="78"/>
-      <c r="G38" s="76" t="s">
+      <c r="F38" s="51"/>
+      <c r="G38" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="76"/>
-      <c r="I38" s="79"/>
-    </row>
-    <row r="39" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="80"/>
-      <c r="C39" s="81"/>
-      <c r="D39" s="81"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="52"/>
+    </row>
+    <row r="39" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="78"/>
+      <c r="C39" s="79"/>
+      <c r="D39" s="79"/>
       <c r="E39" s="14"/>
       <c r="F39" s="15"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="81"/>
-      <c r="I39" s="83"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="82"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="55"/>
+      <c r="G39" s="79"/>
+      <c r="H39" s="79"/>
+      <c r="I39" s="81"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="80"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="56"/>
       <c r="E40" s="8"/>
       <c r="F40" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="55"/>
-      <c r="H40" s="55"/>
-      <c r="I40" s="84"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="82"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="55"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="56"/>
+      <c r="I40" s="82"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="80"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="56"/>
       <c r="E41" s="8"/>
       <c r="F41" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="55"/>
-      <c r="H41" s="55"/>
-      <c r="I41" s="84"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="82"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="55"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="56"/>
+      <c r="I41" s="82"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="80"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="56"/>
       <c r="E42" s="8"/>
       <c r="F42" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="55"/>
-      <c r="H42" s="55"/>
-      <c r="I42" s="84"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="82"/>
-      <c r="C43" s="55"/>
-      <c r="D43" s="55"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="56"/>
+      <c r="I42" s="82"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="80"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="56"/>
       <c r="E43" s="8"/>
       <c r="F43" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G43" s="55"/>
-      <c r="H43" s="55"/>
-      <c r="I43" s="84"/>
-    </row>
-    <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="82"/>
-      <c r="C44" s="55"/>
-      <c r="D44" s="55"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="56"/>
+      <c r="I43" s="82"/>
+    </row>
+    <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="80"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="56"/>
       <c r="E44" s="10"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="55"/>
-      <c r="H44" s="55"/>
-      <c r="I44" s="84"/>
-    </row>
-    <row r="45" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="82"/>
-      <c r="C45" s="55"/>
-      <c r="D45" s="55"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="56"/>
+      <c r="I44" s="82"/>
+    </row>
+    <row r="45" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="80"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="56"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="55"/>
-      <c r="H45" s="55"/>
-      <c r="I45" s="84"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="82"/>
-      <c r="C46" s="55"/>
-      <c r="D46" s="55"/>
+      <c r="G45" s="56"/>
+      <c r="H45" s="56"/>
+      <c r="I45" s="82"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="80"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="56"/>
       <c r="E46" s="8"/>
       <c r="F46" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="55"/>
-      <c r="H46" s="55"/>
-      <c r="I46" s="84"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="82"/>
-      <c r="C47" s="55"/>
-      <c r="D47" s="55"/>
+      <c r="G46" s="56"/>
+      <c r="H46" s="56"/>
+      <c r="I46" s="82"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="80"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="56"/>
       <c r="E47" s="8"/>
       <c r="F47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="55"/>
-      <c r="H47" s="55"/>
-      <c r="I47" s="84"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="82"/>
-      <c r="C48" s="55"/>
-      <c r="D48" s="55"/>
+      <c r="G47" s="56"/>
+      <c r="H47" s="56"/>
+      <c r="I47" s="82"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="80"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="56"/>
       <c r="E48" s="8"/>
       <c r="F48" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G48" s="55"/>
-      <c r="H48" s="55"/>
-      <c r="I48" s="84"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="82"/>
-      <c r="C49" s="55"/>
-      <c r="D49" s="55"/>
+      <c r="G48" s="56"/>
+      <c r="H48" s="56"/>
+      <c r="I48" s="82"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="80"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="56"/>
       <c r="E49" s="8"/>
       <c r="F49" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G49" s="55"/>
-      <c r="H49" s="55"/>
-      <c r="I49" s="84"/>
-    </row>
-    <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="82"/>
-      <c r="C50" s="55"/>
-      <c r="D50" s="55"/>
+      <c r="G49" s="56"/>
+      <c r="H49" s="56"/>
+      <c r="I49" s="82"/>
+    </row>
+    <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="80"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="56"/>
       <c r="E50" s="10"/>
       <c r="F50" s="11"/>
-      <c r="G50" s="55"/>
-      <c r="H50" s="55"/>
-      <c r="I50" s="84"/>
-    </row>
-    <row r="51" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="82"/>
-      <c r="C51" s="55"/>
-      <c r="D51" s="55"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="56"/>
+      <c r="I50" s="82"/>
+    </row>
+    <row r="51" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="80"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="56"/>
       <c r="E51" s="6"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="55"/>
-      <c r="H51" s="55"/>
-      <c r="I51" s="84"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="82"/>
-      <c r="C52" s="55"/>
-      <c r="D52" s="55"/>
+      <c r="G51" s="56"/>
+      <c r="H51" s="56"/>
+      <c r="I51" s="82"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="80"/>
+      <c r="C52" s="56"/>
+      <c r="D52" s="56"/>
       <c r="E52" s="8"/>
       <c r="F52" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G52" s="55"/>
-      <c r="H52" s="55"/>
-      <c r="I52" s="84"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B53" s="82"/>
-      <c r="C53" s="55"/>
-      <c r="D53" s="55"/>
+      <c r="G52" s="56"/>
+      <c r="H52" s="56"/>
+      <c r="I52" s="82"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="80"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="56"/>
       <c r="E53" s="8"/>
       <c r="F53" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="55"/>
-      <c r="H53" s="55"/>
-      <c r="I53" s="84"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="82"/>
-      <c r="C54" s="55"/>
-      <c r="D54" s="55"/>
+      <c r="G53" s="56"/>
+      <c r="H53" s="56"/>
+      <c r="I53" s="82"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="80"/>
+      <c r="C54" s="56"/>
+      <c r="D54" s="56"/>
       <c r="E54" s="8"/>
       <c r="F54" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G54" s="55"/>
-      <c r="H54" s="55"/>
-      <c r="I54" s="84"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B55" s="82"/>
-      <c r="C55" s="55"/>
-      <c r="D55" s="55"/>
+      <c r="G54" s="56"/>
+      <c r="H54" s="56"/>
+      <c r="I54" s="82"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="80"/>
+      <c r="C55" s="56"/>
+      <c r="D55" s="56"/>
       <c r="E55" s="8"/>
       <c r="F55" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G55" s="55"/>
-      <c r="H55" s="55"/>
-      <c r="I55" s="84"/>
-    </row>
-    <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="82"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="55"/>
+      <c r="G55" s="56"/>
+      <c r="H55" s="56"/>
+      <c r="I55" s="82"/>
+    </row>
+    <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="80"/>
+      <c r="C56" s="56"/>
+      <c r="D56" s="56"/>
       <c r="E56" s="10"/>
       <c r="F56" s="11"/>
-      <c r="G56" s="55"/>
-      <c r="H56" s="55"/>
-      <c r="I56" s="84"/>
-    </row>
-    <row r="57" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="82"/>
-      <c r="C57" s="55"/>
-      <c r="D57" s="55"/>
+      <c r="G56" s="56"/>
+      <c r="H56" s="56"/>
+      <c r="I56" s="82"/>
+    </row>
+    <row r="57" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="80"/>
+      <c r="C57" s="56"/>
+      <c r="D57" s="56"/>
       <c r="E57" s="6"/>
       <c r="F57" s="7"/>
-      <c r="G57" s="55"/>
-      <c r="H57" s="55"/>
-      <c r="I57" s="84"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B58" s="82"/>
-      <c r="C58" s="55"/>
-      <c r="D58" s="55"/>
+      <c r="G57" s="56"/>
+      <c r="H57" s="56"/>
+      <c r="I57" s="82"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="80"/>
+      <c r="C58" s="56"/>
+      <c r="D58" s="56"/>
       <c r="E58" s="8"/>
       <c r="F58" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="55"/>
-      <c r="H58" s="55"/>
-      <c r="I58" s="84"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B59" s="82"/>
-      <c r="C59" s="55"/>
-      <c r="D59" s="55"/>
+      <c r="G58" s="56"/>
+      <c r="H58" s="56"/>
+      <c r="I58" s="82"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="80"/>
+      <c r="C59" s="56"/>
+      <c r="D59" s="56"/>
       <c r="E59" s="8"/>
       <c r="F59" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G59" s="55"/>
-      <c r="H59" s="55"/>
-      <c r="I59" s="84"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="82"/>
-      <c r="C60" s="55"/>
-      <c r="D60" s="55"/>
+      <c r="G59" s="56"/>
+      <c r="H59" s="56"/>
+      <c r="I59" s="82"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="80"/>
+      <c r="C60" s="56"/>
+      <c r="D60" s="56"/>
       <c r="E60" s="8"/>
       <c r="F60" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G60" s="55"/>
-      <c r="H60" s="55"/>
-      <c r="I60" s="84"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="82"/>
-      <c r="C61" s="55"/>
-      <c r="D61" s="55"/>
+      <c r="G60" s="56"/>
+      <c r="H60" s="56"/>
+      <c r="I60" s="82"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="80"/>
+      <c r="C61" s="56"/>
+      <c r="D61" s="56"/>
       <c r="E61" s="8"/>
       <c r="F61" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G61" s="55"/>
-      <c r="H61" s="55"/>
-      <c r="I61" s="84"/>
-    </row>
-    <row r="62" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="85"/>
-      <c r="C62" s="86"/>
-      <c r="D62" s="86"/>
+      <c r="G61" s="56"/>
+      <c r="H61" s="56"/>
+      <c r="I61" s="82"/>
+    </row>
+    <row r="62" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="83"/>
+      <c r="C62" s="84"/>
+      <c r="D62" s="84"/>
       <c r="E62" s="17"/>
       <c r="F62" s="18"/>
-      <c r="G62" s="86"/>
-      <c r="H62" s="86"/>
-      <c r="I62" s="87"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B64" s="74" t="s">
+      <c r="G62" s="84"/>
+      <c r="H62" s="84"/>
+      <c r="I62" s="85"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="74"/>
-      <c r="D64" s="74"/>
-      <c r="E64" s="74"/>
-      <c r="F64" s="74"/>
-      <c r="G64" s="74"/>
-      <c r="H64" s="74"/>
-      <c r="I64" s="74"/>
-    </row>
-    <row r="65" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="67" t="s">
+      <c r="C64" s="58"/>
+      <c r="D64" s="58"/>
+      <c r="E64" s="58"/>
+      <c r="F64" s="58"/>
+      <c r="G64" s="58"/>
+      <c r="H64" s="58"/>
+      <c r="I64" s="58"/>
+    </row>
+    <row r="65" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="68"/>
-      <c r="D66" s="68"/>
-      <c r="E66" s="68"/>
-      <c r="F66" s="68"/>
-      <c r="G66" s="71" t="s">
+      <c r="C66" s="72"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="72"/>
+      <c r="F66" s="72"/>
+      <c r="G66" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="H66" s="71"/>
-      <c r="I66" s="72"/>
-    </row>
-    <row r="67" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="69"/>
-      <c r="C67" s="70"/>
-      <c r="D67" s="70"/>
-      <c r="E67" s="70"/>
-      <c r="F67" s="70"/>
-      <c r="G67" s="73" t="s">
+      <c r="H66" s="75"/>
+      <c r="I66" s="76"/>
+    </row>
+    <row r="67" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="73"/>
+      <c r="C67" s="74"/>
+      <c r="D67" s="74"/>
+      <c r="E67" s="74"/>
+      <c r="F67" s="74"/>
+      <c r="G67" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="H67" s="73"/>
+      <c r="H67" s="77"/>
       <c r="I67" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="80"/>
-      <c r="C68" s="81"/>
-      <c r="D68" s="81"/>
-      <c r="E68" s="81"/>
-      <c r="F68" s="81"/>
-      <c r="G68" s="81"/>
-      <c r="H68" s="81"/>
+    <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="78"/>
+      <c r="C68" s="79"/>
+      <c r="D68" s="79"/>
+      <c r="E68" s="79"/>
+      <c r="F68" s="79"/>
+      <c r="G68" s="79"/>
+      <c r="H68" s="79"/>
       <c r="I68" s="25"/>
     </row>
-    <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="82"/>
-      <c r="C69" s="55"/>
-      <c r="D69" s="55"/>
-      <c r="E69" s="55"/>
-      <c r="F69" s="55"/>
-      <c r="G69" s="55"/>
-      <c r="H69" s="55"/>
+    <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="80"/>
+      <c r="C69" s="56"/>
+      <c r="D69" s="56"/>
+      <c r="E69" s="56"/>
+      <c r="F69" s="56"/>
+      <c r="G69" s="56"/>
+      <c r="H69" s="56"/>
       <c r="I69" s="26"/>
     </row>
-    <row r="70" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="82"/>
-      <c r="C70" s="55"/>
-      <c r="D70" s="55"/>
-      <c r="E70" s="55"/>
-      <c r="F70" s="55"/>
-      <c r="G70" s="55"/>
-      <c r="H70" s="55"/>
+    <row r="70" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="80"/>
+      <c r="C70" s="56"/>
+      <c r="D70" s="56"/>
+      <c r="E70" s="56"/>
+      <c r="F70" s="56"/>
+      <c r="G70" s="56"/>
+      <c r="H70" s="56"/>
       <c r="I70" s="26"/>
     </row>
-    <row r="71" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="85"/>
-      <c r="C71" s="86"/>
-      <c r="D71" s="86"/>
-      <c r="E71" s="86"/>
-      <c r="F71" s="86"/>
-      <c r="G71" s="86"/>
-      <c r="H71" s="86"/>
+    <row r="71" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="83"/>
+      <c r="C71" s="84"/>
+      <c r="D71" s="84"/>
+      <c r="E71" s="84"/>
+      <c r="F71" s="84"/>
+      <c r="G71" s="84"/>
+      <c r="H71" s="84"/>
       <c r="I71" s="27"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B73" s="56" t="s">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B73" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="56"/>
-      <c r="D73" s="56"/>
-      <c r="E73" s="56"/>
-      <c r="F73" s="56"/>
-      <c r="G73" s="56"/>
-      <c r="H73" s="56"/>
-      <c r="I73" s="56"/>
-    </row>
-    <row r="74" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B75" s="57"/>
-      <c r="C75" s="58"/>
-      <c r="D75" s="58"/>
-      <c r="E75" s="58"/>
-      <c r="F75" s="58"/>
-      <c r="G75" s="58"/>
-      <c r="H75" s="58"/>
-      <c r="I75" s="59"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B76" s="60"/>
-      <c r="C76" s="61"/>
-      <c r="D76" s="61"/>
-      <c r="E76" s="61"/>
-      <c r="F76" s="61"/>
-      <c r="G76" s="61"/>
-      <c r="H76" s="61"/>
-      <c r="I76" s="62"/>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B77" s="60"/>
-      <c r="C77" s="61"/>
-      <c r="D77" s="61"/>
-      <c r="E77" s="61"/>
-      <c r="F77" s="61"/>
-      <c r="G77" s="61"/>
-      <c r="H77" s="61"/>
-      <c r="I77" s="62"/>
-    </row>
-    <row r="78" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="63"/>
-      <c r="C78" s="64"/>
-      <c r="D78" s="64"/>
-      <c r="E78" s="64"/>
-      <c r="F78" s="64"/>
-      <c r="G78" s="64"/>
-      <c r="H78" s="64"/>
-      <c r="I78" s="65"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G80" s="66" t="s">
+      <c r="C73" s="94"/>
+      <c r="D73" s="94"/>
+      <c r="E73" s="94"/>
+      <c r="F73" s="94"/>
+      <c r="G73" s="94"/>
+      <c r="H73" s="94"/>
+      <c r="I73" s="94"/>
+    </row>
+    <row r="74" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B75" s="95"/>
+      <c r="C75" s="96"/>
+      <c r="D75" s="96"/>
+      <c r="E75" s="96"/>
+      <c r="F75" s="96"/>
+      <c r="G75" s="96"/>
+      <c r="H75" s="96"/>
+      <c r="I75" s="97"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="59"/>
+      <c r="C76" s="60"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="60"/>
+      <c r="F76" s="60"/>
+      <c r="G76" s="60"/>
+      <c r="H76" s="60"/>
+      <c r="I76" s="63"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B77" s="59"/>
+      <c r="C77" s="60"/>
+      <c r="D77" s="60"/>
+      <c r="E77" s="60"/>
+      <c r="F77" s="60"/>
+      <c r="G77" s="60"/>
+      <c r="H77" s="60"/>
+      <c r="I77" s="63"/>
+    </row>
+    <row r="78" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="68"/>
+      <c r="C78" s="69"/>
+      <c r="D78" s="69"/>
+      <c r="E78" s="69"/>
+      <c r="F78" s="69"/>
+      <c r="G78" s="69"/>
+      <c r="H78" s="69"/>
+      <c r="I78" s="70"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G80" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="H80" s="66"/>
+      <c r="H80" s="54"/>
       <c r="I80" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
@@ -13166,21 +13219,21 @@
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B83" s="47" t="str">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="86" t="str">
         <f>IF(D10=0,"Assinatura do(a) Orientador(a)",D10)</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="C83" s="47"/>
-      <c r="D83" s="47"/>
-      <c r="F83" s="48" t="s">
+      <c r="C83" s="86"/>
+      <c r="D83" s="86"/>
+      <c r="F83" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="G83" s="48"/>
-      <c r="H83" s="48"/>
-      <c r="I83" s="48"/>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G83" s="87"/>
+      <c r="H83" s="87"/>
+      <c r="I83" s="87"/>
+    </row>
+    <row r="85" spans="2:10" ht="15.75" x14ac:dyDescent="0.3">
       <c r="J85" s="23" t="s">
         <v>37</v>
       </c>
@@ -13190,27 +13243,19 @@
     <protectedRange sqref="B20:D34 G20:I34 B68:I71 B75 B39:D62 G39:I62" name="Intervalo1"/>
   </protectedRanges>
   <mergeCells count="50">
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="B20:D24"/>
-    <mergeCell ref="G20:I24"/>
-    <mergeCell ref="B25:D29"/>
-    <mergeCell ref="G25:I29"/>
-    <mergeCell ref="B30:D34"/>
-    <mergeCell ref="G30:I34"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="B73:I73"/>
+    <mergeCell ref="B75:I78"/>
+    <mergeCell ref="G80:H80"/>
     <mergeCell ref="B66:F67"/>
     <mergeCell ref="G66:I66"/>
     <mergeCell ref="G67:H67"/>
@@ -13227,19 +13272,27 @@
     <mergeCell ref="B64:I64"/>
     <mergeCell ref="B45:D50"/>
     <mergeCell ref="G45:I50"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="F83:I83"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="B73:I73"/>
-    <mergeCell ref="B75:I78"/>
-    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="B20:D24"/>
+    <mergeCell ref="G20:I24"/>
+    <mergeCell ref="B25:D29"/>
+    <mergeCell ref="G25:I29"/>
+    <mergeCell ref="B30:D34"/>
+    <mergeCell ref="G30:I34"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="C14:F14"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:I16 B7:C7">
     <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
@@ -13270,13 +13323,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>121920</xdr:rowOff>
+                    <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13292,13 +13345,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>160020</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13318,9 +13371,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>23</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13340,9 +13393,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13356,15 +13409,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>45720</xdr:colOff>
+                    <xdr:colOff>47625</xdr:colOff>
                     <xdr:row>30</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>22860</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>32</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13378,15 +13431,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>45720</xdr:colOff>
+                    <xdr:colOff>47625</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>33</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13402,13 +13455,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>24</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13428,7 +13481,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -13446,13 +13499,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>28</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13472,7 +13525,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>40</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -13494,7 +13547,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>41</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -13512,13 +13565,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>40</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>42</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13538,9 +13591,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>43</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13556,13 +13609,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>50</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>52</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13582,7 +13635,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>53</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -13600,13 +13653,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>52</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>54</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13626,9 +13679,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>55</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13644,13 +13697,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>56</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>58</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13670,7 +13723,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>59</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -13688,13 +13741,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>58</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>60</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13714,9 +13767,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>61</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13732,13 +13785,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>44</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>46</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13758,9 +13811,9 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>47</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13776,13 +13829,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>46</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>48</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13802,9 +13855,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>49</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13818,7 +13871,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
@@ -13828,33 +13881,33 @@
       <selection activeCell="B12" sqref="B12:I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="4.44140625" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" customWidth="1"/>
-    <col min="8" max="8" width="3.5546875" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="94" t="s">
+    <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-    </row>
-    <row r="6" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+    </row>
+    <row r="6" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="32"/>
       <c r="C6" s="32"/>
       <c r="D6" s="32"/>
@@ -13864,334 +13917,334 @@
       <c r="H6" s="32"/>
       <c r="I6" s="32"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="66" t="s">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="106" t="str">
+      <c r="C8" s="107" t="str">
         <f>'2º Sem - Setembro'!C8:I8</f>
         <v>Otimização de processos e gestão de refeitórios com Machine Learning</v>
       </c>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="106" t="str">
+      <c r="C9" s="107" t="str">
         <f>'2º Sem - Setembro'!C9:I9</f>
         <v>Engenharia da Computação</v>
       </c>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="107"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="106" t="str">
+      <c r="D10" s="107" t="str">
         <f>'2º Sem - Setembro'!D10:I10</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-    </row>
-    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="107"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="107"/>
+    </row>
+    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="92" t="s">
+      <c r="C12" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
       <c r="G12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="98">
+      <c r="H12" s="99">
         <v>82150171</v>
       </c>
-      <c r="I12" s="99"/>
-    </row>
-    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I12" s="100"/>
+    </row>
+    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
       <c r="G13" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="101">
+      <c r="H13" s="102">
         <v>82150205</v>
       </c>
-      <c r="I13" s="102"/>
-    </row>
-    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I13" s="103"/>
+    </row>
+    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="61" t="s">
+      <c r="C14" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
       <c r="G14" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="101">
+      <c r="H14" s="102">
         <v>82150320</v>
       </c>
-      <c r="I14" s="102"/>
-    </row>
-    <row r="15" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I14" s="103"/>
+    </row>
+    <row r="15" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="89" t="str">
+      <c r="C15" s="62" t="str">
         <f>'2º Sem - Setembro'!C14:F14</f>
         <v>Renan Dias de Oliveira</v>
       </c>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
       <c r="G15" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="104"/>
-      <c r="I15" s="105"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="74" t="s">
+      <c r="H15" s="105"/>
+      <c r="I15" s="106"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74"/>
-    </row>
-    <row r="18" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="75" t="s">
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+    </row>
+    <row r="18" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="77" t="s">
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="78"/>
-      <c r="G19" s="76" t="s">
+      <c r="F19" s="51"/>
+      <c r="G19" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="76"/>
-      <c r="I19" s="79"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="60"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="52"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="59"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
       <c r="E20" s="14"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="62"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="60"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="63"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="59"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="62"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="60"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="63"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="59"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="62"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="60"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="63"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="59"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
       <c r="E23" s="8"/>
       <c r="F23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="62"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="88"/>
-      <c r="C24" s="89"/>
-      <c r="D24" s="89"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="63"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="61"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="90"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="91"/>
-      <c r="C25" s="92"/>
-      <c r="D25" s="92"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="64"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="65"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="92"/>
-      <c r="I25" s="93"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="60"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="67"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="59"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="62"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="60"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="63"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="59"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="62"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="60"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="63"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="59"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
       <c r="E28" s="8"/>
       <c r="F28" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="62"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="88"/>
-      <c r="C29" s="89"/>
-      <c r="D29" s="89"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="63"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="61"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="89"/>
-      <c r="H29" s="89"/>
-      <c r="I29" s="90"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="60" t="s">
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="64"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="62"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="60"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="63"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="59"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="62"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="60"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="63"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="59"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
       <c r="E32" s="8"/>
       <c r="F32" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="62"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="60"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="63"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="59"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
       <c r="E33" s="8"/>
       <c r="F33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="62"/>
-    </row>
-    <row r="34" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="63"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="63"/>
+    </row>
+    <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="68"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="69"/>
       <c r="E34" s="17"/>
       <c r="F34" s="18"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="64"/>
-      <c r="I34" s="65"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G34" s="69"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="70"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -14201,19 +14254,19 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="74" t="s">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="74"/>
-      <c r="D36" s="74"/>
-      <c r="E36" s="74"/>
-      <c r="F36" s="74"/>
-      <c r="G36" s="74"/>
-      <c r="H36" s="74"/>
-      <c r="I36" s="74"/>
-    </row>
-    <row r="37" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="58"/>
+    </row>
+    <row r="37" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="31"/>
       <c r="C37" s="31"/>
       <c r="D37" s="31"/>
@@ -14223,444 +14276,444 @@
       <c r="H37" s="31"/>
       <c r="I37" s="31"/>
     </row>
-    <row r="38" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="75" t="s">
+    <row r="38" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="76"/>
-      <c r="D38" s="76"/>
-      <c r="E38" s="77" t="s">
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="78"/>
-      <c r="G38" s="76" t="s">
+      <c r="F38" s="51"/>
+      <c r="G38" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="76"/>
-      <c r="I38" s="79"/>
-    </row>
-    <row r="39" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="80" t="s">
+      <c r="H38" s="49"/>
+      <c r="I38" s="52"/>
+    </row>
+    <row r="39" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="81"/>
-      <c r="D39" s="81"/>
+      <c r="C39" s="79"/>
+      <c r="D39" s="79"/>
       <c r="E39" s="14"/>
       <c r="F39" s="15"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="81"/>
-      <c r="I39" s="83"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="82"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="55"/>
+      <c r="G39" s="79"/>
+      <c r="H39" s="79"/>
+      <c r="I39" s="81"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="80"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="56"/>
       <c r="E40" s="8"/>
       <c r="F40" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="55"/>
-      <c r="H40" s="55"/>
-      <c r="I40" s="84"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="82"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="55"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="56"/>
+      <c r="I40" s="82"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="80"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="56"/>
       <c r="E41" s="8"/>
       <c r="F41" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="55"/>
-      <c r="H41" s="55"/>
-      <c r="I41" s="84"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="82"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="55"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="56"/>
+      <c r="I41" s="82"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="80"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="56"/>
       <c r="E42" s="8"/>
       <c r="F42" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="55"/>
-      <c r="H42" s="55"/>
-      <c r="I42" s="84"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="82"/>
-      <c r="C43" s="55"/>
-      <c r="D43" s="55"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="56"/>
+      <c r="I42" s="82"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="80"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="56"/>
       <c r="E43" s="8"/>
       <c r="F43" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G43" s="55"/>
-      <c r="H43" s="55"/>
-      <c r="I43" s="84"/>
-    </row>
-    <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="82"/>
-      <c r="C44" s="55"/>
-      <c r="D44" s="55"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="56"/>
+      <c r="I43" s="82"/>
+    </row>
+    <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="80"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="56"/>
       <c r="E44" s="10"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="55"/>
-      <c r="H44" s="55"/>
-      <c r="I44" s="84"/>
-    </row>
-    <row r="45" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="91" t="s">
+      <c r="G44" s="56"/>
+      <c r="H44" s="56"/>
+      <c r="I44" s="82"/>
+    </row>
+    <row r="45" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="92"/>
-      <c r="D45" s="97"/>
+      <c r="C45" s="66"/>
+      <c r="D45" s="98"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="107"/>
-      <c r="H45" s="92"/>
-      <c r="I45" s="93"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="60"/>
-      <c r="C46" s="61"/>
-      <c r="D46" s="100"/>
+      <c r="G45" s="108"/>
+      <c r="H45" s="66"/>
+      <c r="I45" s="67"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="59"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="101"/>
       <c r="E46" s="8"/>
       <c r="F46" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="108"/>
-      <c r="H46" s="61"/>
-      <c r="I46" s="62"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="60"/>
-      <c r="C47" s="61"/>
-      <c r="D47" s="100"/>
+      <c r="G46" s="109"/>
+      <c r="H46" s="60"/>
+      <c r="I46" s="63"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="59"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="101"/>
       <c r="E47" s="8"/>
       <c r="F47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="108"/>
-      <c r="H47" s="61"/>
-      <c r="I47" s="62"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="60"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="100"/>
+      <c r="G47" s="109"/>
+      <c r="H47" s="60"/>
+      <c r="I47" s="63"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="59"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="101"/>
       <c r="E48" s="8"/>
       <c r="F48" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G48" s="108"/>
-      <c r="H48" s="61"/>
-      <c r="I48" s="62"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="60"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="100"/>
+      <c r="G48" s="109"/>
+      <c r="H48" s="60"/>
+      <c r="I48" s="63"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="59"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="101"/>
       <c r="E49" s="8"/>
       <c r="F49" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G49" s="108"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="62"/>
-    </row>
-    <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="88"/>
-      <c r="C50" s="89"/>
-      <c r="D50" s="103"/>
+      <c r="G49" s="109"/>
+      <c r="H49" s="60"/>
+      <c r="I49" s="63"/>
+    </row>
+    <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="61"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="104"/>
       <c r="E50" s="10"/>
       <c r="F50" s="11"/>
-      <c r="G50" s="109"/>
-      <c r="H50" s="89"/>
-      <c r="I50" s="90"/>
-    </row>
-    <row r="51" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="91" t="s">
+      <c r="G50" s="110"/>
+      <c r="H50" s="62"/>
+      <c r="I50" s="64"/>
+    </row>
+    <row r="51" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="92"/>
-      <c r="D51" s="97"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="98"/>
       <c r="E51" s="6"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="107"/>
-      <c r="H51" s="92"/>
-      <c r="I51" s="93"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="60"/>
-      <c r="C52" s="61"/>
-      <c r="D52" s="100"/>
+      <c r="G51" s="108"/>
+      <c r="H51" s="66"/>
+      <c r="I51" s="67"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="59"/>
+      <c r="C52" s="60"/>
+      <c r="D52" s="101"/>
       <c r="E52" s="8"/>
       <c r="F52" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G52" s="108"/>
-      <c r="H52" s="61"/>
-      <c r="I52" s="62"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B53" s="60"/>
-      <c r="C53" s="61"/>
-      <c r="D53" s="100"/>
+      <c r="G52" s="109"/>
+      <c r="H52" s="60"/>
+      <c r="I52" s="63"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="59"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="101"/>
       <c r="E53" s="8"/>
       <c r="F53" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="108"/>
-      <c r="H53" s="61"/>
-      <c r="I53" s="62"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="60"/>
-      <c r="C54" s="61"/>
-      <c r="D54" s="100"/>
+      <c r="G53" s="109"/>
+      <c r="H53" s="60"/>
+      <c r="I53" s="63"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="59"/>
+      <c r="C54" s="60"/>
+      <c r="D54" s="101"/>
       <c r="E54" s="8"/>
       <c r="F54" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G54" s="108"/>
-      <c r="H54" s="61"/>
-      <c r="I54" s="62"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B55" s="60"/>
-      <c r="C55" s="61"/>
-      <c r="D55" s="100"/>
+      <c r="G54" s="109"/>
+      <c r="H54" s="60"/>
+      <c r="I54" s="63"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="59"/>
+      <c r="C55" s="60"/>
+      <c r="D55" s="101"/>
       <c r="E55" s="8"/>
       <c r="F55" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G55" s="108"/>
-      <c r="H55" s="61"/>
-      <c r="I55" s="62"/>
-    </row>
-    <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="88"/>
-      <c r="C56" s="89"/>
-      <c r="D56" s="103"/>
+      <c r="G55" s="109"/>
+      <c r="H55" s="60"/>
+      <c r="I55" s="63"/>
+    </row>
+    <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="61"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="104"/>
       <c r="E56" s="10"/>
       <c r="F56" s="11"/>
-      <c r="G56" s="109"/>
-      <c r="H56" s="89"/>
-      <c r="I56" s="90"/>
-    </row>
-    <row r="57" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="82"/>
-      <c r="C57" s="55"/>
-      <c r="D57" s="55"/>
+      <c r="G56" s="110"/>
+      <c r="H56" s="62"/>
+      <c r="I56" s="64"/>
+    </row>
+    <row r="57" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="80"/>
+      <c r="C57" s="56"/>
+      <c r="D57" s="56"/>
       <c r="E57" s="6"/>
       <c r="F57" s="7"/>
-      <c r="G57" s="55"/>
-      <c r="H57" s="55"/>
-      <c r="I57" s="84"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B58" s="82"/>
-      <c r="C58" s="55"/>
-      <c r="D58" s="55"/>
+      <c r="G57" s="56"/>
+      <c r="H57" s="56"/>
+      <c r="I57" s="82"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="80"/>
+      <c r="C58" s="56"/>
+      <c r="D58" s="56"/>
       <c r="E58" s="8"/>
       <c r="F58" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="55"/>
-      <c r="H58" s="55"/>
-      <c r="I58" s="84"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B59" s="82"/>
-      <c r="C59" s="55"/>
-      <c r="D59" s="55"/>
+      <c r="G58" s="56"/>
+      <c r="H58" s="56"/>
+      <c r="I58" s="82"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="80"/>
+      <c r="C59" s="56"/>
+      <c r="D59" s="56"/>
       <c r="E59" s="8"/>
       <c r="F59" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G59" s="55"/>
-      <c r="H59" s="55"/>
-      <c r="I59" s="84"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="82"/>
-      <c r="C60" s="55"/>
-      <c r="D60" s="55"/>
+      <c r="G59" s="56"/>
+      <c r="H59" s="56"/>
+      <c r="I59" s="82"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="80"/>
+      <c r="C60" s="56"/>
+      <c r="D60" s="56"/>
       <c r="E60" s="8"/>
       <c r="F60" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G60" s="55"/>
-      <c r="H60" s="55"/>
-      <c r="I60" s="84"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="82"/>
-      <c r="C61" s="55"/>
-      <c r="D61" s="55"/>
+      <c r="G60" s="56"/>
+      <c r="H60" s="56"/>
+      <c r="I60" s="82"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="80"/>
+      <c r="C61" s="56"/>
+      <c r="D61" s="56"/>
       <c r="E61" s="8"/>
       <c r="F61" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G61" s="55"/>
-      <c r="H61" s="55"/>
-      <c r="I61" s="84"/>
-    </row>
-    <row r="62" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="85"/>
-      <c r="C62" s="86"/>
-      <c r="D62" s="86"/>
+      <c r="G61" s="56"/>
+      <c r="H61" s="56"/>
+      <c r="I61" s="82"/>
+    </row>
+    <row r="62" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="83"/>
+      <c r="C62" s="84"/>
+      <c r="D62" s="84"/>
       <c r="E62" s="17"/>
       <c r="F62" s="18"/>
-      <c r="G62" s="86"/>
-      <c r="H62" s="86"/>
-      <c r="I62" s="87"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B64" s="74" t="s">
+      <c r="G62" s="84"/>
+      <c r="H62" s="84"/>
+      <c r="I62" s="85"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="74"/>
-      <c r="D64" s="74"/>
-      <c r="E64" s="74"/>
-      <c r="F64" s="74"/>
-      <c r="G64" s="74"/>
-      <c r="H64" s="74"/>
-      <c r="I64" s="74"/>
-    </row>
-    <row r="65" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="67" t="s">
+      <c r="C64" s="58"/>
+      <c r="D64" s="58"/>
+      <c r="E64" s="58"/>
+      <c r="F64" s="58"/>
+      <c r="G64" s="58"/>
+      <c r="H64" s="58"/>
+      <c r="I64" s="58"/>
+    </row>
+    <row r="65" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="68"/>
-      <c r="D66" s="68"/>
-      <c r="E66" s="68"/>
-      <c r="F66" s="68"/>
-      <c r="G66" s="71" t="s">
+      <c r="C66" s="72"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="72"/>
+      <c r="F66" s="72"/>
+      <c r="G66" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="H66" s="71"/>
-      <c r="I66" s="72"/>
-    </row>
-    <row r="67" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="69"/>
-      <c r="C67" s="70"/>
-      <c r="D67" s="70"/>
-      <c r="E67" s="70"/>
-      <c r="F67" s="70"/>
-      <c r="G67" s="73" t="s">
+      <c r="H66" s="75"/>
+      <c r="I66" s="76"/>
+    </row>
+    <row r="67" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="73"/>
+      <c r="C67" s="74"/>
+      <c r="D67" s="74"/>
+      <c r="E67" s="74"/>
+      <c r="F67" s="74"/>
+      <c r="G67" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="H67" s="73"/>
+      <c r="H67" s="77"/>
       <c r="I67" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="80"/>
-      <c r="C68" s="81"/>
-      <c r="D68" s="81"/>
-      <c r="E68" s="81"/>
-      <c r="F68" s="81"/>
-      <c r="G68" s="81"/>
-      <c r="H68" s="81"/>
+    <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="78"/>
+      <c r="C68" s="79"/>
+      <c r="D68" s="79"/>
+      <c r="E68" s="79"/>
+      <c r="F68" s="79"/>
+      <c r="G68" s="79"/>
+      <c r="H68" s="79"/>
       <c r="I68" s="33"/>
     </row>
-    <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="82"/>
-      <c r="C69" s="55"/>
-      <c r="D69" s="55"/>
-      <c r="E69" s="55"/>
-      <c r="F69" s="55"/>
-      <c r="G69" s="55"/>
-      <c r="H69" s="55"/>
+    <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="80"/>
+      <c r="C69" s="56"/>
+      <c r="D69" s="56"/>
+      <c r="E69" s="56"/>
+      <c r="F69" s="56"/>
+      <c r="G69" s="56"/>
+      <c r="H69" s="56"/>
       <c r="I69" s="34"/>
     </row>
-    <row r="70" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="82"/>
-      <c r="C70" s="55"/>
-      <c r="D70" s="55"/>
-      <c r="E70" s="55"/>
-      <c r="F70" s="55"/>
-      <c r="G70" s="55"/>
-      <c r="H70" s="55"/>
+    <row r="70" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="80"/>
+      <c r="C70" s="56"/>
+      <c r="D70" s="56"/>
+      <c r="E70" s="56"/>
+      <c r="F70" s="56"/>
+      <c r="G70" s="56"/>
+      <c r="H70" s="56"/>
       <c r="I70" s="34"/>
     </row>
-    <row r="71" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="85"/>
-      <c r="C71" s="86"/>
-      <c r="D71" s="86"/>
-      <c r="E71" s="86"/>
-      <c r="F71" s="86"/>
-      <c r="G71" s="86"/>
-      <c r="H71" s="86"/>
+    <row r="71" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="83"/>
+      <c r="C71" s="84"/>
+      <c r="D71" s="84"/>
+      <c r="E71" s="84"/>
+      <c r="F71" s="84"/>
+      <c r="G71" s="84"/>
+      <c r="H71" s="84"/>
       <c r="I71" s="35"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B73" s="56" t="s">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B73" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="56"/>
-      <c r="D73" s="56"/>
-      <c r="E73" s="56"/>
-      <c r="F73" s="56"/>
-      <c r="G73" s="56"/>
-      <c r="H73" s="56"/>
-      <c r="I73" s="56"/>
-    </row>
-    <row r="74" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B75" s="57"/>
-      <c r="C75" s="58"/>
-      <c r="D75" s="58"/>
-      <c r="E75" s="58"/>
-      <c r="F75" s="58"/>
-      <c r="G75" s="58"/>
-      <c r="H75" s="58"/>
-      <c r="I75" s="59"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B76" s="60"/>
-      <c r="C76" s="61"/>
-      <c r="D76" s="61"/>
-      <c r="E76" s="61"/>
-      <c r="F76" s="61"/>
-      <c r="G76" s="61"/>
-      <c r="H76" s="61"/>
-      <c r="I76" s="62"/>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B77" s="60"/>
-      <c r="C77" s="61"/>
-      <c r="D77" s="61"/>
-      <c r="E77" s="61"/>
-      <c r="F77" s="61"/>
-      <c r="G77" s="61"/>
-      <c r="H77" s="61"/>
-      <c r="I77" s="62"/>
-    </row>
-    <row r="78" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="63"/>
-      <c r="C78" s="64"/>
-      <c r="D78" s="64"/>
-      <c r="E78" s="64"/>
-      <c r="F78" s="64"/>
-      <c r="G78" s="64"/>
-      <c r="H78" s="64"/>
-      <c r="I78" s="65"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G80" s="66" t="s">
+      <c r="C73" s="94"/>
+      <c r="D73" s="94"/>
+      <c r="E73" s="94"/>
+      <c r="F73" s="94"/>
+      <c r="G73" s="94"/>
+      <c r="H73" s="94"/>
+      <c r="I73" s="94"/>
+    </row>
+    <row r="74" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B75" s="95"/>
+      <c r="C75" s="96"/>
+      <c r="D75" s="96"/>
+      <c r="E75" s="96"/>
+      <c r="F75" s="96"/>
+      <c r="G75" s="96"/>
+      <c r="H75" s="96"/>
+      <c r="I75" s="97"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="59"/>
+      <c r="C76" s="60"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="60"/>
+      <c r="F76" s="60"/>
+      <c r="G76" s="60"/>
+      <c r="H76" s="60"/>
+      <c r="I76" s="63"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B77" s="59"/>
+      <c r="C77" s="60"/>
+      <c r="D77" s="60"/>
+      <c r="E77" s="60"/>
+      <c r="F77" s="60"/>
+      <c r="G77" s="60"/>
+      <c r="H77" s="60"/>
+      <c r="I77" s="63"/>
+    </row>
+    <row r="78" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="68"/>
+      <c r="C78" s="69"/>
+      <c r="D78" s="69"/>
+      <c r="E78" s="69"/>
+      <c r="F78" s="69"/>
+      <c r="G78" s="69"/>
+      <c r="H78" s="69"/>
+      <c r="I78" s="70"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G80" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="H80" s="66"/>
+      <c r="H80" s="54"/>
       <c r="I80" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
@@ -14669,21 +14722,21 @@
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B83" s="47" t="str">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="86" t="str">
         <f>IF(D10=0,"Assinatura do(a) Orientador(a)",D10)</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="C83" s="47"/>
-      <c r="D83" s="47"/>
-      <c r="F83" s="48" t="s">
+      <c r="C83" s="86"/>
+      <c r="D83" s="86"/>
+      <c r="F83" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="G83" s="48"/>
-      <c r="H83" s="48"/>
-      <c r="I83" s="48"/>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G83" s="87"/>
+      <c r="H83" s="87"/>
+      <c r="I83" s="87"/>
+    </row>
+    <row r="85" spans="2:10" ht="15.75" x14ac:dyDescent="0.3">
       <c r="J85" s="23" t="s">
         <v>37</v>
       </c>
@@ -14693,44 +14746,6 @@
     <protectedRange sqref="B20:D34 G20:I34 B68:I71 B75 B39:D62 G39:I62" name="Intervalo1"/>
   </protectedRanges>
   <mergeCells count="52">
-    <mergeCell ref="B73:I73"/>
-    <mergeCell ref="B75:I78"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="F83:I83"/>
-    <mergeCell ref="B39:D44"/>
-    <mergeCell ref="G39:I44"/>
-    <mergeCell ref="B51:D56"/>
-    <mergeCell ref="G51:I56"/>
-    <mergeCell ref="B57:D62"/>
-    <mergeCell ref="G57:I62"/>
-    <mergeCell ref="B45:D50"/>
-    <mergeCell ref="G45:I50"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="B64:I64"/>
-    <mergeCell ref="B66:F67"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B20:D24"/>
-    <mergeCell ref="G20:I24"/>
-    <mergeCell ref="B25:D29"/>
-    <mergeCell ref="G25:I29"/>
-    <mergeCell ref="B30:D34"/>
-    <mergeCell ref="G30:I34"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F38"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="B5:I5"/>
     <mergeCell ref="C8:I8"/>
@@ -14745,6 +14760,44 @@
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="B7:I7"/>
     <mergeCell ref="H14:I14"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B20:D24"/>
+    <mergeCell ref="G20:I24"/>
+    <mergeCell ref="B25:D29"/>
+    <mergeCell ref="G25:I29"/>
+    <mergeCell ref="B30:D34"/>
+    <mergeCell ref="G30:I34"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="B64:I64"/>
+    <mergeCell ref="B66:F67"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="B39:D44"/>
+    <mergeCell ref="G39:I44"/>
+    <mergeCell ref="B51:D56"/>
+    <mergeCell ref="G51:I56"/>
+    <mergeCell ref="B57:D62"/>
+    <mergeCell ref="G57:I62"/>
+    <mergeCell ref="B45:D50"/>
+    <mergeCell ref="G45:I50"/>
+    <mergeCell ref="B73:I73"/>
+    <mergeCell ref="B75:I78"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="F83:I83"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:I13 B7 B15:I16 B14:H14">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
@@ -14772,13 +14825,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>121920</xdr:rowOff>
+                    <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14794,13 +14847,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>160020</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14820,9 +14873,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>23</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14842,9 +14895,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14858,15 +14911,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>45720</xdr:colOff>
+                    <xdr:colOff>47625</xdr:colOff>
                     <xdr:row>30</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>22860</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>32</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14880,15 +14933,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>45720</xdr:colOff>
+                    <xdr:colOff>47625</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>33</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14904,13 +14957,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>24</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14930,7 +14983,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -14948,13 +15001,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>28</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14974,9 +15027,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>39</xdr:row>
-                    <xdr:rowOff>137160</xdr:rowOff>
+                    <xdr:rowOff>133350</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14996,7 +15049,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>41</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -15014,13 +15067,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>40</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>42</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15040,9 +15093,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>43</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15058,13 +15111,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>50</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>51</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15084,7 +15137,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>53</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -15102,13 +15155,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>52</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>54</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15128,9 +15181,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>55</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15146,11 +15199,11 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>56</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>57</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </to>
@@ -15172,7 +15225,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>59</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -15190,13 +15243,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>58</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>60</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15216,9 +15269,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>61</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15234,13 +15287,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>44</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>45</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15260,7 +15313,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>47</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -15278,13 +15331,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>46</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>48</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15304,9 +15357,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>49</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15320,41 +15373,41 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>35</v>
       </c>
@@ -15365,6 +15418,29 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Procedimento_x0020_Relacionado xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47"/>
+    <Processo xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47">55</Processo>
+    <C_x00f3_digo xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47">FSA - FTT18</C_x00f3_digo>
+    <Revis_x00e3_o xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47">4</Revis_x00e3_o>
+    <Diretoria_x0020_Respons_x00e1_vel xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47">2</Diretoria_x0020_Respons_x00e1_vel>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100951F864CA035244EB7F6E6B9CAD39DD8" ma:contentTypeVersion="28" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="4d3f40bcd57f6f3788c6a2039c87841b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="ce03834f-a579-4ecb-b47e-e136bae11e47" xmlns:ns3="948e1b9c-bee8-44de-8cc6-706e5b780eae" xmlns:ns4="feadaf30-646e-4180-8499-c12b20b15a5f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f3c3814524ee6e7ba98c66e9da7e66bc" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -15621,30 +15697,34 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCF4BCC7-3A0E-4F11-8315-9CA8DFA05F4F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="ce03834f-a579-4ecb-b47e-e136bae11e47"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="feadaf30-646e-4180-8499-c12b20b15a5f"/>
+    <ds:schemaRef ds:uri="948e1b9c-bee8-44de-8cc6-706e5b780eae"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Procedimento_x0020_Relacionado xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47"/>
-    <Processo xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47">55</Processo>
-    <C_x00f3_digo xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47">FSA - FTT18</C_x00f3_digo>
-    <Revis_x00e3_o xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47">4</Revis_x00e3_o>
-    <Diretoria_x0020_Respons_x00e1_vel xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47">2</Diretoria_x0020_Respons_x00e1_vel>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAF40381-23F2-4A89-8986-B9057472B1AD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DEC6A78-1548-46C1-A293-FB862F1C8C0C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15663,31 +15743,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAF40381-23F2-4A89-8986-B9057472B1AD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCF4BCC7-3A0E-4F11-8315-9CA8DFA05F4F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="ce03834f-a579-4ecb-b47e-e136bae11e47"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="feadaf30-646e-4180-8499-c12b20b15a5f"/>
-    <ds:schemaRef ds:uri="948e1b9c-bee8-44de-8cc6-706e5b780eae"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Entregas/Relatório de Acompanhamento Mensal de TCC - V05_2ºsemestre.xlsx
+++ b/Entregas/Relatório de Acompanhamento Mensal de TCC - V05_2ºsemestre.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\005614\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Dropbox\Documentos\FSARENA\TCC\SrMartis\Entregas\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8C5CC5-EE91-4B6D-AC77-BAB7408016CC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="818" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="818" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2º Sem - Agosto" sheetId="5" r:id="rId1"/>
@@ -20,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'2º Sem - Agosto'!$A$1:$J$84</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'2º Sem - Outubro'!$A$1:$J$85</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'2º Sem - Outubro'!$A$1:$J$79</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'2º Sem - Setembro'!$A$1:$J$84</definedName>
     <definedName name="Selecionar1" localSheetId="0">'2º Sem - Agosto'!$C$21</definedName>
     <definedName name="Selecionar1" localSheetId="2">'2º Sem - Outubro'!$C$22</definedName>
@@ -59,7 +60,7 @@
     <definedName name="Texto9" localSheetId="2">'2º Sem - Outubro'!$B$31</definedName>
     <definedName name="Texto9" localSheetId="1">'2º Sem - Setembro'!$B$30</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -75,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="67">
   <si>
     <t>RELATÓRIO DE ACOMPANHAMENTO MENSAL DO TCC</t>
   </si>
@@ -276,11 +277,32 @@
   <si>
     <t>A equipe fez um bom trabalaho de pesquisa relativo ao Levatamento Bilbliográfico. Em função da Semana de N2 não entregou tudo conforme planejada, dessa forma algumas entregas ficaram para Outubro</t>
   </si>
+  <si>
+    <t>Com algumas correções necessárias mas concluiram o previsto</t>
+  </si>
+  <si>
+    <t>Formalização dos Itens 2, 3, 4, 5 e 6 relativos aos itens que devem ser entregues.</t>
+  </si>
+  <si>
+    <t>Está como item 5  do documento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foi solicitado os dados </t>
+  </si>
+  <si>
+    <t>Se empenharam em fazer o relatório mas não avançaram nos estudos de IA.</t>
+  </si>
+  <si>
+    <t>Novembro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finalização de todos os entregáveis </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1085,38 +1107,44 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1124,25 +1152,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1153,6 +1163,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1173,6 +1186,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1199,41 +1230,32 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1501,7 +1523,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp51.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp52.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1521,11 +1543,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp56.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp57.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp58.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1541,7 +1563,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp60.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp61.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1557,7 +1579,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp64.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp65.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1593,7 +1615,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp72.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp73.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1795,13 +1817,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>121920</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1862,13 +1884,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1933,9 +1955,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2000,9 +2022,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2061,15 +2083,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>29</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>22860</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2128,15 +2150,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2197,13 +2219,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>25</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2268,7 +2290,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -2331,13 +2353,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>25</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2402,7 +2424,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>39</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -2469,7 +2491,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -2532,13 +2554,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>39</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>41</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2603,9 +2625,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>42</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2666,13 +2688,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>49</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>51</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2737,7 +2759,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>52</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -2800,13 +2822,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>51</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>53</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2871,9 +2893,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>54</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2934,13 +2956,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>57</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3005,7 +3027,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>58</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -3068,13 +3090,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>57</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>59</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3139,9 +3161,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>60</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3276,13 +3298,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>43</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>45</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3347,7 +3369,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>46</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -3410,13 +3432,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>45</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>47</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3481,9 +3503,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>48</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3623,13 +3645,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>121920</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3690,13 +3712,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3761,9 +3783,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3828,9 +3850,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3889,15 +3911,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>29</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>22860</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3956,15 +3978,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4025,13 +4047,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>25</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4096,7 +4118,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -4159,13 +4181,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>25</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4230,7 +4252,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>39</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -4297,7 +4319,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -4360,13 +4382,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>39</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>41</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4431,9 +4453,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>42</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4494,13 +4516,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>49</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>51</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4565,7 +4587,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>52</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -4628,13 +4650,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>51</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>53</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4699,9 +4721,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>54</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4762,13 +4784,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>57</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4833,7 +4855,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>58</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -4896,13 +4918,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>57</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>59</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4967,9 +4989,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>60</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5104,13 +5126,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>43</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>45</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5175,7 +5197,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>46</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -5238,13 +5260,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>45</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>47</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5309,9 +5331,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>48</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5451,13 +5473,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>121920</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5518,13 +5540,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5589,9 +5611,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5656,9 +5678,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5717,15 +5739,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>22860</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5784,15 +5806,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5853,13 +5875,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5924,7 +5946,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -5987,13 +6009,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6058,7 +6080,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -6125,7 +6147,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>41</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -6188,13 +6210,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>40</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>42</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6259,9 +6281,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>43</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6322,13 +6344,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>50</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>52</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6393,7 +6415,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>53</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -6456,13 +6478,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>52</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>54</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6527,9 +6549,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6590,13 +6612,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>56</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>58</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>57</xdr:row>
+          <xdr:rowOff>91440</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6656,14 +6678,14 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>57</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
+          <xdr:row>56</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>59</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>7620</xdr:colOff>
+          <xdr:row>57</xdr:row>
+          <xdr:rowOff>68580</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6723,14 +6745,14 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>58</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:row>56</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>60</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>57</xdr:row>
+          <xdr:rowOff>83820</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6790,14 +6812,14 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>59</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
+          <xdr:row>56</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>61</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>57</xdr:row>
+          <xdr:rowOff>91440</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6932,13 +6954,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>44</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>46</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7003,9 +7025,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>47</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7066,13 +7088,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>46</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>48</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7137,9 +7159,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>49</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7279,13 +7301,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>121920</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7346,13 +7368,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7417,9 +7439,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7484,9 +7506,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7545,15 +7567,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>22860</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7612,15 +7634,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7681,13 +7703,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7752,7 +7774,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -7815,13 +7837,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7886,9 +7908,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>39</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7953,7 +7975,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>41</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -8016,13 +8038,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>40</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>42</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8087,9 +8109,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>43</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8150,13 +8172,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>50</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>51</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8221,7 +8243,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>53</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -8284,13 +8306,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>52</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>54</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8355,9 +8377,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8418,11 +8440,11 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>56</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>57</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
@@ -8489,7 +8511,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>59</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -8552,13 +8574,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>58</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>60</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8623,9 +8645,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>61</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8760,13 +8782,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>44</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>45</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8831,7 +8853,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>47</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -8894,13 +8916,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>46</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>48</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8965,9 +8987,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>49</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9286,7 +9308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
@@ -9296,33 +9318,33 @@
       <selection activeCell="B38" sqref="B38:D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="4.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
-    <col min="8" max="8" width="3.5703125" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="4.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" customWidth="1"/>
+    <col min="8" max="8" width="3.5546875" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="53" t="s">
+    <row r="5" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-    </row>
-    <row r="6" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+    </row>
+    <row r="6" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -9332,64 +9354,64 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="19"/>
-      <c r="D7" s="54" t="str">
+      <c r="D7" s="67" t="str">
         <f>Plan1!B5</f>
         <v>Agosto</v>
       </c>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="96"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-    </row>
-    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+    </row>
+    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="40" t="s">
         <v>5</v>
       </c>
@@ -9402,12 +9424,12 @@
       <c r="G12" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="57">
+      <c r="H12" s="97">
         <v>82150171</v>
       </c>
-      <c r="I12" s="57"/>
-    </row>
-    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="97"/>
+    </row>
+    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="40" t="s">
         <v>5</v>
       </c>
@@ -9420,12 +9442,12 @@
       <c r="G13" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="57">
+      <c r="H13" s="97">
         <v>82150205</v>
       </c>
-      <c r="I13" s="57"/>
-    </row>
-    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I13" s="97"/>
+    </row>
+    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="40" t="s">
         <v>5</v>
       </c>
@@ -9438,221 +9460,221 @@
       <c r="G14" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="57">
+      <c r="H14" s="97">
         <v>82150320</v>
       </c>
-      <c r="I14" s="57"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I14" s="97"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
       <c r="E15" s="28"/>
       <c r="F15" s="28"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="58" t="s">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-    </row>
-    <row r="17" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="48" t="s">
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+    </row>
+    <row r="17" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="50" t="s">
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="51"/>
-      <c r="G18" s="49" t="s">
+      <c r="F18" s="79"/>
+      <c r="G18" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="49"/>
-      <c r="I18" s="52"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="59" t="s">
+      <c r="H18" s="77"/>
+      <c r="I18" s="80"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
       <c r="E19" s="14"/>
       <c r="F19" s="15"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
       <c r="I19" s="63"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="59"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="61"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
       <c r="E20" s="8"/>
       <c r="F20" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
       <c r="I20" s="63"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="59"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="61"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
       <c r="I21" s="63"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="59"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="61"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
       <c r="I22" s="63"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="61"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="89"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="90"/>
       <c r="E23" s="10"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="64"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="65" t="s">
+      <c r="G23" s="90"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="91"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
       <c r="E24" s="12"/>
       <c r="F24" s="13"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="67"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="59"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="94"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="61"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
       <c r="E25" s="8"/>
       <c r="F25" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
       <c r="I25" s="63"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="59"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="61"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
       <c r="I26" s="63"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="59"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="61"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
       <c r="I27" s="63"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="61"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="89"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="90"/>
       <c r="E28" s="10"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="64"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="59" t="s">
+      <c r="G28" s="90"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="91"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
       <c r="E29" s="8"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
       <c r="I29" s="63"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="59"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="61"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G30" s="60"/>
-      <c r="H30" s="60"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
       <c r="I30" s="63"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="59"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="61"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G31" s="60"/>
-      <c r="H31" s="60"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
       <c r="I31" s="63"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="59"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="61"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
       <c r="E32" s="8"/>
       <c r="F32" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="60"/>
-      <c r="H32" s="60"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
       <c r="I32" s="63"/>
     </row>
-    <row r="33" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="68"/>
-      <c r="C33" s="69"/>
-      <c r="D33" s="69"/>
+    <row r="33" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="64"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
       <c r="E33" s="17"/>
       <c r="F33" s="18"/>
-      <c r="G33" s="69"/>
-      <c r="H33" s="69"/>
-      <c r="I33" s="70"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="66"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -9662,19 +9684,19 @@
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="58" t="s">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="58"/>
-    </row>
-    <row r="36" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="75"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="75"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="75"/>
+      <c r="I35" s="75"/>
+    </row>
+    <row r="36" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
@@ -9684,36 +9706,36 @@
       <c r="H36" s="16"/>
       <c r="I36" s="16"/>
     </row>
-    <row r="37" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="48" t="s">
+    <row r="37" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="50" t="s">
+      <c r="C37" s="77"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="F37" s="51"/>
-      <c r="G37" s="49" t="s">
+      <c r="F37" s="79"/>
+      <c r="G37" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="H37" s="49"/>
-      <c r="I37" s="52"/>
-    </row>
-    <row r="38" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="78" t="s">
+      <c r="H37" s="77"/>
+      <c r="I37" s="80"/>
+    </row>
+    <row r="38" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="79"/>
-      <c r="D38" s="79"/>
+      <c r="C38" s="82"/>
+      <c r="D38" s="82"/>
       <c r="E38" s="14"/>
       <c r="F38" s="15"/>
-      <c r="G38" s="79"/>
-      <c r="H38" s="79"/>
-      <c r="I38" s="81"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="80"/>
+      <c r="G38" s="82"/>
+      <c r="H38" s="82"/>
+      <c r="I38" s="84"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B39" s="83"/>
       <c r="C39" s="56"/>
       <c r="D39" s="56"/>
       <c r="E39" s="8"/>
@@ -9722,10 +9744,10 @@
       </c>
       <c r="G39" s="56"/>
       <c r="H39" s="56"/>
-      <c r="I39" s="82"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="80"/>
+      <c r="I39" s="85"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B40" s="83"/>
       <c r="C40" s="56"/>
       <c r="D40" s="56"/>
       <c r="E40" s="8"/>
@@ -9734,10 +9756,10 @@
       </c>
       <c r="G40" s="56"/>
       <c r="H40" s="56"/>
-      <c r="I40" s="82"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="80"/>
+      <c r="I40" s="85"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="83"/>
       <c r="C41" s="56"/>
       <c r="D41" s="56"/>
       <c r="E41" s="8"/>
@@ -9746,10 +9768,10 @@
       </c>
       <c r="G41" s="56"/>
       <c r="H41" s="56"/>
-      <c r="I41" s="82"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="80"/>
+      <c r="I41" s="85"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="83"/>
       <c r="C42" s="56"/>
       <c r="D42" s="56"/>
       <c r="E42" s="8"/>
@@ -9758,20 +9780,20 @@
       </c>
       <c r="G42" s="56"/>
       <c r="H42" s="56"/>
-      <c r="I42" s="82"/>
-    </row>
-    <row r="43" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="80"/>
+      <c r="I42" s="85"/>
+    </row>
+    <row r="43" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="83"/>
       <c r="C43" s="56"/>
       <c r="D43" s="56"/>
       <c r="E43" s="10"/>
       <c r="F43" s="11"/>
       <c r="G43" s="56"/>
       <c r="H43" s="56"/>
-      <c r="I43" s="82"/>
-    </row>
-    <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="80" t="s">
+      <c r="I43" s="85"/>
+    </row>
+    <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="83" t="s">
         <v>41</v>
       </c>
       <c r="C44" s="56"/>
@@ -9780,10 +9802,10 @@
       <c r="F44" s="7"/>
       <c r="G44" s="56"/>
       <c r="H44" s="56"/>
-      <c r="I44" s="82"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="80"/>
+      <c r="I44" s="85"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B45" s="83"/>
       <c r="C45" s="56"/>
       <c r="D45" s="56"/>
       <c r="E45" s="8"/>
@@ -9792,10 +9814,10 @@
       </c>
       <c r="G45" s="56"/>
       <c r="H45" s="56"/>
-      <c r="I45" s="82"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="80"/>
+      <c r="I45" s="85"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B46" s="83"/>
       <c r="C46" s="56"/>
       <c r="D46" s="56"/>
       <c r="E46" s="8"/>
@@ -9804,10 +9826,10 @@
       </c>
       <c r="G46" s="56"/>
       <c r="H46" s="56"/>
-      <c r="I46" s="82"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="80"/>
+      <c r="I46" s="85"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B47" s="83"/>
       <c r="C47" s="56"/>
       <c r="D47" s="56"/>
       <c r="E47" s="8"/>
@@ -9816,10 +9838,10 @@
       </c>
       <c r="G47" s="56"/>
       <c r="H47" s="56"/>
-      <c r="I47" s="82"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="80"/>
+      <c r="I47" s="85"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B48" s="83"/>
       <c r="C48" s="56"/>
       <c r="D48" s="56"/>
       <c r="E48" s="8"/>
@@ -9828,20 +9850,20 @@
       </c>
       <c r="G48" s="56"/>
       <c r="H48" s="56"/>
-      <c r="I48" s="82"/>
-    </row>
-    <row r="49" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="80"/>
+      <c r="I48" s="85"/>
+    </row>
+    <row r="49" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="83"/>
       <c r="C49" s="56"/>
       <c r="D49" s="56"/>
       <c r="E49" s="10"/>
       <c r="F49" s="11"/>
       <c r="G49" s="56"/>
       <c r="H49" s="56"/>
-      <c r="I49" s="82"/>
-    </row>
-    <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="80" t="s">
+      <c r="I49" s="85"/>
+    </row>
+    <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="83" t="s">
         <v>45</v>
       </c>
       <c r="C50" s="56"/>
@@ -9850,10 +9872,10 @@
       <c r="F50" s="7"/>
       <c r="G50" s="56"/>
       <c r="H50" s="56"/>
-      <c r="I50" s="82"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="80"/>
+      <c r="I50" s="85"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B51" s="83"/>
       <c r="C51" s="56"/>
       <c r="D51" s="56"/>
       <c r="E51" s="8"/>
@@ -9862,10 +9884,10 @@
       </c>
       <c r="G51" s="56"/>
       <c r="H51" s="56"/>
-      <c r="I51" s="82"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="80"/>
+      <c r="I51" s="85"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B52" s="83"/>
       <c r="C52" s="56"/>
       <c r="D52" s="56"/>
       <c r="E52" s="8"/>
@@ -9874,10 +9896,10 @@
       </c>
       <c r="G52" s="56"/>
       <c r="H52" s="56"/>
-      <c r="I52" s="82"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="80"/>
+      <c r="I52" s="85"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B53" s="83"/>
       <c r="C53" s="56"/>
       <c r="D53" s="56"/>
       <c r="E53" s="8"/>
@@ -9886,10 +9908,10 @@
       </c>
       <c r="G53" s="56"/>
       <c r="H53" s="56"/>
-      <c r="I53" s="82"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="80"/>
+      <c r="I53" s="85"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B54" s="83"/>
       <c r="C54" s="56"/>
       <c r="D54" s="56"/>
       <c r="E54" s="8"/>
@@ -9898,30 +9920,30 @@
       </c>
       <c r="G54" s="56"/>
       <c r="H54" s="56"/>
-      <c r="I54" s="82"/>
-    </row>
-    <row r="55" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="80"/>
+      <c r="I54" s="85"/>
+    </row>
+    <row r="55" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="83"/>
       <c r="C55" s="56"/>
       <c r="D55" s="56"/>
       <c r="E55" s="10"/>
       <c r="F55" s="11"/>
       <c r="G55" s="56"/>
       <c r="H55" s="56"/>
-      <c r="I55" s="82"/>
-    </row>
-    <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="80"/>
+      <c r="I55" s="85"/>
+    </row>
+    <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="83"/>
       <c r="C56" s="56"/>
       <c r="D56" s="56"/>
       <c r="E56" s="6"/>
       <c r="F56" s="7"/>
       <c r="G56" s="56"/>
       <c r="H56" s="56"/>
-      <c r="I56" s="82"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="80"/>
+      <c r="I56" s="85"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B57" s="83"/>
       <c r="C57" s="56"/>
       <c r="D57" s="56"/>
       <c r="E57" s="8"/>
@@ -9930,10 +9952,10 @@
       </c>
       <c r="G57" s="56"/>
       <c r="H57" s="56"/>
-      <c r="I57" s="82"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="80"/>
+      <c r="I57" s="85"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B58" s="83"/>
       <c r="C58" s="56"/>
       <c r="D58" s="56"/>
       <c r="E58" s="8"/>
@@ -9942,10 +9964,10 @@
       </c>
       <c r="G58" s="56"/>
       <c r="H58" s="56"/>
-      <c r="I58" s="82"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="80"/>
+      <c r="I58" s="85"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B59" s="83"/>
       <c r="C59" s="56"/>
       <c r="D59" s="56"/>
       <c r="E59" s="8"/>
@@ -9954,10 +9976,10 @@
       </c>
       <c r="G59" s="56"/>
       <c r="H59" s="56"/>
-      <c r="I59" s="82"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="80"/>
+      <c r="I59" s="85"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B60" s="83"/>
       <c r="C60" s="56"/>
       <c r="D60" s="56"/>
       <c r="E60" s="8"/>
@@ -9966,67 +9988,67 @@
       </c>
       <c r="G60" s="56"/>
       <c r="H60" s="56"/>
-      <c r="I60" s="82"/>
-    </row>
-    <row r="61" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="83"/>
-      <c r="C61" s="84"/>
-      <c r="D61" s="84"/>
+      <c r="I60" s="85"/>
+    </row>
+    <row r="61" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="86"/>
+      <c r="C61" s="87"/>
+      <c r="D61" s="87"/>
       <c r="E61" s="17"/>
       <c r="F61" s="18"/>
-      <c r="G61" s="84"/>
-      <c r="H61" s="84"/>
-      <c r="I61" s="85"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="58" t="s">
+      <c r="G61" s="87"/>
+      <c r="H61" s="87"/>
+      <c r="I61" s="88"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B63" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="58"/>
-      <c r="D63" s="58"/>
-      <c r="E63" s="58"/>
-      <c r="F63" s="58"/>
-      <c r="G63" s="58"/>
-      <c r="H63" s="58"/>
-      <c r="I63" s="58"/>
-    </row>
-    <row r="64" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B65" s="71" t="s">
+      <c r="C63" s="75"/>
+      <c r="D63" s="75"/>
+      <c r="E63" s="75"/>
+      <c r="F63" s="75"/>
+      <c r="G63" s="75"/>
+      <c r="H63" s="75"/>
+      <c r="I63" s="75"/>
+    </row>
+    <row r="64" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B65" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="C65" s="72"/>
-      <c r="D65" s="72"/>
-      <c r="E65" s="72"/>
-      <c r="F65" s="72"/>
-      <c r="G65" s="75" t="s">
+      <c r="C65" s="69"/>
+      <c r="D65" s="69"/>
+      <c r="E65" s="69"/>
+      <c r="F65" s="69"/>
+      <c r="G65" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="H65" s="75"/>
-      <c r="I65" s="76"/>
-    </row>
-    <row r="66" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="73"/>
-      <c r="C66" s="74"/>
-      <c r="D66" s="74"/>
-      <c r="E66" s="74"/>
-      <c r="F66" s="74"/>
-      <c r="G66" s="77" t="s">
+      <c r="H65" s="72"/>
+      <c r="I65" s="73"/>
+    </row>
+    <row r="66" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="70"/>
+      <c r="C66" s="71"/>
+      <c r="D66" s="71"/>
+      <c r="E66" s="71"/>
+      <c r="F66" s="71"/>
+      <c r="G66" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="H66" s="77"/>
+      <c r="H66" s="74"/>
       <c r="I66" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="88" t="s">
+    <row r="67" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="C67" s="89"/>
-      <c r="D67" s="89"/>
-      <c r="E67" s="89"/>
-      <c r="F67" s="90"/>
+      <c r="C67" s="51"/>
+      <c r="D67" s="51"/>
+      <c r="E67" s="51"/>
+      <c r="F67" s="52"/>
       <c r="G67" s="44" t="s">
         <v>34</v>
       </c>
@@ -10035,14 +10057,14 @@
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="91" t="s">
+    <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="C68" s="92"/>
-      <c r="D68" s="92"/>
-      <c r="E68" s="92"/>
-      <c r="F68" s="93"/>
+      <c r="C68" s="54"/>
+      <c r="D68" s="54"/>
+      <c r="E68" s="54"/>
+      <c r="F68" s="55"/>
       <c r="G68" s="45" t="s">
         <v>34</v>
       </c>
@@ -10051,7 +10073,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="56" t="s">
         <v>53</v>
       </c>
@@ -10067,7 +10089,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="70" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B70" s="56" t="s">
         <v>54</v>
       </c>
@@ -10083,72 +10105,72 @@
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="94" t="s">
+    <row r="71" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B72" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="C72" s="94"/>
-      <c r="D72" s="94"/>
-      <c r="E72" s="94"/>
-      <c r="F72" s="94"/>
-      <c r="G72" s="94"/>
-      <c r="H72" s="94"/>
-      <c r="I72" s="94"/>
-    </row>
-    <row r="73" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="95" t="s">
+      <c r="C72" s="57"/>
+      <c r="D72" s="57"/>
+      <c r="E72" s="57"/>
+      <c r="F72" s="57"/>
+      <c r="G72" s="57"/>
+      <c r="H72" s="57"/>
+      <c r="I72" s="57"/>
+    </row>
+    <row r="73" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="74" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="C74" s="96"/>
-      <c r="D74" s="96"/>
-      <c r="E74" s="96"/>
-      <c r="F74" s="96"/>
-      <c r="G74" s="96"/>
-      <c r="H74" s="96"/>
-      <c r="I74" s="97"/>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="59"/>
-      <c r="C75" s="60"/>
-      <c r="D75" s="60"/>
-      <c r="E75" s="60"/>
-      <c r="F75" s="60"/>
-      <c r="G75" s="60"/>
-      <c r="H75" s="60"/>
+      <c r="C74" s="59"/>
+      <c r="D74" s="59"/>
+      <c r="E74" s="59"/>
+      <c r="F74" s="59"/>
+      <c r="G74" s="59"/>
+      <c r="H74" s="59"/>
+      <c r="I74" s="60"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B75" s="61"/>
+      <c r="C75" s="62"/>
+      <c r="D75" s="62"/>
+      <c r="E75" s="62"/>
+      <c r="F75" s="62"/>
+      <c r="G75" s="62"/>
+      <c r="H75" s="62"/>
       <c r="I75" s="63"/>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="59"/>
-      <c r="C76" s="60"/>
-      <c r="D76" s="60"/>
-      <c r="E76" s="60"/>
-      <c r="F76" s="60"/>
-      <c r="G76" s="60"/>
-      <c r="H76" s="60"/>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B76" s="61"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="62"/>
+      <c r="E76" s="62"/>
+      <c r="F76" s="62"/>
+      <c r="G76" s="62"/>
+      <c r="H76" s="62"/>
       <c r="I76" s="63"/>
     </row>
-    <row r="77" spans="2:9" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="68"/>
-      <c r="C77" s="69"/>
-      <c r="D77" s="69"/>
-      <c r="E77" s="69"/>
-      <c r="F77" s="69"/>
-      <c r="G77" s="69"/>
-      <c r="H77" s="69"/>
-      <c r="I77" s="70"/>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G79" s="54" t="s">
+    <row r="77" spans="2:9" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="64"/>
+      <c r="C77" s="65"/>
+      <c r="D77" s="65"/>
+      <c r="E77" s="65"/>
+      <c r="F77" s="65"/>
+      <c r="G77" s="65"/>
+      <c r="H77" s="65"/>
+      <c r="I77" s="66"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G79" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="H79" s="54"/>
+      <c r="H79" s="67"/>
       <c r="I79" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
@@ -10157,21 +10179,21 @@
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B82" s="86" t="str">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B82" s="48" t="str">
         <f>IF(D10="","Assinatura do(a) Orientador(a)",D10)</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="C82" s="86"/>
-      <c r="D82" s="86"/>
-      <c r="F82" s="87" t="s">
+      <c r="C82" s="48"/>
+      <c r="D82" s="48"/>
+      <c r="F82" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="G82" s="87"/>
-      <c r="H82" s="87"/>
-      <c r="I82" s="87"/>
-    </row>
-    <row r="84" spans="2:10" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="G82" s="49"/>
+      <c r="H82" s="49"/>
+      <c r="I82" s="49"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J84" s="23" t="s">
         <v>30</v>
       </c>
@@ -10183,15 +10205,27 @@
     <protectedRange sqref="B74:I77" name="Intervalo1_2"/>
   </protectedRanges>
   <mergeCells count="46">
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="F82:I82"/>
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="B72:I72"/>
-    <mergeCell ref="B74:I77"/>
-    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B19:D23"/>
+    <mergeCell ref="G19:I23"/>
+    <mergeCell ref="B24:D28"/>
+    <mergeCell ref="G24:I28"/>
+    <mergeCell ref="B29:D33"/>
+    <mergeCell ref="G29:I33"/>
     <mergeCell ref="B65:F66"/>
     <mergeCell ref="G65:I65"/>
     <mergeCell ref="G66:H66"/>
@@ -10208,27 +10242,15 @@
     <mergeCell ref="B63:I63"/>
     <mergeCell ref="B44:D49"/>
     <mergeCell ref="G44:I49"/>
-    <mergeCell ref="B19:D23"/>
-    <mergeCell ref="G19:I23"/>
-    <mergeCell ref="B24:D28"/>
-    <mergeCell ref="G24:I28"/>
-    <mergeCell ref="B29:D33"/>
-    <mergeCell ref="G29:I33"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="F82:I82"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="B72:I72"/>
+    <mergeCell ref="B74:I77"/>
+    <mergeCell ref="G79:H79"/>
   </mergeCells>
   <conditionalFormatting sqref="B82:D82">
     <cfRule type="expression" priority="2">
@@ -10259,13 +10281,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
+                    <xdr:rowOff>121920</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10281,13 +10303,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10307,9 +10329,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10329,9 +10351,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>30</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10345,15 +10367,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>29</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>22860</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10367,15 +10389,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>30</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>32</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10391,13 +10413,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>23</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>25</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10417,7 +10439,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>26</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -10435,13 +10457,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>25</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>27</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10461,7 +10483,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>39</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -10483,7 +10505,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>40</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -10501,13 +10523,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>39</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>41</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10527,9 +10549,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>42</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10545,13 +10567,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>49</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>51</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10571,7 +10593,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>52</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -10589,13 +10611,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>51</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>53</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10615,9 +10637,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>54</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10633,13 +10655,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>55</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>57</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10659,7 +10681,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>58</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -10677,13 +10699,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>57</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>59</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10703,9 +10725,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>60</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10721,13 +10743,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>43</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>45</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10747,7 +10769,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>46</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -10765,13 +10787,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>45</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>47</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10791,9 +10813,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>48</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10807,43 +10829,43 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B5:J99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A41" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A32" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38:D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="4.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
-    <col min="8" max="8" width="3.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="4.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" customWidth="1"/>
+    <col min="8" max="8" width="3.5546875" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="53" t="s">
+    <row r="5" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-    </row>
-    <row r="6" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+    </row>
+    <row r="6" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -10853,76 +10875,76 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="19"/>
-      <c r="D7" s="54" t="str">
+      <c r="D7" s="67" t="str">
         <f>Plan1!B6</f>
         <v>Setembro</v>
       </c>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="55" t="str">
+      <c r="C8" s="96" t="str">
         <f>'2º Sem - Agosto'!C8:I8</f>
         <v>Otimização de processos e gestão de refeitórios com Machine Learning</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="55" t="str">
+      <c r="C9" s="96" t="str">
         <f>'2º Sem - Agosto'!C9:I9</f>
         <v>Engenharia da Computação</v>
       </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="96"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="55" t="str">
+      <c r="D10" s="96" t="str">
         <f>'2º Sem - Agosto'!D10:I10</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-    </row>
-    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+    </row>
+    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="66" t="str">
+      <c r="C12" s="93" t="str">
         <f>'2º Sem - Agosto'!C12:F12</f>
         <v>Igor Martins Ferreira</v>
       </c>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
       <c r="F12" s="98"/>
       <c r="G12" s="20" t="s">
         <v>6</v>
@@ -10930,16 +10952,16 @@
       <c r="H12" s="99"/>
       <c r="I12" s="100"/>
     </row>
-    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="60" t="str">
+      <c r="C13" s="62" t="str">
         <f>'2º Sem - Agosto'!C13:F13</f>
         <v>Lucas Silva Sousa</v>
       </c>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
       <c r="F13" s="101"/>
       <c r="G13" s="21" t="s">
         <v>6</v>
@@ -10947,16 +10969,16 @@
       <c r="H13" s="102"/>
       <c r="I13" s="103"/>
     </row>
-    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="62" t="str">
+      <c r="C14" s="90" t="str">
         <f>'2º Sem - Agosto'!C14:F14</f>
         <v>Renan Dias de Oliveira</v>
       </c>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
       <c r="F14" s="104"/>
       <c r="G14" s="22" t="s">
         <v>6</v>
@@ -10964,210 +10986,210 @@
       <c r="H14" s="105"/>
       <c r="I14" s="106"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="58" t="s">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-    </row>
-    <row r="17" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="48" t="s">
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+    </row>
+    <row r="17" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="50" t="s">
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="51"/>
-      <c r="G18" s="49" t="s">
+      <c r="F18" s="79"/>
+      <c r="G18" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="49"/>
-      <c r="I18" s="52"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="59" t="s">
+      <c r="H18" s="77"/>
+      <c r="I18" s="80"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
       <c r="E19" s="14"/>
       <c r="F19" s="15"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
       <c r="I19" s="63"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="59"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="61"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
       <c r="E20" s="8"/>
       <c r="F20" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
       <c r="I20" s="63"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="59"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="61"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
       <c r="I21" s="63"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="59"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="61"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
       <c r="I22" s="63"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="61"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="89"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="90"/>
       <c r="E23" s="10"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="64"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="65" t="s">
+      <c r="G23" s="90"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="91"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="92" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
       <c r="E24" s="12"/>
       <c r="F24" s="13"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="67"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="59"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="94"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="61"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
       <c r="E25" s="8"/>
       <c r="F25" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
       <c r="I25" s="63"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="59"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="61"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
       <c r="I26" s="63"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="59"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="61"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
       <c r="I27" s="63"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="61"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="89"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="90"/>
       <c r="E28" s="10"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="64"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="59" t="s">
+      <c r="G28" s="90"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="91"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
       <c r="E29" s="8"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
       <c r="I29" s="63"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="59"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="61"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G30" s="60"/>
-      <c r="H30" s="60"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
       <c r="I30" s="63"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="59"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="61"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G31" s="60"/>
-      <c r="H31" s="60"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
       <c r="I31" s="63"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="59"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="61"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
       <c r="E32" s="8"/>
       <c r="F32" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="60"/>
-      <c r="H32" s="60"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
       <c r="I32" s="63"/>
     </row>
-    <row r="33" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="68"/>
-      <c r="C33" s="69"/>
-      <c r="D33" s="69"/>
+    <row r="33" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="64"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
       <c r="E33" s="17"/>
       <c r="F33" s="18"/>
-      <c r="G33" s="69"/>
-      <c r="H33" s="69"/>
-      <c r="I33" s="70"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="66"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -11177,19 +11199,19 @@
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="58" t="s">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="58"/>
-    </row>
-    <row r="36" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="75"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="75"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="75"/>
+      <c r="I35" s="75"/>
+    </row>
+    <row r="36" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
@@ -11199,36 +11221,36 @@
       <c r="H36" s="16"/>
       <c r="I36" s="16"/>
     </row>
-    <row r="37" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="48" t="s">
+    <row r="37" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="50" t="s">
+      <c r="C37" s="77"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="F37" s="51"/>
-      <c r="G37" s="49" t="s">
+      <c r="F37" s="79"/>
+      <c r="G37" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="H37" s="49"/>
-      <c r="I37" s="52"/>
-    </row>
-    <row r="38" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="78" t="s">
+      <c r="H37" s="77"/>
+      <c r="I37" s="80"/>
+    </row>
+    <row r="38" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="79"/>
-      <c r="D38" s="79"/>
+      <c r="C38" s="82"/>
+      <c r="D38" s="82"/>
       <c r="E38" s="14"/>
       <c r="F38" s="15"/>
-      <c r="G38" s="79"/>
-      <c r="H38" s="79"/>
-      <c r="I38" s="81"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="80"/>
+      <c r="G38" s="82"/>
+      <c r="H38" s="82"/>
+      <c r="I38" s="84"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B39" s="83"/>
       <c r="C39" s="56"/>
       <c r="D39" s="56"/>
       <c r="E39" s="8"/>
@@ -11237,10 +11259,10 @@
       </c>
       <c r="G39" s="56"/>
       <c r="H39" s="56"/>
-      <c r="I39" s="82"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="80"/>
+      <c r="I39" s="85"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B40" s="83"/>
       <c r="C40" s="56"/>
       <c r="D40" s="56"/>
       <c r="E40" s="8"/>
@@ -11249,10 +11271,10 @@
       </c>
       <c r="G40" s="56"/>
       <c r="H40" s="56"/>
-      <c r="I40" s="82"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="80"/>
+      <c r="I40" s="85"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="83"/>
       <c r="C41" s="56"/>
       <c r="D41" s="56"/>
       <c r="E41" s="8"/>
@@ -11261,10 +11283,10 @@
       </c>
       <c r="G41" s="56"/>
       <c r="H41" s="56"/>
-      <c r="I41" s="82"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="80"/>
+      <c r="I41" s="85"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="83"/>
       <c r="C42" s="56"/>
       <c r="D42" s="56"/>
       <c r="E42" s="8"/>
@@ -11273,20 +11295,20 @@
       </c>
       <c r="G42" s="56"/>
       <c r="H42" s="56"/>
-      <c r="I42" s="82"/>
-    </row>
-    <row r="43" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="80"/>
+      <c r="I42" s="85"/>
+    </row>
+    <row r="43" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="83"/>
       <c r="C43" s="56"/>
       <c r="D43" s="56"/>
       <c r="E43" s="10"/>
       <c r="F43" s="11"/>
       <c r="G43" s="56"/>
       <c r="H43" s="56"/>
-      <c r="I43" s="82"/>
-    </row>
-    <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="80" t="s">
+      <c r="I43" s="85"/>
+    </row>
+    <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="83" t="s">
         <v>41</v>
       </c>
       <c r="C44" s="56"/>
@@ -11295,10 +11317,10 @@
       <c r="F44" s="7"/>
       <c r="G44" s="56"/>
       <c r="H44" s="56"/>
-      <c r="I44" s="82"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="80"/>
+      <c r="I44" s="85"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B45" s="83"/>
       <c r="C45" s="56"/>
       <c r="D45" s="56"/>
       <c r="E45" s="8"/>
@@ -11307,10 +11329,10 @@
       </c>
       <c r="G45" s="56"/>
       <c r="H45" s="56"/>
-      <c r="I45" s="82"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="80"/>
+      <c r="I45" s="85"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B46" s="83"/>
       <c r="C46" s="56"/>
       <c r="D46" s="56"/>
       <c r="E46" s="8"/>
@@ -11319,10 +11341,10 @@
       </c>
       <c r="G46" s="56"/>
       <c r="H46" s="56"/>
-      <c r="I46" s="82"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="80"/>
+      <c r="I46" s="85"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B47" s="83"/>
       <c r="C47" s="56"/>
       <c r="D47" s="56"/>
       <c r="E47" s="8"/>
@@ -11331,10 +11353,10 @@
       </c>
       <c r="G47" s="56"/>
       <c r="H47" s="56"/>
-      <c r="I47" s="82"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="80"/>
+      <c r="I47" s="85"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B48" s="83"/>
       <c r="C48" s="56"/>
       <c r="D48" s="56"/>
       <c r="E48" s="8"/>
@@ -11343,20 +11365,20 @@
       </c>
       <c r="G48" s="56"/>
       <c r="H48" s="56"/>
-      <c r="I48" s="82"/>
-    </row>
-    <row r="49" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="80"/>
+      <c r="I48" s="85"/>
+    </row>
+    <row r="49" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="83"/>
       <c r="C49" s="56"/>
       <c r="D49" s="56"/>
       <c r="E49" s="10"/>
       <c r="F49" s="11"/>
       <c r="G49" s="56"/>
       <c r="H49" s="56"/>
-      <c r="I49" s="82"/>
-    </row>
-    <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="80" t="s">
+      <c r="I49" s="85"/>
+    </row>
+    <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="83" t="s">
         <v>45</v>
       </c>
       <c r="C50" s="56"/>
@@ -11365,10 +11387,10 @@
       <c r="F50" s="7"/>
       <c r="G50" s="56"/>
       <c r="H50" s="56"/>
-      <c r="I50" s="82"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="80"/>
+      <c r="I50" s="85"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B51" s="83"/>
       <c r="C51" s="56"/>
       <c r="D51" s="56"/>
       <c r="E51" s="8"/>
@@ -11377,10 +11399,10 @@
       </c>
       <c r="G51" s="56"/>
       <c r="H51" s="56"/>
-      <c r="I51" s="82"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="80"/>
+      <c r="I51" s="85"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B52" s="83"/>
       <c r="C52" s="56"/>
       <c r="D52" s="56"/>
       <c r="E52" s="8"/>
@@ -11389,10 +11411,10 @@
       </c>
       <c r="G52" s="56"/>
       <c r="H52" s="56"/>
-      <c r="I52" s="82"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="80"/>
+      <c r="I52" s="85"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B53" s="83"/>
       <c r="C53" s="56"/>
       <c r="D53" s="56"/>
       <c r="E53" s="8"/>
@@ -11401,10 +11423,10 @@
       </c>
       <c r="G53" s="56"/>
       <c r="H53" s="56"/>
-      <c r="I53" s="82"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="80"/>
+      <c r="I53" s="85"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B54" s="83"/>
       <c r="C54" s="56"/>
       <c r="D54" s="56"/>
       <c r="E54" s="8"/>
@@ -11413,30 +11435,30 @@
       </c>
       <c r="G54" s="56"/>
       <c r="H54" s="56"/>
-      <c r="I54" s="82"/>
-    </row>
-    <row r="55" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="80"/>
+      <c r="I54" s="85"/>
+    </row>
+    <row r="55" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="83"/>
       <c r="C55" s="56"/>
       <c r="D55" s="56"/>
       <c r="E55" s="10"/>
       <c r="F55" s="11"/>
       <c r="G55" s="56"/>
       <c r="H55" s="56"/>
-      <c r="I55" s="82"/>
-    </row>
-    <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="80"/>
+      <c r="I55" s="85"/>
+    </row>
+    <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="83"/>
       <c r="C56" s="56"/>
       <c r="D56" s="56"/>
       <c r="E56" s="6"/>
       <c r="F56" s="7"/>
       <c r="G56" s="56"/>
       <c r="H56" s="56"/>
-      <c r="I56" s="82"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="80"/>
+      <c r="I56" s="85"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B57" s="83"/>
       <c r="C57" s="56"/>
       <c r="D57" s="56"/>
       <c r="E57" s="8"/>
@@ -11445,10 +11467,10 @@
       </c>
       <c r="G57" s="56"/>
       <c r="H57" s="56"/>
-      <c r="I57" s="82"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="80"/>
+      <c r="I57" s="85"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B58" s="83"/>
       <c r="C58" s="56"/>
       <c r="D58" s="56"/>
       <c r="E58" s="8"/>
@@ -11457,10 +11479,10 @@
       </c>
       <c r="G58" s="56"/>
       <c r="H58" s="56"/>
-      <c r="I58" s="82"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="80"/>
+      <c r="I58" s="85"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B59" s="83"/>
       <c r="C59" s="56"/>
       <c r="D59" s="56"/>
       <c r="E59" s="8"/>
@@ -11469,10 +11491,10 @@
       </c>
       <c r="G59" s="56"/>
       <c r="H59" s="56"/>
-      <c r="I59" s="82"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="80"/>
+      <c r="I59" s="85"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B60" s="83"/>
       <c r="C60" s="56"/>
       <c r="D60" s="56"/>
       <c r="E60" s="8"/>
@@ -11481,93 +11503,93 @@
       </c>
       <c r="G60" s="56"/>
       <c r="H60" s="56"/>
-      <c r="I60" s="82"/>
-    </row>
-    <row r="61" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="83"/>
-      <c r="C61" s="84"/>
-      <c r="D61" s="84"/>
+      <c r="I60" s="85"/>
+    </row>
+    <row r="61" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="86"/>
+      <c r="C61" s="87"/>
+      <c r="D61" s="87"/>
       <c r="E61" s="17"/>
       <c r="F61" s="18"/>
-      <c r="G61" s="84"/>
-      <c r="H61" s="84"/>
-      <c r="I61" s="85"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="58" t="s">
+      <c r="G61" s="87"/>
+      <c r="H61" s="87"/>
+      <c r="I61" s="88"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B63" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="58"/>
-      <c r="D63" s="58"/>
-      <c r="E63" s="58"/>
-      <c r="F63" s="58"/>
-      <c r="G63" s="58"/>
-      <c r="H63" s="58"/>
-      <c r="I63" s="58"/>
-    </row>
-    <row r="64" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B65" s="71" t="s">
+      <c r="C63" s="75"/>
+      <c r="D63" s="75"/>
+      <c r="E63" s="75"/>
+      <c r="F63" s="75"/>
+      <c r="G63" s="75"/>
+      <c r="H63" s="75"/>
+      <c r="I63" s="75"/>
+    </row>
+    <row r="64" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B65" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="C65" s="72"/>
-      <c r="D65" s="72"/>
-      <c r="E65" s="72"/>
-      <c r="F65" s="72"/>
-      <c r="G65" s="75" t="s">
+      <c r="C65" s="69"/>
+      <c r="D65" s="69"/>
+      <c r="E65" s="69"/>
+      <c r="F65" s="69"/>
+      <c r="G65" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="H65" s="75"/>
-      <c r="I65" s="76"/>
-    </row>
-    <row r="66" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="73"/>
-      <c r="C66" s="74"/>
-      <c r="D66" s="74"/>
-      <c r="E66" s="74"/>
-      <c r="F66" s="74"/>
-      <c r="G66" s="77" t="s">
+      <c r="H65" s="72"/>
+      <c r="I65" s="73"/>
+    </row>
+    <row r="66" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="70"/>
+      <c r="C66" s="71"/>
+      <c r="D66" s="71"/>
+      <c r="E66" s="71"/>
+      <c r="F66" s="71"/>
+      <c r="G66" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="H66" s="77"/>
+      <c r="H66" s="74"/>
       <c r="I66" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="78" t="s">
+    <row r="67" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="C67" s="79"/>
-      <c r="D67" s="79"/>
-      <c r="E67" s="79"/>
-      <c r="F67" s="79"/>
-      <c r="G67" s="79" t="s">
+      <c r="C67" s="82"/>
+      <c r="D67" s="82"/>
+      <c r="E67" s="82"/>
+      <c r="F67" s="82"/>
+      <c r="G67" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="H67" s="79"/>
+      <c r="H67" s="82"/>
       <c r="I67" s="25" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="80" t="s">
+    <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="83" t="s">
         <v>54</v>
       </c>
       <c r="C68" s="56"/>
       <c r="D68" s="56"/>
       <c r="E68" s="56"/>
       <c r="F68" s="56"/>
-      <c r="G68" s="79" t="s">
+      <c r="G68" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="H68" s="79"/>
+      <c r="H68" s="82"/>
       <c r="I68" s="47" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="80" t="s">
+    <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="83" t="s">
         <v>57</v>
       </c>
       <c r="C69" s="56"/>
@@ -11582,87 +11604,87 @@
         <v>35</v>
       </c>
     </row>
-    <row r="70" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="83" t="s">
+    <row r="70" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="C70" s="84"/>
-      <c r="D70" s="84"/>
-      <c r="E70" s="84"/>
-      <c r="F70" s="84"/>
-      <c r="G70" s="84" t="s">
+      <c r="C70" s="87"/>
+      <c r="D70" s="87"/>
+      <c r="E70" s="87"/>
+      <c r="F70" s="87"/>
+      <c r="G70" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="H70" s="84"/>
+      <c r="H70" s="87"/>
       <c r="I70" s="47" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="94" t="s">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B72" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="C72" s="94"/>
-      <c r="D72" s="94"/>
-      <c r="E72" s="94"/>
-      <c r="F72" s="94"/>
-      <c r="G72" s="94"/>
-      <c r="H72" s="94"/>
-      <c r="I72" s="94"/>
-    </row>
-    <row r="73" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B74" s="95" t="s">
+      <c r="C72" s="57"/>
+      <c r="D72" s="57"/>
+      <c r="E72" s="57"/>
+      <c r="F72" s="57"/>
+      <c r="G72" s="57"/>
+      <c r="H72" s="57"/>
+      <c r="I72" s="57"/>
+    </row>
+    <row r="73" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B74" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="C74" s="96"/>
-      <c r="D74" s="96"/>
-      <c r="E74" s="96"/>
-      <c r="F74" s="96"/>
-      <c r="G74" s="96"/>
-      <c r="H74" s="96"/>
-      <c r="I74" s="97"/>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="59"/>
-      <c r="C75" s="60"/>
-      <c r="D75" s="60"/>
-      <c r="E75" s="60"/>
-      <c r="F75" s="60"/>
-      <c r="G75" s="60"/>
-      <c r="H75" s="60"/>
+      <c r="C74" s="59"/>
+      <c r="D74" s="59"/>
+      <c r="E74" s="59"/>
+      <c r="F74" s="59"/>
+      <c r="G74" s="59"/>
+      <c r="H74" s="59"/>
+      <c r="I74" s="60"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B75" s="61"/>
+      <c r="C75" s="62"/>
+      <c r="D75" s="62"/>
+      <c r="E75" s="62"/>
+      <c r="F75" s="62"/>
+      <c r="G75" s="62"/>
+      <c r="H75" s="62"/>
       <c r="I75" s="63"/>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="59"/>
-      <c r="C76" s="60"/>
-      <c r="D76" s="60"/>
-      <c r="E76" s="60"/>
-      <c r="F76" s="60"/>
-      <c r="G76" s="60"/>
-      <c r="H76" s="60"/>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B76" s="61"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="62"/>
+      <c r="E76" s="62"/>
+      <c r="F76" s="62"/>
+      <c r="G76" s="62"/>
+      <c r="H76" s="62"/>
       <c r="I76" s="63"/>
     </row>
-    <row r="77" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="68"/>
-      <c r="C77" s="69"/>
-      <c r="D77" s="69"/>
-      <c r="E77" s="69"/>
-      <c r="F77" s="69"/>
-      <c r="G77" s="69"/>
-      <c r="H77" s="69"/>
-      <c r="I77" s="70"/>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G79" s="54" t="s">
+    <row r="77" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="64"/>
+      <c r="C77" s="65"/>
+      <c r="D77" s="65"/>
+      <c r="E77" s="65"/>
+      <c r="F77" s="65"/>
+      <c r="G77" s="65"/>
+      <c r="H77" s="65"/>
+      <c r="I77" s="66"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G79" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="H79" s="54"/>
+      <c r="H79" s="67"/>
       <c r="I79" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
@@ -11671,68 +11693,68 @@
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B82" s="86" t="str">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B82" s="48" t="str">
         <f>IF(D10=0,"Assinatura do(a) Orientador(a)",D10)</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="C82" s="86"/>
-      <c r="D82" s="86"/>
-      <c r="F82" s="87" t="s">
+      <c r="C82" s="48"/>
+      <c r="D82" s="48"/>
+      <c r="F82" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="G82" s="87"/>
-      <c r="H82" s="87"/>
-      <c r="I82" s="87"/>
-    </row>
-    <row r="84" spans="2:10" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="G82" s="49"/>
+      <c r="H82" s="49"/>
+      <c r="I82" s="49"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J84" s="23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C96" s="4"/>
-      <c r="D96" s="87"/>
-      <c r="E96" s="87"/>
-      <c r="F96" s="87"/>
+      <c r="D96" s="49"/>
+      <c r="E96" s="49"/>
+      <c r="F96" s="49"/>
       <c r="G96" s="4"/>
     </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
     </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
     </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
@@ -11745,19 +11767,28 @@
     <protectedRange sqref="B38:D55" name="Intervalo1_1"/>
   </protectedRanges>
   <mergeCells count="51">
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="F82:I82"/>
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="B72:I72"/>
-    <mergeCell ref="B74:I77"/>
-    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B19:D23"/>
+    <mergeCell ref="G19:I23"/>
+    <mergeCell ref="B24:D28"/>
+    <mergeCell ref="G24:I28"/>
+    <mergeCell ref="B29:D33"/>
+    <mergeCell ref="G29:I33"/>
     <mergeCell ref="B65:F66"/>
     <mergeCell ref="G65:I65"/>
     <mergeCell ref="G66:H66"/>
@@ -11774,28 +11805,19 @@
     <mergeCell ref="B63:I63"/>
     <mergeCell ref="B44:D49"/>
     <mergeCell ref="G44:I49"/>
-    <mergeCell ref="B19:D23"/>
-    <mergeCell ref="G19:I23"/>
-    <mergeCell ref="B24:D28"/>
-    <mergeCell ref="G24:I28"/>
-    <mergeCell ref="B29:D33"/>
-    <mergeCell ref="G29:I33"/>
-    <mergeCell ref="D96:F96"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="F82:I82"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="B72:I72"/>
+    <mergeCell ref="B74:I77"/>
+    <mergeCell ref="G79:H79"/>
   </mergeCells>
   <conditionalFormatting sqref="B7:I15">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
@@ -11831,13 +11853,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
+                    <xdr:rowOff>121920</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11853,13 +11875,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11879,9 +11901,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11901,9 +11923,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>30</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11917,15 +11939,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>29</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>22860</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11939,15 +11961,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>30</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>32</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11963,13 +11985,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>23</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>25</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11989,7 +12011,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>26</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -12007,13 +12029,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>25</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>27</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12033,7 +12055,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>39</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -12055,7 +12077,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>40</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -12073,13 +12095,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>39</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>41</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12099,9 +12121,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>42</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12117,13 +12139,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>49</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>51</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12143,7 +12165,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>52</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -12161,13 +12183,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>51</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>53</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12187,9 +12209,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>54</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12205,13 +12227,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>55</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>57</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12231,7 +12253,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>58</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -12249,13 +12271,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>57</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>59</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12275,9 +12297,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>60</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12293,13 +12315,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>43</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>45</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12319,7 +12341,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>46</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -12337,13 +12359,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>45</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>47</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12363,9 +12385,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>48</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12379,43 +12401,43 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B5:J85"/>
+  <dimension ref="B5:J79"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A59" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I63" sqref="I63"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A53" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L64" sqref="L64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="4.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
-    <col min="8" max="8" width="3.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="4.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" customWidth="1"/>
+    <col min="8" max="8" width="3.5546875" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="53" t="s">
+    <row r="5" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-    </row>
-    <row r="6" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+    </row>
+    <row r="6" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -12425,7 +12447,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>38</v>
       </c>
@@ -12437,7 +12459,7 @@
       <c r="H7" s="36"/>
       <c r="I7" s="36"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>2</v>
       </c>
@@ -12452,7 +12474,7 @@
       <c r="H8" s="107"/>
       <c r="I8" s="107"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>3</v>
       </c>
@@ -12467,7 +12489,7 @@
       <c r="H9" s="107"/>
       <c r="I9" s="107"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
@@ -12482,272 +12504,284 @@
       <c r="H10" s="107"/>
       <c r="I10" s="107"/>
     </row>
-    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="66" t="str">
+      <c r="C12" s="93" t="str">
         <f>'2º Sem - Setembro'!C12:F12</f>
         <v>Igor Martins Ferreira</v>
       </c>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="93"/>
       <c r="G12" s="20" t="s">
         <v>6</v>
       </c>
       <c r="H12" s="99"/>
       <c r="I12" s="100"/>
     </row>
-    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="60" t="str">
+      <c r="C13" s="62" t="str">
         <f>'2º Sem - Setembro'!C13:F13</f>
         <v>Lucas Silva Sousa</v>
       </c>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
       <c r="G13" s="21" t="s">
         <v>6</v>
       </c>
       <c r="H13" s="102"/>
       <c r="I13" s="103"/>
     </row>
-    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="60" t="str">
+      <c r="C14" s="62" t="str">
         <f>'2º Sem - Setembro'!C13:F13</f>
         <v>Lucas Silva Sousa</v>
       </c>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
       <c r="G14" s="21" t="s">
         <v>6</v>
       </c>
       <c r="H14" s="29"/>
       <c r="I14" s="30"/>
     </row>
-    <row r="15" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="62" t="str">
+      <c r="C15" s="90" t="str">
         <f>'2º Sem - Setembro'!C14:F14</f>
         <v>Renan Dias de Oliveira</v>
       </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
       <c r="G15" s="22" t="s">
         <v>6</v>
       </c>
       <c r="H15" s="105"/>
       <c r="I15" s="106"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="58" t="s">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-    </row>
-    <row r="18" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="48" t="s">
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+    </row>
+    <row r="18" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="50" t="s">
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="51"/>
-      <c r="G19" s="49" t="s">
+      <c r="F19" s="79"/>
+      <c r="G19" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="49"/>
-      <c r="I19" s="52"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="59"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="80"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
       <c r="E20" s="14"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
+      <c r="G20" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" s="62"/>
       <c r="I20" s="63"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="59"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="61"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
       <c r="I21" s="63"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="59"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="61"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
       <c r="I22" s="63"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="59"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="61"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
       <c r="E23" s="8"/>
       <c r="F23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
       <c r="I23" s="63"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="61"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="89"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="90"/>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="64"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="65"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="91"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="93"/>
+      <c r="D25" s="93"/>
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="67"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="59"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
+      <c r="G25" s="93" t="s">
+        <v>62</v>
+      </c>
+      <c r="H25" s="93"/>
+      <c r="I25" s="94"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="61"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
       <c r="I26" s="63"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="59"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="61"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
       <c r="I27" s="63"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="59"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="61"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
       <c r="E28" s="8"/>
       <c r="F28" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
       <c r="I28" s="63"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="61"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="89"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="90"/>
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="64"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="59"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
+      <c r="G29" s="90"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="91"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="60"/>
+      <c r="G30" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="H30" s="62"/>
       <c r="I30" s="63"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="59"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="61"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="60"/>
-      <c r="H31" s="60"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
       <c r="I31" s="63"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="59"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="61"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
       <c r="E32" s="8"/>
       <c r="F32" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="60"/>
-      <c r="H32" s="60"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
       <c r="I32" s="63"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="59"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="61"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
       <c r="E33" s="8"/>
       <c r="F33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="60"/>
-      <c r="H33" s="60"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
       <c r="I33" s="63"/>
     </row>
-    <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="68"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="69"/>
+    <row r="34" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="64"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="65"/>
       <c r="E34" s="17"/>
       <c r="F34" s="18"/>
-      <c r="G34" s="69"/>
-      <c r="H34" s="69"/>
-      <c r="I34" s="70"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G34" s="65"/>
+      <c r="H34" s="65"/>
+      <c r="I34" s="66"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -12757,19 +12791,19 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="58" t="s">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="58"/>
-    </row>
-    <row r="37" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="75"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="75"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="75"/>
+    </row>
+    <row r="37" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
@@ -12779,34 +12813,36 @@
       <c r="H37" s="16"/>
       <c r="I37" s="16"/>
     </row>
-    <row r="38" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="48" t="s">
+    <row r="38" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="50" t="s">
+      <c r="C38" s="77"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="51"/>
-      <c r="G38" s="49" t="s">
+      <c r="F38" s="79"/>
+      <c r="G38" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="49"/>
-      <c r="I38" s="52"/>
-    </row>
-    <row r="39" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="78"/>
-      <c r="C39" s="79"/>
-      <c r="D39" s="79"/>
+      <c r="H38" s="77"/>
+      <c r="I38" s="80"/>
+    </row>
+    <row r="39" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="82"/>
+      <c r="D39" s="82"/>
       <c r="E39" s="14"/>
       <c r="F39" s="15"/>
-      <c r="G39" s="79"/>
-      <c r="H39" s="79"/>
-      <c r="I39" s="81"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="80"/>
+      <c r="G39" s="82"/>
+      <c r="H39" s="82"/>
+      <c r="I39" s="84"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B40" s="83"/>
       <c r="C40" s="56"/>
       <c r="D40" s="56"/>
       <c r="E40" s="8"/>
@@ -12815,10 +12851,10 @@
       </c>
       <c r="G40" s="56"/>
       <c r="H40" s="56"/>
-      <c r="I40" s="82"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="80"/>
+      <c r="I40" s="85"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="83"/>
       <c r="C41" s="56"/>
       <c r="D41" s="56"/>
       <c r="E41" s="8"/>
@@ -12827,10 +12863,10 @@
       </c>
       <c r="G41" s="56"/>
       <c r="H41" s="56"/>
-      <c r="I41" s="82"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="80"/>
+      <c r="I41" s="85"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="83"/>
       <c r="C42" s="56"/>
       <c r="D42" s="56"/>
       <c r="E42" s="8"/>
@@ -12839,10 +12875,10 @@
       </c>
       <c r="G42" s="56"/>
       <c r="H42" s="56"/>
-      <c r="I42" s="82"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="80"/>
+      <c r="I42" s="85"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="83"/>
       <c r="C43" s="56"/>
       <c r="D43" s="56"/>
       <c r="E43" s="8"/>
@@ -12851,30 +12887,32 @@
       </c>
       <c r="G43" s="56"/>
       <c r="H43" s="56"/>
-      <c r="I43" s="82"/>
-    </row>
-    <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="80"/>
+      <c r="I43" s="85"/>
+    </row>
+    <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="83"/>
       <c r="C44" s="56"/>
       <c r="D44" s="56"/>
       <c r="E44" s="10"/>
       <c r="F44" s="11"/>
       <c r="G44" s="56"/>
       <c r="H44" s="56"/>
-      <c r="I44" s="82"/>
-    </row>
-    <row r="45" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="80"/>
+      <c r="I44" s="85"/>
+    </row>
+    <row r="45" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="83" t="s">
+        <v>41</v>
+      </c>
       <c r="C45" s="56"/>
       <c r="D45" s="56"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
       <c r="G45" s="56"/>
       <c r="H45" s="56"/>
-      <c r="I45" s="82"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="80"/>
+      <c r="I45" s="85"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B46" s="83"/>
       <c r="C46" s="56"/>
       <c r="D46" s="56"/>
       <c r="E46" s="8"/>
@@ -12883,10 +12921,10 @@
       </c>
       <c r="G46" s="56"/>
       <c r="H46" s="56"/>
-      <c r="I46" s="82"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="80"/>
+      <c r="I46" s="85"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B47" s="83"/>
       <c r="C47" s="56"/>
       <c r="D47" s="56"/>
       <c r="E47" s="8"/>
@@ -12895,10 +12933,10 @@
       </c>
       <c r="G47" s="56"/>
       <c r="H47" s="56"/>
-      <c r="I47" s="82"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="80"/>
+      <c r="I47" s="85"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B48" s="83"/>
       <c r="C48" s="56"/>
       <c r="D48" s="56"/>
       <c r="E48" s="8"/>
@@ -12907,10 +12945,10 @@
       </c>
       <c r="G48" s="56"/>
       <c r="H48" s="56"/>
-      <c r="I48" s="82"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="80"/>
+      <c r="I48" s="85"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B49" s="83"/>
       <c r="C49" s="56"/>
       <c r="D49" s="56"/>
       <c r="E49" s="8"/>
@@ -12919,30 +12957,32 @@
       </c>
       <c r="G49" s="56"/>
       <c r="H49" s="56"/>
-      <c r="I49" s="82"/>
-    </row>
-    <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="80"/>
+      <c r="I49" s="85"/>
+    </row>
+    <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="83"/>
       <c r="C50" s="56"/>
       <c r="D50" s="56"/>
       <c r="E50" s="10"/>
       <c r="F50" s="11"/>
       <c r="G50" s="56"/>
       <c r="H50" s="56"/>
-      <c r="I50" s="82"/>
-    </row>
-    <row r="51" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="80"/>
+      <c r="I50" s="85"/>
+    </row>
+    <row r="51" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="83" t="s">
+        <v>45</v>
+      </c>
       <c r="C51" s="56"/>
       <c r="D51" s="56"/>
       <c r="E51" s="6"/>
       <c r="F51" s="7"/>
       <c r="G51" s="56"/>
       <c r="H51" s="56"/>
-      <c r="I51" s="82"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="80"/>
+      <c r="I51" s="85"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B52" s="83"/>
       <c r="C52" s="56"/>
       <c r="D52" s="56"/>
       <c r="E52" s="8"/>
@@ -12951,10 +12991,10 @@
       </c>
       <c r="G52" s="56"/>
       <c r="H52" s="56"/>
-      <c r="I52" s="82"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="80"/>
+      <c r="I52" s="85"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B53" s="83"/>
       <c r="C53" s="56"/>
       <c r="D53" s="56"/>
       <c r="E53" s="8"/>
@@ -12963,10 +13003,10 @@
       </c>
       <c r="G53" s="56"/>
       <c r="H53" s="56"/>
-      <c r="I53" s="82"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="80"/>
+      <c r="I53" s="85"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B54" s="83"/>
       <c r="C54" s="56"/>
       <c r="D54" s="56"/>
       <c r="E54" s="8"/>
@@ -12975,10 +13015,10 @@
       </c>
       <c r="G54" s="56"/>
       <c r="H54" s="56"/>
-      <c r="I54" s="82"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="80"/>
+      <c r="I54" s="85"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B55" s="83"/>
       <c r="C55" s="56"/>
       <c r="D55" s="56"/>
       <c r="E55" s="8"/>
@@ -12987,297 +13027,202 @@
       </c>
       <c r="G55" s="56"/>
       <c r="H55" s="56"/>
-      <c r="I55" s="82"/>
-    </row>
-    <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="80"/>
+      <c r="I55" s="85"/>
+    </row>
+    <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="83"/>
       <c r="C56" s="56"/>
       <c r="D56" s="56"/>
       <c r="E56" s="10"/>
       <c r="F56" s="11"/>
       <c r="G56" s="56"/>
       <c r="H56" s="56"/>
-      <c r="I56" s="82"/>
-    </row>
-    <row r="57" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="80"/>
-      <c r="C57" s="56"/>
-      <c r="D57" s="56"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="56"/>
-      <c r="H57" s="56"/>
-      <c r="I57" s="82"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="80"/>
-      <c r="C58" s="56"/>
-      <c r="D58" s="56"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" s="56"/>
-      <c r="H58" s="56"/>
-      <c r="I58" s="82"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="80"/>
-      <c r="C59" s="56"/>
-      <c r="D59" s="56"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G59" s="56"/>
-      <c r="H59" s="56"/>
-      <c r="I59" s="82"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="80"/>
-      <c r="C60" s="56"/>
-      <c r="D60" s="56"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" s="56"/>
-      <c r="H60" s="56"/>
-      <c r="I60" s="82"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="80"/>
-      <c r="C61" s="56"/>
-      <c r="D61" s="56"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G61" s="56"/>
-      <c r="H61" s="56"/>
-      <c r="I61" s="82"/>
-    </row>
-    <row r="62" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="83"/>
-      <c r="C62" s="84"/>
-      <c r="D62" s="84"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="84"/>
-      <c r="H62" s="84"/>
-      <c r="I62" s="85"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="58" t="s">
+      <c r="I56" s="85"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B58" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="58"/>
-      <c r="D64" s="58"/>
-      <c r="E64" s="58"/>
-      <c r="F64" s="58"/>
-      <c r="G64" s="58"/>
-      <c r="H64" s="58"/>
-      <c r="I64" s="58"/>
-    </row>
-    <row r="65" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B66" s="71" t="s">
+      <c r="C58" s="75"/>
+      <c r="D58" s="75"/>
+      <c r="E58" s="75"/>
+      <c r="F58" s="75"/>
+      <c r="G58" s="75"/>
+      <c r="H58" s="75"/>
+      <c r="I58" s="75"/>
+    </row>
+    <row r="59" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B60" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="72"/>
-      <c r="D66" s="72"/>
-      <c r="E66" s="72"/>
-      <c r="F66" s="72"/>
-      <c r="G66" s="75" t="s">
+      <c r="C60" s="69"/>
+      <c r="D60" s="69"/>
+      <c r="E60" s="69"/>
+      <c r="F60" s="69"/>
+      <c r="G60" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="H66" s="75"/>
-      <c r="I66" s="76"/>
-    </row>
-    <row r="67" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="73"/>
-      <c r="C67" s="74"/>
-      <c r="D67" s="74"/>
-      <c r="E67" s="74"/>
-      <c r="F67" s="74"/>
-      <c r="G67" s="77" t="s">
+      <c r="H60" s="72"/>
+      <c r="I60" s="73"/>
+    </row>
+    <row r="61" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="70"/>
+      <c r="C61" s="71"/>
+      <c r="D61" s="71"/>
+      <c r="E61" s="71"/>
+      <c r="F61" s="71"/>
+      <c r="G61" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="H67" s="77"/>
-      <c r="I67" s="24" t="s">
+      <c r="H61" s="74"/>
+      <c r="I61" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="78"/>
-      <c r="C68" s="79"/>
-      <c r="D68" s="79"/>
-      <c r="E68" s="79"/>
-      <c r="F68" s="79"/>
-      <c r="G68" s="79"/>
-      <c r="H68" s="79"/>
-      <c r="I68" s="25"/>
-    </row>
-    <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="80"/>
-      <c r="C69" s="56"/>
-      <c r="D69" s="56"/>
-      <c r="E69" s="56"/>
-      <c r="F69" s="56"/>
-      <c r="G69" s="56"/>
-      <c r="H69" s="56"/>
-      <c r="I69" s="26"/>
-    </row>
-    <row r="70" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="80"/>
-      <c r="C70" s="56"/>
-      <c r="D70" s="56"/>
-      <c r="E70" s="56"/>
-      <c r="F70" s="56"/>
-      <c r="G70" s="56"/>
-      <c r="H70" s="56"/>
-      <c r="I70" s="26"/>
-    </row>
-    <row r="71" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="83"/>
-      <c r="C71" s="84"/>
-      <c r="D71" s="84"/>
-      <c r="E71" s="84"/>
-      <c r="F71" s="84"/>
-      <c r="G71" s="84"/>
-      <c r="H71" s="84"/>
-      <c r="I71" s="27"/>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="94" t="s">
+    <row r="62" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="81" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" s="82"/>
+      <c r="D62" s="82"/>
+      <c r="E62" s="82"/>
+      <c r="F62" s="82"/>
+      <c r="G62" s="82"/>
+      <c r="H62" s="82"/>
+      <c r="I62" s="25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="83"/>
+      <c r="C63" s="56"/>
+      <c r="D63" s="56"/>
+      <c r="E63" s="56"/>
+      <c r="F63" s="56"/>
+      <c r="G63" s="56"/>
+      <c r="H63" s="56"/>
+      <c r="I63" s="26"/>
+    </row>
+    <row r="64" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="83"/>
+      <c r="C64" s="56"/>
+      <c r="D64" s="56"/>
+      <c r="E64" s="56"/>
+      <c r="F64" s="56"/>
+      <c r="G64" s="56"/>
+      <c r="H64" s="56"/>
+      <c r="I64" s="26"/>
+    </row>
+    <row r="65" spans="2:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="86"/>
+      <c r="C65" s="87"/>
+      <c r="D65" s="87"/>
+      <c r="E65" s="87"/>
+      <c r="F65" s="87"/>
+      <c r="G65" s="87"/>
+      <c r="H65" s="87"/>
+      <c r="I65" s="27"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B67" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="94"/>
-      <c r="D73" s="94"/>
-      <c r="E73" s="94"/>
-      <c r="F73" s="94"/>
-      <c r="G73" s="94"/>
-      <c r="H73" s="94"/>
-      <c r="I73" s="94"/>
-    </row>
-    <row r="74" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="95"/>
-      <c r="C75" s="96"/>
-      <c r="D75" s="96"/>
-      <c r="E75" s="96"/>
-      <c r="F75" s="96"/>
-      <c r="G75" s="96"/>
-      <c r="H75" s="96"/>
-      <c r="I75" s="97"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="59"/>
-      <c r="C76" s="60"/>
-      <c r="D76" s="60"/>
-      <c r="E76" s="60"/>
-      <c r="F76" s="60"/>
-      <c r="G76" s="60"/>
-      <c r="H76" s="60"/>
-      <c r="I76" s="63"/>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B77" s="59"/>
-      <c r="C77" s="60"/>
-      <c r="D77" s="60"/>
-      <c r="E77" s="60"/>
-      <c r="F77" s="60"/>
-      <c r="G77" s="60"/>
-      <c r="H77" s="60"/>
-      <c r="I77" s="63"/>
-    </row>
-    <row r="78" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="68"/>
-      <c r="C78" s="69"/>
-      <c r="D78" s="69"/>
-      <c r="E78" s="69"/>
-      <c r="F78" s="69"/>
-      <c r="G78" s="69"/>
-      <c r="H78" s="69"/>
-      <c r="I78" s="70"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G80" s="54" t="s">
+      <c r="C67" s="57"/>
+      <c r="D67" s="57"/>
+      <c r="E67" s="57"/>
+      <c r="F67" s="57"/>
+      <c r="G67" s="57"/>
+      <c r="H67" s="57"/>
+      <c r="I67" s="57"/>
+    </row>
+    <row r="68" spans="2:10" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B69" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="C69" s="59"/>
+      <c r="D69" s="59"/>
+      <c r="E69" s="59"/>
+      <c r="F69" s="59"/>
+      <c r="G69" s="59"/>
+      <c r="H69" s="59"/>
+      <c r="I69" s="60"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B70" s="61"/>
+      <c r="C70" s="62"/>
+      <c r="D70" s="62"/>
+      <c r="E70" s="62"/>
+      <c r="F70" s="62"/>
+      <c r="G70" s="62"/>
+      <c r="H70" s="62"/>
+      <c r="I70" s="63"/>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B71" s="61"/>
+      <c r="C71" s="62"/>
+      <c r="D71" s="62"/>
+      <c r="E71" s="62"/>
+      <c r="F71" s="62"/>
+      <c r="G71" s="62"/>
+      <c r="H71" s="62"/>
+      <c r="I71" s="63"/>
+    </row>
+    <row r="72" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="64"/>
+      <c r="C72" s="65"/>
+      <c r="D72" s="65"/>
+      <c r="E72" s="65"/>
+      <c r="F72" s="65"/>
+      <c r="G72" s="65"/>
+      <c r="H72" s="65"/>
+      <c r="I72" s="66"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G74" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="H80" s="54"/>
-      <c r="I80" s="5" t="s">
+      <c r="H74" s="67"/>
+      <c r="I74" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B83" s="86" t="str">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B77" s="48" t="str">
         <f>IF(D10=0,"Assinatura do(a) Orientador(a)",D10)</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="C83" s="86"/>
-      <c r="D83" s="86"/>
-      <c r="F83" s="87" t="s">
+      <c r="C77" s="48"/>
+      <c r="D77" s="48"/>
+      <c r="F77" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="G83" s="87"/>
-      <c r="H83" s="87"/>
-      <c r="I83" s="87"/>
-    </row>
-    <row r="85" spans="2:10" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="J85" s="23" t="s">
+      <c r="G77" s="49"/>
+      <c r="H77" s="49"/>
+      <c r="I77" s="49"/>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J79" s="23" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="B20:D34 G20:I34 B68:I71 B75 B39:D62 G39:I62" name="Intervalo1"/>
+    <protectedRange sqref="B20:D34 G20:I34 B63:I65 B69 G39:I56 G62:I62" name="Intervalo1"/>
+    <protectedRange sqref="B39:D56" name="Intervalo1_1"/>
+    <protectedRange sqref="B62:F62" name="Intervalo1_2"/>
   </protectedRanges>
-  <mergeCells count="50">
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="F83:I83"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="B73:I73"/>
-    <mergeCell ref="B75:I78"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="B66:F67"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="B39:D44"/>
-    <mergeCell ref="G39:I44"/>
-    <mergeCell ref="B51:D56"/>
-    <mergeCell ref="G51:I56"/>
-    <mergeCell ref="B57:D62"/>
-    <mergeCell ref="G57:I62"/>
-    <mergeCell ref="B64:I64"/>
-    <mergeCell ref="B45:D50"/>
-    <mergeCell ref="G45:I50"/>
-    <mergeCell ref="B20:D24"/>
-    <mergeCell ref="G20:I24"/>
-    <mergeCell ref="B25:D29"/>
-    <mergeCell ref="G25:I29"/>
-    <mergeCell ref="B30:D34"/>
-    <mergeCell ref="G30:I34"/>
+  <mergeCells count="48">
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="G19:I19"/>
@@ -13293,13 +13238,46 @@
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="C14:F14"/>
+    <mergeCell ref="B20:D24"/>
+    <mergeCell ref="G20:I24"/>
+    <mergeCell ref="B25:D29"/>
+    <mergeCell ref="G25:I29"/>
+    <mergeCell ref="B30:D34"/>
+    <mergeCell ref="G30:I34"/>
+    <mergeCell ref="B60:F61"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="B39:D44"/>
+    <mergeCell ref="G39:I44"/>
+    <mergeCell ref="B51:D56"/>
+    <mergeCell ref="G51:I56"/>
+    <mergeCell ref="B58:I58"/>
+    <mergeCell ref="B45:D50"/>
+    <mergeCell ref="G45:I50"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="F77:I77"/>
+    <mergeCell ref="B62:F62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="B63:F63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="B65:F65"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="B67:I67"/>
+    <mergeCell ref="B69:I72"/>
+    <mergeCell ref="G74:H74"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:I16 B7:C7">
     <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B83:D83">
+  <conditionalFormatting sqref="B77:D77">
     <cfRule type="expression" priority="1">
       <formula>D10</formula>
     </cfRule>
@@ -13307,7 +13285,7 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" scale="96" orientation="portrait" verticalDpi="4294967294" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="62" max="9" man="1"/>
+    <brk id="56" max="9" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -13323,13 +13301,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
+                    <xdr:rowOff>121920</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13345,13 +13323,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13371,9 +13349,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>23</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13393,9 +13371,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13409,15 +13387,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>30</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>22860</xdr:colOff>
                     <xdr:row>32</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13431,15 +13409,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>33</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13455,13 +13433,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>24</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13481,7 +13459,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -13499,13 +13477,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>28</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13525,7 +13503,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>40</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -13547,7 +13525,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>41</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -13565,13 +13543,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>40</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>42</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13591,9 +13569,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>43</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13609,13 +13587,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>50</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>52</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13635,7 +13613,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>53</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -13653,13 +13631,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>52</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>54</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13679,9 +13657,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>55</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13697,13 +13675,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>56</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>58</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:row>57</xdr:row>
+                    <xdr:rowOff>91440</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13718,14 +13696,14 @@
                   <from>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>57</xdr:row>
-                    <xdr:rowOff>152400</xdr:rowOff>
+                    <xdr:row>56</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
-                    <xdr:row>59</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
+                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:row>57</xdr:row>
+                    <xdr:rowOff>68580</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13740,14 +13718,14 @@
                   <from>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>58</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:row>56</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>60</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:row>57</xdr:row>
+                    <xdr:rowOff>83820</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13762,14 +13740,14 @@
                   <from>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>59</xdr:row>
-                    <xdr:rowOff>152400</xdr:rowOff>
+                    <xdr:row>56</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>61</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:row>57</xdr:row>
+                    <xdr:rowOff>91440</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13785,13 +13763,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>44</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>46</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13811,9 +13789,9 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>47</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13829,13 +13807,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>46</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>48</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13855,9 +13833,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>49</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13871,7 +13849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
@@ -13881,33 +13859,33 @@
       <selection activeCell="B12" sqref="B12:I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="4.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
-    <col min="8" max="8" width="3.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="4.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" customWidth="1"/>
+    <col min="8" max="8" width="3.5546875" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="53" t="s">
+    <row r="5" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-    </row>
-    <row r="6" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+    </row>
+    <row r="6" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="32"/>
       <c r="C6" s="32"/>
       <c r="D6" s="32"/>
@@ -13917,19 +13895,19 @@
       <c r="H6" s="32"/>
       <c r="I6" s="32"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="54" t="s">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>2</v>
       </c>
@@ -13944,7 +13922,7 @@
       <c r="H8" s="107"/>
       <c r="I8" s="107"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>3</v>
       </c>
@@ -13959,7 +13937,7 @@
       <c r="H9" s="107"/>
       <c r="I9" s="107"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
@@ -13974,16 +13952,16 @@
       <c r="H10" s="107"/>
       <c r="I10" s="107"/>
     </row>
-    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="93"/>
       <c r="G12" s="20" t="s">
         <v>6</v>
       </c>
@@ -13992,16 +13970,16 @@
       </c>
       <c r="I12" s="100"/>
     </row>
-    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
       <c r="G13" s="21" t="s">
         <v>6</v>
       </c>
@@ -14010,16 +13988,16 @@
       </c>
       <c r="I13" s="103"/>
     </row>
-    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
       <c r="G14" s="21" t="s">
         <v>6</v>
       </c>
@@ -14028,223 +14006,223 @@
       </c>
       <c r="I14" s="103"/>
     </row>
-    <row r="15" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="62" t="str">
+      <c r="C15" s="90" t="str">
         <f>'2º Sem - Setembro'!C14:F14</f>
         <v>Renan Dias de Oliveira</v>
       </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
       <c r="G15" s="22" t="s">
         <v>6</v>
       </c>
       <c r="H15" s="105"/>
       <c r="I15" s="106"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="58" t="s">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-    </row>
-    <row r="18" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="48" t="s">
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+    </row>
+    <row r="18" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="50" t="s">
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="51"/>
-      <c r="G19" s="49" t="s">
+      <c r="F19" s="79"/>
+      <c r="G19" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="49"/>
-      <c r="I19" s="52"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="59"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="80"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="61"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
       <c r="E20" s="14"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
       <c r="I20" s="63"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="59"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="61"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
       <c r="I21" s="63"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="59"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="61"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
       <c r="I22" s="63"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="59"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="61"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
       <c r="E23" s="8"/>
       <c r="F23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
       <c r="I23" s="63"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="61"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="89"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="90"/>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="64"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="65"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="91"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="92"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="93"/>
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="67"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="59"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="93"/>
+      <c r="I25" s="94"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="61"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
       <c r="I26" s="63"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="59"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="61"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
       <c r="I27" s="63"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="59"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="61"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
       <c r="E28" s="8"/>
       <c r="F28" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
       <c r="I28" s="63"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="61"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="89"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="90"/>
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="64"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="59" t="s">
+      <c r="G29" s="90"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="91"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="60"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
       <c r="I30" s="63"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="59"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="61"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="60"/>
-      <c r="H31" s="60"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
       <c r="I31" s="63"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="59"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="61"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
       <c r="E32" s="8"/>
       <c r="F32" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="60"/>
-      <c r="H32" s="60"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
       <c r="I32" s="63"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="59"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="61"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
       <c r="E33" s="8"/>
       <c r="F33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="60"/>
-      <c r="H33" s="60"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
       <c r="I33" s="63"/>
     </row>
-    <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="68"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="69"/>
+    <row r="34" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="64"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="65"/>
       <c r="E34" s="17"/>
       <c r="F34" s="18"/>
-      <c r="G34" s="69"/>
-      <c r="H34" s="69"/>
-      <c r="I34" s="70"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G34" s="65"/>
+      <c r="H34" s="65"/>
+      <c r="I34" s="66"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -14254,19 +14232,19 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="58" t="s">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="58"/>
-    </row>
-    <row r="37" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="75"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="75"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="75"/>
+    </row>
+    <row r="37" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="31"/>
       <c r="C37" s="31"/>
       <c r="D37" s="31"/>
@@ -14276,36 +14254,36 @@
       <c r="H37" s="31"/>
       <c r="I37" s="31"/>
     </row>
-    <row r="38" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="48" t="s">
+    <row r="38" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="50" t="s">
+      <c r="C38" s="77"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="51"/>
-      <c r="G38" s="49" t="s">
+      <c r="F38" s="79"/>
+      <c r="G38" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="49"/>
-      <c r="I38" s="52"/>
-    </row>
-    <row r="39" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="78" t="s">
+      <c r="H38" s="77"/>
+      <c r="I38" s="80"/>
+    </row>
+    <row r="39" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="79"/>
-      <c r="D39" s="79"/>
+      <c r="C39" s="82"/>
+      <c r="D39" s="82"/>
       <c r="E39" s="14"/>
       <c r="F39" s="15"/>
-      <c r="G39" s="79"/>
-      <c r="H39" s="79"/>
-      <c r="I39" s="81"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="80"/>
+      <c r="G39" s="82"/>
+      <c r="H39" s="82"/>
+      <c r="I39" s="84"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B40" s="83"/>
       <c r="C40" s="56"/>
       <c r="D40" s="56"/>
       <c r="E40" s="8"/>
@@ -14314,10 +14292,10 @@
       </c>
       <c r="G40" s="56"/>
       <c r="H40" s="56"/>
-      <c r="I40" s="82"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="80"/>
+      <c r="I40" s="85"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="83"/>
       <c r="C41" s="56"/>
       <c r="D41" s="56"/>
       <c r="E41" s="8"/>
@@ -14326,10 +14304,10 @@
       </c>
       <c r="G41" s="56"/>
       <c r="H41" s="56"/>
-      <c r="I41" s="82"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="80"/>
+      <c r="I41" s="85"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="83"/>
       <c r="C42" s="56"/>
       <c r="D42" s="56"/>
       <c r="E42" s="8"/>
@@ -14338,10 +14316,10 @@
       </c>
       <c r="G42" s="56"/>
       <c r="H42" s="56"/>
-      <c r="I42" s="82"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="80"/>
+      <c r="I42" s="85"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="83"/>
       <c r="C43" s="56"/>
       <c r="D43" s="56"/>
       <c r="E43" s="8"/>
@@ -14350,170 +14328,170 @@
       </c>
       <c r="G43" s="56"/>
       <c r="H43" s="56"/>
-      <c r="I43" s="82"/>
-    </row>
-    <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="80"/>
+      <c r="I43" s="85"/>
+    </row>
+    <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="83"/>
       <c r="C44" s="56"/>
       <c r="D44" s="56"/>
       <c r="E44" s="10"/>
       <c r="F44" s="11"/>
       <c r="G44" s="56"/>
       <c r="H44" s="56"/>
-      <c r="I44" s="82"/>
-    </row>
-    <row r="45" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="65" t="s">
+      <c r="I44" s="85"/>
+    </row>
+    <row r="45" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="66"/>
+      <c r="C45" s="93"/>
       <c r="D45" s="98"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
       <c r="G45" s="108"/>
-      <c r="H45" s="66"/>
-      <c r="I45" s="67"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="59"/>
-      <c r="C46" s="60"/>
+      <c r="H45" s="93"/>
+      <c r="I45" s="94"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B46" s="61"/>
+      <c r="C46" s="62"/>
       <c r="D46" s="101"/>
       <c r="E46" s="8"/>
       <c r="F46" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G46" s="109"/>
-      <c r="H46" s="60"/>
+      <c r="H46" s="62"/>
       <c r="I46" s="63"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="59"/>
-      <c r="C47" s="60"/>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B47" s="61"/>
+      <c r="C47" s="62"/>
       <c r="D47" s="101"/>
       <c r="E47" s="8"/>
       <c r="F47" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G47" s="109"/>
-      <c r="H47" s="60"/>
+      <c r="H47" s="62"/>
       <c r="I47" s="63"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="59"/>
-      <c r="C48" s="60"/>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B48" s="61"/>
+      <c r="C48" s="62"/>
       <c r="D48" s="101"/>
       <c r="E48" s="8"/>
       <c r="F48" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G48" s="109"/>
-      <c r="H48" s="60"/>
+      <c r="H48" s="62"/>
       <c r="I48" s="63"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="59"/>
-      <c r="C49" s="60"/>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B49" s="61"/>
+      <c r="C49" s="62"/>
       <c r="D49" s="101"/>
       <c r="E49" s="8"/>
       <c r="F49" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G49" s="109"/>
-      <c r="H49" s="60"/>
+      <c r="H49" s="62"/>
       <c r="I49" s="63"/>
     </row>
-    <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="61"/>
-      <c r="C50" s="62"/>
+    <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="89"/>
+      <c r="C50" s="90"/>
       <c r="D50" s="104"/>
       <c r="E50" s="10"/>
       <c r="F50" s="11"/>
       <c r="G50" s="110"/>
-      <c r="H50" s="62"/>
-      <c r="I50" s="64"/>
-    </row>
-    <row r="51" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="65" t="s">
+      <c r="H50" s="90"/>
+      <c r="I50" s="91"/>
+    </row>
+    <row r="51" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="66"/>
+      <c r="C51" s="93"/>
       <c r="D51" s="98"/>
       <c r="E51" s="6"/>
       <c r="F51" s="7"/>
       <c r="G51" s="108"/>
-      <c r="H51" s="66"/>
-      <c r="I51" s="67"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="59"/>
-      <c r="C52" s="60"/>
+      <c r="H51" s="93"/>
+      <c r="I51" s="94"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B52" s="61"/>
+      <c r="C52" s="62"/>
       <c r="D52" s="101"/>
       <c r="E52" s="8"/>
       <c r="F52" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G52" s="109"/>
-      <c r="H52" s="60"/>
+      <c r="H52" s="62"/>
       <c r="I52" s="63"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="59"/>
-      <c r="C53" s="60"/>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B53" s="61"/>
+      <c r="C53" s="62"/>
       <c r="D53" s="101"/>
       <c r="E53" s="8"/>
       <c r="F53" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G53" s="109"/>
-      <c r="H53" s="60"/>
+      <c r="H53" s="62"/>
       <c r="I53" s="63"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="59"/>
-      <c r="C54" s="60"/>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B54" s="61"/>
+      <c r="C54" s="62"/>
       <c r="D54" s="101"/>
       <c r="E54" s="8"/>
       <c r="F54" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G54" s="109"/>
-      <c r="H54" s="60"/>
+      <c r="H54" s="62"/>
       <c r="I54" s="63"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="59"/>
-      <c r="C55" s="60"/>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B55" s="61"/>
+      <c r="C55" s="62"/>
       <c r="D55" s="101"/>
       <c r="E55" s="8"/>
       <c r="F55" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G55" s="109"/>
-      <c r="H55" s="60"/>
+      <c r="H55" s="62"/>
       <c r="I55" s="63"/>
     </row>
-    <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="61"/>
-      <c r="C56" s="62"/>
+    <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="89"/>
+      <c r="C56" s="90"/>
       <c r="D56" s="104"/>
       <c r="E56" s="10"/>
       <c r="F56" s="11"/>
       <c r="G56" s="110"/>
-      <c r="H56" s="62"/>
-      <c r="I56" s="64"/>
-    </row>
-    <row r="57" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="80"/>
+      <c r="H56" s="90"/>
+      <c r="I56" s="91"/>
+    </row>
+    <row r="57" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="83"/>
       <c r="C57" s="56"/>
       <c r="D57" s="56"/>
       <c r="E57" s="6"/>
       <c r="F57" s="7"/>
       <c r="G57" s="56"/>
       <c r="H57" s="56"/>
-      <c r="I57" s="82"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="80"/>
+      <c r="I57" s="85"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B58" s="83"/>
       <c r="C58" s="56"/>
       <c r="D58" s="56"/>
       <c r="E58" s="8"/>
@@ -14522,10 +14500,10 @@
       </c>
       <c r="G58" s="56"/>
       <c r="H58" s="56"/>
-      <c r="I58" s="82"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="80"/>
+      <c r="I58" s="85"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B59" s="83"/>
       <c r="C59" s="56"/>
       <c r="D59" s="56"/>
       <c r="E59" s="8"/>
@@ -14534,10 +14512,10 @@
       </c>
       <c r="G59" s="56"/>
       <c r="H59" s="56"/>
-      <c r="I59" s="82"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="80"/>
+      <c r="I59" s="85"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B60" s="83"/>
       <c r="C60" s="56"/>
       <c r="D60" s="56"/>
       <c r="E60" s="8"/>
@@ -14546,10 +14524,10 @@
       </c>
       <c r="G60" s="56"/>
       <c r="H60" s="56"/>
-      <c r="I60" s="82"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="80"/>
+      <c r="I60" s="85"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B61" s="83"/>
       <c r="C61" s="56"/>
       <c r="D61" s="56"/>
       <c r="E61" s="8"/>
@@ -14558,71 +14536,71 @@
       </c>
       <c r="G61" s="56"/>
       <c r="H61" s="56"/>
-      <c r="I61" s="82"/>
-    </row>
-    <row r="62" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="83"/>
-      <c r="C62" s="84"/>
-      <c r="D62" s="84"/>
+      <c r="I61" s="85"/>
+    </row>
+    <row r="62" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="86"/>
+      <c r="C62" s="87"/>
+      <c r="D62" s="87"/>
       <c r="E62" s="17"/>
       <c r="F62" s="18"/>
-      <c r="G62" s="84"/>
-      <c r="H62" s="84"/>
-      <c r="I62" s="85"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="58" t="s">
+      <c r="G62" s="87"/>
+      <c r="H62" s="87"/>
+      <c r="I62" s="88"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B64" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="58"/>
-      <c r="D64" s="58"/>
-      <c r="E64" s="58"/>
-      <c r="F64" s="58"/>
-      <c r="G64" s="58"/>
-      <c r="H64" s="58"/>
-      <c r="I64" s="58"/>
-    </row>
-    <row r="65" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B66" s="71" t="s">
+      <c r="C64" s="75"/>
+      <c r="D64" s="75"/>
+      <c r="E64" s="75"/>
+      <c r="F64" s="75"/>
+      <c r="G64" s="75"/>
+      <c r="H64" s="75"/>
+      <c r="I64" s="75"/>
+    </row>
+    <row r="65" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B66" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="72"/>
-      <c r="D66" s="72"/>
-      <c r="E66" s="72"/>
-      <c r="F66" s="72"/>
-      <c r="G66" s="75" t="s">
+      <c r="C66" s="69"/>
+      <c r="D66" s="69"/>
+      <c r="E66" s="69"/>
+      <c r="F66" s="69"/>
+      <c r="G66" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="H66" s="75"/>
-      <c r="I66" s="76"/>
-    </row>
-    <row r="67" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="73"/>
-      <c r="C67" s="74"/>
-      <c r="D67" s="74"/>
-      <c r="E67" s="74"/>
-      <c r="F67" s="74"/>
-      <c r="G67" s="77" t="s">
+      <c r="H66" s="72"/>
+      <c r="I66" s="73"/>
+    </row>
+    <row r="67" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="70"/>
+      <c r="C67" s="71"/>
+      <c r="D67" s="71"/>
+      <c r="E67" s="71"/>
+      <c r="F67" s="71"/>
+      <c r="G67" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="H67" s="77"/>
+      <c r="H67" s="74"/>
       <c r="I67" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="78"/>
-      <c r="C68" s="79"/>
-      <c r="D68" s="79"/>
-      <c r="E68" s="79"/>
-      <c r="F68" s="79"/>
-      <c r="G68" s="79"/>
-      <c r="H68" s="79"/>
+    <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="81"/>
+      <c r="C68" s="82"/>
+      <c r="D68" s="82"/>
+      <c r="E68" s="82"/>
+      <c r="F68" s="82"/>
+      <c r="G68" s="82"/>
+      <c r="H68" s="82"/>
       <c r="I68" s="33"/>
     </row>
-    <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="80"/>
+    <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="83"/>
       <c r="C69" s="56"/>
       <c r="D69" s="56"/>
       <c r="E69" s="56"/>
@@ -14631,8 +14609,8 @@
       <c r="H69" s="56"/>
       <c r="I69" s="34"/>
     </row>
-    <row r="70" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="80"/>
+    <row r="70" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="83"/>
       <c r="C70" s="56"/>
       <c r="D70" s="56"/>
       <c r="E70" s="56"/>
@@ -14641,79 +14619,79 @@
       <c r="H70" s="56"/>
       <c r="I70" s="34"/>
     </row>
-    <row r="71" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="83"/>
-      <c r="C71" s="84"/>
-      <c r="D71" s="84"/>
-      <c r="E71" s="84"/>
-      <c r="F71" s="84"/>
-      <c r="G71" s="84"/>
-      <c r="H71" s="84"/>
+    <row r="71" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="86"/>
+      <c r="C71" s="87"/>
+      <c r="D71" s="87"/>
+      <c r="E71" s="87"/>
+      <c r="F71" s="87"/>
+      <c r="G71" s="87"/>
+      <c r="H71" s="87"/>
       <c r="I71" s="35"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="94" t="s">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B73" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="94"/>
-      <c r="D73" s="94"/>
-      <c r="E73" s="94"/>
-      <c r="F73" s="94"/>
-      <c r="G73" s="94"/>
-      <c r="H73" s="94"/>
-      <c r="I73" s="94"/>
-    </row>
-    <row r="74" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="95"/>
-      <c r="C75" s="96"/>
-      <c r="D75" s="96"/>
-      <c r="E75" s="96"/>
-      <c r="F75" s="96"/>
-      <c r="G75" s="96"/>
-      <c r="H75" s="96"/>
-      <c r="I75" s="97"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="59"/>
-      <c r="C76" s="60"/>
-      <c r="D76" s="60"/>
-      <c r="E76" s="60"/>
-      <c r="F76" s="60"/>
-      <c r="G76" s="60"/>
-      <c r="H76" s="60"/>
+      <c r="C73" s="57"/>
+      <c r="D73" s="57"/>
+      <c r="E73" s="57"/>
+      <c r="F73" s="57"/>
+      <c r="G73" s="57"/>
+      <c r="H73" s="57"/>
+      <c r="I73" s="57"/>
+    </row>
+    <row r="74" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B75" s="58"/>
+      <c r="C75" s="59"/>
+      <c r="D75" s="59"/>
+      <c r="E75" s="59"/>
+      <c r="F75" s="59"/>
+      <c r="G75" s="59"/>
+      <c r="H75" s="59"/>
+      <c r="I75" s="60"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B76" s="61"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="62"/>
+      <c r="E76" s="62"/>
+      <c r="F76" s="62"/>
+      <c r="G76" s="62"/>
+      <c r="H76" s="62"/>
       <c r="I76" s="63"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B77" s="59"/>
-      <c r="C77" s="60"/>
-      <c r="D77" s="60"/>
-      <c r="E77" s="60"/>
-      <c r="F77" s="60"/>
-      <c r="G77" s="60"/>
-      <c r="H77" s="60"/>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B77" s="61"/>
+      <c r="C77" s="62"/>
+      <c r="D77" s="62"/>
+      <c r="E77" s="62"/>
+      <c r="F77" s="62"/>
+      <c r="G77" s="62"/>
+      <c r="H77" s="62"/>
       <c r="I77" s="63"/>
     </row>
-    <row r="78" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="68"/>
-      <c r="C78" s="69"/>
-      <c r="D78" s="69"/>
-      <c r="E78" s="69"/>
-      <c r="F78" s="69"/>
-      <c r="G78" s="69"/>
-      <c r="H78" s="69"/>
-      <c r="I78" s="70"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G80" s="54" t="s">
+    <row r="78" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="64"/>
+      <c r="C78" s="65"/>
+      <c r="D78" s="65"/>
+      <c r="E78" s="65"/>
+      <c r="F78" s="65"/>
+      <c r="G78" s="65"/>
+      <c r="H78" s="65"/>
+      <c r="I78" s="66"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G80" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="H80" s="54"/>
+      <c r="H80" s="67"/>
       <c r="I80" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
@@ -14722,21 +14700,21 @@
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B83" s="86" t="str">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B83" s="48" t="str">
         <f>IF(D10=0,"Assinatura do(a) Orientador(a)",D10)</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="C83" s="86"/>
-      <c r="D83" s="86"/>
-      <c r="F83" s="87" t="s">
+      <c r="C83" s="48"/>
+      <c r="D83" s="48"/>
+      <c r="F83" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="G83" s="87"/>
-      <c r="H83" s="87"/>
-      <c r="I83" s="87"/>
-    </row>
-    <row r="85" spans="2:10" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="G83" s="49"/>
+      <c r="H83" s="49"/>
+      <c r="I83" s="49"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J85" s="23" t="s">
         <v>37</v>
       </c>
@@ -14746,6 +14724,44 @@
     <protectedRange sqref="B20:D34 G20:I34 B68:I71 B75 B39:D62 G39:I62" name="Intervalo1"/>
   </protectedRanges>
   <mergeCells count="52">
+    <mergeCell ref="B73:I73"/>
+    <mergeCell ref="B75:I78"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="B39:D44"/>
+    <mergeCell ref="G39:I44"/>
+    <mergeCell ref="B51:D56"/>
+    <mergeCell ref="G51:I56"/>
+    <mergeCell ref="B57:D62"/>
+    <mergeCell ref="G57:I62"/>
+    <mergeCell ref="B45:D50"/>
+    <mergeCell ref="G45:I50"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="B64:I64"/>
+    <mergeCell ref="B66:F67"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B20:D24"/>
+    <mergeCell ref="G20:I24"/>
+    <mergeCell ref="B25:D29"/>
+    <mergeCell ref="G25:I29"/>
+    <mergeCell ref="B30:D34"/>
+    <mergeCell ref="G30:I34"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F38"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="B5:I5"/>
     <mergeCell ref="C8:I8"/>
@@ -14760,44 +14776,6 @@
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="B7:I7"/>
     <mergeCell ref="H14:I14"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B20:D24"/>
-    <mergeCell ref="G20:I24"/>
-    <mergeCell ref="B25:D29"/>
-    <mergeCell ref="G25:I29"/>
-    <mergeCell ref="B30:D34"/>
-    <mergeCell ref="G30:I34"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="B64:I64"/>
-    <mergeCell ref="B66:F67"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="B39:D44"/>
-    <mergeCell ref="G39:I44"/>
-    <mergeCell ref="B51:D56"/>
-    <mergeCell ref="G51:I56"/>
-    <mergeCell ref="B57:D62"/>
-    <mergeCell ref="G57:I62"/>
-    <mergeCell ref="B45:D50"/>
-    <mergeCell ref="G45:I50"/>
-    <mergeCell ref="B73:I73"/>
-    <mergeCell ref="B75:I78"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="F83:I83"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:I13 B7 B15:I16 B14:H14">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
@@ -14825,13 +14803,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
+                    <xdr:rowOff>121920</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14847,13 +14825,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14873,9 +14851,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>23</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14895,9 +14873,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14911,15 +14889,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>30</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>22860</xdr:colOff>
                     <xdr:row>32</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14933,15 +14911,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>33</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14957,13 +14935,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>24</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14983,7 +14961,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -15001,13 +14979,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>28</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15027,9 +15005,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>39</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15049,7 +15027,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>41</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -15067,13 +15045,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>40</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>42</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15093,9 +15071,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>43</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15111,13 +15089,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>50</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>51</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15137,7 +15115,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>53</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -15155,13 +15133,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>52</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>54</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15181,9 +15159,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>55</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15199,11 +15177,11 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>56</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>57</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </to>
@@ -15225,7 +15203,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>59</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -15243,13 +15221,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>58</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>60</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15269,9 +15247,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>61</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15287,13 +15265,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>44</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>45</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15313,7 +15291,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>47</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -15331,13 +15309,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>46</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>48</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15357,9 +15335,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>49</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15373,41 +15351,41 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>35</v>
       </c>
@@ -15418,29 +15396,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Procedimento_x0020_Relacionado xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47"/>
-    <Processo xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47">55</Processo>
-    <C_x00f3_digo xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47">FSA - FTT18</C_x00f3_digo>
-    <Revis_x00e3_o xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47">4</Revis_x00e3_o>
-    <Diretoria_x0020_Respons_x00e1_vel xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47">2</Diretoria_x0020_Respons_x00e1_vel>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100951F864CA035244EB7F6E6B9CAD39DD8" ma:contentTypeVersion="28" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="4d3f40bcd57f6f3788c6a2039c87841b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="ce03834f-a579-4ecb-b47e-e136bae11e47" xmlns:ns3="948e1b9c-bee8-44de-8cc6-706e5b780eae" xmlns:ns4="feadaf30-646e-4180-8499-c12b20b15a5f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f3c3814524ee6e7ba98c66e9da7e66bc" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -15697,34 +15652,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCF4BCC7-3A0E-4F11-8315-9CA8DFA05F4F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="ce03834f-a579-4ecb-b47e-e136bae11e47"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="feadaf30-646e-4180-8499-c12b20b15a5f"/>
-    <ds:schemaRef ds:uri="948e1b9c-bee8-44de-8cc6-706e5b780eae"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAF40381-23F2-4A89-8986-B9057472B1AD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Procedimento_x0020_Relacionado xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47"/>
+    <Processo xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47">55</Processo>
+    <C_x00f3_digo xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47">FSA - FTT18</C_x00f3_digo>
+    <Revis_x00e3_o xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47">4</Revis_x00e3_o>
+    <Diretoria_x0020_Respons_x00e1_vel xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47">2</Diretoria_x0020_Respons_x00e1_vel>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DEC6A78-1548-46C1-A293-FB862F1C8C0C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15743,4 +15694,31 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAF40381-23F2-4A89-8986-B9057472B1AD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCF4BCC7-3A0E-4F11-8315-9CA8DFA05F4F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="ce03834f-a579-4ecb-b47e-e136bae11e47"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="feadaf30-646e-4180-8499-c12b20b15a5f"/>
+    <ds:schemaRef ds:uri="948e1b9c-bee8-44de-8cc6-706e5b780eae"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>